--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8CE722-75C7-4A0D-A7E4-8DDF44BF4D4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CDDBE5-3B30-45A8-A569-D5908102FDFD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>SimulationName</t>
   </si>
@@ -261,6 +261,87 @@
   </si>
   <si>
     <t>Soybean.Leaf.AppearedCohortNo</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.EmergenceDAS</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.FloweringDAS</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.MaturityDAS</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvTrial_MG00</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvLambert_MG0</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvIA1006_MG01</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvIA2008_MG02</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvMacon_MG03</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvPioneer94B01_MG04</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvHutcheson_MG05</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvNK622_MG06</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvTrial_MG00</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvLambert_MG0</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvIA1006_MG01</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvIA2008_MG02</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvMacon_MG03</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvPioneer94B01_MG04</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvHutcheson_MG05</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvNK622_MG06</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvTrial_MG00</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvLambert_MG0</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvIA1006_MG01</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvIA2008_MG02</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvMacon_MG03</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvPioneer94B01_MG04</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvHutcheson_MG05</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvNK622_MG06</t>
   </si>
 </sst>
 </file>
@@ -296,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -306,6 +387,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,29 +1413,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
-  <dimension ref="A1:BQ22"/>
+  <dimension ref="A1:BT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.89453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.05078125" customWidth="1"/>
-    <col min="8" max="8" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.05078125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.83984375" customWidth="1"/>
+    <col min="3" max="6" width="12.05078125" customWidth="1"/>
+    <col min="11" max="11" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.05078125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1362,205 +1446,214 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1568,119 +1661,122 @@
         <v>42895</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2">
         <v>31.666666670000001</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>31.333333329999999</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.18906666699999999</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>26.54399239</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>7.4</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>7.4</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>12.3</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>4.6311446829999996</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>2.0514227950000001</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>0.34375607200000002</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>0.101174293</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>0.44493036499999999</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <v>1.8991813280000001</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <v>26543.992389999999</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <v>26543.992389999999</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <v>187.7777778</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <v>71.666666669999998</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <v>6.5064070989999996</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <v>3.9638261000000001E-2</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
         <v>9.3893029850000005</v>
       </c>
-      <c r="AQ2">
+      <c r="AT2">
         <v>1.3228756559999999</v>
       </c>
-      <c r="AS2">
+      <c r="AV2">
         <v>1.3228756559999999</v>
       </c>
-      <c r="AT2">
+      <c r="AW2">
         <v>1.276714533</v>
       </c>
-      <c r="AX2">
+      <c r="BA2">
         <v>25.94224354</v>
       </c>
-      <c r="AY2">
+      <c r="BB2">
         <v>0.30950257399999997</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <v>9.1647271000000002E-2</v>
       </c>
-      <c r="BE2">
+      <c r="BH2">
         <v>7.4699906999999996E-2</v>
       </c>
-      <c r="BG2">
+      <c r="BJ2">
         <v>3.0704688000000001E-2</v>
       </c>
-      <c r="BK2">
+      <c r="BN2">
         <v>0.104369884</v>
       </c>
-      <c r="BL2">
+      <c r="BO2">
         <v>0.70476370899999996</v>
       </c>
-      <c r="BM2">
+      <c r="BP2">
         <v>9389.3029850000003</v>
       </c>
-      <c r="BN2">
+      <c r="BQ2">
         <v>9389.3029850000003</v>
       </c>
-      <c r="BO2">
+      <c r="BR2">
         <v>22.194427059999999</v>
       </c>
-      <c r="BP2">
+      <c r="BS2">
         <v>10.92576008</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1688,122 +1784,125 @@
         <v>42909</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3">
         <v>32.333333330000002</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>31.666666670000001</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>6.3333333329999997</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>1.063767667</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>26.039953109999999</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>29.06666667</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>29.06666667</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>21.233333330000001</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>50.3</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>5.0692481989999996</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>1.8245937029999999</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>1.476158393</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>0.38724224699999998</v>
       </c>
-      <c r="AD3">
+      <c r="AG3">
         <v>1.8634006400000001</v>
       </c>
-      <c r="AE3">
+      <c r="AH3">
         <v>1.396620913</v>
       </c>
-      <c r="AF3">
+      <c r="AI3">
         <v>36472.462169999999</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <v>36472.462169999999</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <v>704.44444439999995</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>158.88999999999999</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>2.0816659990000002</v>
       </c>
-      <c r="AL3">
+      <c r="AO3">
         <v>3.5118845840000001</v>
       </c>
-      <c r="AM3">
+      <c r="AP3">
         <v>0.33501243800000002</v>
       </c>
-      <c r="AO3">
+      <c r="AR3">
         <v>0.17414084099999999</v>
       </c>
-      <c r="AP3">
+      <c r="AS3">
         <v>0.97779424000000004</v>
       </c>
-      <c r="AQ3">
+      <c r="AT3">
         <v>1.2096831539999999</v>
       </c>
-      <c r="AS3">
+      <c r="AV3">
         <v>1.2096831539999999</v>
       </c>
-      <c r="AT3">
+      <c r="AW3">
         <v>1.1372481409999999</v>
       </c>
-      <c r="AX3">
+      <c r="BA3">
         <v>22.5166605</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>0.40163393800000002</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>3.4294910999999997E-2</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>0.171303912</v>
       </c>
-      <c r="BG3">
+      <c r="BJ3">
         <v>1.6357283E-2</v>
       </c>
-      <c r="BK3">
+      <c r="BN3">
         <v>0.18747316999999999</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>9.5373146000000006E-2</v>
       </c>
-      <c r="BM3">
+      <c r="BP3">
         <v>4554.4144660000002</v>
       </c>
-      <c r="BN3">
+      <c r="BQ3">
         <v>4554.4144660000002</v>
       </c>
-      <c r="BO3">
+      <c r="BR3">
         <v>15.39600718</v>
       </c>
-      <c r="BP3">
+      <c r="BS3">
         <v>1.922576396</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1811,122 +1910,125 @@
         <v>42926</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4">
         <v>32.333333330000002</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>32.666666669999998</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>10.33333333</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>2.6299103330000002</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>23.228438700000002</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>91</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>91</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>89.85</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>180.85</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>5.2969261809999999</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>1.830695073</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>4.8199299030000002</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>1.626351627</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>6.4462815300000003</v>
       </c>
-      <c r="AE4">
+      <c r="AH4">
         <v>1.862830607</v>
       </c>
-      <c r="AF4">
+      <c r="AI4">
         <v>29045.95592</v>
       </c>
-      <c r="AG4">
+      <c r="AJ4">
         <v>29045.95592</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <v>1085</v>
       </c>
-      <c r="AI4">
+      <c r="AL4">
         <v>334.33333329999999</v>
       </c>
-      <c r="AK4">
+      <c r="AN4">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AL4">
+      <c r="AO4">
         <v>4.9328828619999996</v>
       </c>
-      <c r="AM4">
+      <c r="AP4">
         <v>0.66500626600000001</v>
       </c>
-      <c r="AO4">
+      <c r="AR4">
         <v>0.46288053699999998</v>
       </c>
-      <c r="AP4">
+      <c r="AS4">
         <v>3.2982417559999999</v>
       </c>
-      <c r="AQ4">
+      <c r="AT4">
         <v>9.4684159179999998</v>
       </c>
-      <c r="AS4">
+      <c r="AV4">
         <v>9.4684159179999998</v>
       </c>
-      <c r="AT4">
+      <c r="AW4">
         <v>15.176860680000001</v>
       </c>
-      <c r="AX4">
+      <c r="BA4">
         <v>238.09991600000001</v>
       </c>
-      <c r="AY4">
+      <c r="BB4">
         <v>6.9166196999999999E-2</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>0.18654817900000001</v>
       </c>
-      <c r="BE4">
+      <c r="BH4">
         <v>0.499844024</v>
       </c>
-      <c r="BG4">
+      <c r="BJ4">
         <v>0.128898914</v>
       </c>
-      <c r="BK4">
+      <c r="BN4">
         <v>0.62868809000000003</v>
       </c>
-      <c r="BL4">
+      <c r="BO4">
         <v>0.33258388300000002</v>
       </c>
-      <c r="BM4">
+      <c r="BP4">
         <v>5162.1325269999998</v>
       </c>
-      <c r="BN4">
+      <c r="BQ4">
         <v>5162.1325269999998</v>
       </c>
-      <c r="BO4">
+      <c r="BR4">
         <v>63.83572667</v>
       </c>
-      <c r="BP4">
+      <c r="BS4">
         <v>25.026652460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1934,164 +2036,167 @@
         <v>42942</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5">
         <v>31</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>23.666666670000001</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>16.11</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>29.943333330000002</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>3.5467477330000001</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>25.804700629999999</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>142.46666669999999</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>13.6</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>156.06666670000001</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>211.7</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>7.0333333329999999</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>374.8</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>5.2664065359999999</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>2.4026684359999999</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>1.5933583579999999</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>3.462394953</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>7.4919406620000002</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>0.32024770200000002</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>3.3575160039999998</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>0.24408219</v>
       </c>
-      <c r="AD5">
+      <c r="AG5">
         <v>11.41378656</v>
       </c>
-      <c r="AE5">
+      <c r="AH5">
         <v>2.1940391859999999</v>
       </c>
-      <c r="AF5">
+      <c r="AI5">
         <v>24806.254580000001</v>
       </c>
-      <c r="AG5">
+      <c r="AJ5">
         <v>22662.548620000001</v>
       </c>
-      <c r="AH5">
+      <c r="AK5">
         <v>1218.333333</v>
       </c>
-      <c r="AI5">
+      <c r="AL5">
         <v>588.33333330000005</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <v>5</v>
       </c>
-      <c r="AL5">
+      <c r="AO5">
         <v>6.1101009270000004</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>1.168888361</v>
       </c>
-      <c r="AN5">
+      <c r="AQ5">
         <v>4.3617236650000004</v>
       </c>
-      <c r="AO5">
+      <c r="AR5">
         <v>0.85323291099999998</v>
       </c>
-      <c r="AP5">
+      <c r="AS5">
         <v>2.0822463170000001</v>
       </c>
-      <c r="AQ5">
+      <c r="AT5">
         <v>8.8911941460000001</v>
       </c>
-      <c r="AR5">
+      <c r="AU5">
         <v>1.8248287590000001</v>
       </c>
-      <c r="AS5">
+      <c r="AV5">
         <v>10.46151678</v>
       </c>
-      <c r="AT5">
+      <c r="AW5">
         <v>21.254411309999998</v>
       </c>
-      <c r="AU5">
+      <c r="AX5">
         <v>2.0502032419999998</v>
       </c>
-      <c r="AX5">
+      <c r="BA5">
         <v>291.83557009999998</v>
       </c>
-      <c r="AY5">
+      <c r="BB5">
         <v>0.18584066599999999</v>
       </c>
-      <c r="AZ5">
+      <c r="BC5">
         <v>0.61849928700000001</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>0.13053358400000001</v>
       </c>
-      <c r="BB5">
+      <c r="BE5">
         <v>4.5969863999999999E-2</v>
       </c>
-      <c r="BE5">
+      <c r="BH5">
         <v>0.20450197000000001</v>
       </c>
-      <c r="BF5">
+      <c r="BI5">
         <v>5.2578893000000002E-2</v>
       </c>
-      <c r="BG5">
+      <c r="BJ5">
         <v>0.168207088</v>
       </c>
-      <c r="BH5">
+      <c r="BK5">
         <v>7.3650926000000005E-2</v>
       </c>
-      <c r="BK5">
+      <c r="BN5">
         <v>0.26653564099999999</v>
       </c>
-      <c r="BL5">
+      <c r="BO5">
         <v>0.52397094600000005</v>
       </c>
-      <c r="BM5">
+      <c r="BP5">
         <v>5045.6976729999997</v>
       </c>
-      <c r="BN5">
+      <c r="BQ5">
         <v>4682.6751670000003</v>
       </c>
-      <c r="BO5">
+      <c r="BR5">
         <v>127.1154331</v>
       </c>
-      <c r="BP5">
+      <c r="BS5">
         <v>38.837267330000003</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2099,161 +2204,164 @@
         <v>42951</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>32.333333330000002</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>18.11333333</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>67.5</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>4.4898179999999996</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>23.959276200000001</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>171.7666667</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>14.16666667</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>185.93333329999999</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>286.26666669999997</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>51.5</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>523.70000000000005</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>4.9020051960000002</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>2.7312035560000001</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>1.4922018850000001</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <v>3.4</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>8.395316459</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>0.369270916</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>4.2699831179999999</v>
       </c>
-      <c r="AA6">
+      <c r="AD6">
         <v>1.7509999999999999</v>
       </c>
-      <c r="AD6">
+      <c r="AG6">
         <v>14.78557049</v>
       </c>
-      <c r="AE6">
+      <c r="AH6">
         <v>1.8879088310000001</v>
       </c>
-      <c r="AF6">
+      <c r="AI6">
         <v>26076.93547</v>
       </c>
-      <c r="AG6">
+      <c r="AJ6">
         <v>24126.09287</v>
       </c>
-      <c r="AH6">
+      <c r="AK6">
         <v>1466.666667</v>
       </c>
-      <c r="AI6">
+      <c r="AL6">
         <v>751.11</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <v>5</v>
       </c>
-      <c r="AL6">
+      <c r="AO6">
         <v>2.309401077</v>
       </c>
-      <c r="AM6">
+      <c r="AP6">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AN6">
+      <c r="AQ6">
         <v>5.4083269129999998</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>0.55618144700000005</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
         <v>1.034755525</v>
       </c>
-      <c r="AQ6">
+      <c r="AT6">
         <v>11.72959221</v>
       </c>
-      <c r="AR6">
+      <c r="AU6">
         <v>9.4118719360000007</v>
       </c>
-      <c r="AS6">
+      <c r="AV6">
         <v>20.71432677</v>
       </c>
-      <c r="AT6">
+      <c r="AW6">
         <v>23.508579990000001</v>
       </c>
-      <c r="AU6">
+      <c r="AX6">
         <v>12.73891675</v>
       </c>
-      <c r="AX6">
+      <c r="BA6">
         <v>559.41844800000001</v>
       </c>
-      <c r="AY6">
+      <c r="BB6">
         <v>0.31818848199999999</v>
       </c>
-      <c r="AZ6">
+      <c r="BC6">
         <v>0.288776054</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>0.111296059</v>
       </c>
-      <c r="BE6">
+      <c r="BH6">
         <v>8.5131423999999997E-2</v>
       </c>
-      <c r="BF6">
+      <c r="BI6">
         <v>0.203212321</v>
       </c>
-      <c r="BG6">
+      <c r="BJ6">
         <v>0.44190556399999997</v>
       </c>
-      <c r="BH6">
+      <c r="BK6">
         <v>0.43312317</v>
       </c>
-      <c r="BK6">
+      <c r="BN6">
         <v>0.92400618499999998</v>
       </c>
-      <c r="BL6">
+      <c r="BO6">
         <v>0.218956975</v>
       </c>
-      <c r="BM6">
+      <c r="BP6">
         <v>1456.8509300000001</v>
       </c>
-      <c r="BN6">
+      <c r="BQ6">
         <v>291.09515390000001</v>
       </c>
-      <c r="BO6">
+      <c r="BR6">
         <v>35.472994419999999</v>
       </c>
-      <c r="BP6">
+      <c r="BS6">
         <v>46.227657309999998</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2261,158 +2369,161 @@
         <v>42968</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>33.666666669999998</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>20.88666667</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>73.556666669999998</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>4.4933822670000003</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>24.640407339999999</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>182.15666669999999</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>5.1566666669999996</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>187.31333330000001</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>317.98333330000003</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>217.55666669999999</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>722.85333330000003</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>4.5780029300000002</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>2.434477131</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>1.360071177</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>3.3245203499999998</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>8.3967630989999993</v>
       </c>
-      <c r="Y7">
+      <c r="AB7">
         <v>0.12453468099999999</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>4.3441109280000001</v>
       </c>
-      <c r="AA7">
+      <c r="AD7">
         <v>7.2355102880000004</v>
       </c>
-      <c r="AD7">
+      <c r="AG7">
         <v>20.100919000000001</v>
       </c>
-      <c r="AE7">
+      <c r="AH7">
         <v>1.875228895</v>
       </c>
-      <c r="AF7">
+      <c r="AI7">
         <v>24555.750319999999</v>
       </c>
-      <c r="AG7">
+      <c r="AJ7">
         <v>23879.62084</v>
       </c>
-      <c r="AI7">
+      <c r="AL7">
         <v>764.44666670000004</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
         <v>5</v>
       </c>
-      <c r="AL7">
+      <c r="AO7">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AM7">
+      <c r="AP7">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AN7">
+      <c r="AQ7">
         <v>7.2353046470000004</v>
       </c>
-      <c r="AO7">
+      <c r="AR7">
         <v>0.86346009099999999</v>
       </c>
-      <c r="AP7">
+      <c r="AS7">
         <v>2.576694426</v>
       </c>
-      <c r="AQ7">
+      <c r="AT7">
         <v>19.453620059999999</v>
       </c>
-      <c r="AR7">
+      <c r="AU7">
         <v>0.32145502500000001</v>
       </c>
-      <c r="AS7">
+      <c r="AV7">
         <v>19.296718200000001</v>
       </c>
-      <c r="AT7">
+      <c r="AW7">
         <v>17.073468699999999</v>
       </c>
-      <c r="AU7">
+      <c r="AX7">
         <v>34.734037100000002</v>
       </c>
-      <c r="AX7">
+      <c r="BA7">
         <v>382.55239289999997</v>
       </c>
-      <c r="AY7">
+      <c r="BB7">
         <v>0.45637277100000001</v>
       </c>
-      <c r="AZ7">
+      <c r="BC7">
         <v>0.498811324</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>0.230868765</v>
       </c>
-      <c r="BB7">
+      <c r="BE7">
         <v>0.19983250499999999</v>
       </c>
-      <c r="BE7">
+      <c r="BH7">
         <v>1.6763243489999999</v>
       </c>
-      <c r="BF7">
+      <c r="BI7">
         <v>1.8367544E-2</v>
       </c>
-      <c r="BG7">
+      <c r="BJ7">
         <v>0.90041895800000005</v>
       </c>
-      <c r="BH7">
+      <c r="BK7">
         <v>1.2573499420000001</v>
       </c>
-      <c r="BK7">
+      <c r="BN7">
         <v>2.554901455</v>
       </c>
-      <c r="BL7">
+      <c r="BO7">
         <v>0.22672908</v>
       </c>
-      <c r="BM7">
+      <c r="BP7">
         <v>2864.8653640000002</v>
       </c>
-      <c r="BN7">
+      <c r="BQ7">
         <v>2871.5604330000001</v>
       </c>
-      <c r="BP7">
+      <c r="BS7">
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2420,158 +2531,161 @@
         <v>42983</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>33.666666669999998</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>20.88666667</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>61.39</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>3.3484526670000001</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>21.194937469999999</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>160.69666670000001</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>25.616666670000001</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>186.31333330000001</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>302.48333330000003</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>409.21666670000002</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>898.0133333</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>2.7464925450000002</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.897563656</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>0.81153414599999996</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>3.87950778</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>4.4259175710000003</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <v>0.40085383000000002</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>2.4556705980000002</v>
       </c>
-      <c r="AA8">
+      <c r="AD8">
         <v>15.840236429999999</v>
       </c>
-      <c r="AD8">
+      <c r="AG8">
         <v>23.122678430000001</v>
       </c>
-      <c r="AE8">
+      <c r="AH8">
         <v>1.326094729</v>
       </c>
-      <c r="AF8">
+      <c r="AI8">
         <v>20822.952379999999</v>
       </c>
-      <c r="AG8">
+      <c r="AJ8">
         <v>18258.099859999998</v>
       </c>
-      <c r="AI8">
+      <c r="AL8">
         <v>764.44666670000004</v>
       </c>
-      <c r="AK8">
+      <c r="AN8">
         <v>5</v>
       </c>
-      <c r="AL8">
+      <c r="AO8">
         <v>6.1101009270000004</v>
       </c>
-      <c r="AM8">
+      <c r="AP8">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AN8">
+      <c r="AQ8">
         <v>6.4250525290000002</v>
       </c>
-      <c r="AO8">
+      <c r="AR8">
         <v>0.45081993999999997</v>
       </c>
-      <c r="AP8">
+      <c r="AS8">
         <v>1.0506225199999999</v>
       </c>
-      <c r="AQ8">
+      <c r="AT8">
         <v>14.28787365</v>
       </c>
-      <c r="AR8">
+      <c r="AU8">
         <v>25.268004139999999</v>
       </c>
-      <c r="AS8">
+      <c r="AV8">
         <v>24.959227420000001</v>
       </c>
-      <c r="AT8">
+      <c r="AW8">
         <v>8.0512938920000003</v>
       </c>
-      <c r="AU8">
+      <c r="AX8">
         <v>16.405305039999998</v>
       </c>
-      <c r="AX8">
+      <c r="BA8">
         <v>486.49708459999999</v>
       </c>
-      <c r="AY8">
+      <c r="BB8">
         <v>0.131513876</v>
       </c>
-      <c r="AZ8">
+      <c r="BC8">
         <v>0.51635507199999997</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>0.156608992</v>
       </c>
-      <c r="BB8">
+      <c r="BE8">
         <v>0.442822455</v>
       </c>
-      <c r="BE8">
+      <c r="BH8">
         <v>0.60551635000000004</v>
       </c>
-      <c r="BF8">
+      <c r="BI8">
         <v>0.28019391900000001</v>
       </c>
-      <c r="BG8">
+      <c r="BJ8">
         <v>0.48310399900000001</v>
       </c>
-      <c r="BH8">
+      <c r="BK8">
         <v>1.4177898360000001</v>
       </c>
-      <c r="BK8">
+      <c r="BN8">
         <v>2.2663543150000001</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
         <v>0.13615085800000001</v>
       </c>
-      <c r="BM8">
+      <c r="BP8">
         <v>1816.972784</v>
       </c>
-      <c r="BN8">
+      <c r="BQ8">
         <v>3785.7399789999999</v>
       </c>
-      <c r="BP8">
+      <c r="BS8">
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2579,170 +2693,173 @@
         <v>42997</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>32.333333330000002</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>20.88666667</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>62.666666669999998</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>15.393333330000001</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>14.86</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>30.25333333</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>213.95</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>444.09</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>125.55666669999999</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>318.53333329999998</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>688.29333329999997</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>2.2859224079999998</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1.7393941879999999</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>0.490818898</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>4.4114886699999998</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>0.79016911999999995</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>5.8392753600000002</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>0.36035655300000002</v>
       </c>
-      <c r="Y9">
+      <c r="AB9">
         <v>0.24390679800000001</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>1.0493157440000001</v>
       </c>
-      <c r="AA9">
+      <c r="AD9">
         <v>19.553729329999999</v>
       </c>
-      <c r="AB9">
+      <c r="AE9">
         <v>0.99398109099999998</v>
       </c>
-      <c r="AC9">
+      <c r="AF9">
         <v>18.559748240000001</v>
       </c>
-      <c r="AD9">
+      <c r="AG9">
         <v>21.20730842</v>
       </c>
-      <c r="AI9">
+      <c r="AL9">
         <v>764.44666670000004</v>
       </c>
-      <c r="AJ9">
+      <c r="AM9">
         <v>54.553409960000003</v>
       </c>
-      <c r="AK9">
+      <c r="AN9">
         <v>5</v>
       </c>
-      <c r="AL9">
+      <c r="AO9">
         <v>3.0550504630000002</v>
       </c>
-      <c r="AM9">
+      <c r="AP9">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AN9">
+      <c r="AQ9">
         <v>4.6671440229999996</v>
       </c>
-      <c r="AQ9">
+      <c r="AT9">
         <v>19.191926250000002</v>
       </c>
-      <c r="AR9">
+      <c r="AU9">
         <v>17.12383427</v>
       </c>
-      <c r="AS9">
+      <c r="AV9">
         <v>36.310441109999999</v>
       </c>
-      <c r="AT9">
+      <c r="AW9">
         <v>62.57163894</v>
       </c>
-      <c r="AU9">
+      <c r="AX9">
         <v>71.288638649999996</v>
       </c>
-      <c r="AV9">
+      <c r="AY9">
         <v>19.623540290000001</v>
       </c>
-      <c r="AW9">
+      <c r="AZ9">
         <v>51.892228060000001</v>
       </c>
-      <c r="AX9">
+      <c r="BA9">
         <v>1351.075206</v>
       </c>
-      <c r="AY9">
+      <c r="BB9">
         <v>0.28147503000000001</v>
       </c>
-      <c r="AZ9">
+      <c r="BC9">
         <v>0.12760889</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>6.7670759999999996E-2</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>0.37165287400000002</v>
       </c>
-      <c r="BC9">
+      <c r="BF9">
         <v>0.143930472</v>
       </c>
-      <c r="BD9">
+      <c r="BG9">
         <v>0.42906704699999998</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>0.49645715800000001</v>
       </c>
-      <c r="BF9">
+      <c r="BI9">
         <v>0.26708691099999998</v>
       </c>
-      <c r="BG9">
+      <c r="BJ9">
         <v>0.358529082</v>
       </c>
-      <c r="BH9">
+      <c r="BK9">
         <v>3.0864769270000001</v>
       </c>
-      <c r="BI9">
+      <c r="BL9">
         <v>0.233257305</v>
       </c>
-      <c r="BJ9">
+      <c r="BM9">
         <v>2.85535483</v>
       </c>
-      <c r="BK9">
+      <c r="BN9">
         <v>3.8043212409999998</v>
       </c>
-      <c r="BP9">
+      <c r="BS9">
         <v>19.532783550000001</v>
       </c>
-      <c r="BQ9">
+      <c r="BT9">
         <v>8.887289634</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2752,20 +2869,23 @@
       <c r="C10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P10">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="S10">
         <v>310.3</v>
       </c>
-      <c r="AJ10">
+      <c r="AM10">
         <v>53.143333329999997</v>
       </c>
-      <c r="AW10">
+      <c r="AZ10">
         <v>36.299450839999999</v>
       </c>
-      <c r="BQ10">
+      <c r="BT10">
         <v>6.2168025010000001</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2773,14 +2893,17 @@
         <v>42916</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="AH11">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="AK11">
         <v>877.77777779999997</v>
       </c>
-      <c r="BO11">
+      <c r="BR11">
         <v>42.860670050000003</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2788,14 +2911,17 @@
         <v>42934</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="AH12">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="AK12">
         <v>1111.666667</v>
       </c>
-      <c r="BO12">
+      <c r="BR12">
         <v>104.08329999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2803,122 +2929,125 @@
         <v>42909</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13">
         <v>41</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>41</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>3.6666666669999999</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>0.56501726699999999</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>28.669284189999999</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>17.366666670000001</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>17.366666670000001</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>12.16666667</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>29.533333329999998</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>5.3513595260000004</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>2.557780186</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
         <v>0.92831271999999998</v>
       </c>
-      <c r="Z13">
+      <c r="AC13">
         <v>0.31247847400000001</v>
       </c>
-      <c r="AD13">
+      <c r="AG13">
         <v>1.240791193</v>
       </c>
-      <c r="AE13">
+      <c r="AH13">
         <v>1.660832965</v>
       </c>
-      <c r="AF13">
+      <c r="AI13">
         <v>32509.90871</v>
       </c>
-      <c r="AG13">
+      <c r="AJ13">
         <v>32509.90871</v>
       </c>
-      <c r="AH13">
+      <c r="AK13">
         <v>600</v>
       </c>
-      <c r="AI13">
+      <c r="AL13">
         <v>118.33333330000001</v>
       </c>
-      <c r="AK13">
+      <c r="AN13">
         <v>2.6457513110000002</v>
       </c>
-      <c r="AL13">
+      <c r="AO13">
         <v>2.6457513110000002</v>
       </c>
-      <c r="AM13">
+      <c r="AP13">
         <v>0.57735026899999997</v>
       </c>
-      <c r="AO13">
+      <c r="AR13">
         <v>7.2568472999999994E-2</v>
       </c>
-      <c r="AP13">
+      <c r="AS13">
         <v>0.63868976399999999</v>
       </c>
-      <c r="AQ13">
+      <c r="AT13">
         <v>0.75718777900000001</v>
       </c>
-      <c r="AS13">
+      <c r="AV13">
         <v>0.75718777900000001</v>
       </c>
-      <c r="AT13">
+      <c r="AW13">
         <v>1.908751774</v>
       </c>
-      <c r="AX13">
+      <c r="BA13">
         <v>26.65207934</v>
       </c>
-      <c r="AY13">
+      <c r="BB13">
         <v>0.213327875</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>0.10142232299999999</v>
       </c>
-      <c r="BE13">
+      <c r="BH13">
         <v>1.1554798999999999E-2</v>
       </c>
-      <c r="BG13">
+      <c r="BJ13">
         <v>6.0073020999999997E-2</v>
       </c>
-      <c r="BK13">
+      <c r="BN13">
         <v>6.5997679000000004E-2</v>
       </c>
-      <c r="BL13">
+      <c r="BO13">
         <v>0.20978332699999999</v>
       </c>
-      <c r="BM13">
+      <c r="BP13">
         <v>3518.26377</v>
       </c>
-      <c r="BN13">
+      <c r="BQ13">
         <v>3518.26377</v>
       </c>
-      <c r="BO13">
+      <c r="BR13">
         <v>17.63834207</v>
       </c>
-      <c r="BP13">
+      <c r="BS13">
         <v>4.407066296</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2926,122 +3055,125 @@
         <v>42926</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14">
         <v>36.333333330000002</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>32.666666669999998</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>7.1133333329999999</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>1.333144933</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>24.658185629999998</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>60.45</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>60.45</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>47.576666670000002</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>108.02666670000001</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>5.5619044300000002</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>2.2197982469999999</v>
       </c>
-      <c r="X14">
+      <c r="AA14">
         <v>3.3607650140000001</v>
       </c>
-      <c r="Z14">
+      <c r="AC14">
         <v>1.050690216</v>
       </c>
-      <c r="AD14">
+      <c r="AG14">
         <v>4.4114552299999996</v>
       </c>
-      <c r="AE14">
+      <c r="AH14">
         <v>2.591035186</v>
       </c>
-      <c r="AF14">
+      <c r="AI14">
         <v>21961.912329999999</v>
       </c>
-      <c r="AG14">
+      <c r="AJ14">
         <v>21961.912329999999</v>
       </c>
-      <c r="AH14">
+      <c r="AK14">
         <v>858.33333330000005</v>
       </c>
-      <c r="AI14">
+      <c r="AL14">
         <v>237.78</v>
       </c>
-      <c r="AK14">
+      <c r="AN14">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AL14">
+      <c r="AO14">
         <v>7.0945988849999999</v>
       </c>
-      <c r="AM14">
+      <c r="AP14">
         <v>0.96417494999999998</v>
       </c>
-      <c r="AO14">
+      <c r="AR14">
         <v>0.27197959799999999</v>
       </c>
-      <c r="AP14">
+      <c r="AS14">
         <v>3.0724990559999998</v>
       </c>
-      <c r="AQ14">
+      <c r="AT14">
         <v>2.3404059479999999</v>
       </c>
-      <c r="AS14">
+      <c r="AV14">
         <v>2.3404059479999999</v>
       </c>
-      <c r="AT14">
+      <c r="AW14">
         <v>3.6065126279999999</v>
       </c>
-      <c r="AX14">
+      <c r="BA14">
         <v>14.75273986</v>
       </c>
-      <c r="AY14">
+      <c r="BB14">
         <v>0.10581093699999999</v>
       </c>
-      <c r="BA14">
+      <c r="BD14">
         <v>0.225253958</v>
       </c>
-      <c r="BE14">
+      <c r="BH14">
         <v>8.4158015000000003E-2</v>
       </c>
-      <c r="BG14">
+      <c r="BJ14">
         <v>3.0301444E-2</v>
       </c>
-      <c r="BK14">
+      <c r="BN14">
         <v>0.111229473</v>
       </c>
-      <c r="BL14">
+      <c r="BO14">
         <v>0.51737233100000002</v>
       </c>
-      <c r="BM14">
+      <c r="BP14">
         <v>3761.7168099999999</v>
       </c>
-      <c r="BN14">
+      <c r="BQ14">
         <v>3761.7168099999999</v>
       </c>
-      <c r="BO14">
+      <c r="BR14">
         <v>59.231185480000001</v>
       </c>
-      <c r="BP14">
+      <c r="BS14">
         <v>42.861361389999999</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3049,158 +3181,161 @@
         <v>42942</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15">
         <v>36.333333330000002</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>34</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>13.78</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>2.870000133</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>29.498674009999998</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>106.4666667</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>3.95</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>110.41666669999999</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>136.7333333</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>0.81666666700000001</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>247.96666669999999</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>5.6759546600000004</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>2.2230339849999998</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>1.49628977</v>
       </c>
-      <c r="U15">
+      <c r="X15">
         <v>3.4290581539999998</v>
       </c>
-      <c r="X15">
+      <c r="AA15">
         <v>6.0370028959999997</v>
       </c>
-      <c r="Y15">
+      <c r="AB15">
         <v>9.2586599000000006E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AC15">
         <v>2.0423830540000001</v>
       </c>
-      <c r="AA15">
+      <c r="AD15">
         <v>2.5147903999999999E-2</v>
       </c>
-      <c r="AD15">
+      <c r="AG15">
         <v>8.1971204530000001</v>
       </c>
-      <c r="AE15">
+      <c r="AH15">
         <v>2.1404846100000001</v>
       </c>
-      <c r="AF15">
+      <c r="AI15">
         <v>26939.467619999999</v>
       </c>
-      <c r="AG15">
+      <c r="AJ15">
         <v>26034.953669999999</v>
       </c>
-      <c r="AH15">
+      <c r="AK15">
         <v>1153.333333</v>
       </c>
-      <c r="AI15">
+      <c r="AL15">
         <v>510</v>
       </c>
-      <c r="AK15">
+      <c r="AN15">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AL15">
+      <c r="AO15">
         <v>5.2915026220000003</v>
       </c>
-      <c r="AM15">
+      <c r="AP15">
         <v>1.168888361</v>
       </c>
-      <c r="AO15">
+      <c r="AR15">
         <v>0.43784565800000003</v>
       </c>
-      <c r="AP15">
+      <c r="AS15">
         <v>0.89697609499999997</v>
       </c>
-      <c r="AQ15">
+      <c r="AT15">
         <v>6.709942871</v>
       </c>
-      <c r="AR15">
+      <c r="AU15">
         <v>2.4864633519999999</v>
       </c>
-      <c r="AS15">
+      <c r="AV15">
         <v>7.3607630940000002</v>
       </c>
-      <c r="AT15">
+      <c r="AW15">
         <v>11.00378723</v>
       </c>
-      <c r="AU15">
+      <c r="AX15">
         <v>0.59651767200000005</v>
       </c>
-      <c r="AX15">
+      <c r="BA15">
         <v>147.6010953</v>
       </c>
-      <c r="AY15">
+      <c r="BB15">
         <v>0.34234834800000002</v>
       </c>
-      <c r="AZ15">
+      <c r="BC15">
         <v>0.388470392</v>
       </c>
-      <c r="BA15">
+      <c r="BD15">
         <v>4.9557148000000002E-2</v>
       </c>
-      <c r="BB15">
+      <c r="BE15">
         <v>0.71820184499999995</v>
       </c>
-      <c r="BE15">
+      <c r="BH15">
         <v>0.41912551599999998</v>
       </c>
-      <c r="BF15">
+      <c r="BI15">
         <v>6.2015540000000001E-2</v>
       </c>
-      <c r="BG15">
+      <c r="BJ15">
         <v>9.9778357999999998E-2</v>
       </c>
-      <c r="BH15">
+      <c r="BK15">
         <v>1.6461156000000001E-2</v>
       </c>
-      <c r="BK15">
+      <c r="BN15">
         <v>0.41153527699999998</v>
       </c>
-      <c r="BL15">
+      <c r="BO15">
         <v>0.37967192900000002</v>
       </c>
-      <c r="BM15">
+      <c r="BP15">
         <v>3588.6822590000002</v>
       </c>
-      <c r="BN15">
+      <c r="BQ15">
         <v>4087.9392079999998</v>
       </c>
-      <c r="BO15">
+      <c r="BR15">
         <v>93.852721500000001</v>
       </c>
-      <c r="BP15">
+      <c r="BS15">
         <v>83.735230939999994</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3208,161 +3343,164 @@
         <v>42951</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16">
         <v>36.333333330000002</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>38.333333330000002</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>15.61</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>36.776666669999997</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>4.6754084669999996</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>23.288884029999998</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>166.5</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>3.766666667</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>170.2666667</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>256.60000000000002</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>19.666666670000001</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>446.53333329999998</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>4.7166145640000003</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>2.4504482350000001</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>1.330648343</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <v>3.5</v>
       </c>
-      <c r="X16">
+      <c r="AA16">
         <v>7.7601181229999998</v>
       </c>
-      <c r="Y16">
+      <c r="AB16">
         <v>9.6129725999999999E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AC16">
         <v>3.3425547560000002</v>
       </c>
-      <c r="AA16">
+      <c r="AD16">
         <v>0.68833333299999999</v>
       </c>
-      <c r="AD16">
+      <c r="AG16">
         <v>11.88713594</v>
       </c>
-      <c r="AE16">
+      <c r="AH16">
         <v>1.6701437029999999</v>
       </c>
-      <c r="AF16">
+      <c r="AI16">
         <v>28207.598379999999</v>
       </c>
-      <c r="AG16">
+      <c r="AJ16">
         <v>27540.923060000001</v>
       </c>
-      <c r="AH16">
+      <c r="AK16">
         <v>1235</v>
       </c>
-      <c r="AI16">
+      <c r="AL16">
         <v>665.55333329999996</v>
       </c>
-      <c r="AK16">
+      <c r="AN16">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AL16">
+      <c r="AO16">
         <v>2.0816659990000002</v>
       </c>
-      <c r="AM16">
+      <c r="AP16">
         <v>0.67178865700000001</v>
       </c>
-      <c r="AN16">
+      <c r="AQ16">
         <v>2.1444191130000001</v>
       </c>
-      <c r="AO16">
+      <c r="AR16">
         <v>0.75047234600000001</v>
       </c>
-      <c r="AP16">
+      <c r="AS16">
         <v>0.71532856499999997</v>
       </c>
-      <c r="AQ16">
+      <c r="AT16">
         <v>32.922332849999997</v>
       </c>
-      <c r="AR16">
+      <c r="AU16">
         <v>1.4047538340000001</v>
       </c>
-      <c r="AS16">
+      <c r="AV16">
         <v>31.731582580000001</v>
       </c>
-      <c r="AT16">
+      <c r="AW16">
         <v>62.276881750000001</v>
       </c>
-      <c r="AU16">
+      <c r="AX16">
         <v>8.0002083309999996</v>
       </c>
-      <c r="AX16">
+      <c r="BA16">
         <v>1015.488716</v>
       </c>
-      <c r="AY16">
+      <c r="BB16">
         <v>0.42883606299999999</v>
       </c>
-      <c r="AZ16">
+      <c r="BC16">
         <v>0.48703883199999998</v>
       </c>
-      <c r="BA16">
+      <c r="BD16">
         <v>0.20050975200000001</v>
       </c>
-      <c r="BE16">
+      <c r="BH16">
         <v>0.77755899100000003</v>
       </c>
-      <c r="BF16">
+      <c r="BI16">
         <v>4.7494438999999999E-2</v>
       </c>
-      <c r="BG16">
+      <c r="BJ16">
         <v>0.404080877</v>
       </c>
-      <c r="BH16">
+      <c r="BK16">
         <v>0.28000729200000002</v>
       </c>
-      <c r="BK16">
+      <c r="BN16">
         <v>1.401819975</v>
       </c>
-      <c r="BL16">
+      <c r="BO16">
         <v>0.101699416</v>
       </c>
-      <c r="BM16">
+      <c r="BP16">
         <v>992.64098639999997</v>
       </c>
-      <c r="BN16">
+      <c r="BQ16">
         <v>668.4282283</v>
       </c>
-      <c r="BO16">
+      <c r="BR16">
         <v>86.746757860000002</v>
       </c>
-      <c r="BP16">
+      <c r="BS16">
         <v>110.67036469999999</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3370,158 +3508,161 @@
         <v>42968</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17">
         <v>36.333333330000002</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>35</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>16.39</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>50</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>5.2218760670000002</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>26.034529389999999</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>177.59</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>4.8566666669999998</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>182.44666670000001</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>306.48333330000003</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>137.35666670000001</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>626.28666670000007</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>4.7927247680000002</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>2.4406307140000001</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>1.375053326</v>
       </c>
-      <c r="U17">
+      <c r="X17">
         <v>3.5871027309999999</v>
       </c>
-      <c r="X17">
+      <c r="AA17">
         <v>8.4749179560000005</v>
       </c>
-      <c r="Y17">
+      <c r="AB17">
         <v>0.112247159</v>
       </c>
-      <c r="Z17">
+      <c r="AC17">
         <v>4.1794316409999999</v>
       </c>
-      <c r="AA17">
+      <c r="AD17">
         <v>4.9122820190000001</v>
       </c>
-      <c r="AD17">
+      <c r="AG17">
         <v>17.678878780000002</v>
       </c>
-      <c r="AE17">
+      <c r="AH17">
         <v>1.622554703</v>
       </c>
-      <c r="AF17">
+      <c r="AI17">
         <v>29646.15581</v>
       </c>
-      <c r="AG17">
+      <c r="AJ17">
         <v>28857.855530000001</v>
       </c>
-      <c r="AI17">
+      <c r="AL17">
         <v>733.33333330000005</v>
       </c>
-      <c r="AK17">
+      <c r="AN17">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AL17">
+      <c r="AO17">
         <v>1.7320508080000001</v>
       </c>
-      <c r="AM17">
+      <c r="AP17">
         <v>0.348281495</v>
       </c>
-      <c r="AN17">
+      <c r="AQ17">
         <v>10.440306509999999</v>
       </c>
-      <c r="AO17">
+      <c r="AR17">
         <v>8.9865407999999994E-2</v>
       </c>
-      <c r="AP17">
+      <c r="AS17">
         <v>1.8305064879999999</v>
       </c>
-      <c r="AQ17">
+      <c r="AT17">
         <v>19.2779667</v>
       </c>
-      <c r="AR17">
+      <c r="AU17">
         <v>2.2501851780000002</v>
       </c>
-      <c r="AS17">
+      <c r="AV17">
         <v>19.828346710000002</v>
       </c>
-      <c r="AT17">
+      <c r="AW17">
         <v>37.884209550000001</v>
       </c>
-      <c r="AU17">
+      <c r="AX17">
         <v>20.123949249999999</v>
       </c>
-      <c r="AX17">
+      <c r="BA17">
         <v>741.52028519999999</v>
       </c>
-      <c r="AY17">
+      <c r="BB17">
         <v>0.32390440599999998</v>
       </c>
-      <c r="AZ17">
+      <c r="BC17">
         <v>0.44870957700000003</v>
       </c>
-      <c r="BA17">
+      <c r="BD17">
         <v>0.30498844600000002</v>
       </c>
-      <c r="BB17">
+      <c r="BE17">
         <v>0.113142141</v>
       </c>
-      <c r="BE17">
+      <c r="BH17">
         <v>0.53440854000000004</v>
       </c>
-      <c r="BF17">
+      <c r="BI17">
         <v>3.5300312E-2</v>
       </c>
-      <c r="BG17">
+      <c r="BJ17">
         <v>0.90320213199999999</v>
       </c>
-      <c r="BH17">
+      <c r="BK17">
         <v>0.55779815600000004</v>
       </c>
-      <c r="BK17">
+      <c r="BN17">
         <v>1.258361353</v>
       </c>
-      <c r="BL17">
+      <c r="BO17">
         <v>8.7457088000000002E-2</v>
       </c>
-      <c r="BM17">
+      <c r="BP17">
         <v>3364.5618420000001</v>
       </c>
-      <c r="BN17">
+      <c r="BQ17">
         <v>3278.8751830000001</v>
       </c>
-      <c r="BP17">
+      <c r="BS17">
         <v>106.5078506</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3529,158 +3670,161 @@
         <v>42983</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18">
         <v>36.333333330000002</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>37.666666669999998</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>16.39</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>37.166666669999998</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>4.4241513330000002</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>22.268321570000001</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>174.93</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>14.956666670000001</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>189.88666670000001</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>315.51666669999997</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>298.65333329999999</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>804.05666670000005</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>3.4432400859999999</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.938536008</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>0.93853016700000003</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <v>3.5966654619999998</v>
       </c>
-      <c r="X18">
+      <c r="AA18">
         <v>5.9953915029999996</v>
       </c>
-      <c r="Y18">
+      <c r="AB18">
         <v>0.29116908899999999</v>
       </c>
-      <c r="Z18">
+      <c r="AC18">
         <v>2.9563275170000001</v>
       </c>
-      <c r="AA18">
+      <c r="AD18">
         <v>10.73565777</v>
       </c>
-      <c r="AD18">
+      <c r="AG18">
         <v>19.978545879999999</v>
       </c>
-      <c r="AE18">
+      <c r="AH18">
         <v>1.362412132</v>
       </c>
-      <c r="AF18">
+      <c r="AI18">
         <v>25470.01368</v>
       </c>
-      <c r="AG18">
+      <c r="AJ18">
         <v>23475.8786</v>
       </c>
-      <c r="AI18">
+      <c r="AL18">
         <v>733.33333330000005</v>
       </c>
-      <c r="AK18">
+      <c r="AN18">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AL18">
+      <c r="AO18">
         <v>1.1547005379999999</v>
       </c>
-      <c r="AM18">
+      <c r="AP18">
         <v>0.348281495</v>
       </c>
-      <c r="AN18">
+      <c r="AQ18">
         <v>5.7518113089999998</v>
       </c>
-      <c r="AO18">
+      <c r="AR18">
         <v>0.28243780600000001</v>
       </c>
-      <c r="AP18">
+      <c r="AS18">
         <v>1.309851638</v>
       </c>
-      <c r="AQ18">
+      <c r="AT18">
         <v>14.148851540000001</v>
       </c>
-      <c r="AR18">
+      <c r="AU18">
         <v>10.21833809</v>
       </c>
-      <c r="AS18">
+      <c r="AV18">
         <v>18.289954439999999</v>
       </c>
-      <c r="AT18">
+      <c r="AW18">
         <v>12.678459419999999</v>
       </c>
-      <c r="AU18">
+      <c r="AX18">
         <v>15.767594409999999</v>
       </c>
-      <c r="AX18">
+      <c r="BA18">
         <v>415.57733739999998</v>
       </c>
-      <c r="AY18">
+      <c r="BB18">
         <v>0.40941188499999998</v>
       </c>
-      <c r="AZ18">
+      <c r="BC18">
         <v>0.40461825099999998</v>
       </c>
-      <c r="BA18">
+      <c r="BD18">
         <v>0.17834109300000001</v>
       </c>
-      <c r="BB18">
+      <c r="BE18">
         <v>0.17916147299999999</v>
       </c>
-      <c r="BE18">
+      <c r="BH18">
         <v>0.49556551900000001</v>
       </c>
-      <c r="BF18">
+      <c r="BI18">
         <v>0.21661079899999999</v>
       </c>
-      <c r="BG18">
+      <c r="BJ18">
         <v>0.53461416900000003</v>
       </c>
-      <c r="BH18">
+      <c r="BK18">
         <v>0.66098231100000004</v>
       </c>
-      <c r="BK18">
+      <c r="BN18">
         <v>0.43763847</v>
       </c>
-      <c r="BL18">
+      <c r="BO18">
         <v>0.18807691900000001</v>
       </c>
-      <c r="BM18">
+      <c r="BP18">
         <v>3456.5980880000002</v>
       </c>
-      <c r="BN18">
+      <c r="BQ18">
         <v>3152.3957850000002</v>
       </c>
-      <c r="BP18">
+      <c r="BS18">
         <v>106.5078506</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3688,170 +3832,173 @@
         <v>42997</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19">
         <v>36.333333330000002</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>31</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>16.39</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>40</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>19.223333329999999</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>21.49</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>40.713333329999998</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>219.25</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>387.29</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>108.9866667</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>278.30333330000002</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>647.25333330000001</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>2.3521679240000002</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>1.6860892380000001</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>0.52212872099999996</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>4.5911583289999998</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
         <v>0.93376227199999995</v>
       </c>
-      <c r="W19">
+      <c r="Z19">
         <v>6.0332436559999998</v>
       </c>
-      <c r="X19">
+      <c r="AA19">
         <v>0.43640024599999999</v>
       </c>
-      <c r="Y19">
+      <c r="AB19">
         <v>0.35975561299999997</v>
       </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>1.14375928</v>
       </c>
-      <c r="AA19">
+      <c r="AD19">
         <v>17.7300304</v>
       </c>
-      <c r="AB19">
+      <c r="AE19">
         <v>1.0196174790000001</v>
       </c>
-      <c r="AC19">
+      <c r="AF19">
         <v>16.71041292</v>
       </c>
-      <c r="AD19">
+      <c r="AG19">
         <v>19.669945540000001</v>
       </c>
-      <c r="AI19">
+      <c r="AL19">
         <v>733.33333330000005</v>
       </c>
-      <c r="AJ19">
+      <c r="AM19">
         <v>47.663444439999999</v>
       </c>
-      <c r="AK19">
+      <c r="AN19">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AL19">
+      <c r="AO19">
         <v>3.4641016150000001</v>
       </c>
-      <c r="AM19">
+      <c r="AP19">
         <v>0.348281495</v>
       </c>
-      <c r="AN19">
+      <c r="AQ19">
         <v>4.67</v>
       </c>
-      <c r="AQ19">
+      <c r="AT19">
         <v>15.94061898</v>
       </c>
-      <c r="AR19">
+      <c r="AU19">
         <v>10.5</v>
       </c>
-      <c r="AS19">
+      <c r="AV19">
         <v>25.78087146</v>
       </c>
-      <c r="AT19">
+      <c r="AW19">
         <v>11.883181390000001</v>
       </c>
-      <c r="AU19">
+      <c r="AX19">
         <v>53.30703518</v>
       </c>
-      <c r="AV19">
+      <c r="AY19">
         <v>11.006317879999999</v>
       </c>
-      <c r="AW19">
+      <c r="AZ19">
         <v>42.300721430000003</v>
       </c>
-      <c r="AX19">
+      <c r="BA19">
         <v>750.10421499999995</v>
       </c>
-      <c r="AY19">
+      <c r="BB19">
         <v>0.205624793</v>
       </c>
-      <c r="AZ19">
+      <c r="BC19">
         <v>8.6981791000000003E-2</v>
       </c>
-      <c r="BA19">
+      <c r="BD19">
         <v>6.4591645000000003E-2</v>
       </c>
-      <c r="BB19">
+      <c r="BE19">
         <v>0.247615847</v>
       </c>
-      <c r="BC19">
+      <c r="BF19">
         <v>0.16779386900000001</v>
       </c>
-      <c r="BD19">
+      <c r="BG19">
         <v>0.35224639200000002</v>
       </c>
-      <c r="BE19">
+      <c r="BH19">
         <v>0.33582984900000001</v>
       </c>
-      <c r="BF19">
+      <c r="BI19">
         <v>0.17449678199999999</v>
       </c>
-      <c r="BG19">
+      <c r="BJ19">
         <v>0.14542123200000001</v>
       </c>
-      <c r="BH19">
+      <c r="BK19">
         <v>2.0032270049999998</v>
       </c>
-      <c r="BI19">
+      <c r="BL19">
         <v>0.215670792</v>
       </c>
-      <c r="BJ19">
+      <c r="BM19">
         <v>1.8231119410000001</v>
       </c>
-      <c r="BK19">
+      <c r="BN19">
         <v>2.316815096</v>
       </c>
-      <c r="BP19">
+      <c r="BS19">
         <v>106.5078506</v>
       </c>
-      <c r="BQ19">
+      <c r="BT19">
         <v>7.2446063140000003</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3861,20 +4008,23 @@
       <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P20">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="S20">
         <v>308.80134229999999</v>
       </c>
-      <c r="AJ20">
+      <c r="AM20">
         <v>52.886666669999997</v>
       </c>
-      <c r="AW20">
+      <c r="AZ20">
         <v>14.451823940000001</v>
       </c>
-      <c r="BQ20">
+      <c r="BT20">
         <v>2.4750824900000001</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3882,14 +4032,17 @@
         <v>42916</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="AH21">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="AK21">
         <v>818.88888889999998</v>
       </c>
-      <c r="BO21">
+      <c r="BR21">
         <v>10.18350154</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3897,11 +4050,422 @@
         <v>42934</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="AH22">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="AK22">
         <v>971.66666669999995</v>
       </c>
-      <c r="BO22">
+      <c r="BR22">
         <v>99.068578939999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>21</v>
+      </c>
+      <c r="F23" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>37</v>
+      </c>
+      <c r="F27" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
+        <v>40</v>
+      </c>
+      <c r="F28" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>67</v>
+      </c>
+      <c r="F29" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>72</v>
+      </c>
+      <c r="F30" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="5">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="5">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5">
+        <v>43</v>
+      </c>
+      <c r="F32" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="5">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5">
+        <v>43</v>
+      </c>
+      <c r="F33" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="5">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="5">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5">
+        <v>48</v>
+      </c>
+      <c r="F35" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="5">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5">
+        <v>53</v>
+      </c>
+      <c r="F36" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="5">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5">
+        <v>71</v>
+      </c>
+      <c r="F37" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="5">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5">
+        <v>73</v>
+      </c>
+      <c r="F38" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="5">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5">
+        <v>34</v>
+      </c>
+      <c r="F39" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="5">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5">
+        <v>35</v>
+      </c>
+      <c r="F40" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5">
+        <v>38</v>
+      </c>
+      <c r="F41" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="5">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5">
+        <v>40</v>
+      </c>
+      <c r="F42" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="5">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5">
+        <v>41</v>
+      </c>
+      <c r="F43" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7</v>
+      </c>
+      <c r="E44" s="5">
+        <v>49</v>
+      </c>
+      <c r="F44" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="5">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5">
+        <v>60</v>
+      </c>
+      <c r="F45" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="5">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5">
+        <v>62</v>
+      </c>
+      <c r="F46" s="5">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CDDBE5-3B30-45A8-A569-D5908102FDFD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F067E-F6B3-4ED6-8B5B-BD6578412767}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>SimulationName</t>
   </si>
@@ -278,70 +278,88 @@
     <t>Arkansas2001CvLambert_MG0</t>
   </si>
   <si>
-    <t>Arkansas2001CvIA1006_MG01</t>
-  </si>
-  <si>
-    <t>Arkansas2001CvIA2008_MG02</t>
-  </si>
-  <si>
-    <t>Arkansas2001CvMacon_MG03</t>
-  </si>
-  <si>
-    <t>Arkansas2001CvPioneer94B01_MG04</t>
-  </si>
-  <si>
-    <t>Arkansas2001CvHutcheson_MG05</t>
-  </si>
-  <si>
-    <t>Arkansas2001CvNK622_MG06</t>
-  </si>
-  <si>
     <t>Arkansas2002CvTrial_MG00</t>
   </si>
   <si>
     <t>Arkansas2002CvLambert_MG0</t>
   </si>
   <si>
-    <t>Arkansas2002CvIA1006_MG01</t>
-  </si>
-  <si>
-    <t>Arkansas2002CvIA2008_MG02</t>
-  </si>
-  <si>
-    <t>Arkansas2002CvMacon_MG03</t>
-  </si>
-  <si>
-    <t>Arkansas2002CvPioneer94B01_MG04</t>
-  </si>
-  <si>
-    <t>Arkansas2002CvHutcheson_MG05</t>
-  </si>
-  <si>
-    <t>Arkansas2002CvNK622_MG06</t>
-  </si>
-  <si>
     <t>Arkansas2003CvTrial_MG00</t>
   </si>
   <si>
     <t>Arkansas2003CvLambert_MG0</t>
   </si>
   <si>
-    <t>Arkansas2003CvIA1006_MG01</t>
-  </si>
-  <si>
-    <t>Arkansas2003CvIA2008_MG02</t>
-  </si>
-  <si>
-    <t>Arkansas2003CvMacon_MG03</t>
-  </si>
-  <si>
-    <t>Arkansas2003CvPioneer94B01_MG04</t>
-  </si>
-  <si>
-    <t>Arkansas2003CvHutcheson_MG05</t>
-  </si>
-  <si>
-    <t>Arkansas2003CvNK622_MG06</t>
+    <t>Indiana2006SowMar30</t>
+  </si>
+  <si>
+    <t>Indiana2006SowApr13</t>
+  </si>
+  <si>
+    <t>Indiana2006SowApr27</t>
+  </si>
+  <si>
+    <t>Indiana2006SowMay10</t>
+  </si>
+  <si>
+    <t>Indiana2006SowMay30</t>
+  </si>
+  <si>
+    <t>Indiana2006SowJun06</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvIA1006_MG10</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvIA2008_MG20</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvMacon_MG30</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvPioneer94B01_MG40</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvHutcheson_MG50</t>
+  </si>
+  <si>
+    <t>Arkansas2001CvNK622_MG60</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvIA1006_MG10</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvIA2008_MG20</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvMacon_MG30</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvPioneer94B01_MG40</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvHutcheson_MG50</t>
+  </si>
+  <si>
+    <t>Arkansas2002CvNK622_MG60</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvIA1006_MG10</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvIA2008_MG20</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvMacon_MG30</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvPioneer94B01_MG40</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvHutcheson_MG50</t>
+  </si>
+  <si>
+    <t>Arkansas2003CvNK622_MG60</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
-  <dimension ref="A1:BT46"/>
+  <dimension ref="A1:BT54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C46"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4096,7 +4114,7 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>77</v>
@@ -4113,7 +4131,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
@@ -4130,7 +4148,7 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>77</v>
@@ -4147,7 +4165,7 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>77</v>
@@ -4164,7 +4182,7 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>77</v>
@@ -4181,7 +4199,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>77</v>
@@ -4198,7 +4216,7 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>77</v>
@@ -4215,7 +4233,7 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>77</v>
@@ -4230,9 +4248,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>77</v>
@@ -4247,9 +4265,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4264,9 +4282,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>77</v>
@@ -4281,9 +4299,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>77</v>
@@ -4298,9 +4316,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>77</v>
@@ -4315,9 +4333,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>77</v>
@@ -4332,9 +4350,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>77</v>
@@ -4349,9 +4367,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>77</v>
@@ -4366,9 +4384,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>77</v>
@@ -4383,9 +4401,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>77</v>
@@ -4400,9 +4418,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>77</v>
@@ -4417,9 +4435,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>77</v>
@@ -4434,9 +4452,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>77</v>
@@ -4451,9 +4469,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>77</v>
@@ -4467,6 +4485,150 @@
       <c r="F46" s="5">
         <v>140</v>
       </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="5">
+        <v>22</v>
+      </c>
+      <c r="E47" s="5">
+        <v>84</v>
+      </c>
+      <c r="F47" s="5">
+        <v>167</v>
+      </c>
+      <c r="S47" s="5">
+        <v>430</v>
+      </c>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="5">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5">
+        <v>71</v>
+      </c>
+      <c r="F48" s="5">
+        <v>159</v>
+      </c>
+      <c r="S48" s="5">
+        <v>410</v>
+      </c>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="5">
+        <v>14</v>
+      </c>
+      <c r="E49" s="5">
+        <v>64</v>
+      </c>
+      <c r="F49" s="5">
+        <v>148</v>
+      </c>
+      <c r="S49" s="5">
+        <v>400</v>
+      </c>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="5">
+        <v>16</v>
+      </c>
+      <c r="E50" s="5">
+        <v>55</v>
+      </c>
+      <c r="F50" s="5">
+        <v>139</v>
+      </c>
+      <c r="S50" s="5">
+        <v>410</v>
+      </c>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="5">
+        <v>11</v>
+      </c>
+      <c r="E51" s="5">
+        <v>44</v>
+      </c>
+      <c r="F51" s="5">
+        <v>125</v>
+      </c>
+      <c r="S51" s="5">
+        <v>320</v>
+      </c>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="5">
+        <v>16</v>
+      </c>
+      <c r="E52" s="5">
+        <v>43</v>
+      </c>
+      <c r="F52" s="5">
+        <v>118</v>
+      </c>
+      <c r="S52" s="5">
+        <v>300</v>
+      </c>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="S53" s="5">
+        <v>440</v>
+      </c>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="S54" s="5">
+        <v>440</v>
+      </c>
+      <c r="T54" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F329E3-B3CE-42F3-B1A5-9C82E191CF4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A506F8-F5B9-47D3-A647-5471CB225495}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObservedOLD" sheetId="13" r:id="rId1"/>
@@ -78,48 +78,6 @@
   </si>
   <si>
     <t>plants-small</t>
-  </si>
-  <si>
-    <t>PodGreenWt</t>
-  </si>
-  <si>
-    <t>LeafGreennconc</t>
-  </si>
-  <si>
-    <t>LeafSenescednconc</t>
-  </si>
-  <si>
-    <t>StemGreennconc</t>
-  </si>
-  <si>
-    <t>FruitTotalnconc</t>
-  </si>
-  <si>
-    <t>PodGreennconc</t>
-  </si>
-  <si>
-    <t>GrainGrainnconc</t>
-  </si>
-  <si>
-    <t>leafGreenN</t>
-  </si>
-  <si>
-    <t>leafSenescedN</t>
-  </si>
-  <si>
-    <t>StemTotalN</t>
-  </si>
-  <si>
-    <t>FruitGreenN</t>
-  </si>
-  <si>
-    <t>PodGreenN</t>
-  </si>
-  <si>
-    <t>grain_n</t>
-  </si>
-  <si>
-    <t>green_biomass_n</t>
   </si>
   <si>
     <t>SLN_apsim</t>
@@ -559,6 +517,48 @@
   <si>
     <t>Indiana2007SowJun07CvPioneer92MGI_MG26</t>
   </si>
+  <si>
+    <t>Soybean.Leaf.Live.N</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.Dead.N</t>
+  </si>
+  <si>
+    <t>Soybean.Pod.N</t>
+  </si>
+  <si>
+    <t>Soybean.Stem.N</t>
+  </si>
+  <si>
+    <t>Soybean.Pod.Nconc</t>
+  </si>
+  <si>
+    <t>Soybean.Stem.NConc</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.Dead.NConc</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.Live.NConc</t>
+  </si>
+  <si>
+    <t>Soybean.Shell.NConc</t>
+  </si>
+  <si>
+    <t>Soybean.Grain.N</t>
+  </si>
+  <si>
+    <t>Soybean.Shell.Wt</t>
+  </si>
+  <si>
+    <t>Soybean.Grain.NConc</t>
+  </si>
+  <si>
+    <t>Soybean.Shell.N</t>
+  </si>
+  <si>
+    <t>Soybean.AboveGround.N</t>
+  </si>
 </sst>
 </file>
 
@@ -1659,9 +1659,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
   <dimension ref="A1:BV114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A96" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
+      <selection pane="bottomLeft" activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1683,6 +1684,9 @@
     <col min="20" max="20" width="11.68359375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.05078125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.83984375" customWidth="1"/>
+    <col min="23" max="23" width="20.3671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.55000000000000004">
@@ -1696,13 +1700,13 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -1711,202 +1715,202 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s">
         <v>7</v>
       </c>
       <c r="W1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AL1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AM1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AN1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AO1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AP1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AR1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AS1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AT1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AU1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AV1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AW1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AX1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AY1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AZ1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BA1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BB1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BC1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BD1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BE1" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BF1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BG1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BH1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BI1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BK1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BL1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BM1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BN1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BO1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BP1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BQ1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BR1" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BS1" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BT1" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BU1" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BV1" t="s">
         <v>55</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.55000000000000004">
@@ -1952,10 +1956,10 @@
         <v>12.3</v>
       </c>
       <c r="W2">
-        <v>4.6311446829999996</v>
+        <v>4.6311446829999998E-2</v>
       </c>
       <c r="Y2">
-        <v>2.0514227950000001</v>
+        <v>2.0514227950000002E-2</v>
       </c>
       <c r="AC2">
         <v>0.34375607200000002</v>
@@ -2079,10 +2083,10 @@
         <v>50.3</v>
       </c>
       <c r="W3">
-        <v>5.0692481989999996</v>
+        <v>5.0692481989999996E-2</v>
       </c>
       <c r="Y3">
-        <v>1.8245937029999999</v>
+        <v>1.8245937029999999E-2</v>
       </c>
       <c r="AC3">
         <v>1.476158393</v>
@@ -2209,10 +2213,10 @@
         <v>180.85</v>
       </c>
       <c r="W4">
-        <v>5.2969261809999999</v>
+        <v>5.2969261810000001E-2</v>
       </c>
       <c r="Y4">
-        <v>1.830695073</v>
+        <v>1.830695073E-2</v>
       </c>
       <c r="AC4">
         <v>4.8199299030000002</v>
@@ -2352,16 +2356,16 @@
         <v>374.8</v>
       </c>
       <c r="W5">
-        <v>5.2664065359999999</v>
+        <v>5.2664065359999998E-2</v>
       </c>
       <c r="X5">
-        <v>2.4026684359999999</v>
+        <v>2.4026684359999998E-2</v>
       </c>
       <c r="Y5">
-        <v>1.5933583579999999</v>
+        <v>1.5933583580000001E-2</v>
       </c>
       <c r="Z5">
-        <v>3.462394953</v>
+        <v>3.4623949530000003E-2</v>
       </c>
       <c r="AC5">
         <v>7.4919406620000002</v>
@@ -2528,16 +2532,16 @@
         <v>523.70000000000005</v>
       </c>
       <c r="W6">
-        <v>4.9020051960000002</v>
+        <v>4.9020051960000005E-2</v>
       </c>
       <c r="X6">
-        <v>2.7312035560000001</v>
+        <v>2.731203556E-2</v>
       </c>
       <c r="Y6">
-        <v>1.4922018850000001</v>
+        <v>1.4922018850000001E-2</v>
       </c>
       <c r="Z6">
-        <v>3.4</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AC6">
         <v>8.395316459</v>
@@ -2701,16 +2705,16 @@
         <v>722.85333330000003</v>
       </c>
       <c r="W7">
-        <v>4.5780029300000002</v>
+        <v>4.5780029300000004E-2</v>
       </c>
       <c r="X7">
-        <v>2.434477131</v>
+        <v>2.4344771309999999E-2</v>
       </c>
       <c r="Y7">
-        <v>1.360071177</v>
+        <v>1.3600711770000001E-2</v>
       </c>
       <c r="Z7">
-        <v>3.3245203499999998</v>
+        <v>3.3245203500000001E-2</v>
       </c>
       <c r="AC7">
         <v>8.3967630989999993</v>
@@ -2871,16 +2875,16 @@
         <v>898.0133333</v>
       </c>
       <c r="W8">
-        <v>2.7464925450000002</v>
+        <v>2.746492545E-2</v>
       </c>
       <c r="X8">
-        <v>1.897563656</v>
+        <v>1.8975636559999998E-2</v>
       </c>
       <c r="Y8">
-        <v>0.81153414599999996</v>
+        <v>8.1153414599999998E-3</v>
       </c>
       <c r="Z8">
-        <v>3.87950778</v>
+        <v>3.8795077800000001E-2</v>
       </c>
       <c r="AC8">
         <v>4.4259175710000003</v>
@@ -3037,22 +3041,22 @@
         <v>688.29333329999997</v>
       </c>
       <c r="W9">
-        <v>2.2859224079999998</v>
+        <v>2.2859224079999997E-2</v>
       </c>
       <c r="X9">
-        <v>1.7393941879999999</v>
+        <v>1.739394188E-2</v>
       </c>
       <c r="Y9">
-        <v>0.490818898</v>
+        <v>4.9081889800000004E-3</v>
       </c>
       <c r="Z9">
-        <v>4.4114886699999998</v>
+        <v>4.4114886699999994E-2</v>
       </c>
       <c r="AA9">
-        <v>0.79016911999999995</v>
+        <v>7.9016911999999998E-3</v>
       </c>
       <c r="AB9">
-        <v>5.8392753600000002</v>
+        <v>5.3927535999999998E-2</v>
       </c>
       <c r="AC9">
         <v>0.36035655300000002</v>
@@ -3171,7 +3175,7 @@
         <v>43026</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3268,10 +3272,10 @@
         <v>29.533333329999998</v>
       </c>
       <c r="W13">
-        <v>5.3513595260000004</v>
+        <v>5.3513595260000005E-2</v>
       </c>
       <c r="Y13">
-        <v>2.557780186</v>
+        <v>2.5577801859999999E-2</v>
       </c>
       <c r="AC13">
         <v>0.92831271999999998</v>
@@ -3398,10 +3402,10 @@
         <v>108.02666670000001</v>
       </c>
       <c r="W14">
-        <v>5.5619044300000002</v>
+        <v>5.5619044300000003E-2</v>
       </c>
       <c r="Y14">
-        <v>2.2197982469999999</v>
+        <v>2.2197982469999999E-2</v>
       </c>
       <c r="AC14">
         <v>3.3607650140000001</v>
@@ -3534,16 +3538,16 @@
         <v>247.96666669999999</v>
       </c>
       <c r="W15">
-        <v>5.6759546600000004</v>
+        <v>5.6759546600000002E-2</v>
       </c>
       <c r="X15">
-        <v>2.2230339849999998</v>
+        <v>2.2230339849999999E-2</v>
       </c>
       <c r="Y15">
-        <v>1.49628977</v>
+        <v>1.49628977E-2</v>
       </c>
       <c r="Z15">
-        <v>3.4290581539999998</v>
+        <v>3.4290581539999997E-2</v>
       </c>
       <c r="AC15">
         <v>6.0370028959999997</v>
@@ -3707,16 +3711,16 @@
         <v>446.53333329999998</v>
       </c>
       <c r="W16">
-        <v>4.7166145640000003</v>
+        <v>4.7166145640000004E-2</v>
       </c>
       <c r="X16">
-        <v>2.4504482350000001</v>
+        <v>2.4504482350000002E-2</v>
       </c>
       <c r="Y16">
-        <v>1.330648343</v>
+        <v>1.330648343E-2</v>
       </c>
       <c r="Z16">
-        <v>3.5</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC16">
         <v>7.7601181229999998</v>
@@ -3880,16 +3884,16 @@
         <v>626.28666670000007</v>
       </c>
       <c r="W17">
-        <v>4.7927247680000002</v>
+        <v>4.792724768E-2</v>
       </c>
       <c r="X17">
-        <v>2.4406307140000001</v>
+        <v>2.440630714E-2</v>
       </c>
       <c r="Y17">
-        <v>1.375053326</v>
+        <v>1.375053326E-2</v>
       </c>
       <c r="Z17">
-        <v>3.5871027309999999</v>
+        <v>3.5871027309999998E-2</v>
       </c>
       <c r="AC17">
         <v>8.4749179560000005</v>
@@ -4050,16 +4054,16 @@
         <v>804.05666670000005</v>
       </c>
       <c r="W18">
-        <v>3.4432400859999999</v>
+        <v>3.4432400859999997E-2</v>
       </c>
       <c r="X18">
-        <v>1.938536008</v>
+        <v>1.938536008E-2</v>
       </c>
       <c r="Y18">
-        <v>0.93853016700000003</v>
+        <v>9.3853016700000003E-3</v>
       </c>
       <c r="Z18">
-        <v>3.5966654619999998</v>
+        <v>3.5966654619999996E-2</v>
       </c>
       <c r="AC18">
         <v>5.9953915029999996</v>
@@ -4216,22 +4220,22 @@
         <v>647.25333330000001</v>
       </c>
       <c r="W19">
-        <v>2.3521679240000002</v>
+        <v>2.3521679240000003E-2</v>
       </c>
       <c r="X19">
-        <v>1.6860892380000001</v>
+        <v>1.6860892380000003E-2</v>
       </c>
       <c r="Y19">
-        <v>0.52212872099999996</v>
+        <v>5.2212872099999998E-3</v>
       </c>
       <c r="Z19">
-        <v>4.5911583289999998</v>
+        <v>4.5911583289999995E-2</v>
       </c>
       <c r="AA19">
-        <v>0.93376227199999995</v>
+        <v>9.3376227199999991E-3</v>
       </c>
       <c r="AB19">
-        <v>6.0332436559999998</v>
+        <v>6.0332436560000001E-2</v>
       </c>
       <c r="AC19">
         <v>0.43640024599999999</v>
@@ -4350,7 +4354,7 @@
         <v>43026</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4406,7 +4410,7 @@
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4">
         <v>42898</v>
@@ -4445,30 +4449,6 @@
       <c r="V23">
         <v>14.855333330000001</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>38030.98921</v>
       </c>
@@ -4547,7 +4527,7 @@
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B24" s="4">
         <v>42915</v>
@@ -4586,30 +4566,6 @@
       <c r="V24">
         <v>73.633333329999999</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>22159.869739999998</v>
       </c>
@@ -4688,7 +4644,7 @@
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4">
         <v>42929</v>
@@ -4727,30 +4683,6 @@
       <c r="V25">
         <v>148.93333329999999</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>23266.329870000001</v>
       </c>
@@ -4832,7 +4764,7 @@
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B26" s="4">
         <v>42943</v>
@@ -4877,30 +4809,6 @@
       <c r="V26">
         <v>308.06666669999998</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>28154.005659999999</v>
       </c>
@@ -4988,7 +4896,7 @@
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4">
         <v>42957</v>
@@ -5036,30 +4944,6 @@
       <c r="V27">
         <v>508.78</v>
       </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>27123.857769999999</v>
       </c>
@@ -5150,7 +5034,7 @@
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B28" s="4">
         <v>42975</v>
@@ -5198,30 +5082,6 @@
       <c r="V28">
         <v>696.32333329999994</v>
       </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>24539.78052</v>
       </c>
@@ -5306,7 +5166,7 @@
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B29" s="4">
         <v>42993</v>
@@ -5350,27 +5210,6 @@
       <c r="V29">
         <v>752.1</v>
       </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
       <c r="AO29">
         <v>57.915900379999997</v>
       </c>
@@ -5437,7 +5276,7 @@
     </row>
     <row r="30" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B30" s="4">
         <v>43028</v>
@@ -5448,27 +5287,6 @@
       <c r="U30">
         <v>378.40134230000001</v>
       </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
       <c r="AO30">
         <v>64.806666669999998</v>
       </c>
@@ -5502,7 +5320,7 @@
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B31" s="4">
         <v>42898</v>
@@ -5516,27 +5334,6 @@
       <c r="H31">
         <v>25.666666670000001</v>
       </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
       <c r="AM31">
         <v>220.1333333</v>
       </c>
@@ -5576,7 +5373,7 @@
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B32" s="4">
         <v>42915</v>
@@ -5615,30 +5412,6 @@
       <c r="V32">
         <v>28.366666670000001</v>
       </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>18761.898669999999</v>
       </c>
@@ -5717,7 +5490,7 @@
     </row>
     <row r="33" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B33" s="4">
         <v>42929</v>
@@ -5756,30 +5529,6 @@
       <c r="V33">
         <v>75.483333329999994</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>22983.122050000002</v>
       </c>
@@ -5861,7 +5610,7 @@
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B34" s="4">
         <v>42943</v>
@@ -5906,30 +5655,6 @@
       <c r="V34">
         <v>235.8</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>33565.220029999997</v>
       </c>
@@ -6017,7 +5742,7 @@
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B35" s="4">
         <v>42957</v>
@@ -6065,30 +5790,6 @@
       <c r="V35">
         <v>391.19666669999998</v>
       </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>27930.12355</v>
       </c>
@@ -6179,7 +5880,7 @@
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4">
         <v>42975</v>
@@ -6227,30 +5928,6 @@
       <c r="V36">
         <v>642.03333299999997</v>
       </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>26258.566169999998</v>
       </c>
@@ -6332,7 +6009,7 @@
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4">
         <v>42993</v>
@@ -6376,27 +6053,6 @@
       <c r="V37">
         <v>740.49</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
       <c r="AO37">
         <v>48.302260539999999</v>
       </c>
@@ -6463,7 +6119,7 @@
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B38" s="4">
         <v>43028</v>
@@ -6474,27 +6130,6 @@
       <c r="U38">
         <v>337.5872483</v>
       </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
       <c r="AO38">
         <v>57.816666669999996</v>
       </c>
@@ -6528,10 +6163,10 @@
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D39" s="5">
         <v>6</v>
@@ -6545,10 +6180,10 @@
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D40" s="5">
         <v>6</v>
@@ -6562,10 +6197,10 @@
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D41" s="5">
         <v>6</v>
@@ -6579,10 +6214,10 @@
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D42" s="5">
         <v>6</v>
@@ -6596,10 +6231,10 @@
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D43" s="5">
         <v>6</v>
@@ -6613,10 +6248,10 @@
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D44" s="5">
         <v>6</v>
@@ -6630,10 +6265,10 @@
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D45" s="5">
         <v>6</v>
@@ -6647,10 +6282,10 @@
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D46" s="5">
         <v>6</v>
@@ -6664,10 +6299,10 @@
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D47" s="5">
         <v>13</v>
@@ -6681,10 +6316,10 @@
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D48" s="5">
         <v>13</v>
@@ -6698,10 +6333,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D49" s="5">
         <v>13</v>
@@ -6715,10 +6350,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D50" s="5">
         <v>13</v>
@@ -6732,10 +6367,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D51" s="5">
         <v>13</v>
@@ -6749,10 +6384,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D52" s="5">
         <v>13</v>
@@ -6766,10 +6401,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D53" s="5">
         <v>13</v>
@@ -6783,10 +6418,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D54" s="5">
         <v>13</v>
@@ -6800,10 +6435,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D55" s="5">
         <v>7</v>
@@ -6817,10 +6452,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D56" s="5">
         <v>7</v>
@@ -6834,10 +6469,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D57" s="5">
         <v>7</v>
@@ -6851,10 +6486,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D58" s="5">
         <v>7</v>
@@ -6868,10 +6503,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D59" s="5">
         <v>7</v>
@@ -6885,10 +6520,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D60" s="5">
         <v>7</v>
@@ -6902,10 +6537,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D61" s="5">
         <v>7</v>
@@ -6919,10 +6554,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D62" s="5">
         <v>7</v>
@@ -6936,10 +6571,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5">
@@ -6949,10 +6584,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5">
@@ -6962,10 +6597,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E65" s="5">
         <v>52</v>
@@ -6973,10 +6608,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E66" s="5">
         <v>52</v>
@@ -6984,10 +6619,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E67" s="5">
         <v>42</v>
@@ -6995,10 +6630,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E68" s="5">
         <v>42</v>
@@ -7006,10 +6641,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E69" s="5">
         <v>56</v>
@@ -7017,10 +6652,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E70" s="5">
         <v>55</v>
@@ -7028,10 +6663,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E71" s="5">
         <v>39</v>
@@ -7039,10 +6674,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E72" s="5">
         <v>40</v>
@@ -7050,10 +6685,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E73" s="5">
         <v>58</v>
@@ -7061,10 +6696,10 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E74" s="5">
         <v>60</v>
@@ -7072,10 +6707,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E75" s="5">
         <v>38</v>
@@ -7083,10 +6718,10 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E76" s="5">
         <v>41</v>
@@ -7094,10 +6729,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E77" s="5">
         <v>55</v>
@@ -7105,10 +6740,10 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E78" s="5">
         <v>58</v>
@@ -7116,10 +6751,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D79" s="5">
         <v>22</v>
@@ -7136,10 +6771,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D80" s="5">
         <v>20</v>
@@ -7156,10 +6791,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D81" s="5">
         <v>14</v>
@@ -7176,10 +6811,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D82" s="5">
         <v>16</v>
@@ -7196,10 +6831,10 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D83" s="5">
         <v>11</v>
@@ -7216,10 +6851,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D84" s="5">
         <v>16</v>
@@ -7236,10 +6871,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D85" s="5">
         <v>31</v>
@@ -7256,10 +6891,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D86" s="5">
         <v>25</v>
@@ -7276,10 +6911,10 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D87" s="5">
         <v>9</v>
@@ -7296,10 +6931,10 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D88" s="5">
         <v>9</v>
@@ -7316,10 +6951,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D89" s="5">
         <v>9</v>
@@ -7336,10 +6971,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D90" s="5">
         <v>11</v>
@@ -7356,10 +6991,10 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D91" s="5">
         <v>22</v>
@@ -7376,10 +7011,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D92" s="5">
         <v>20</v>
@@ -7396,10 +7031,10 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D93" s="5">
         <v>14</v>
@@ -7416,10 +7051,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D94" s="5">
         <v>16</v>
@@ -7436,10 +7071,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D95" s="5">
         <v>11</v>
@@ -7456,10 +7091,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D96" s="5">
         <v>16</v>
@@ -7476,10 +7111,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D97" s="5">
         <v>31</v>
@@ -7496,10 +7131,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D98" s="5">
         <v>25</v>
@@ -7516,10 +7151,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D99" s="5">
         <v>9</v>
@@ -7536,10 +7171,10 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D100" s="5">
         <v>9</v>
@@ -7556,10 +7191,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D101" s="5">
         <v>9</v>
@@ -7576,10 +7211,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D102" s="5">
         <v>11</v>
@@ -7596,10 +7231,10 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D103" s="5">
         <v>22</v>
@@ -7616,10 +7251,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D104" s="5">
         <v>20</v>
@@ -7636,10 +7271,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D105" s="5">
         <v>14</v>
@@ -7656,10 +7291,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D106" s="5">
         <v>16</v>
@@ -7676,10 +7311,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D107" s="5">
         <v>11</v>
@@ -7696,10 +7331,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D108" s="5">
         <v>16</v>
@@ -7716,10 +7351,10 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D109" s="5">
         <v>31</v>
@@ -7736,10 +7371,10 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D110" s="5">
         <v>25</v>
@@ -7756,10 +7391,10 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D111" s="5">
         <v>9</v>
@@ -7776,10 +7411,10 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D112" s="5">
         <v>9</v>
@@ -7796,10 +7431,10 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D113" s="5">
         <v>9</v>
@@ -7816,10 +7451,10 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D114" s="5">
         <v>11</v>
@@ -7860,10 +7495,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9593,8 +9228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFA9B49-2792-48D3-82BC-E629331E59DB}">
   <dimension ref="A1:M576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300:F404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9602,6 +9237,10 @@
     <col min="1" max="1" width="16.3125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -9612,25 +9251,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="M1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -9642,7 +9281,7 @@
       </c>
       <c r="J2" s="4"/>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11021,7 +10660,7 @@
         <v>950.91666999999995</v>
       </c>
       <c r="H122" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J122" s="4"/>
     </row>
@@ -11048,7 +10687,7 @@
         <v>942</v>
       </c>
       <c r="H123" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J123" s="4"/>
     </row>
@@ -11426,7 +11065,7 @@
         <v>1134.4166700000001</v>
       </c>
       <c r="H137" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J137" s="4"/>
     </row>
@@ -15123,18 +14762,6 @@
       <c r="B300" s="4">
         <v>42737</v>
       </c>
-      <c r="C300">
-        <v>0.18492</v>
-      </c>
-      <c r="D300">
-        <v>4.4549999999999999E-2</v>
-      </c>
-      <c r="E300">
-        <v>0.17358000000000001</v>
-      </c>
-      <c r="F300">
-        <v>4.1009999999999998E-2</v>
-      </c>
       <c r="M300" s="4"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15144,18 +14771,6 @@
       <c r="B301" s="4">
         <v>42738</v>
       </c>
-      <c r="C301">
-        <v>0.18683</v>
-      </c>
-      <c r="D301">
-        <v>4.0890000000000003E-2</v>
-      </c>
-      <c r="E301">
-        <v>0.17624999999999999</v>
-      </c>
-      <c r="F301">
-        <v>3.7010000000000001E-2</v>
-      </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
@@ -15164,18 +14779,6 @@
       <c r="B302" s="4">
         <v>42739</v>
       </c>
-      <c r="C302">
-        <v>0.17674999999999999</v>
-      </c>
-      <c r="D302">
-        <v>5.5149999999999998E-2</v>
-      </c>
-      <c r="E302">
-        <v>0.16508</v>
-      </c>
-      <c r="F302">
-        <v>5.2209999999999999E-2</v>
-      </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
@@ -15184,18 +14787,6 @@
       <c r="B303" s="4">
         <v>42740</v>
       </c>
-      <c r="C303">
-        <v>0.17041999999999999</v>
-      </c>
-      <c r="D303">
-        <v>5.398E-2</v>
-      </c>
-      <c r="E303">
-        <v>0.15978999999999999</v>
-      </c>
-      <c r="F303">
-        <v>5.3330000000000002E-2</v>
-      </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
@@ -15204,1938 +14795,774 @@
       <c r="B304" s="4">
         <v>42741</v>
       </c>
-      <c r="C304">
-        <v>0.16458</v>
-      </c>
-      <c r="D304">
-        <v>5.4449999999999998E-2</v>
-      </c>
-      <c r="E304">
-        <v>0.15520999999999999</v>
-      </c>
-      <c r="F304">
-        <v>5.6509999999999998E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>4</v>
       </c>
       <c r="B305" s="4">
         <v>42742</v>
       </c>
-      <c r="C305">
-        <v>0.15404000000000001</v>
-      </c>
-      <c r="D305">
-        <v>3.8240000000000003E-2</v>
-      </c>
-      <c r="E305">
-        <v>0.14588000000000001</v>
-      </c>
-      <c r="F305">
-        <v>4.1779999999999998E-2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>4</v>
       </c>
       <c r="B306" s="4">
         <v>42743</v>
       </c>
-      <c r="C306">
-        <v>0.13553999999999999</v>
-      </c>
-      <c r="D306">
-        <v>1.491E-2</v>
-      </c>
-      <c r="E306">
-        <v>0.12992000000000001</v>
-      </c>
-      <c r="F306">
-        <v>2.2159999999999999E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>4</v>
       </c>
       <c r="B307" s="4">
         <v>42744</v>
       </c>
-      <c r="C307">
-        <v>0.13083</v>
-      </c>
-      <c r="D307">
-        <v>6.13E-3</v>
-      </c>
-      <c r="E307">
-        <v>0.12642</v>
-      </c>
-      <c r="F307">
-        <v>1.438E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>4</v>
       </c>
       <c r="B308" s="4">
         <v>42745</v>
       </c>
-      <c r="C308">
-        <v>0.13408</v>
-      </c>
-      <c r="D308">
-        <v>7.1000000000000002E-4</v>
-      </c>
-      <c r="E308">
-        <v>0.12962000000000001</v>
-      </c>
-      <c r="F308">
-        <v>8.0700000000000008E-3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>4</v>
       </c>
       <c r="B309" s="4">
         <v>42746</v>
       </c>
-      <c r="C309">
-        <v>0.13567000000000001</v>
-      </c>
-      <c r="D309">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="E309">
-        <v>0.13083</v>
-      </c>
-      <c r="F309">
-        <v>7.7799999999999996E-3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>4</v>
       </c>
       <c r="B310" s="4">
         <v>42747</v>
       </c>
-      <c r="C310">
-        <v>0.13145999999999999</v>
-      </c>
-      <c r="D310">
-        <v>3.48E-3</v>
-      </c>
-      <c r="E310">
-        <v>0.12662999999999999</v>
-      </c>
-      <c r="F310">
-        <v>1.1730000000000001E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>4</v>
       </c>
       <c r="B311" s="4">
         <v>42748</v>
       </c>
-      <c r="C311">
-        <v>0.12828999999999999</v>
-      </c>
-      <c r="D311">
-        <v>2.5300000000000001E-3</v>
-      </c>
-      <c r="E311">
-        <v>0.12379</v>
-      </c>
-      <c r="F311">
-        <v>1.125E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>4</v>
       </c>
       <c r="B312" s="4">
         <v>42749</v>
       </c>
-      <c r="C312">
-        <v>0.12778999999999999</v>
-      </c>
-      <c r="D312">
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="E312">
-        <v>0.12346</v>
-      </c>
-      <c r="F312">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>4</v>
       </c>
       <c r="B313" s="4">
         <v>42750</v>
       </c>
-      <c r="C313">
-        <v>0.13045999999999999</v>
-      </c>
-      <c r="D313">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="E313">
-        <v>0.12570999999999999</v>
-      </c>
-      <c r="F313">
-        <v>5.4799999999999996E-3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>4</v>
       </c>
       <c r="B314" s="4">
         <v>42751</v>
       </c>
-      <c r="C314">
-        <v>0.13746</v>
-      </c>
-      <c r="D314">
-        <v>1.3600000000000001E-3</v>
-      </c>
-      <c r="E314">
-        <v>0.12867000000000001</v>
-      </c>
-      <c r="F314">
-        <v>4.2399999999999998E-3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>4</v>
       </c>
       <c r="B315" s="4">
         <v>42752</v>
       </c>
-      <c r="C315">
-        <v>0.14896000000000001</v>
-      </c>
-      <c r="D315">
-        <v>1.5730000000000001E-2</v>
-      </c>
-      <c r="E315">
-        <v>0.13475000000000001</v>
-      </c>
-      <c r="F315">
-        <v>1.65E-3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>4</v>
       </c>
       <c r="B316" s="4">
         <v>42753</v>
       </c>
-      <c r="C316">
-        <v>0.15645999999999999</v>
-      </c>
-      <c r="D316">
-        <v>1.137E-2</v>
-      </c>
-      <c r="E316">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="F316">
-        <v>2.7100000000000002E-3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>4</v>
       </c>
       <c r="B317" s="4">
         <v>42754</v>
       </c>
-      <c r="C317">
-        <v>0.16163</v>
-      </c>
-      <c r="D317">
-        <v>4.5399999999999998E-3</v>
-      </c>
-      <c r="E317">
-        <v>0.16067000000000001</v>
-      </c>
-      <c r="F317">
-        <v>1.308E-2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>4</v>
       </c>
       <c r="B318" s="4">
         <v>42755</v>
       </c>
-      <c r="C318">
-        <v>0.16433</v>
-      </c>
-      <c r="D318">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="E318">
-        <v>0.16375000000000001</v>
-      </c>
-      <c r="F318">
-        <v>1.355E-2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>4</v>
       </c>
       <c r="B319" s="4">
         <v>42756</v>
       </c>
-      <c r="C319">
-        <v>0.20316999999999999</v>
-      </c>
-      <c r="D319">
-        <v>4.7730000000000002E-2</v>
-      </c>
-      <c r="E319">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="F319">
-        <v>1.155E-2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>4</v>
       </c>
       <c r="B320" s="4">
         <v>42757</v>
       </c>
-      <c r="C320">
-        <v>0.24324999999999999</v>
-      </c>
-      <c r="D320">
-        <v>9.6990000000000007E-2</v>
-      </c>
-      <c r="E320">
-        <v>0.17821000000000001</v>
-      </c>
-      <c r="F320">
-        <v>4.0699999999999998E-3</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>4</v>
       </c>
       <c r="B321" s="4">
         <v>42758</v>
       </c>
-      <c r="C321">
-        <v>0.24442</v>
-      </c>
-      <c r="D321">
-        <v>9.5579999999999998E-2</v>
-      </c>
-      <c r="E321">
-        <v>0.183</v>
-      </c>
-      <c r="F321">
-        <v>8.1999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>4</v>
       </c>
       <c r="B322" s="4">
         <v>42759</v>
       </c>
-      <c r="C322">
-        <v>0.23921000000000001</v>
-      </c>
-      <c r="D322">
-        <v>8.3970000000000003E-2</v>
-      </c>
-      <c r="E322">
-        <v>0.18583</v>
-      </c>
-      <c r="F322">
-        <v>1.1800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>4</v>
       </c>
       <c r="B323" s="4">
         <v>42760</v>
       </c>
-      <c r="C323">
-        <v>0.23333000000000001</v>
-      </c>
-      <c r="D323">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="E323">
-        <v>0.18546000000000001</v>
-      </c>
-      <c r="F323">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>4</v>
       </c>
       <c r="B324" s="4">
         <v>42761</v>
       </c>
-      <c r="C324">
-        <v>0.23188</v>
-      </c>
-      <c r="D324">
-        <v>6.087E-2</v>
-      </c>
-      <c r="E324">
-        <v>0.18667</v>
-      </c>
-      <c r="F324">
-        <v>4.6999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>4</v>
       </c>
       <c r="B325" s="4">
         <v>42762</v>
       </c>
-      <c r="C325">
-        <v>0.22608</v>
-      </c>
-      <c r="D325">
-        <v>4.4670000000000001E-2</v>
-      </c>
-      <c r="E325">
-        <v>0.18754000000000001</v>
-      </c>
-      <c r="F325">
-        <v>1.5900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>4</v>
       </c>
       <c r="B326" s="4">
         <v>42763</v>
       </c>
-      <c r="C326">
-        <v>0.21879000000000001</v>
-      </c>
-      <c r="D326">
-        <v>2.3980000000000001E-2</v>
-      </c>
-      <c r="E326">
-        <v>0.18754000000000001</v>
-      </c>
-      <c r="F326">
-        <v>4.6600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>4</v>
       </c>
       <c r="B327" s="4">
         <v>42764</v>
       </c>
-      <c r="C327">
-        <v>0.21812000000000001</v>
-      </c>
-      <c r="D327">
-        <v>8.43E-3</v>
-      </c>
-      <c r="E327">
-        <v>0.18792</v>
-      </c>
-      <c r="F327">
-        <v>7.4200000000000004E-3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>4</v>
       </c>
       <c r="B328" s="4">
         <v>42765</v>
       </c>
-      <c r="C328">
-        <v>0.222</v>
-      </c>
-      <c r="D328">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="E328">
-        <v>0.18975</v>
-      </c>
-      <c r="F328">
-        <v>8.8400000000000006E-3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>4</v>
       </c>
       <c r="B329" s="4">
         <v>42766</v>
       </c>
-      <c r="C329">
-        <v>0.24437999999999999</v>
-      </c>
-      <c r="D329">
-        <v>1.3729999999999999E-2</v>
-      </c>
-      <c r="E329">
-        <v>0.19525000000000001</v>
-      </c>
-      <c r="F329">
-        <v>1.025E-2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>4</v>
       </c>
       <c r="B330" s="4">
         <v>42767</v>
       </c>
-      <c r="C330">
-        <v>0.23604</v>
-      </c>
-      <c r="D330">
-        <v>2.445E-2</v>
-      </c>
-      <c r="E330">
-        <v>0.20041999999999999</v>
-      </c>
-      <c r="F330">
-        <v>1.414E-2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>4</v>
       </c>
       <c r="B331" s="4">
         <v>42768</v>
       </c>
-      <c r="C331">
-        <v>0.21912000000000001</v>
-      </c>
-      <c r="D331">
-        <v>1.585E-2</v>
-      </c>
-      <c r="E331">
-        <v>0.20716999999999999</v>
-      </c>
-      <c r="F331">
-        <v>2.5219999999999999E-2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>4</v>
       </c>
       <c r="B332" s="4">
         <v>42769</v>
       </c>
-      <c r="C332">
-        <v>0.18521000000000001</v>
-      </c>
-      <c r="D332">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="E332">
-        <v>0.18337999999999999</v>
-      </c>
-      <c r="F332">
-        <v>5.3800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>4</v>
       </c>
       <c r="B333" s="4">
         <v>42770</v>
       </c>
-      <c r="C333">
-        <v>0.17038</v>
-      </c>
-      <c r="D333">
-        <v>2.9760000000000002E-2</v>
-      </c>
-      <c r="E333">
-        <v>0.16866999999999999</v>
-      </c>
-      <c r="F333">
-        <v>5.4919999999999997E-2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>4</v>
       </c>
       <c r="B334" s="4">
         <v>42771</v>
       </c>
-      <c r="C334">
-        <v>0.16603999999999999</v>
-      </c>
-      <c r="D334">
-        <v>1.797E-2</v>
-      </c>
-      <c r="E334">
-        <v>0.1615</v>
-      </c>
-      <c r="F334">
-        <v>3.8769999999999999E-2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>4</v>
       </c>
       <c r="B335" s="4">
         <v>42772</v>
       </c>
-      <c r="C335">
-        <v>0.16578999999999999</v>
-      </c>
-      <c r="D335">
-        <v>1.4670000000000001E-2</v>
-      </c>
-      <c r="E335">
-        <v>0.15987000000000001</v>
-      </c>
-      <c r="F335">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>4</v>
       </c>
       <c r="B336" s="4">
         <v>42773</v>
       </c>
-      <c r="C336">
-        <v>0.16838</v>
-      </c>
-      <c r="D336">
-        <v>1.008E-2</v>
-      </c>
-      <c r="E336">
-        <v>0.16142000000000001</v>
-      </c>
-      <c r="F336">
-        <v>3.005E-2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>4</v>
       </c>
       <c r="B337" s="4">
         <v>42774</v>
       </c>
-      <c r="C337">
-        <v>0.17183000000000001</v>
-      </c>
-      <c r="D337">
-        <v>1.025E-2</v>
-      </c>
-      <c r="E337">
-        <v>0.16583000000000001</v>
-      </c>
-      <c r="F337">
-        <v>2.6280000000000001E-2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>4</v>
       </c>
       <c r="B338" s="4">
         <v>42775</v>
       </c>
-      <c r="C338">
-        <v>0.16941999999999999</v>
-      </c>
-      <c r="D338">
-        <v>2.0389999999999998E-2</v>
-      </c>
-      <c r="E338">
-        <v>0.16388</v>
-      </c>
-      <c r="F338">
-        <v>2.9989999999999999E-2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>4</v>
       </c>
       <c r="B339" s="4">
         <v>42776</v>
       </c>
-      <c r="C339">
-        <v>0.16778999999999999</v>
-      </c>
-      <c r="D339">
-        <v>2.3279999999999999E-2</v>
-      </c>
-      <c r="E339">
-        <v>0.15892000000000001</v>
-      </c>
-      <c r="F339">
-        <v>3.2059999999999998E-2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>4</v>
       </c>
       <c r="B340" s="4">
         <v>42777</v>
       </c>
-      <c r="C340">
-        <v>0.17021</v>
-      </c>
-      <c r="D340">
-        <v>1.55E-2</v>
-      </c>
-      <c r="E340">
-        <v>0.15892000000000001</v>
-      </c>
-      <c r="F340">
-        <v>2.487E-2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>4</v>
       </c>
       <c r="B341" s="4">
         <v>42778</v>
       </c>
-      <c r="C341">
-        <v>0.17554</v>
-      </c>
-      <c r="D341">
-        <v>1.055E-2</v>
-      </c>
-      <c r="E341">
-        <v>0.16220999999999999</v>
-      </c>
-      <c r="F341">
-        <v>2.0449999999999999E-2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>4</v>
       </c>
       <c r="B342" s="4">
         <v>42779</v>
       </c>
-      <c r="C342">
-        <v>0.18074999999999999</v>
-      </c>
-      <c r="D342">
-        <v>7.7799999999999996E-3</v>
-      </c>
-      <c r="E342">
-        <v>0.16661999999999999</v>
-      </c>
-      <c r="F342">
-        <v>1.609E-2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>4</v>
       </c>
       <c r="B343" s="4">
         <v>42780</v>
       </c>
-      <c r="C343">
-        <v>0.18392</v>
-      </c>
-      <c r="D343">
-        <v>6.9499999999999996E-3</v>
-      </c>
-      <c r="E343">
-        <v>0.16975000000000001</v>
-      </c>
-      <c r="F343">
-        <v>1.332E-2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>4</v>
       </c>
       <c r="B344" s="4">
         <v>42781</v>
       </c>
-      <c r="C344">
-        <v>0.18725</v>
-      </c>
-      <c r="D344">
-        <v>5.8900000000000003E-3</v>
-      </c>
-      <c r="E344">
-        <v>0.17321</v>
-      </c>
-      <c r="F344">
-        <v>9.3699999999999999E-3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>4</v>
       </c>
       <c r="B345" s="4">
         <v>42782</v>
       </c>
-      <c r="C345">
-        <v>0.18975</v>
-      </c>
-      <c r="D345">
-        <v>3.5400000000000002E-3</v>
-      </c>
-      <c r="E345">
-        <v>0.17616999999999999</v>
-      </c>
-      <c r="F345">
-        <v>5.4200000000000003E-3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>4</v>
       </c>
       <c r="B346" s="4">
         <v>42783</v>
       </c>
-      <c r="C346">
-        <v>0.20924999999999999</v>
-      </c>
-      <c r="D346">
-        <v>2.4160000000000001E-2</v>
-      </c>
-      <c r="E346">
-        <v>0.19433</v>
-      </c>
-      <c r="F346">
-        <v>2.0150000000000001E-2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>4</v>
       </c>
       <c r="B347" s="4">
         <v>42784</v>
       </c>
-      <c r="C347">
-        <v>0.24004</v>
-      </c>
-      <c r="D347">
-        <v>6.6530000000000006E-2</v>
-      </c>
-      <c r="E347">
-        <v>0.22267000000000001</v>
-      </c>
-      <c r="F347">
-        <v>5.8340000000000003E-2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>4</v>
       </c>
       <c r="B348" s="4">
         <v>42785</v>
       </c>
-      <c r="C348">
-        <v>0.23924999999999999</v>
-      </c>
-      <c r="D348">
-        <v>6.2810000000000005E-2</v>
-      </c>
-      <c r="E348">
-        <v>0.22103999999999999</v>
-      </c>
-      <c r="F348">
-        <v>5.5449999999999999E-2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>4</v>
       </c>
       <c r="B349" s="4">
         <v>42786</v>
       </c>
-      <c r="C349">
-        <v>0.24732999999999999</v>
-      </c>
-      <c r="D349">
-        <v>4.3020000000000003E-2</v>
-      </c>
-      <c r="E349">
-        <v>0.22287999999999999</v>
-      </c>
-      <c r="F349">
-        <v>4.1779999999999998E-2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>4</v>
       </c>
       <c r="B350" s="4">
         <v>42787</v>
       </c>
-      <c r="C350">
-        <v>0.24192</v>
-      </c>
-      <c r="D350">
-        <v>3.099E-2</v>
-      </c>
-      <c r="E350">
-        <v>0.2215</v>
-      </c>
-      <c r="F350">
-        <v>3.4880000000000001E-2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>4</v>
       </c>
       <c r="B351" s="4">
         <v>42788</v>
       </c>
-      <c r="C351">
-        <v>0.23471</v>
-      </c>
-      <c r="D351">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="E351">
-        <v>0.21662000000000001</v>
-      </c>
-      <c r="F351">
-        <v>3.2590000000000001E-2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>4</v>
       </c>
       <c r="B352" s="4">
         <v>42789</v>
       </c>
-      <c r="C352">
-        <v>0.23</v>
-      </c>
-      <c r="D352">
-        <v>2.64E-2</v>
-      </c>
-      <c r="E352">
-        <v>0.21357999999999999</v>
-      </c>
-      <c r="F352">
-        <v>3.0519999999999999E-2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>4</v>
       </c>
       <c r="B353" s="4">
         <v>42790</v>
       </c>
-      <c r="C353">
-        <v>0.22525000000000001</v>
-      </c>
-      <c r="D353">
-        <v>3.0519999999999999E-2</v>
-      </c>
-      <c r="E353">
-        <v>0.20849999999999999</v>
-      </c>
-      <c r="F353">
-        <v>3.0759999999999999E-2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>4</v>
       </c>
       <c r="B354" s="4">
         <v>42791</v>
       </c>
-      <c r="C354">
-        <v>0.22661999999999999</v>
-      </c>
-      <c r="D354">
-        <v>2.4570000000000002E-2</v>
-      </c>
-      <c r="E354">
-        <v>0.21317</v>
-      </c>
-      <c r="F354">
-        <v>3.2289999999999999E-2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>4</v>
       </c>
       <c r="B355" s="4">
         <v>42792</v>
       </c>
-      <c r="C355">
-        <v>0.22761999999999999</v>
-      </c>
-      <c r="D355">
-        <v>2.6689999999999998E-2</v>
-      </c>
-      <c r="E355">
-        <v>0.21232999999999999</v>
-      </c>
-      <c r="F355">
-        <v>3.1469999999999998E-2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>4</v>
       </c>
       <c r="B356" s="4">
         <v>42793</v>
       </c>
-      <c r="C356">
-        <v>0.22946</v>
-      </c>
-      <c r="D356">
-        <v>2.6460000000000001E-2</v>
-      </c>
-      <c r="E356">
-        <v>0.21346000000000001</v>
-      </c>
-      <c r="F356">
-        <v>3.2469999999999999E-2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>4</v>
       </c>
       <c r="B357" s="4">
         <v>42794</v>
       </c>
-      <c r="C357">
-        <v>0.22928999999999999</v>
-      </c>
-      <c r="D357">
-        <v>2.7279999999999999E-2</v>
-      </c>
-      <c r="E357">
-        <v>0.21221000000000001</v>
-      </c>
-      <c r="F357">
-        <v>3.1530000000000002E-2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>4</v>
       </c>
       <c r="B358" s="4">
         <v>42795</v>
       </c>
-      <c r="C358">
-        <v>0.22796</v>
-      </c>
-      <c r="D358">
-        <v>2.622E-2</v>
-      </c>
-      <c r="E358">
-        <v>0.21162</v>
-      </c>
-      <c r="F358">
-        <v>3.0349999999999999E-2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>4</v>
       </c>
       <c r="B359" s="4">
         <v>42796</v>
       </c>
-      <c r="C359">
-        <v>0.22578999999999999</v>
-      </c>
-      <c r="D359">
-        <v>2.375E-2</v>
-      </c>
-      <c r="E359">
-        <v>0.21092</v>
-      </c>
-      <c r="F359">
-        <v>2.9819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>4</v>
       </c>
       <c r="B360" s="4">
         <v>42797</v>
       </c>
-      <c r="C360">
-        <v>0.22320999999999999</v>
-      </c>
-      <c r="D360">
-        <v>2.1389999999999999E-2</v>
-      </c>
-      <c r="E360">
-        <v>0.20916999999999999</v>
-      </c>
-      <c r="F360">
-        <v>2.911E-2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>4</v>
       </c>
       <c r="B361" s="4">
         <v>42798</v>
       </c>
-      <c r="C361">
-        <v>0.22192000000000001</v>
-      </c>
-      <c r="D361">
-        <v>2.1569999999999999E-2</v>
-      </c>
-      <c r="E361">
-        <v>0.20771000000000001</v>
-      </c>
-      <c r="F361">
-        <v>2.8340000000000001E-2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>4</v>
       </c>
       <c r="B362" s="4">
         <v>42799</v>
       </c>
-      <c r="C362">
-        <v>0.22217000000000001</v>
-      </c>
-      <c r="D362">
-        <v>2.2859999999999998E-2</v>
-      </c>
-      <c r="E362">
-        <v>0.20729</v>
-      </c>
-      <c r="F362">
-        <v>2.7869999999999999E-2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>4</v>
       </c>
       <c r="B363" s="4">
         <v>42800</v>
       </c>
-      <c r="C363">
-        <v>0.22262000000000001</v>
-      </c>
-      <c r="D363">
-        <v>2.375E-2</v>
-      </c>
-      <c r="E363">
-        <v>0.20754</v>
-      </c>
-      <c r="F363">
-        <v>2.7990000000000001E-2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>4</v>
       </c>
       <c r="B364" s="4">
         <v>42801</v>
       </c>
-      <c r="C364">
-        <v>0.22458</v>
-      </c>
-      <c r="D364">
-        <v>2.605E-2</v>
-      </c>
-      <c r="E364">
-        <v>0.20829</v>
-      </c>
-      <c r="F364">
-        <v>2.775E-2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>4</v>
       </c>
       <c r="B365" s="4">
         <v>42802</v>
       </c>
-      <c r="C365">
-        <v>0.22275</v>
-      </c>
-      <c r="D365">
-        <v>2.3689999999999999E-2</v>
-      </c>
-      <c r="E365">
-        <v>0.20854</v>
-      </c>
-      <c r="F365">
-        <v>2.8230000000000002E-2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>4</v>
       </c>
       <c r="B366" s="4">
         <v>42803</v>
       </c>
-      <c r="C366">
-        <v>0.22153999999999999</v>
-      </c>
-      <c r="D366">
-        <v>2.2689999999999998E-2</v>
-      </c>
-      <c r="E366">
-        <v>0.20788000000000001</v>
-      </c>
-      <c r="F366">
-        <v>2.8580000000000001E-2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>4</v>
       </c>
       <c r="B367" s="4">
         <v>42804</v>
       </c>
-      <c r="C367">
-        <v>0.22033</v>
-      </c>
-      <c r="D367">
-        <v>2.086E-2</v>
-      </c>
-      <c r="E367">
-        <v>0.20716999999999999</v>
-      </c>
-      <c r="F367">
-        <v>2.8170000000000001E-2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>4</v>
       </c>
       <c r="B368" s="4">
         <v>42805</v>
       </c>
-      <c r="C368">
-        <v>0.21892</v>
-      </c>
-      <c r="D368">
-        <v>2.0979999999999999E-2</v>
-      </c>
-      <c r="E368">
-        <v>0.20621</v>
-      </c>
-      <c r="F368">
-        <v>2.8580000000000001E-2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>4</v>
       </c>
       <c r="B369" s="4">
         <v>42806</v>
       </c>
-      <c r="C369">
-        <v>0.21808</v>
-      </c>
-      <c r="D369">
-        <v>2.0150000000000001E-2</v>
-      </c>
-      <c r="E369">
-        <v>0.20533000000000001</v>
-      </c>
-      <c r="F369">
-        <v>2.793E-2</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>4</v>
       </c>
       <c r="B370" s="4">
         <v>42807</v>
       </c>
-      <c r="C370">
-        <v>0.21795999999999999</v>
-      </c>
-      <c r="D370">
-        <v>2.2329999999999999E-2</v>
-      </c>
-      <c r="E370">
-        <v>0.20441999999999999</v>
-      </c>
-      <c r="F370">
-        <v>2.6870000000000002E-2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>4</v>
       </c>
       <c r="B371" s="4">
         <v>42808</v>
       </c>
-      <c r="C371">
-        <v>0.21596000000000001</v>
-      </c>
-      <c r="D371">
-        <v>2.0330000000000001E-2</v>
-      </c>
-      <c r="E371">
-        <v>0.20374999999999999</v>
-      </c>
-      <c r="F371">
-        <v>2.699E-2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>4</v>
       </c>
       <c r="B372" s="4">
         <v>42809</v>
       </c>
-      <c r="C372">
-        <v>0.21238000000000001</v>
-      </c>
-      <c r="D372">
-        <v>1.6559999999999998E-2</v>
-      </c>
-      <c r="E372">
-        <v>0.20166999999999999</v>
-      </c>
-      <c r="F372">
-        <v>2.605E-2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>4</v>
       </c>
       <c r="B373" s="4">
         <v>42810</v>
       </c>
-      <c r="C373">
-        <v>0.21242</v>
-      </c>
-      <c r="D373">
-        <v>1.7319999999999999E-2</v>
-      </c>
-      <c r="E373">
-        <v>0.20041999999999999</v>
-      </c>
-      <c r="F373">
-        <v>2.5930000000000002E-2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>4</v>
       </c>
       <c r="B374" s="4">
         <v>42811</v>
       </c>
-      <c r="C374">
-        <v>0.21492</v>
-      </c>
-      <c r="D374">
-        <v>2.2159999999999999E-2</v>
-      </c>
-      <c r="E374">
-        <v>0.20196</v>
-      </c>
-      <c r="F374">
-        <v>2.6579999999999999E-2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>4</v>
       </c>
       <c r="B375" s="4">
         <v>42812</v>
       </c>
-      <c r="C375">
-        <v>0.21592</v>
-      </c>
-      <c r="D375">
-        <v>2.121E-2</v>
-      </c>
-      <c r="E375">
-        <v>0.20291999999999999</v>
-      </c>
-      <c r="F375">
-        <v>2.6749999999999999E-2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>4</v>
       </c>
       <c r="B376" s="4">
         <v>42813</v>
       </c>
-      <c r="C376">
-        <v>0.21612000000000001</v>
-      </c>
-      <c r="D376">
-        <v>2.1270000000000001E-2</v>
-      </c>
-      <c r="E376">
-        <v>0.20324999999999999</v>
-      </c>
-      <c r="F376">
-        <v>2.6159999999999999E-2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>4</v>
       </c>
       <c r="B377" s="4">
         <v>42814</v>
       </c>
-      <c r="C377">
-        <v>0.21733</v>
-      </c>
-      <c r="D377">
-        <v>2.1569999999999999E-2</v>
-      </c>
-      <c r="E377">
-        <v>0.20391999999999999</v>
-      </c>
-      <c r="F377">
-        <v>2.6280000000000001E-2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>4</v>
       </c>
       <c r="B378" s="4">
         <v>42815</v>
       </c>
-      <c r="C378">
-        <v>0.21754000000000001</v>
-      </c>
-      <c r="D378">
-        <v>2.0570000000000001E-2</v>
-      </c>
-      <c r="E378">
-        <v>0.20391999999999999</v>
-      </c>
-      <c r="F378">
-        <v>2.5340000000000001E-2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>4</v>
       </c>
       <c r="B379" s="4">
         <v>42816</v>
       </c>
-      <c r="C379">
-        <v>0.21621000000000001</v>
-      </c>
-      <c r="D379">
-        <v>1.95E-2</v>
-      </c>
-      <c r="E379">
-        <v>0.20333000000000001</v>
-      </c>
-      <c r="F379">
-        <v>2.4979999999999999E-2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>4</v>
       </c>
       <c r="B380" s="4">
         <v>42817</v>
       </c>
-      <c r="C380">
-        <v>0.2155</v>
-      </c>
-      <c r="D380">
-        <v>1.968E-2</v>
-      </c>
-      <c r="E380">
-        <v>0.20279</v>
-      </c>
-      <c r="F380">
-        <v>2.5159999999999998E-2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>4</v>
       </c>
       <c r="B381" s="4">
         <v>42818</v>
       </c>
-      <c r="C381">
-        <v>0.21512000000000001</v>
-      </c>
-      <c r="D381">
-        <v>2.1739999999999999E-2</v>
-      </c>
-      <c r="E381">
-        <v>0.20188</v>
-      </c>
-      <c r="F381">
-        <v>2.41E-2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>4</v>
       </c>
       <c r="B382" s="4">
         <v>42819</v>
       </c>
-      <c r="C382">
-        <v>0.22558</v>
-      </c>
-      <c r="D382">
-        <v>3.406E-2</v>
-      </c>
-      <c r="E382">
-        <v>0.21182999999999999</v>
-      </c>
-      <c r="F382">
-        <v>3.099E-2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>4</v>
       </c>
       <c r="B383" s="4">
         <v>42820</v>
       </c>
-      <c r="C383">
-        <v>0.23183000000000001</v>
-      </c>
-      <c r="D383">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="E383">
-        <v>0.21737999999999999</v>
-      </c>
-      <c r="F383">
-        <v>3.1640000000000001E-2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>4</v>
       </c>
       <c r="B384" s="4">
         <v>42821</v>
       </c>
-      <c r="C384">
-        <v>0.23116999999999999</v>
-      </c>
-      <c r="D384">
-        <v>2.699E-2</v>
-      </c>
-      <c r="E384">
-        <v>0.21425</v>
-      </c>
-      <c r="F384">
-        <v>2.9340000000000001E-2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>4</v>
       </c>
       <c r="B385" s="4">
         <v>42822</v>
       </c>
-      <c r="C385">
-        <v>0.22858000000000001</v>
-      </c>
-      <c r="D385">
-        <v>2.64E-2</v>
-      </c>
-      <c r="E385">
-        <v>0.21246000000000001</v>
-      </c>
-      <c r="F385">
-        <v>2.7990000000000001E-2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>4</v>
       </c>
       <c r="B386" s="4">
         <v>42823</v>
       </c>
-      <c r="C386">
-        <v>0.23211999999999999</v>
-      </c>
-      <c r="D386">
-        <v>3.2469999999999999E-2</v>
-      </c>
-      <c r="E386">
-        <v>0.22275</v>
-      </c>
-      <c r="F386">
-        <v>3.7949999999999998E-2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>4</v>
       </c>
       <c r="B387" s="4">
         <v>42824</v>
       </c>
-      <c r="C387">
-        <v>0.23654</v>
-      </c>
-      <c r="D387">
-        <v>3.1050000000000001E-2</v>
-      </c>
-      <c r="E387">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="F387">
-        <v>5.0319999999999997E-2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>4</v>
       </c>
       <c r="B388" s="4">
         <v>42825</v>
       </c>
-      <c r="C388">
-        <v>0.23241999999999999</v>
-      </c>
-      <c r="D388">
-        <v>2.6159999999999999E-2</v>
-      </c>
-      <c r="E388">
-        <v>0.22878999999999999</v>
-      </c>
-      <c r="F388">
-        <v>4.7320000000000001E-2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>4</v>
       </c>
       <c r="B389" s="4">
         <v>42826</v>
       </c>
-      <c r="C389">
-        <v>0.23008000000000001</v>
-      </c>
-      <c r="D389">
-        <v>2.4979999999999999E-2</v>
-      </c>
-      <c r="E389">
-        <v>0.22608</v>
-      </c>
-      <c r="F389">
-        <v>4.5370000000000001E-2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>4</v>
       </c>
       <c r="B390" s="4">
         <v>42827</v>
       </c>
-      <c r="C390">
-        <v>0.22825000000000001</v>
-      </c>
-      <c r="D390">
-        <v>2.4979999999999999E-2</v>
-      </c>
-      <c r="E390">
-        <v>0.22417000000000001</v>
-      </c>
-      <c r="F390">
-        <v>4.3839999999999997E-2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>4</v>
       </c>
       <c r="B391" s="4">
         <v>42828</v>
       </c>
-      <c r="C391">
-        <v>0.23221</v>
-      </c>
-      <c r="D391">
-        <v>3.0460000000000001E-2</v>
-      </c>
-      <c r="E391">
-        <v>0.22733</v>
-      </c>
-      <c r="F391">
-        <v>4.7140000000000001E-2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>4</v>
       </c>
       <c r="B392" s="4">
         <v>42829</v>
       </c>
-      <c r="C392">
-        <v>0.23621</v>
-      </c>
-      <c r="D392">
-        <v>2.9520000000000001E-2</v>
-      </c>
-      <c r="E392">
-        <v>0.23021</v>
-      </c>
-      <c r="F392">
-        <v>4.437E-2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>4</v>
       </c>
       <c r="B393" s="4">
         <v>42830</v>
       </c>
-      <c r="C393">
-        <v>0.23279</v>
-      </c>
-      <c r="D393">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="E393">
-        <v>0.22725000000000001</v>
-      </c>
-      <c r="F393">
-        <v>4.231E-2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>4</v>
       </c>
       <c r="B394" s="4">
         <v>42831</v>
       </c>
-      <c r="C394">
-        <v>0.23083000000000001</v>
-      </c>
-      <c r="D394">
-        <v>2.392E-2</v>
-      </c>
-      <c r="E394">
-        <v>0.22567000000000001</v>
-      </c>
-      <c r="F394">
-        <v>4.1959999999999997E-2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>4</v>
       </c>
       <c r="B395" s="4">
         <v>42832</v>
       </c>
-      <c r="C395">
-        <v>0.22950000000000001</v>
-      </c>
-      <c r="D395">
-        <v>2.1569999999999999E-2</v>
-      </c>
-      <c r="E395">
-        <v>0.22470999999999999</v>
-      </c>
-      <c r="F395">
-        <v>4.2130000000000001E-2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>4</v>
       </c>
       <c r="B396" s="4">
         <v>42833</v>
       </c>
-      <c r="C396">
-        <v>0.22911999999999999</v>
-      </c>
-      <c r="D396">
-        <v>2.1739999999999999E-2</v>
-      </c>
-      <c r="E396">
-        <v>0.22378999999999999</v>
-      </c>
-      <c r="F396">
-        <v>4.2009999999999999E-2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>4</v>
       </c>
       <c r="B397" s="4">
         <v>42834</v>
       </c>
-      <c r="C397">
-        <v>0.22992000000000001</v>
-      </c>
-      <c r="D397">
-        <v>2.2509999999999999E-2</v>
-      </c>
-      <c r="E397">
-        <v>0.22428999999999999</v>
-      </c>
-      <c r="F397">
-        <v>4.1419999999999998E-2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>4</v>
       </c>
       <c r="B398" s="4">
         <v>42835</v>
       </c>
-      <c r="C398">
-        <v>0.22978999999999999</v>
-      </c>
-      <c r="D398">
-        <v>2.198E-2</v>
-      </c>
-      <c r="E398">
-        <v>0.22450000000000001</v>
-      </c>
-      <c r="F398">
-        <v>4.0309999999999999E-2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>4</v>
       </c>
       <c r="B399" s="4">
         <v>42836</v>
       </c>
-      <c r="C399">
-        <v>0.22821</v>
-      </c>
-      <c r="D399">
-        <v>2.104E-2</v>
-      </c>
-      <c r="E399">
-        <v>0.22292000000000001</v>
-      </c>
-      <c r="F399">
-        <v>3.9359999999999999E-2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>4</v>
       </c>
       <c r="B400" s="4">
         <v>42837</v>
       </c>
-      <c r="C400">
-        <v>0.224</v>
-      </c>
-      <c r="D400">
-        <v>1.558E-2</v>
-      </c>
-      <c r="E400">
-        <v>0.20874999999999999</v>
-      </c>
-      <c r="F400">
-        <v>3.6119999999999999E-2</v>
-      </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
@@ -17144,18 +15571,6 @@
       <c r="B401" s="4">
         <v>42838</v>
       </c>
-      <c r="C401">
-        <v>0.22467000000000001</v>
-      </c>
-      <c r="D401">
-        <v>1.566E-2</v>
-      </c>
-      <c r="E401">
-        <v>0.20860999999999999</v>
-      </c>
-      <c r="F401">
-        <v>3.5720000000000002E-2</v>
-      </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
@@ -17164,18 +15579,6 @@
       <c r="B402" s="4">
         <v>42839</v>
       </c>
-      <c r="C402">
-        <v>0.22594</v>
-      </c>
-      <c r="D402">
-        <v>1.448E-2</v>
-      </c>
-      <c r="E402">
-        <v>0.20916999999999999</v>
-      </c>
-      <c r="F402">
-        <v>3.5580000000000001E-2</v>
-      </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
@@ -17184,18 +15587,6 @@
       <c r="B403" s="4">
         <v>42840</v>
       </c>
-      <c r="C403">
-        <v>0.22917000000000001</v>
-      </c>
-      <c r="D403">
-        <v>1.6490000000000001E-2</v>
-      </c>
-      <c r="E403">
-        <v>0.20749999999999999</v>
-      </c>
-      <c r="F403">
-        <v>3.9609999999999999E-2</v>
-      </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
@@ -17203,18 +15594,6 @@
       </c>
       <c r="B404" s="4">
         <v>42841</v>
-      </c>
-      <c r="C404">
-        <v>0.23091999999999999</v>
-      </c>
-      <c r="D404">
-        <v>1.762E-2</v>
-      </c>
-      <c r="E404">
-        <v>0.20996999999999999</v>
-      </c>
-      <c r="F404">
-        <v>4.0030000000000003E-2</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -20685,16 +19064,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A506F8-F5B9-47D3-A647-5471CB225495}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8B367-840A-4DA8-A823-989AE0E5C4E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObservedOLD" sheetId="13" r:id="rId1"/>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>SLA_apsim_total</t>
-  </si>
-  <si>
-    <t>Root_in</t>
   </si>
   <si>
     <t>Height</t>
@@ -559,6 +556,9 @@
   <si>
     <t>Soybean.AboveGround.N</t>
   </si>
+  <si>
+    <t>Soybean.Root.Depth</t>
+  </si>
 </sst>
 </file>
 
@@ -1659,10 +1659,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
   <dimension ref="A1:BV114"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="576" activePane="bottomLeft"/>
       <selection activeCell="W1" sqref="W1:W1048576"/>
-      <selection pane="bottomLeft" activeCell="AN23" sqref="AN23"/>
+      <selection pane="bottomLeft" activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1700,13 +1700,13 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -1715,85 +1715,85 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
         <v>90</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" t="s">
-        <v>91</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
       </c>
       <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
-      </c>
-      <c r="R1" t="s">
-        <v>59</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s">
         <v>7</v>
       </c>
       <c r="W1" t="s">
+        <v>169</v>
+      </c>
+      <c r="X1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA1" t="s">
         <v>170</v>
       </c>
-      <c r="X1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH1" t="s">
         <v>171</v>
       </c>
-      <c r="AB1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>175</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>176</v>
       </c>
       <c r="AJ1" t="s">
         <v>17</v>
@@ -1805,112 +1805,112 @@
         <v>19</v>
       </c>
       <c r="AM1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>22</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>39</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>43</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>44</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>45</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>46</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>47</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>48</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>49</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>50</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>51</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>52</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>53</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>54</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.55000000000000004">
@@ -3175,7 +3175,7 @@
         <v>43026</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4354,7 +4354,7 @@
         <v>43026</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="4">
         <v>42898</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4">
         <v>42915</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="4">
         <v>42929</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4">
         <v>42943</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4">
         <v>42957</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="4">
         <v>42975</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="4">
         <v>42993</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="30" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="4">
         <v>43028</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="4">
         <v>42898</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="4">
         <v>42915</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="33" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4">
         <v>42929</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="4">
         <v>42943</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="4">
         <v>42957</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4">
         <v>42975</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="4">
         <v>42993</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="4">
         <v>43028</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="5">
         <v>6</v>
@@ -6180,10 +6180,10 @@
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="5">
         <v>6</v>
@@ -6197,10 +6197,10 @@
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="5">
         <v>6</v>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="5">
         <v>6</v>
@@ -6231,10 +6231,10 @@
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="5">
         <v>6</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="5">
         <v>6</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="5">
         <v>6</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="5">
         <v>6</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="5">
         <v>13</v>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="5">
         <v>13</v>
@@ -6333,10 +6333,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="5">
         <v>13</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="5">
         <v>13</v>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="5">
         <v>13</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="5">
         <v>13</v>
@@ -6401,10 +6401,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="5">
         <v>13</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54" s="5">
         <v>13</v>
@@ -6435,10 +6435,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D55" s="5">
         <v>7</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="5">
         <v>7</v>
@@ -6469,10 +6469,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="5">
         <v>7</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" s="5">
         <v>7</v>
@@ -6503,10 +6503,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="5">
         <v>7</v>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" s="5">
         <v>7</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="5">
         <v>7</v>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="5">
         <v>7</v>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5">
@@ -6584,10 +6584,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5">
@@ -6597,10 +6597,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="5">
         <v>52</v>
@@ -6608,10 +6608,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" s="5">
         <v>52</v>
@@ -6619,10 +6619,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" s="5">
         <v>42</v>
@@ -6630,10 +6630,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" s="5">
         <v>42</v>
@@ -6641,10 +6641,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E69" s="5">
         <v>56</v>
@@ -6652,10 +6652,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70" s="5">
         <v>55</v>
@@ -6663,10 +6663,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E71" s="5">
         <v>39</v>
@@ -6674,10 +6674,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E72" s="5">
         <v>40</v>
@@ -6685,10 +6685,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E73" s="5">
         <v>58</v>
@@ -6696,10 +6696,10 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E74" s="5">
         <v>60</v>
@@ -6707,10 +6707,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E75" s="5">
         <v>38</v>
@@ -6718,10 +6718,10 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E76" s="5">
         <v>41</v>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E77" s="5">
         <v>55</v>
@@ -6740,10 +6740,10 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" s="5">
         <v>58</v>
@@ -6751,10 +6751,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79" s="5">
         <v>22</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D80" s="5">
         <v>20</v>
@@ -6791,10 +6791,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="5">
         <v>14</v>
@@ -6811,10 +6811,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="5">
         <v>16</v>
@@ -6831,10 +6831,10 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D83" s="5">
         <v>11</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D84" s="5">
         <v>16</v>
@@ -6871,10 +6871,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D85" s="5">
         <v>31</v>
@@ -6891,10 +6891,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D86" s="5">
         <v>25</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="5">
         <v>9</v>
@@ -6931,10 +6931,10 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D88" s="5">
         <v>9</v>
@@ -6951,10 +6951,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D89" s="5">
         <v>9</v>
@@ -6971,10 +6971,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D90" s="5">
         <v>11</v>
@@ -6991,10 +6991,10 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D91" s="5">
         <v>22</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D92" s="5">
         <v>20</v>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D93" s="5">
         <v>14</v>
@@ -7051,10 +7051,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D94" s="5">
         <v>16</v>
@@ -7071,10 +7071,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D95" s="5">
         <v>11</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" s="5">
         <v>16</v>
@@ -7111,10 +7111,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D97" s="5">
         <v>31</v>
@@ -7131,10 +7131,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D98" s="5">
         <v>25</v>
@@ -7151,10 +7151,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D99" s="5">
         <v>9</v>
@@ -7171,10 +7171,10 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D100" s="5">
         <v>9</v>
@@ -7191,10 +7191,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D101" s="5">
         <v>9</v>
@@ -7211,10 +7211,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D102" s="5">
         <v>11</v>
@@ -7231,10 +7231,10 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D103" s="5">
         <v>22</v>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D104" s="5">
         <v>20</v>
@@ -7271,10 +7271,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D105" s="5">
         <v>14</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D106" s="5">
         <v>16</v>
@@ -7311,10 +7311,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D107" s="5">
         <v>11</v>
@@ -7331,10 +7331,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D108" s="5">
         <v>16</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D109" s="5">
         <v>31</v>
@@ -7371,10 +7371,10 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110" s="5">
         <v>25</v>
@@ -7391,10 +7391,10 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D111" s="5">
         <v>9</v>
@@ -7411,10 +7411,10 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D112" s="5">
         <v>9</v>
@@ -7431,10 +7431,10 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D113" s="5">
         <v>9</v>
@@ -7451,10 +7451,10 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D114" s="5">
         <v>11</v>
@@ -7495,10 +7495,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9228,7 +9228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFA9B49-2792-48D3-82BC-E629331E59DB}">
   <dimension ref="A1:M576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+    <sheetView topLeftCell="A290" workbookViewId="0">
       <selection activeCell="C300" sqref="C300:F404"/>
     </sheetView>
   </sheetViews>
@@ -9251,25 +9251,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="J2" s="4"/>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -10660,7 +10660,7 @@
         <v>950.91666999999995</v>
       </c>
       <c r="H122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J122" s="4"/>
     </row>
@@ -10687,7 +10687,7 @@
         <v>942</v>
       </c>
       <c r="H123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J123" s="4"/>
     </row>
@@ -11065,7 +11065,7 @@
         <v>1134.4166700000001</v>
       </c>
       <c r="H137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J137" s="4"/>
     </row>
@@ -19064,16 +19064,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8B367-840A-4DA8-A823-989AE0E5C4E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D02EB97-09A0-4561-B440-03155EB3B4E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="ObservedET" sheetId="15" r:id="rId3"/>
     <sheet name="ObservedSW" sheetId="16" r:id="rId4"/>
     <sheet name="ObservedST" sheetId="17" r:id="rId5"/>
+    <sheet name="Griffith" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Treatment_Structure">#REF!</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="190">
   <si>
     <t>SimulationName</t>
   </si>
@@ -559,6 +560,45 @@
   <si>
     <t>Soybean.Root.Depth</t>
   </si>
+  <si>
+    <t>GriffithSowNov15CvHooper_MG40</t>
+  </si>
+  <si>
+    <t>GriffithSowDec08CvHooper_MG40</t>
+  </si>
+  <si>
+    <t>GriffithSowJan06CvHooper_MG40</t>
+  </si>
+  <si>
+    <t>GriffithSowNov15CvStephens_MG40</t>
+  </si>
+  <si>
+    <t>GriffithSowDec08CvStephens_MG40</t>
+  </si>
+  <si>
+    <t>GriffithSowJan06CvStephens_MG40</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Corrected Date</t>
+  </si>
+  <si>
+    <t>Date based on wrong coordinates</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>PodWt</t>
+  </si>
+  <si>
+    <t>ExactDay</t>
+  </si>
 </sst>
 </file>
 
@@ -619,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -634,6 +674,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1657,12 +1698,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
-  <dimension ref="A1:BV114"/>
+  <dimension ref="A1:BV172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="576" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A124" activePane="bottomLeft"/>
       <selection activeCell="W1" sqref="W1:W1048576"/>
-      <selection pane="bottomLeft" activeCell="AM2" sqref="AM2"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7429,7 +7470,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>160</v>
       </c>
@@ -7449,7 +7490,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>161</v>
       </c>
@@ -7467,6 +7508,956 @@
       </c>
       <c r="U114" s="5">
         <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" s="4">
+        <v>36508</v>
+      </c>
+      <c r="L115">
+        <v>0.36252640515873402</v>
+      </c>
+      <c r="V115">
+        <v>32.240616594781997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" s="4">
+        <v>36522</v>
+      </c>
+      <c r="L116">
+        <v>1.65706142168406</v>
+      </c>
+      <c r="V116">
+        <v>117.06593564716199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" s="4">
+        <v>36530</v>
+      </c>
+      <c r="L117">
+        <v>2.4005498337359299</v>
+      </c>
+      <c r="V117">
+        <v>193.846596590133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" s="4">
+        <v>36536</v>
+      </c>
+      <c r="L118">
+        <v>3.4464468005538702</v>
+      </c>
+      <c r="V118">
+        <v>286.477492002936</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" s="4">
+        <v>36543</v>
+      </c>
+      <c r="L119">
+        <v>4.6297213434540403</v>
+      </c>
+      <c r="V119">
+        <v>392.32872264672301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="4">
+        <v>36549</v>
+      </c>
+      <c r="L120">
+        <v>5.1806062321228197</v>
+      </c>
+      <c r="S120">
+        <v>3.8834951456309401</v>
+      </c>
+      <c r="V120">
+        <v>495.514634533292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" s="4">
+        <v>36563</v>
+      </c>
+      <c r="L121">
+        <v>5.1828298244372704</v>
+      </c>
+      <c r="S121">
+        <v>116.504854368932</v>
+      </c>
+      <c r="V121">
+        <v>712.49903149754402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="4">
+        <v>36577</v>
+      </c>
+      <c r="L122">
+        <v>3.7833008217184299</v>
+      </c>
+      <c r="S122">
+        <v>320.388349514563</v>
+      </c>
+      <c r="V122">
+        <v>802.619568545991</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="4">
+        <v>36593</v>
+      </c>
+      <c r="L123">
+        <v>2.2463942429173498</v>
+      </c>
+      <c r="S123">
+        <v>526.21359223300897</v>
+      </c>
+      <c r="V123">
+        <v>903.33496902636898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" s="4">
+        <v>36607</v>
+      </c>
+      <c r="L124">
+        <v>4.95254651856189E-2</v>
+      </c>
+      <c r="S124">
+        <v>580.58252427184402</v>
+      </c>
+      <c r="V124">
+        <v>760.84224663053305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="4">
+        <v>36621</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E125" s="5">
+        <v>58</v>
+      </c>
+      <c r="F125" s="5">
+        <v>115</v>
+      </c>
+      <c r="S125">
+        <v>539.80582524271802</v>
+      </c>
+      <c r="U125" s="5">
+        <v>427</v>
+      </c>
+      <c r="V125">
+        <v>713.526197530226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" s="4">
+        <v>36523</v>
+      </c>
+      <c r="V126">
+        <v>106.506491733601</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="4">
+        <v>36532</v>
+      </c>
+      <c r="L127">
+        <v>1.8509991004558299</v>
+      </c>
+      <c r="V127">
+        <v>207.106778779281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" s="4">
+        <v>36537</v>
+      </c>
+      <c r="L128">
+        <v>3.7213232395718499</v>
+      </c>
+      <c r="V128">
+        <v>249.48623250700001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="4">
+        <v>36550</v>
+      </c>
+      <c r="L129">
+        <v>5.5654898472796299</v>
+      </c>
+      <c r="S129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>408.30292543084499</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="4">
+        <v>36565</v>
+      </c>
+      <c r="L130">
+        <v>5.5681177291058104</v>
+      </c>
+      <c r="S130">
+        <v>79.611650485436797</v>
+      </c>
+      <c r="V130">
+        <v>651.74127517645104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="4">
+        <v>36578</v>
+      </c>
+      <c r="L131">
+        <v>5.1029017879703602</v>
+      </c>
+      <c r="V131">
+        <v>844.91932835738203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="4">
+        <v>36593</v>
+      </c>
+      <c r="S132">
+        <v>462.135922330097</v>
+      </c>
+      <c r="V132">
+        <v>953.55541863287999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" s="4">
+        <v>36607</v>
+      </c>
+      <c r="L133">
+        <v>0.43436865139126002</v>
+      </c>
+      <c r="S133">
+        <v>462.135922330097</v>
+      </c>
+      <c r="V133">
+        <v>718.564624018122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="4">
+        <v>36621</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E134" s="5">
+        <v>60</v>
+      </c>
+      <c r="F134" s="5">
+        <v>117</v>
+      </c>
+      <c r="S134">
+        <v>526.21359223300897</v>
+      </c>
+      <c r="U134" s="5">
+        <v>410</v>
+      </c>
+      <c r="V134">
+        <v>750.51745702616199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B135" s="4">
+        <v>36530</v>
+      </c>
+      <c r="L135">
+        <v>0.44868050010612398</v>
+      </c>
+      <c r="V135">
+        <v>29.973767419208301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" s="4">
+        <v>36543</v>
+      </c>
+      <c r="L136">
+        <v>1.7156834008833699</v>
+      </c>
+      <c r="V136">
+        <v>135.94011149769199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B137" s="4">
+        <v>36545</v>
+      </c>
+      <c r="L137">
+        <v>2.2107359079836999</v>
+      </c>
+      <c r="V137">
+        <v>154.47337448392599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" s="4">
+        <v>36557</v>
+      </c>
+      <c r="L138">
+        <v>3.7524535319742398</v>
+      </c>
+      <c r="S138">
+        <v>-3.8834951456311702</v>
+      </c>
+      <c r="V138">
+        <v>307.99042197190698</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B139" s="4">
+        <v>36565</v>
+      </c>
+      <c r="L139">
+        <v>4.3584835100415402</v>
+      </c>
+      <c r="S139">
+        <v>13.5922330097087</v>
+      </c>
+      <c r="V139">
+        <v>450.850621870814</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="4">
+        <v>36572</v>
+      </c>
+      <c r="L140">
+        <v>4.4146797521705201</v>
+      </c>
+      <c r="S140">
+        <v>36.893203883494998</v>
+      </c>
+      <c r="V140">
+        <v>522.34049225751403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" s="4">
+        <v>36588</v>
+      </c>
+      <c r="L141">
+        <v>3.64782340634128</v>
+      </c>
+      <c r="S141">
+        <v>209.70873786407699</v>
+      </c>
+      <c r="V141">
+        <v>623.06917505727995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B142" s="4">
+        <v>36600</v>
+      </c>
+      <c r="L142">
+        <v>3.0998494021568801</v>
+      </c>
+      <c r="S142">
+        <v>337.86407766990197</v>
+      </c>
+      <c r="V142">
+        <v>686.71362212539202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="4">
+        <v>36613</v>
+      </c>
+      <c r="L143">
+        <v>0.38039600157672898</v>
+      </c>
+      <c r="S143">
+        <v>502.91262135922301</v>
+      </c>
+      <c r="V143">
+        <v>694.87339366949902</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="4">
+        <v>36626</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E144" s="5">
+        <v>50</v>
+      </c>
+      <c r="F144" s="5">
+        <v>102</v>
+      </c>
+      <c r="S144">
+        <v>504.85436893203803</v>
+      </c>
+      <c r="U144" s="5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="4">
+        <v>36530</v>
+      </c>
+      <c r="V145">
+        <v>22.0397953047001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" s="4">
+        <v>36544</v>
+      </c>
+      <c r="L146">
+        <v>1.7981584612741099</v>
+      </c>
+      <c r="V146">
+        <v>125.371812704538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B147" s="4">
+        <v>36599</v>
+      </c>
+      <c r="L147">
+        <v>2.5412425838142698</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" s="4">
+        <v>36558</v>
+      </c>
+      <c r="L148">
+        <v>4.3573110704575502</v>
+      </c>
+      <c r="V148">
+        <v>326.505975198957</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B149" s="4">
+        <v>36572</v>
+      </c>
+      <c r="L149">
+        <v>4.6620240754404199</v>
+      </c>
+      <c r="S149">
+        <v>11.650485436893099</v>
+      </c>
+      <c r="V149">
+        <v>501.19503979161499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150" s="4">
+        <v>36576</v>
+      </c>
+      <c r="L150">
+        <v>6.1475050283507997</v>
+      </c>
+      <c r="S150">
+        <v>44.660194174757102</v>
+      </c>
+      <c r="V150">
+        <v>556.78154643093001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="4">
+        <v>36589</v>
+      </c>
+      <c r="L151">
+        <v>3.9776832189530902</v>
+      </c>
+      <c r="S151">
+        <v>170.873786407766</v>
+      </c>
+      <c r="V151">
+        <v>612.51858602331004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B152" s="4">
+        <v>36600</v>
+      </c>
+      <c r="L152">
+        <v>3.45724133051678</v>
+      </c>
+      <c r="S152">
+        <v>347.57281553398002</v>
+      </c>
+      <c r="V152">
+        <v>760.72270575604</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="4">
+        <v>36612</v>
+      </c>
+      <c r="L153">
+        <v>2.1673152144250398</v>
+      </c>
+      <c r="S153">
+        <v>458.252427184466</v>
+      </c>
+      <c r="V153">
+        <v>776.80316709526699</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="4">
+        <v>36627</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="5">
+        <v>53</v>
+      </c>
+      <c r="F154" s="5">
+        <v>104</v>
+      </c>
+      <c r="S154">
+        <v>500.97087378640703</v>
+      </c>
+      <c r="U154" s="5">
+        <v>354</v>
+      </c>
+      <c r="V154">
+        <v>676.61905939041503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B155" s="4">
+        <v>36553</v>
+      </c>
+      <c r="L155">
+        <v>0.59010097130555095</v>
+      </c>
+      <c r="V155">
+        <v>30.376664440648</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B156" s="4">
+        <v>36558</v>
+      </c>
+      <c r="L156">
+        <v>0.865826418298143</v>
+      </c>
+      <c r="V156">
+        <v>64.831000933451804</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" s="4">
+        <v>36567</v>
+      </c>
+      <c r="L157">
+        <v>2.1045694822062</v>
+      </c>
+      <c r="V157">
+        <v>149.56777118991101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B158" s="4">
+        <v>36572</v>
+      </c>
+      <c r="L158">
+        <v>2.71019517076178</v>
+      </c>
+      <c r="V158">
+        <v>199.87676959234301</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B159" s="4">
+        <v>36579</v>
+      </c>
+      <c r="L159">
+        <v>4.0585815502481299</v>
+      </c>
+      <c r="S159">
+        <v>1.94174757281552</v>
+      </c>
+      <c r="V159">
+        <v>297.80731044100901</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" s="4">
+        <v>36589</v>
+      </c>
+      <c r="L160">
+        <v>3.5103245434055301</v>
+      </c>
+      <c r="S160">
+        <v>34.951456310679497</v>
+      </c>
+      <c r="V160">
+        <v>371.98020934411102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161" s="4">
+        <v>36600</v>
+      </c>
+      <c r="L161">
+        <v>3.7322794853394501</v>
+      </c>
+      <c r="S161">
+        <v>190.29126213592201</v>
+      </c>
+      <c r="V161">
+        <v>567.77487944450297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="4">
+        <v>36613</v>
+      </c>
+      <c r="L162">
+        <v>2.5796905163787698</v>
+      </c>
+      <c r="S162">
+        <v>376.69902912621302</v>
+      </c>
+      <c r="V162">
+        <v>681.65305843851502</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="4">
+        <v>36626</v>
+      </c>
+      <c r="L163">
+        <v>0.24532287571129699</v>
+      </c>
+      <c r="S163">
+        <v>386.40776699029101</v>
+      </c>
+      <c r="V163">
+        <v>536.52158192423894</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164" s="4">
+        <v>36642</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E164" s="5">
+        <v>40</v>
+      </c>
+      <c r="F164" s="5">
+        <v>89</v>
+      </c>
+      <c r="S164">
+        <v>452.42718446601901</v>
+      </c>
+      <c r="U164" s="5">
+        <v>272</v>
+      </c>
+      <c r="V164">
+        <v>568.51426189044298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" s="4">
+        <v>36558</v>
+      </c>
+      <c r="V165">
+        <v>56.9103111383317</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B166" s="4">
+        <v>36566</v>
+      </c>
+      <c r="L166">
+        <v>1.96698976136811</v>
+      </c>
+      <c r="V166">
+        <v>125.76585484638601</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="4">
+        <v>36571</v>
+      </c>
+      <c r="V167">
+        <v>170.792917572139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168" s="4">
+        <v>36587</v>
+      </c>
+      <c r="L168">
+        <v>3.9774810741972302</v>
+      </c>
+      <c r="S168">
+        <v>31.067961165048398</v>
+      </c>
+      <c r="V168">
+        <v>369.314890586893</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="4">
+        <v>36598</v>
+      </c>
+      <c r="L169">
+        <v>4.1717421845783704</v>
+      </c>
+      <c r="S169">
+        <v>139.80582524271799</v>
+      </c>
+      <c r="V169">
+        <v>543.95968078159001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" s="4">
+        <v>36612</v>
+      </c>
+      <c r="L170">
+        <v>3.4043602623838898</v>
+      </c>
+      <c r="S170">
+        <v>310.67961165048501</v>
+      </c>
+      <c r="V170">
+        <v>668.42386832794</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" s="4">
+        <v>36626</v>
+      </c>
+      <c r="L171">
+        <v>1.2348618845955499</v>
+      </c>
+      <c r="S171">
+        <v>384.46601941747502</v>
+      </c>
+      <c r="V171">
+        <v>570.87408730173297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" s="4">
+        <v>36641</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E172" s="5">
+        <v>42</v>
+      </c>
+      <c r="F172" s="5">
+        <v>91</v>
+      </c>
+      <c r="S172">
+        <v>438.83495145631002</v>
+      </c>
+      <c r="U172" s="5">
+        <v>264</v>
+      </c>
+      <c r="V172">
+        <v>565.84894313322502</v>
       </c>
     </row>
   </sheetData>
@@ -30877,4 +31868,2749 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A016538-D7B6-43E7-A599-548E9E77BEF8}">
+  <dimension ref="A2:X61"/>
+  <sheetViews>
+    <sheetView topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="13" max="13" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" t="s">
+        <v>183</v>
+      </c>
+      <c r="X2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <f>B3*160/206</f>
+        <v>29.761733153810404</v>
+      </c>
+      <c r="B3">
+        <v>38.318231435530897</v>
+      </c>
+      <c r="C3">
+        <v>0.36252640515873402</v>
+      </c>
+      <c r="E3">
+        <v>29.906248962318799</v>
+      </c>
+      <c r="F3">
+        <v>32.240616594781997</v>
+      </c>
+      <c r="H3">
+        <v>71.086341065737798</v>
+      </c>
+      <c r="I3">
+        <v>3.8834951456309401</v>
+      </c>
+      <c r="M3" s="4">
+        <f>DATE(1999,11,15)+A3</f>
+        <v>36508.761733153813</v>
+      </c>
+      <c r="N3">
+        <v>0.36252640515873402</v>
+      </c>
+      <c r="T3" s="4">
+        <f>DATE(1999,11,15)+E3</f>
+        <v>36508.906248962317</v>
+      </c>
+      <c r="U3" s="4">
+        <f>DATE(YEAR(T3),MONTH(T3),DAY(T3))</f>
+        <v>36508</v>
+      </c>
+      <c r="V3">
+        <f>F3</f>
+        <v>32.240616594781997</v>
+      </c>
+      <c r="W3">
+        <v>0.36252640515873402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <f t="shared" ref="A4:A49" si="0">B4*160/206</f>
+        <v>43.886627408061585</v>
+      </c>
+      <c r="B4">
+        <v>56.504032787879297</v>
+      </c>
+      <c r="C4">
+        <v>1.65706142168406</v>
+      </c>
+      <c r="E4">
+        <v>43.743105184900898</v>
+      </c>
+      <c r="F4">
+        <v>117.06593564716199</v>
+      </c>
+      <c r="H4">
+        <v>84.323031695447</v>
+      </c>
+      <c r="I4">
+        <v>116.504854368932</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M12" si="1">DATE(1999,11,15)+A4</f>
+        <v>36522.886627408065</v>
+      </c>
+      <c r="N4">
+        <v>1.65706142168406</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T31" si="2">DATE(1999,11,15)+E4</f>
+        <v>36522.743105184898</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" ref="U4:U31" si="3">DATE(YEAR(T4),MONTH(T4),DAY(T4))</f>
+        <v>36522</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V31" si="4">F4</f>
+        <v>117.06593564716199</v>
+      </c>
+      <c r="W4">
+        <v>1.65706142168406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>50.954707112365043</v>
+      </c>
+      <c r="B5">
+        <v>65.604185407169993</v>
+      </c>
+      <c r="C5">
+        <v>2.4005498337359299</v>
+      </c>
+      <c r="E5">
+        <v>51.045613698498698</v>
+      </c>
+      <c r="F5">
+        <v>193.846596590133</v>
+      </c>
+      <c r="H5">
+        <v>99.306801057338305</v>
+      </c>
+      <c r="I5">
+        <v>320.388349514563</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>36529.954707112367</v>
+      </c>
+      <c r="N5">
+        <v>2.4005498337359299</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>36530.045613698501</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="3"/>
+        <v>36530</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>193.846596590133</v>
+      </c>
+      <c r="W5">
+        <v>2.4005498337359299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>58.040489202084579</v>
+      </c>
+      <c r="B6">
+        <v>74.727129847683898</v>
+      </c>
+      <c r="C6">
+        <v>3.4464468005538702</v>
+      </c>
+      <c r="E6">
+        <v>57.848928375092697</v>
+      </c>
+      <c r="F6">
+        <v>286.477492002936</v>
+      </c>
+      <c r="H6">
+        <v>114.291360952592</v>
+      </c>
+      <c r="I6">
+        <v>526.21359223300897</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>36537.040489202082</v>
+      </c>
+      <c r="N6">
+        <v>3.4464468005538702</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>36536.84892837509</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="3"/>
+        <v>36536</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>286.477492002936</v>
+      </c>
+      <c r="W6">
+        <v>3.4464468005538702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>64.666009270986478</v>
+      </c>
+      <c r="B7">
+        <v>83.257486936395097</v>
+      </c>
+      <c r="C7">
+        <v>4.6297213434540403</v>
+      </c>
+      <c r="E7">
+        <v>64.906267409984594</v>
+      </c>
+      <c r="F7">
+        <v>392.32872264672301</v>
+      </c>
+      <c r="H7">
+        <v>127.748610390572</v>
+      </c>
+      <c r="I7">
+        <v>580.58252427184402</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>36543.666009270986</v>
+      </c>
+      <c r="N7">
+        <v>4.6297213434540403</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="2"/>
+        <v>36543.906267409984</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="3"/>
+        <v>36543</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>392.32872264672301</v>
+      </c>
+      <c r="W7">
+        <v>4.6297213434540403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>70.786206701648155</v>
+      </c>
+      <c r="B8">
+        <v>91.137241128371997</v>
+      </c>
+      <c r="C8">
+        <v>5.1806062321228197</v>
+      </c>
+      <c r="E8">
+        <v>70.706766972774901</v>
+      </c>
+      <c r="F8">
+        <v>495.514634533292</v>
+      </c>
+      <c r="H8">
+        <v>142.38849773956801</v>
+      </c>
+      <c r="I8">
+        <v>539.80582524271802</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>36549.786206701647</v>
+      </c>
+      <c r="N8">
+        <v>5.1806062321228197</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" ref="P8:P13" si="5">DATE(1999,11,15)+H3</f>
+        <v>36550.08634106574</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q13" si="6">I3</f>
+        <v>3.8834951456309401</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="2"/>
+        <v>36549.706766972777</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="3"/>
+        <v>36549</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>495.514634533292</v>
+      </c>
+      <c r="W8">
+        <v>5.1806062321228197</v>
+      </c>
+      <c r="X8">
+        <v>3.8834951456309401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>83.664692091831455</v>
+      </c>
+      <c r="B9">
+        <v>107.718291068233</v>
+      </c>
+      <c r="C9">
+        <v>5.1828298244372704</v>
+      </c>
+      <c r="E9">
+        <v>84.571294694082297</v>
+      </c>
+      <c r="F9">
+        <v>712.49903149754402</v>
+      </c>
+      <c r="H9">
+        <v>70.839694656488504</v>
+      </c>
+      <c r="I9">
+        <v>-1.9417475728156399</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
+        <v>36562.664692091828</v>
+      </c>
+      <c r="N9">
+        <v>5.1828298244372704</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="5"/>
+        <v>36563.32303169545</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>116.504854368932</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="2"/>
+        <v>36563.571294694084</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="3"/>
+        <v>36563</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>712.49903149754402</v>
+      </c>
+      <c r="W9">
+        <v>5.1828298244372704</v>
+      </c>
+      <c r="X9">
+        <v>116.504854368932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>98.334337024567773</v>
+      </c>
+      <c r="B10">
+        <v>126.605458919131</v>
+      </c>
+      <c r="C10">
+        <v>3.7833008217184299</v>
+      </c>
+      <c r="E10">
+        <v>98.911772193464301</v>
+      </c>
+      <c r="F10">
+        <v>802.619568545991</v>
+      </c>
+      <c r="H10">
+        <v>86.017935225672502</v>
+      </c>
+      <c r="I10">
+        <v>79.611650485436797</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>36577.334337024571</v>
+      </c>
+      <c r="N10">
+        <v>3.7833008217184299</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="5"/>
+        <v>36578.306801057341</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>320.388349514563</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>36577.911772193467</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="3"/>
+        <v>36577</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>802.619568545991</v>
+      </c>
+      <c r="W10">
+        <v>3.7833008217184299</v>
+      </c>
+      <c r="X10">
+        <v>320.388349514563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>113.46424397812194</v>
+      </c>
+      <c r="B11">
+        <v>146.085214121832</v>
+      </c>
+      <c r="C11">
+        <v>2.2463942429173498</v>
+      </c>
+      <c r="E11">
+        <v>114.510749454871</v>
+      </c>
+      <c r="F11">
+        <v>903.33496902636898</v>
+      </c>
+      <c r="H11">
+        <v>114.020998542454</v>
+      </c>
+      <c r="I11">
+        <v>462.135922330097</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>36592.464243978124</v>
+      </c>
+      <c r="N11">
+        <v>2.2463942429173498</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="5"/>
+        <v>36593.291360952593</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>526.21359223300897</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="2"/>
+        <v>36593.510749454872</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="3"/>
+        <v>36593</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>903.33496902636898</v>
+      </c>
+      <c r="W11">
+        <v>2.2463942429173498</v>
+      </c>
+      <c r="X11">
+        <v>526.21359223300897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>127.61891042602717</v>
+      </c>
+      <c r="B12">
+        <v>164.30934717350999</v>
+      </c>
+      <c r="C12">
+        <v>4.95254651856189E-2</v>
+      </c>
+      <c r="E12">
+        <v>128.04875349122</v>
+      </c>
+      <c r="F12">
+        <v>760.84224663053305</v>
+      </c>
+      <c r="H12">
+        <v>127.700387855431</v>
+      </c>
+      <c r="I12">
+        <v>462.135922330097</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>36606.618910426027</v>
+      </c>
+      <c r="N12">
+        <v>4.95254651856189E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="5"/>
+        <v>36606.748610390569</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>580.58252427184402</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="2"/>
+        <v>36607.048753491217</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="3"/>
+        <v>36607</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
+        <v>760.84224663053305</v>
+      </c>
+      <c r="W12">
+        <v>4.95254651856189E-2</v>
+      </c>
+      <c r="X12">
+        <v>580.58252427184402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>52.561600915813827</v>
+      </c>
+      <c r="B13">
+        <v>67.673061179110306</v>
+      </c>
+      <c r="C13">
+        <v>1.8509991004558299</v>
+      </c>
+      <c r="E13">
+        <v>142.86296704877901</v>
+      </c>
+      <c r="F13">
+        <v>713.526197530226</v>
+      </c>
+      <c r="H13">
+        <v>142.38296400602701</v>
+      </c>
+      <c r="I13">
+        <v>526.21359223300897</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="5"/>
+        <v>36621.388497739565</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>539.80582524271802</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>36621.862967048779</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="3"/>
+        <v>36621</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
+        <v>713.526197530226</v>
+      </c>
+      <c r="X13">
+        <v>539.80582524271802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>57.822427999914012</v>
+      </c>
+      <c r="B14">
+        <v>74.446376049889295</v>
+      </c>
+      <c r="C14">
+        <v>3.7213232395718499</v>
+      </c>
+      <c r="E14">
+        <v>44.494663090279097</v>
+      </c>
+      <c r="F14">
+        <v>106.506491733601</v>
+      </c>
+      <c r="H14">
+        <v>79.144247634575905</v>
+      </c>
+      <c r="I14">
+        <v>-3.8834951456311702</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="2"/>
+        <v>36523.494663090278</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="3"/>
+        <v>36523</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>106.506491733601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>70.808737010359451</v>
+      </c>
+      <c r="B15">
+        <v>91.1662489008378</v>
+      </c>
+      <c r="C15">
+        <v>5.5654898472796299</v>
+      </c>
+      <c r="E15">
+        <v>53.560952932625398</v>
+      </c>
+      <c r="F15">
+        <v>207.106778779281</v>
+      </c>
+      <c r="H15">
+        <v>86.235331900491602</v>
+      </c>
+      <c r="I15">
+        <v>13.5922330097087</v>
+      </c>
+      <c r="M15" s="4">
+        <f>DATE(1999,11,15)+A13</f>
+        <v>36531.561600915811</v>
+      </c>
+      <c r="N15">
+        <v>1.8509991004558299</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="2"/>
+        <v>36532.560952932625</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="3"/>
+        <v>36532</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>207.106778779281</v>
+      </c>
+      <c r="W15">
+        <v>1.8509991004558299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>86.028765198758066</v>
+      </c>
+      <c r="B16">
+        <v>110.762035193401</v>
+      </c>
+      <c r="C16">
+        <v>5.5681177291058104</v>
+      </c>
+      <c r="E16">
+        <v>58.594951980725803</v>
+      </c>
+      <c r="F16">
+        <v>249.48623250700001</v>
+      </c>
+      <c r="H16">
+        <v>92.840238148175501</v>
+      </c>
+      <c r="I16">
+        <v>36.893203883494998</v>
+      </c>
+      <c r="M16" s="4">
+        <f>DATE(1999,11,15)+A14</f>
+        <v>36536.822427999912</v>
+      </c>
+      <c r="N16">
+        <v>3.7213232395718499</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="2"/>
+        <v>36537.594951980725</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="3"/>
+        <v>36537</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>249.48623250700001</v>
+      </c>
+      <c r="W16">
+        <v>3.7213232395718499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>98.411583797292423</v>
+      </c>
+      <c r="B17">
+        <v>126.70491413901399</v>
+      </c>
+      <c r="C17">
+        <v>5.1029017879703602</v>
+      </c>
+      <c r="E17">
+        <v>71.442275408892499</v>
+      </c>
+      <c r="F17">
+        <v>408.30292543084499</v>
+      </c>
+      <c r="H17">
+        <v>110.25410706786199</v>
+      </c>
+      <c r="I17">
+        <v>209.70873786407699</v>
+      </c>
+      <c r="M17" s="4">
+        <f>DATE(1999,11,15)+A15</f>
+        <v>36549.80873701036</v>
+      </c>
+      <c r="N17">
+        <v>5.5654898472796299</v>
+      </c>
+      <c r="P17" s="4">
+        <f>DATE(1999,11,15)+H9</f>
+        <v>36549.83969465649</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>36550.442275408896</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="3"/>
+        <v>36550</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>408.30292543084499</v>
+      </c>
+      <c r="W17">
+        <v>5.5654898472796299</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>127.40728645491728</v>
+      </c>
+      <c r="B18">
+        <v>164.03688131070601</v>
+      </c>
+      <c r="C18">
+        <v>0.43436865139126002</v>
+      </c>
+      <c r="E18">
+        <v>86.568623472072005</v>
+      </c>
+      <c r="F18">
+        <v>651.74127517645104</v>
+      </c>
+      <c r="H18">
+        <v>121.05437387287201</v>
+      </c>
+      <c r="I18">
+        <v>337.86407766990197</v>
+      </c>
+      <c r="M18" s="4">
+        <f>DATE(1999,11,15)+A16</f>
+        <v>36565.02876519876</v>
+      </c>
+      <c r="N18">
+        <v>5.5681177291058104</v>
+      </c>
+      <c r="P18" s="4">
+        <f>DATE(1999,11,15)+H10</f>
+        <v>36565.017935225675</v>
+      </c>
+      <c r="Q18">
+        <f>I10</f>
+        <v>79.611650485436797</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="2"/>
+        <v>36565.568623472071</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="3"/>
+        <v>36565</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>651.74127517645104</v>
+      </c>
+      <c r="W18">
+        <v>5.5681177291058104</v>
+      </c>
+      <c r="X18">
+        <v>79.611650485436797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>51.074600540864779</v>
+      </c>
+      <c r="B19">
+        <v>65.758548196363407</v>
+      </c>
+      <c r="C19">
+        <v>0.44868050010612398</v>
+      </c>
+      <c r="E19">
+        <v>99.423141489907195</v>
+      </c>
+      <c r="F19">
+        <v>844.91932835738203</v>
+      </c>
+      <c r="H19">
+        <v>134.06813409422099</v>
+      </c>
+      <c r="I19">
+        <v>502.91262135922301</v>
+      </c>
+      <c r="M19" s="4">
+        <f>DATE(1999,11,15)+A17</f>
+        <v>36577.411583797293</v>
+      </c>
+      <c r="N19">
+        <v>5.1029017879703602</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="2"/>
+        <v>36578.423141489904</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="3"/>
+        <v>36578</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>844.91932835738203</v>
+      </c>
+      <c r="W19">
+        <v>5.1029017879703602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>64.963731207529321</v>
+      </c>
+      <c r="B20">
+        <v>83.640803929694002</v>
+      </c>
+      <c r="C20">
+        <v>1.7156834008833699</v>
+      </c>
+      <c r="E20">
+        <v>114.521264624387</v>
+      </c>
+      <c r="F20">
+        <v>953.55541863287999</v>
+      </c>
+      <c r="H20">
+        <v>147.74831394056099</v>
+      </c>
+      <c r="I20">
+        <v>504.85436893203803</v>
+      </c>
+      <c r="P20" s="4">
+        <f>DATE(1999,11,15)+H11</f>
+        <v>36593.020998542452</v>
+      </c>
+      <c r="Q20">
+        <f>I11</f>
+        <v>462.135922330097</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="2"/>
+        <v>36593.521264624389</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="3"/>
+        <v>36593</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>953.55541863287999</v>
+      </c>
+      <c r="X20">
+        <v>462.135922330097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>66.163470146408699</v>
+      </c>
+      <c r="B21">
+        <v>85.185467813501205</v>
+      </c>
+      <c r="C21">
+        <v>2.2107359079836999</v>
+      </c>
+      <c r="E21">
+        <v>128.79367023690401</v>
+      </c>
+      <c r="F21">
+        <v>718.564624018122</v>
+      </c>
+      <c r="H21">
+        <v>92.585686405296499</v>
+      </c>
+      <c r="I21">
+        <v>11.650485436893099</v>
+      </c>
+      <c r="M21" s="4">
+        <f>DATE(1999,11,15)+A18</f>
+        <v>36606.407286454916</v>
+      </c>
+      <c r="N21">
+        <v>0.43436865139126002</v>
+      </c>
+      <c r="P21" s="4">
+        <f>DATE(1999,11,15)+H12</f>
+        <v>36606.700387855431</v>
+      </c>
+      <c r="Q21">
+        <f>I12</f>
+        <v>462.135922330097</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="2"/>
+        <v>36607.793670236904</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="3"/>
+        <v>36607</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>718.564624018122</v>
+      </c>
+      <c r="W21">
+        <v>0.43436865139126002</v>
+      </c>
+      <c r="X21">
+        <v>462.135922330097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>78.897922491616313</v>
+      </c>
+      <c r="B22">
+        <v>101.581075207956</v>
+      </c>
+      <c r="C22">
+        <v>3.7524535319742398</v>
+      </c>
+      <c r="E22">
+        <v>142.116943443146</v>
+      </c>
+      <c r="F22">
+        <v>750.51745702616199</v>
+      </c>
+      <c r="H22">
+        <v>97.728896464833596</v>
+      </c>
+      <c r="I22">
+        <v>44.660194174757102</v>
+      </c>
+      <c r="P22" s="4">
+        <f>DATE(1999,11,15)+H13</f>
+        <v>36621.382964006028</v>
+      </c>
+      <c r="Q22">
+        <f>I13</f>
+        <v>526.21359223300897</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="2"/>
+        <v>36621.116943443143</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="3"/>
+        <v>36621</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>750.51745702616199</v>
+      </c>
+      <c r="X22">
+        <v>526.21359223300897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>85.957955657094359</v>
+      </c>
+      <c r="B23">
+        <v>110.670867908509</v>
+      </c>
+      <c r="C23">
+        <v>4.3584835100415402</v>
+      </c>
+      <c r="E23">
+        <v>51.262558248504803</v>
+      </c>
+      <c r="F23">
+        <v>29.973767419208301</v>
+      </c>
+      <c r="H23">
+        <v>109.261197163961</v>
+      </c>
+      <c r="I23">
+        <v>170.873786407766</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" ref="M23:M31" si="7">DATE(1999,11,15)+A19</f>
+        <v>36530.074600540866</v>
+      </c>
+      <c r="N23">
+        <v>0.44868050010612398</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="2"/>
+        <v>36530.262558248505</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="3"/>
+        <v>36530</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>29.973767419208301</v>
+      </c>
+      <c r="W23">
+        <v>0.44868050010612398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>92.985802667269894</v>
+      </c>
+      <c r="B24">
+        <v>119.71922093411</v>
+      </c>
+      <c r="C24">
+        <v>4.4146797521705201</v>
+      </c>
+      <c r="E24">
+        <v>64.852584702457506</v>
+      </c>
+      <c r="F24">
+        <v>135.94011149769199</v>
+      </c>
+      <c r="H24">
+        <v>120.569776921366</v>
+      </c>
+      <c r="I24">
+        <v>347.57281553398002</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="7"/>
+        <v>36543.963731207528</v>
+      </c>
+      <c r="N24">
+        <v>1.7156834008833699</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="2"/>
+        <v>36543.852584702458</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="3"/>
+        <v>36543</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>135.94011149769199</v>
+      </c>
+      <c r="W24">
+        <v>1.7156834008833699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>109.79985019699728</v>
+      </c>
+      <c r="B25">
+        <v>141.367307128634</v>
+      </c>
+      <c r="C25">
+        <v>3.64782340634128</v>
+      </c>
+      <c r="E25">
+        <v>66.615259171256994</v>
+      </c>
+      <c r="F25">
+        <v>154.47337448392599</v>
+      </c>
+      <c r="H25">
+        <v>133.56140220855201</v>
+      </c>
+      <c r="I25">
+        <v>458.252427184466</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="7"/>
+        <v>36545.163470146406</v>
+      </c>
+      <c r="N25">
+        <v>2.2107359079836999</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="2"/>
+        <v>36545.61525917126</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="3"/>
+        <v>36545</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>154.47337448392599</v>
+      </c>
+      <c r="W25">
+        <v>2.2107359079836999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>120.53876091348583</v>
+      </c>
+      <c r="B26">
+        <v>155.193654676113</v>
+      </c>
+      <c r="C26">
+        <v>3.0998494021568801</v>
+      </c>
+      <c r="E26">
+        <v>78.707704114198407</v>
+      </c>
+      <c r="F26">
+        <v>307.99042197190698</v>
+      </c>
+      <c r="H26">
+        <v>148.23528249215599</v>
+      </c>
+      <c r="I26">
+        <v>500.97087378640703</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="7"/>
+        <v>36557.897922491618</v>
+      </c>
+      <c r="N26">
+        <v>3.7524535319742398</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26:P31" si="8">DATE(1999,11,15)+H14</f>
+        <v>36558.144247634576</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q32" si="9">I14</f>
+        <v>-3.8834951456311702</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="2"/>
+        <v>36557.707704114197</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="3"/>
+        <v>36557</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>307.99042197190698</v>
+      </c>
+      <c r="W26">
+        <v>3.7524535319742398</v>
+      </c>
+      <c r="X26">
+        <v>-3.8834951456311702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>133.25792483492503</v>
+      </c>
+      <c r="B27">
+        <v>171.56957822496599</v>
+      </c>
+      <c r="C27">
+        <v>0.38039600157672898</v>
+      </c>
+      <c r="E27">
+        <v>86.024048377158806</v>
+      </c>
+      <c r="F27">
+        <v>450.850621870814</v>
+      </c>
+      <c r="H27">
+        <v>100.88707724993201</v>
+      </c>
+      <c r="I27">
+        <v>1.94174757281552</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="7"/>
+        <v>36564.957955657097</v>
+      </c>
+      <c r="N27">
+        <v>4.3584835100415402</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="8"/>
+        <v>36565.235331900491</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>13.5922330097087</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="2"/>
+        <v>36565.024048377156</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="3"/>
+        <v>36565</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>450.850621870814</v>
+      </c>
+      <c r="W27">
+        <v>4.3584835100415402</v>
+      </c>
+      <c r="X27">
+        <v>13.5922330097087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>64.968559130824616</v>
+      </c>
+      <c r="B28">
+        <v>83.647019880936696</v>
+      </c>
+      <c r="C28">
+        <v>1.7981584612741099</v>
+      </c>
+      <c r="E28">
+        <v>93.074192822382201</v>
+      </c>
+      <c r="F28">
+        <v>522.34049225751403</v>
+      </c>
+      <c r="H28">
+        <v>109.93868425603399</v>
+      </c>
+      <c r="I28">
+        <v>34.951456310679497</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="7"/>
+        <v>36571.985802667266</v>
+      </c>
+      <c r="N28">
+        <v>4.4146797521705201</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="8"/>
+        <v>36571.840238148172</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>36.893203883494998</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="2"/>
+        <v>36572.07419282238</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="3"/>
+        <v>36572</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>522.34049225751403</v>
+      </c>
+      <c r="W28">
+        <v>4.4146797521705201</v>
+      </c>
+      <c r="X28">
+        <v>36.893203883494998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>69.695096036912787</v>
+      </c>
+      <c r="B29">
+        <v>89.732436147525206</v>
+      </c>
+      <c r="C29">
+        <v>2.5412425838142698</v>
+      </c>
+      <c r="E29">
+        <v>109.42694170906501</v>
+      </c>
+      <c r="F29">
+        <v>623.06917505727995</v>
+      </c>
+      <c r="H29">
+        <v>120.994293337286</v>
+      </c>
+      <c r="I29">
+        <v>190.29126213592201</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="7"/>
+        <v>36588.799850197</v>
+      </c>
+      <c r="N29">
+        <v>3.64782340634128</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="8"/>
+        <v>36589.254107067864</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>209.70873786407699</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="2"/>
+        <v>36588.426941709062</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="3"/>
+        <v>36588</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>623.06917505727995</v>
+      </c>
+      <c r="W29">
+        <v>3.64782340634128</v>
+      </c>
+      <c r="X29">
+        <v>209.70873786407699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>79.167481542269513</v>
+      </c>
+      <c r="B30">
+        <v>101.92813248567199</v>
+      </c>
+      <c r="C30">
+        <v>4.3573110704575502</v>
+      </c>
+      <c r="E30">
+        <v>121.249312824448</v>
+      </c>
+      <c r="F30">
+        <v>686.71362212539202</v>
+      </c>
+      <c r="H30">
+        <v>133.77247461646701</v>
+      </c>
+      <c r="I30">
+        <v>376.69902912621302</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="7"/>
+        <v>36599.538760913485</v>
+      </c>
+      <c r="N30">
+        <v>3.0998494021568801</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="8"/>
+        <v>36600.054373872874</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>337.86407766990197</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="2"/>
+        <v>36600.249312824446</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="3"/>
+        <v>36600</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="4"/>
+        <v>686.71362212539202</v>
+      </c>
+      <c r="W30">
+        <v>3.0998494021568801</v>
+      </c>
+      <c r="X30">
+        <v>337.86407766990197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>92.531977877513</v>
+      </c>
+      <c r="B31">
+        <v>119.134921517298</v>
+      </c>
+      <c r="C31">
+        <v>4.6620240754404199</v>
+      </c>
+      <c r="E31">
+        <v>134.316347952493</v>
+      </c>
+      <c r="F31">
+        <v>694.87339366949902</v>
+      </c>
+      <c r="H31">
+        <v>147.70009140542001</v>
+      </c>
+      <c r="I31">
+        <v>386.40776699029101</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="7"/>
+        <v>36612.257924834928</v>
+      </c>
+      <c r="N31">
+        <v>0.38039600157672898</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="8"/>
+        <v>36613.068134094217</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>502.91262135922301</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="2"/>
+        <v>36613.316347952496</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="3"/>
+        <v>36613</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="4"/>
+        <v>694.87339366949902</v>
+      </c>
+      <c r="W31">
+        <v>0.38039600157672898</v>
+      </c>
+      <c r="X31">
+        <v>502.91262135922301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>98.004428932723101</v>
+      </c>
+      <c r="B32">
+        <v>126.180702250881</v>
+      </c>
+      <c r="C32">
+        <v>6.1475050283507997</v>
+      </c>
+      <c r="E32">
+        <v>51.009640750155803</v>
+      </c>
+      <c r="F32">
+        <v>22.0397953047001</v>
+      </c>
+      <c r="H32">
+        <v>163.11628251686</v>
+      </c>
+      <c r="I32">
+        <v>452.42718446601901</v>
+      </c>
+      <c r="P32" s="4">
+        <f>DATE(1999,11,15)+H20</f>
+        <v>36626.748313940559</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>504.85436893203803</v>
+      </c>
+      <c r="T32" s="4">
+        <f>P32</f>
+        <v>36626.748313940559</v>
+      </c>
+      <c r="X32">
+        <v>504.85436893203803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>109.58500761035728</v>
+      </c>
+      <c r="B33">
+        <v>141.09069729833499</v>
+      </c>
+      <c r="C33">
+        <v>3.9776832189530902</v>
+      </c>
+      <c r="E33">
+        <v>65.101628190984997</v>
+      </c>
+      <c r="F33">
+        <v>125.371812704538</v>
+      </c>
+      <c r="H33">
+        <v>108.715729143506</v>
+      </c>
+      <c r="I33">
+        <v>31.067961165048398</v>
+      </c>
+      <c r="T33" s="4">
+        <f>DATE(1999,11,15)+L20</f>
+        <v>36479</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" ref="U33:U61" si="10">DATE(YEAR(T33),MONTH(T33),DAY(T33))</f>
+        <v>36479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>120.55968191443185</v>
+      </c>
+      <c r="B34">
+        <v>155.22059046483099</v>
+      </c>
+      <c r="C34">
+        <v>3.45724133051678</v>
+      </c>
+      <c r="E34">
+        <v>79.465349749296195</v>
+      </c>
+      <c r="F34">
+        <v>326.505975198957</v>
+      </c>
+      <c r="H34">
+        <v>119.996640233207</v>
+      </c>
+      <c r="I34">
+        <v>139.80582524271799</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:M41" si="11">DATE(1999,11,15)+A28</f>
+        <v>36543.968559130823</v>
+      </c>
+      <c r="N34">
+        <v>1.7981584612741099</v>
+      </c>
+      <c r="T34" s="4">
+        <f>DATE(1999,11,15)+E32</f>
+        <v>36530.009640750155</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="10"/>
+        <v>36530</v>
+      </c>
+      <c r="V34">
+        <f>F32</f>
+        <v>22.0397953047001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>133.12837555983535</v>
+      </c>
+      <c r="B35">
+        <v>171.40278353328799</v>
+      </c>
+      <c r="C35">
+        <v>2.1673152144250398</v>
+      </c>
+      <c r="E35">
+        <v>93.069765382586098</v>
+      </c>
+      <c r="F35">
+        <v>501.19503979161499</v>
+      </c>
+      <c r="H35">
+        <v>132.76849724548501</v>
+      </c>
+      <c r="I35">
+        <v>310.67961165048501</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="11"/>
+        <v>36548.695096036914</v>
+      </c>
+      <c r="N35">
+        <v>2.5412425838142698</v>
+      </c>
+      <c r="T35" s="4">
+        <f>DATE(1999,11,15)+E33</f>
+        <v>36544.101628190983</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="10"/>
+        <v>36544</v>
+      </c>
+      <c r="V35">
+        <f>F33</f>
+        <v>125.371812704538</v>
+      </c>
+      <c r="W35">
+        <v>1.7981584612741099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>74.02976650219999</v>
+      </c>
+      <c r="B36">
+        <v>95.313324371582496</v>
+      </c>
+      <c r="C36">
+        <v>0.59010097130555095</v>
+      </c>
+      <c r="E36">
+        <v>97.604017163708207</v>
+      </c>
+      <c r="F36">
+        <v>556.78154643093001</v>
+      </c>
+      <c r="H36">
+        <v>146.96647644457599</v>
+      </c>
+      <c r="I36">
+        <v>384.46601941747502</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="11"/>
+        <v>36558.167481542267</v>
+      </c>
+      <c r="N36">
+        <v>4.3573110704575502</v>
+      </c>
+      <c r="T36" s="4">
+        <f>DATE(1999,11,15)+H29</f>
+        <v>36599.994293337288</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="10"/>
+        <v>36599</v>
+      </c>
+      <c r="W36">
+        <v>2.5412425838142698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>78.728945176281172</v>
+      </c>
+      <c r="B37">
+        <v>101.363516914462</v>
+      </c>
+      <c r="C37">
+        <v>0.865826418298143</v>
+      </c>
+      <c r="E37">
+        <v>110.681014031294</v>
+      </c>
+      <c r="F37">
+        <v>612.51858602331004</v>
+      </c>
+      <c r="H37">
+        <v>146.96647644457599</v>
+      </c>
+      <c r="I37">
+        <v>384.46601941747502</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="11"/>
+        <v>36571.531977877516</v>
+      </c>
+      <c r="N37">
+        <v>4.6620240754404199</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" ref="P37:P42" si="12">DATE(1999,11,15)+H21</f>
+        <v>36571.585686405298</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37:Q42" si="13">I21</f>
+        <v>11.650485436893099</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" ref="T37:T61" si="14">DATE(1999,11,15)+E34</f>
+        <v>36558.465349749298</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="10"/>
+        <v>36558</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ref="V37:V61" si="15">F34</f>
+        <v>326.505975198957</v>
+      </c>
+      <c r="W37">
+        <v>4.3573110704575502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>88.167535218571658</v>
+      </c>
+      <c r="B38">
+        <v>113.515701593911</v>
+      </c>
+      <c r="C38">
+        <v>2.1045694822062</v>
+      </c>
+      <c r="E38">
+        <v>121.264808863734</v>
+      </c>
+      <c r="F38">
+        <v>760.72270575604</v>
+      </c>
+      <c r="H38">
+        <v>161.40082511919701</v>
+      </c>
+      <c r="I38">
+        <v>438.83495145631002</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="11"/>
+        <v>36577.00442893272</v>
+      </c>
+      <c r="N38">
+        <v>6.1475050283507997</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="12"/>
+        <v>36576.728896464832</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="13"/>
+        <v>44.660194174757102</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="14"/>
+        <v>36572.069765382585</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="10"/>
+        <v>36572</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="15"/>
+        <v>501.19503979161499</v>
+      </c>
+      <c r="W38">
+        <v>4.6620240754404199</v>
+      </c>
+      <c r="X38">
+        <v>11.650485436893099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>92.886025585834574</v>
+      </c>
+      <c r="B39">
+        <v>119.59075794176201</v>
+      </c>
+      <c r="C39">
+        <v>2.71019517076178</v>
+      </c>
+      <c r="E39">
+        <v>133.830989864852</v>
+      </c>
+      <c r="F39">
+        <v>776.80316709526699</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="11"/>
+        <v>36588.58500761036</v>
+      </c>
+      <c r="N39">
+        <v>3.9776832189530902</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="12"/>
+        <v>36588.261197163964</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="13"/>
+        <v>170.873786407766</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="14"/>
+        <v>36576.604017163707</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="10"/>
+        <v>36576</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="15"/>
+        <v>556.78154643093001</v>
+      </c>
+      <c r="W39">
+        <v>6.1475050283507997</v>
+      </c>
+      <c r="X39">
+        <v>44.660194174757102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>100.45781862061281</v>
+      </c>
+      <c r="B40">
+        <v>129.33944147403901</v>
+      </c>
+      <c r="C40">
+        <v>4.0585815502481299</v>
+      </c>
+      <c r="E40">
+        <v>148.38287761449499</v>
+      </c>
+      <c r="F40">
+        <v>676.61905939041503</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="11"/>
+        <v>36599.559681914434</v>
+      </c>
+      <c r="N40">
+        <v>3.45724133051678</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="12"/>
+        <v>36599.569776921366</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="13"/>
+        <v>347.57281553398002</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="14"/>
+        <v>36589.681014031295</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="10"/>
+        <v>36589</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="15"/>
+        <v>612.51858602331004</v>
+      </c>
+      <c r="W40">
+        <v>3.9776832189530902</v>
+      </c>
+      <c r="X40">
+        <v>170.873786407766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>109.55764937835031</v>
+      </c>
+      <c r="B41">
+        <v>141.05547357462601</v>
+      </c>
+      <c r="C41">
+        <v>3.5103245434055301</v>
+      </c>
+      <c r="E41">
+        <v>74.126964215217797</v>
+      </c>
+      <c r="F41">
+        <v>30.376664440648</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="11"/>
+        <v>36612.128375559834</v>
+      </c>
+      <c r="N41">
+        <v>2.1673152144250398</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="12"/>
+        <v>36612.56140220855</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="13"/>
+        <v>458.252427184466</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="14"/>
+        <v>36600.264808863736</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="10"/>
+        <v>36600</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="15"/>
+        <v>760.72270575604</v>
+      </c>
+      <c r="W41">
+        <v>3.45724133051678</v>
+      </c>
+      <c r="X41">
+        <v>347.57281553398002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>121.27823783154797</v>
+      </c>
+      <c r="B42">
+        <v>156.14573120811801</v>
+      </c>
+      <c r="C42">
+        <v>3.7322794853394501</v>
+      </c>
+      <c r="E42">
+        <v>79.410560181820102</v>
+      </c>
+      <c r="F42">
+        <v>64.831000933451804</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="12"/>
+        <v>36627.235282492155</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="13"/>
+        <v>500.97087378640703</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="14"/>
+        <v>36612.830989864851</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="10"/>
+        <v>36612</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="15"/>
+        <v>776.80316709526699</v>
+      </c>
+      <c r="W42">
+        <v>2.1673152144250398</v>
+      </c>
+      <c r="X42">
+        <v>458.252427184466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>133.15251517631145</v>
+      </c>
+      <c r="B43">
+        <v>171.43386328950101</v>
+      </c>
+      <c r="C43">
+        <v>2.5796905163787698</v>
+      </c>
+      <c r="E43">
+        <v>88.222272235893996</v>
+      </c>
+      <c r="F43">
+        <v>149.56777118991101</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" ref="M43:M51" si="16">DATE(1999,11,15)+A36</f>
+        <v>36553.029766502201</v>
+      </c>
+      <c r="N43">
+        <v>0.59010097130555095</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" si="14"/>
+        <v>36627.382877614495</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="10"/>
+        <v>36627</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="15"/>
+        <v>676.61905939041503</v>
+      </c>
+      <c r="X43">
+        <v>500.97087378640703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>147.06498080556972</v>
+      </c>
+      <c r="B44">
+        <v>189.34616278717101</v>
+      </c>
+      <c r="C44">
+        <v>0.24532287571129699</v>
+      </c>
+      <c r="E44">
+        <v>93.257931573917901</v>
+      </c>
+      <c r="F44">
+        <v>199.87676959234301</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="16"/>
+        <v>36557.728945176284</v>
+      </c>
+      <c r="N44">
+        <v>0.865826418298143</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="14"/>
+        <v>36553.126964215218</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="10"/>
+        <v>36553</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="15"/>
+        <v>30.376664440648</v>
+      </c>
+      <c r="W44">
+        <v>0.59010097130555095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>87.457025840281176</v>
+      </c>
+      <c r="B45">
+        <v>112.60092076936201</v>
+      </c>
+      <c r="C45">
+        <v>1.96698976136811</v>
+      </c>
+      <c r="E45">
+        <v>100.81612473573701</v>
+      </c>
+      <c r="F45">
+        <v>297.80731044100901</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="16"/>
+        <v>36567.16753521857</v>
+      </c>
+      <c r="N45">
+        <v>2.1045694822062</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="14"/>
+        <v>36558.410560181823</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="10"/>
+        <v>36558</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="15"/>
+        <v>64.831000933451804</v>
+      </c>
+      <c r="W45">
+        <v>0.865826418298143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>108.41423621124972</v>
+      </c>
+      <c r="B46">
+        <v>139.58332912198401</v>
+      </c>
+      <c r="C46">
+        <v>3.9774810741972302</v>
+      </c>
+      <c r="E46">
+        <v>110.12813748676299</v>
+      </c>
+      <c r="F46">
+        <v>371.98020934411102</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="16"/>
+        <v>36571.886025585838</v>
+      </c>
+      <c r="N46">
+        <v>2.71019517076178</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="14"/>
+        <v>36567.222272235893</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="10"/>
+        <v>36567</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="15"/>
+        <v>149.56777118991101</v>
+      </c>
+      <c r="W46">
+        <v>2.1045694822062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>118.96244395757358</v>
+      </c>
+      <c r="B47">
+        <v>153.164146595376</v>
+      </c>
+      <c r="C47">
+        <v>4.1717421845783704</v>
+      </c>
+      <c r="E47">
+        <v>121.475665684021</v>
+      </c>
+      <c r="F47">
+        <v>567.77487944450297</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="16"/>
+        <v>36579.457818620613</v>
+      </c>
+      <c r="N47">
+        <v>4.0585815502481299</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" ref="P47:P52" si="17">DATE(1999,11,15)+H27</f>
+        <v>36579.887077249929</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q47:Q52" si="18">I27</f>
+        <v>1.94174757281552</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="14"/>
+        <v>36572.25793157392</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="10"/>
+        <v>36572</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="15"/>
+        <v>199.87676959234301</v>
+      </c>
+      <c r="W47">
+        <v>2.71019517076178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>132.73248584962175</v>
+      </c>
+      <c r="B48">
+        <v>170.89307553138801</v>
+      </c>
+      <c r="C48">
+        <v>3.4043602623838898</v>
+      </c>
+      <c r="E48">
+        <v>134.06232359419499</v>
+      </c>
+      <c r="F48">
+        <v>681.65305843851502</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="16"/>
+        <v>36588.557649378352</v>
+      </c>
+      <c r="N48">
+        <v>3.5103245434055301</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="17"/>
+        <v>36588.938684256034</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="18"/>
+        <v>34.951456310679497</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="14"/>
+        <v>36579.816124735735</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="10"/>
+        <v>36579</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="15"/>
+        <v>297.80731044100901</v>
+      </c>
+      <c r="W48">
+        <v>4.0585815502481299</v>
+      </c>
+      <c r="X48">
+        <v>1.94174757281552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>146.18629876582756</v>
+      </c>
+      <c r="B49">
+        <v>188.214859661003</v>
+      </c>
+      <c r="C49">
+        <v>1.2348618845955499</v>
+      </c>
+      <c r="E49">
+        <v>147.851031408995</v>
+      </c>
+      <c r="F49">
+        <v>536.52158192423894</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="16"/>
+        <v>36600.278237831546</v>
+      </c>
+      <c r="N49">
+        <v>3.7322794853394501</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="17"/>
+        <v>36599.994293337288</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="18"/>
+        <v>190.29126213592201</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" si="14"/>
+        <v>36589.128137486761</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="10"/>
+        <v>36589</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="15"/>
+        <v>371.98020934411102</v>
+      </c>
+      <c r="W49">
+        <v>3.5103245434055301</v>
+      </c>
+      <c r="X49">
+        <v>34.951456310679497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50">
+        <v>163.43561949106501</v>
+      </c>
+      <c r="F50">
+        <v>568.51426189044298</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="16"/>
+        <v>36612.152515176313</v>
+      </c>
+      <c r="N50">
+        <v>2.5796905163787698</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="17"/>
+        <v>36612.772474616468</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="18"/>
+        <v>376.69902912621302</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="14"/>
+        <v>36600.475665684018</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="10"/>
+        <v>36600</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="15"/>
+        <v>567.77487944450297</v>
+      </c>
+      <c r="W50">
+        <v>3.7322794853394501</v>
+      </c>
+      <c r="X50">
+        <v>190.29126213592201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51">
+        <v>79.911414308747496</v>
+      </c>
+      <c r="F51">
+        <v>56.9103111383317</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="16"/>
+        <v>36626.064980805568</v>
+      </c>
+      <c r="N51">
+        <v>0.24532287571129699</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="17"/>
+        <v>36626.700091405422</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="18"/>
+        <v>386.40776699029101</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="14"/>
+        <v>36613.062323594197</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="10"/>
+        <v>36613</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="15"/>
+        <v>681.65305843851502</v>
+      </c>
+      <c r="W51">
+        <v>2.5796905163787698</v>
+      </c>
+      <c r="X51">
+        <v>376.69902912621302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52">
+        <v>87.463519740847104</v>
+      </c>
+      <c r="F52">
+        <v>125.76585484638601</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="17"/>
+        <v>36642.116282516858</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="18"/>
+        <v>452.42718446601901</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="14"/>
+        <v>36626.851031408994</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="10"/>
+        <v>36626</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="15"/>
+        <v>536.52158192423894</v>
+      </c>
+      <c r="W52">
+        <v>0.24532287571129699</v>
+      </c>
+      <c r="X52">
+        <v>386.40776699029101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53">
+        <v>92.749329427347504</v>
+      </c>
+      <c r="F53">
+        <v>170.792917572139</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="14"/>
+        <v>36642.435619491065</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="10"/>
+        <v>36642</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="15"/>
+        <v>568.51426189044298</v>
+      </c>
+      <c r="X53">
+        <v>452.42718446601901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54">
+        <v>108.871298014662</v>
+      </c>
+      <c r="F54">
+        <v>369.314890586893</v>
+      </c>
+      <c r="M54" s="4">
+        <f>DATE(1999,11,15)+A45</f>
+        <v>36566.457025840282</v>
+      </c>
+      <c r="N54">
+        <v>1.96698976136811</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="14"/>
+        <v>36558.91141430875</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="10"/>
+        <v>36558</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="15"/>
+        <v>56.9103111383317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55">
+        <v>119.96314156369699</v>
+      </c>
+      <c r="F55">
+        <v>543.95968078159001</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="14"/>
+        <v>36566.46351974085</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="10"/>
+        <v>36566</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="15"/>
+        <v>125.76585484638601</v>
+      </c>
+      <c r="W55">
+        <v>1.96698976136811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56">
+        <v>133.30578481904601</v>
+      </c>
+      <c r="F56">
+        <v>668.42386832794</v>
+      </c>
+      <c r="M56" s="4">
+        <f>DATE(1999,11,15)+A46</f>
+        <v>36587.414236211247</v>
+      </c>
+      <c r="N56">
+        <v>3.9774810741972302</v>
+      </c>
+      <c r="P56" s="4">
+        <f>DATE(1999,11,15)+H33</f>
+        <v>36587.715729143507</v>
+      </c>
+      <c r="Q56">
+        <f>I33</f>
+        <v>31.067961165048398</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="14"/>
+        <v>36571.749329427344</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="10"/>
+        <v>36571</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="15"/>
+        <v>170.792917572139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57">
+        <v>147.35571158181301</v>
+      </c>
+      <c r="F57">
+        <v>570.87408730173297</v>
+      </c>
+      <c r="M57" s="4">
+        <f>DATE(1999,11,15)+A47</f>
+        <v>36597.962443957571</v>
+      </c>
+      <c r="N57">
+        <v>4.1717421845783704</v>
+      </c>
+      <c r="P57" s="4">
+        <f>DATE(1999,11,15)+H34</f>
+        <v>36598.996640233207</v>
+      </c>
+      <c r="Q57">
+        <f>I34</f>
+        <v>139.80582524271799</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="14"/>
+        <v>36587.871298014659</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="10"/>
+        <v>36587</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="15"/>
+        <v>369.314890586893</v>
+      </c>
+      <c r="W57">
+        <v>3.9774810741972302</v>
+      </c>
+      <c r="X57">
+        <v>31.067961165048398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58">
+        <v>162.17878001896401</v>
+      </c>
+      <c r="F58">
+        <v>565.84894313322502</v>
+      </c>
+      <c r="M58" s="4">
+        <f>DATE(1999,11,15)+A48</f>
+        <v>36611.732485849621</v>
+      </c>
+      <c r="N58">
+        <v>3.4043602623838898</v>
+      </c>
+      <c r="P58" s="4">
+        <f>DATE(1999,11,15)+H35</f>
+        <v>36611.768497245488</v>
+      </c>
+      <c r="Q58">
+        <f>I35</f>
+        <v>310.67961165048501</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="14"/>
+        <v>36598.963141563698</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="10"/>
+        <v>36598</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="15"/>
+        <v>543.95968078159001</v>
+      </c>
+      <c r="W58">
+        <v>4.1717421845783704</v>
+      </c>
+      <c r="X58">
+        <v>139.80582524271799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="M59" s="4">
+        <f>DATE(1999,11,15)+A49</f>
+        <v>36625.186298765824</v>
+      </c>
+      <c r="N59">
+        <v>1.2348618845955499</v>
+      </c>
+      <c r="P59" s="4">
+        <f>DATE(1999,11,15)+H36</f>
+        <v>36625.966476444577</v>
+      </c>
+      <c r="Q59">
+        <f>I36</f>
+        <v>384.46601941747502</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="14"/>
+        <v>36612.305784819044</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="10"/>
+        <v>36612</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="15"/>
+        <v>668.42386832794</v>
+      </c>
+      <c r="W59">
+        <v>3.4043602623838898</v>
+      </c>
+      <c r="X59">
+        <v>310.67961165048501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="P60" s="4">
+        <f>DATE(1999,11,15)+H38</f>
+        <v>36640.400825119199</v>
+      </c>
+      <c r="Q60">
+        <f>I38</f>
+        <v>438.83495145631002</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" si="14"/>
+        <v>36626.355711581811</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="10"/>
+        <v>36626</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="15"/>
+        <v>570.87408730173297</v>
+      </c>
+      <c r="W60">
+        <v>1.2348618845955499</v>
+      </c>
+      <c r="X60">
+        <v>384.46601941747502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="T61" s="4">
+        <f t="shared" si="14"/>
+        <v>36641.178780018963</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="10"/>
+        <v>36641</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="15"/>
+        <v>565.84894313322502</v>
+      </c>
+      <c r="X61">
+        <v>438.83495145631002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D02EB97-09A0-4561-B440-03155EB3B4E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C8D19-C36C-40C8-8AB2-75337815C083}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="ObservedSW" sheetId="16" r:id="rId4"/>
     <sheet name="ObservedST" sheetId="17" r:id="rId5"/>
     <sheet name="Griffith" sheetId="18" r:id="rId6"/>
+    <sheet name="GattonDalby" sheetId="19" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Treatment_Structure">#REF!</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="199">
   <si>
     <t>SimulationName</t>
   </si>
@@ -599,6 +600,33 @@
   <si>
     <t>ExactDay</t>
   </si>
+  <si>
+    <t>Soybean.Shell.Size</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>BiomassN</t>
+  </si>
+  <si>
+    <t>%inLeaves</t>
+  </si>
+  <si>
+    <t>LeafN</t>
+  </si>
+  <si>
+    <t>GattonSowJan9</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.CoverGreen</t>
+  </si>
+  <si>
+    <t>Dalby</t>
+  </si>
 </sst>
 </file>
 
@@ -1698,12 +1726,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
-  <dimension ref="A1:BV172"/>
+  <dimension ref="A1:BX191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A124" activePane="bottomLeft"/>
-      <selection activeCell="W1" sqref="W1:W1048576"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <pane ySplit="576" topLeftCell="A172" activePane="bottomLeft"/>
+      <selection activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185:A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1716,21 +1744,24 @@
     <col min="10" max="10" width="21.734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.734375" customWidth="1"/>
     <col min="12" max="12" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.47265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.05078125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.83984375" customWidth="1"/>
-    <col min="23" max="23" width="20.3671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.41796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.15625" customWidth="1"/>
+    <col min="15" max="15" width="21.47265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.68359375" customWidth="1"/>
+    <col min="23" max="23" width="15.05078125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.83984375" customWidth="1"/>
+    <col min="25" max="25" width="20.3671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1768,193 +1799,199 @@
         <v>55</v>
       </c>
       <c r="M1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>90</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>172</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>169</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>167</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>166</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>170</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>173</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>162</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>163</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>165</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>164</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>174</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>171</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>176</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>21</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>22</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>23</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>24</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>25</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>28</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>29</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>30</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>32</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>34</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>36</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>37</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>38</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>39</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>45</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>46</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>47</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>48</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>49</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>50</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>51</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>52</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>53</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1977,111 +2014,111 @@
       <c r="L2">
         <v>0.18906666699999999</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>265439.92389999999</v>
       </c>
-      <c r="N2">
-        <f>L2*1000000/O2</f>
+      <c r="O2">
+        <f>L2*1000000/P2</f>
         <v>25549.549594594591</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>7.4</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7.4</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>12.3</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>4.6311446829999998E-2</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>2.0514227950000002E-2</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.34375607200000002</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.101174293</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>0.44493036499999999</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>1.8991813280000001</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>26543.992389999999</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>26543.992389999999</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>187.7777778</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>71.666666669999998</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>6.5064070989999996</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>3.9638261000000001E-2</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>9.3893029850000005</v>
-      </c>
-      <c r="AV2">
-        <v>1.3228756559999999</v>
       </c>
       <c r="AX2">
         <v>1.3228756559999999</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
+        <v>1.3228756559999999</v>
+      </c>
+      <c r="BA2">
         <v>1.276714533</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>25.94224354</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>0.30950257399999997</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <v>9.1647271000000002E-2</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>7.4699906999999996E-2</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>3.0704688000000001E-2</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>0.104369884</v>
       </c>
-      <c r="BQ2">
+      <c r="BS2">
         <v>0.70476370899999996</v>
       </c>
-      <c r="BR2">
+      <c r="BT2">
         <v>9389.3029850000003</v>
       </c>
-      <c r="BS2">
+      <c r="BU2">
         <v>9389.3029850000003</v>
       </c>
-      <c r="BT2">
+      <c r="BV2">
         <v>22.194427059999999</v>
       </c>
-      <c r="BU2">
+      <c r="BW2">
         <v>10.92576008</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2104,114 +2141,114 @@
       <c r="L3">
         <v>1.063767667</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>260399.53109999999</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N8" si="0">L3*1000000/O3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O8" si="0">L3*1000000/P3</f>
         <v>36597.511475160842</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>29.06666667</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>29.06666667</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>21.233333330000001</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>50.3</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>5.0692481989999996E-2</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>1.8245937029999999E-2</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>1.476158393</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>0.38724224699999998</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>1.8634006400000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>1.396620913</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>36472.462169999999</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>36472.462169999999</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>704.44444439999995</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>158.88999999999999</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>2.0816659990000002</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>3.5118845840000001</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>0.33501243800000002</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>0.17414084099999999</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>0.97779424000000004</v>
-      </c>
-      <c r="AV3">
-        <v>1.2096831539999999</v>
       </c>
       <c r="AX3">
         <v>1.2096831539999999</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
+        <v>1.2096831539999999</v>
+      </c>
+      <c r="BA3">
         <v>1.1372481409999999</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>22.5166605</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>0.40163393800000002</v>
       </c>
-      <c r="BF3">
+      <c r="BH3">
         <v>3.4294910999999997E-2</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>0.171303912</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>1.6357283E-2</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>0.18747316999999999</v>
       </c>
-      <c r="BQ3">
+      <c r="BS3">
         <v>9.5373146000000006E-2</v>
       </c>
-      <c r="BR3">
+      <c r="BT3">
         <v>4554.4144660000002</v>
       </c>
-      <c r="BS3">
+      <c r="BU3">
         <v>4554.4144660000002</v>
       </c>
-      <c r="BT3">
+      <c r="BV3">
         <v>15.39600718</v>
       </c>
-      <c r="BU3">
+      <c r="BW3">
         <v>1.922576396</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2234,114 +2271,114 @@
       <c r="L4">
         <v>2.6299103330000002</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>232284.38700000002</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="0"/>
         <v>28900.113549450551</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>91</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>91</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>89.85</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>180.85</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>5.2969261810000001E-2</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>1.830695073E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>4.8199299030000002</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>1.626351627</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>6.4462815300000003</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>1.862830607</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>29045.95592</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>29045.95592</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>1085</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>334.33333329999999</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>4.9328828619999996</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>0.66500626600000001</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>0.46288053699999998</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>3.2982417559999999</v>
-      </c>
-      <c r="AV4">
-        <v>9.4684159179999998</v>
       </c>
       <c r="AX4">
         <v>9.4684159179999998</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
+        <v>9.4684159179999998</v>
+      </c>
+      <c r="BA4">
         <v>15.176860680000001</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>238.09991600000001</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>6.9166196999999999E-2</v>
       </c>
-      <c r="BF4">
+      <c r="BH4">
         <v>0.18654817900000001</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>0.499844024</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>0.128898914</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>0.62868809000000003</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>0.33258388300000002</v>
       </c>
-      <c r="BR4">
+      <c r="BT4">
         <v>5162.1325269999998</v>
       </c>
-      <c r="BS4">
+      <c r="BU4">
         <v>5162.1325269999998</v>
       </c>
-      <c r="BT4">
+      <c r="BV4">
         <v>63.83572667</v>
       </c>
-      <c r="BU4">
+      <c r="BW4">
         <v>25.026652460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2371,153 +2408,153 @@
       <c r="L5">
         <v>3.5467477330000001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>258047.00629999998</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="0"/>
         <v>24895.281227212148</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>142.46666669999999</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>13.6</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>156.06666670000001</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>211.7</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>7.0333333329999999</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>374.8</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>5.2664065359999998E-2</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>2.4026684359999998E-2</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>1.5933583580000001E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>3.4623949530000003E-2</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>7.4919406620000002</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>0.32024770200000002</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>3.3575160039999998</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>0.24408219</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>11.41378656</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>2.1940391859999999</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>24806.254580000001</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>22662.548620000001</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>1218.333333</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>588.33333330000005</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>5</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>6.1101009270000004</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>1.168888361</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>4.3617236650000004</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>0.85323291099999998</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>2.0822463170000001</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>8.8911941460000001</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>1.8248287590000001</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>10.46151678</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>21.254411309999998</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>2.0502032419999998</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>291.83557009999998</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>0.18584066599999999</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>0.61849928700000001</v>
       </c>
-      <c r="BF5">
+      <c r="BH5">
         <v>0.13053358400000001</v>
       </c>
-      <c r="BG5">
+      <c r="BI5">
         <v>4.5969863999999999E-2</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>0.20450197000000001</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>5.2578893000000002E-2</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>0.168207088</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>7.3650926000000005E-2</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>0.26653564099999999</v>
       </c>
-      <c r="BQ5">
+      <c r="BS5">
         <v>0.52397094600000005</v>
       </c>
-      <c r="BR5">
+      <c r="BT5">
         <v>5045.6976729999997</v>
       </c>
-      <c r="BS5">
+      <c r="BU5">
         <v>4682.6751670000003</v>
       </c>
-      <c r="BT5">
+      <c r="BV5">
         <v>127.1154331</v>
       </c>
-      <c r="BU5">
+      <c r="BW5">
         <v>38.837267330000003</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2547,150 +2584,150 @@
       <c r="L6">
         <v>4.4898179999999996</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>239592.76200000002</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="0"/>
         <v>26139.052973774684</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>171.7666667</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>14.16666667</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>185.93333329999999</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>286.26666669999997</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>51.5</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>523.70000000000005</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>4.9020051960000005E-2</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>2.731203556E-2</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>1.4922018850000001E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>8.395316459</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>0.369270916</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>4.2699831179999999</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>1.7509999999999999</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>14.78557049</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>1.8879088310000001</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>26076.93547</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>24126.09287</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>1466.666667</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>751.11</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>5</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>2.309401077</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>5.4083269129999998</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>0.55618144700000005</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>1.034755525</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>11.72959221</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
         <v>9.4118719360000007</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>20.71432677</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>23.508579990000001</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>12.73891675</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>559.41844800000001</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>0.31818848199999999</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>0.288776054</v>
       </c>
-      <c r="BF6">
+      <c r="BH6">
         <v>0.111296059</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>8.5131423999999997E-2</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>0.203212321</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>0.44190556399999997</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>0.43312317</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>0.92400618499999998</v>
       </c>
-      <c r="BQ6">
+      <c r="BS6">
         <v>0.218956975</v>
       </c>
-      <c r="BR6">
+      <c r="BT6">
         <v>1456.8509300000001</v>
       </c>
-      <c r="BS6">
+      <c r="BU6">
         <v>291.09515390000001</v>
       </c>
-      <c r="BT6">
+      <c r="BV6">
         <v>35.472994419999999</v>
       </c>
-      <c r="BU6">
+      <c r="BW6">
         <v>46.227657309999998</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2720,147 +2757,147 @@
       <c r="L7">
         <v>4.4933822670000003</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>246404.07339999999</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="0"/>
         <v>24667.679467369173</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>182.15666669999999</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5.1566666669999996</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>187.31333330000001</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>317.98333330000003</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>217.55666669999999</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>722.85333330000003</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>4.5780029300000004E-2</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>2.4344771309999999E-2</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>1.3600711770000001E-2</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>3.3245203500000001E-2</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>8.3967630989999993</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>0.12453468099999999</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>4.3441109280000001</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>7.2355102880000004</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>20.100919000000001</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>1.875228895</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>24555.750319999999</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>23879.62084</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>764.44666670000004</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>5</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>7.2353046470000004</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>0.86346009099999999</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>2.576694426</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>19.453620059999999</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>0.32145502500000001</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>19.296718200000001</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>17.073468699999999</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>34.734037100000002</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>382.55239289999997</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>0.45637277100000001</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>0.498811324</v>
       </c>
-      <c r="BF7">
+      <c r="BH7">
         <v>0.230868765</v>
       </c>
-      <c r="BG7">
+      <c r="BI7">
         <v>0.19983250499999999</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>1.6763243489999999</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>1.8367544E-2</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>0.90041895800000005</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>1.2573499420000001</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>2.554901455</v>
       </c>
-      <c r="BQ7">
+      <c r="BS7">
         <v>0.22672908</v>
       </c>
-      <c r="BR7">
+      <c r="BT7">
         <v>2864.8653640000002</v>
       </c>
-      <c r="BS7">
+      <c r="BU7">
         <v>2871.5604330000001</v>
       </c>
-      <c r="BU7">
+      <c r="BW7">
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2890,147 +2927,147 @@
       <c r="L8">
         <v>3.3484526670000001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>211949.37469999999</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="0"/>
         <v>20837.10095400504</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>160.69666670000001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>25.616666670000001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>186.31333330000001</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>302.48333330000003</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>409.21666670000002</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>898.0133333</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>2.746492545E-2</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>1.8975636559999998E-2</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>8.1153414599999998E-3</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>3.8795077800000001E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>4.4259175710000003</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>0.40085383000000002</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>2.4556705980000002</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>15.840236429999999</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>23.122678430000001</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>1.326094729</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>20822.952379999999</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>18258.099859999998</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>764.44666670000004</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>5</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>6.1101009270000004</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>6.4250525290000002</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>0.45081993999999997</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>1.0506225199999999</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>14.28787365</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <v>25.268004139999999</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>24.959227420000001</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>8.0512938920000003</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>16.405305039999998</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>486.49708459999999</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>0.131513876</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>0.51635507199999997</v>
       </c>
-      <c r="BF8">
+      <c r="BH8">
         <v>0.156608992</v>
       </c>
-      <c r="BG8">
+      <c r="BI8">
         <v>0.442822455</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>0.60551635000000004</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>0.28019391900000001</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>0.48310399900000001</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>1.4177898360000001</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>2.2663543150000001</v>
       </c>
-      <c r="BQ8">
+      <c r="BS8">
         <v>0.13615085800000001</v>
       </c>
-      <c r="BR8">
+      <c r="BT8">
         <v>1816.972784</v>
       </c>
-      <c r="BS8">
+      <c r="BU8">
         <v>3785.7399789999999</v>
       </c>
-      <c r="BU8">
+      <c r="BW8">
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3057,158 +3094,162 @@
         <f t="shared" si="1"/>
         <v>2026.2222221211111</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>15.393333330000001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>14.86</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>30.25333333</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>213.95</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>444.09</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>125.55666669999999</v>
       </c>
-      <c r="U9">
+      <c r="V9">
+        <f>U9/K9</f>
+        <v>6.1965891662447294E-2</v>
+      </c>
+      <c r="W9">
         <v>318.53333329999998</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>688.29333329999997</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>2.2859224079999997E-2</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>1.739394188E-2</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>4.9081889800000004E-3</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>4.4114886699999994E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>7.9016911999999998E-3</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>5.3927535999999998E-2</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>0.36035655300000002</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>0.24390679800000001</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>1.0493157440000001</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>19.553729329999999</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>0.99398109099999998</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>18.559748240000001</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>21.20730842</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>764.44666670000004</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>54.553409960000003</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>5</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>3.0550504630000002</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>1.3891124260000001</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>4.6671440229999996</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>19.191926250000002</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>17.12383427</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>36.310441109999999</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>62.57163894</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>71.288638649999996</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>19.623540290000001</v>
       </c>
-      <c r="BB9">
+      <c r="BD9">
         <v>51.892228060000001</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>1351.075206</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>0.28147503000000001</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>0.12760889</v>
       </c>
-      <c r="BF9">
+      <c r="BH9">
         <v>6.7670759999999996E-2</v>
       </c>
-      <c r="BG9">
+      <c r="BI9">
         <v>0.37165287400000002</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>0.143930472</v>
       </c>
-      <c r="BI9">
+      <c r="BK9">
         <v>0.42906704699999998</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>0.49645715800000001</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>0.26708691099999998</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>0.358529082</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>3.0864769270000001</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>0.233257305</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>2.85535483</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>3.8043212409999998</v>
       </c>
-      <c r="BU9">
+      <c r="BW9">
         <v>19.532783550000001</v>
       </c>
-      <c r="BV9">
+      <c r="BX9">
         <v>8.887289634</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3221,20 +3262,20 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="U10">
+      <c r="W10">
         <v>310.3</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>53.143333329999997</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>36.299450839999999</v>
       </c>
-      <c r="BV10">
+      <c r="BX10">
         <v>6.2168025010000001</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3245,14 +3286,14 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="AM11">
+      <c r="AO11">
         <v>877.77777779999997</v>
       </c>
-      <c r="BT11">
+      <c r="BV11">
         <v>42.860670050000003</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3263,14 +3304,14 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="AM12">
+      <c r="AO12">
         <v>1111.666667</v>
       </c>
-      <c r="BT12">
+      <c r="BV12">
         <v>104.08329999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3293,114 +3334,114 @@
       <c r="L13">
         <v>0.56501726699999999</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>286692.8419</v>
       </c>
-      <c r="N13">
-        <f>L13*1000000/O13</f>
+      <c r="O13">
+        <f>L13*1000000/P13</f>
         <v>32534.583506231364</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>17.366666670000001</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>17.366666670000001</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>12.16666667</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>29.533333329999998</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>5.3513595260000005E-2</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>2.5577801859999999E-2</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>0.92831271999999998</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>0.31247847400000001</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>1.240791193</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>1.660832965</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>32509.90871</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>32509.90871</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>600</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>118.33333330000001</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>2.6457513110000002</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>2.6457513110000002</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>0.57735026899999997</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>7.2568472999999994E-2</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>0.63868976399999999</v>
-      </c>
-      <c r="AV13">
-        <v>0.75718777900000001</v>
       </c>
       <c r="AX13">
         <v>0.75718777900000001</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
+        <v>0.75718777900000001</v>
+      </c>
+      <c r="BA13">
         <v>1.908751774</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>26.65207934</v>
       </c>
-      <c r="BD13">
+      <c r="BF13">
         <v>0.213327875</v>
       </c>
-      <c r="BF13">
+      <c r="BH13">
         <v>0.10142232299999999</v>
       </c>
-      <c r="BJ13">
+      <c r="BL13">
         <v>1.1554798999999999E-2</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>6.0073020999999997E-2</v>
       </c>
-      <c r="BP13">
+      <c r="BR13">
         <v>6.5997679000000004E-2</v>
       </c>
-      <c r="BQ13">
+      <c r="BS13">
         <v>0.20978332699999999</v>
       </c>
-      <c r="BR13">
+      <c r="BT13">
         <v>3518.26377</v>
       </c>
-      <c r="BS13">
+      <c r="BU13">
         <v>3518.26377</v>
       </c>
-      <c r="BT13">
+      <c r="BV13">
         <v>17.63834207</v>
       </c>
-      <c r="BU13">
+      <c r="BW13">
         <v>4.407066296</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3423,114 +3464,114 @@
       <c r="L14">
         <v>1.333144933</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>246581.85629999998</v>
       </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N18" si="2">L14*1000000/O14</f>
+      <c r="O14">
+        <f t="shared" ref="O14:O18" si="2">L14*1000000/P14</f>
         <v>22053.679619520262</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>60.45</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>60.45</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>47.576666670000002</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>108.02666670000001</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>5.5619044300000003E-2</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>2.2197982469999999E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>3.3607650140000001</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>1.050690216</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>4.4114552299999996</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>2.591035186</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>21961.912329999999</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>21961.912329999999</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>858.33333330000005</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>237.78</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>7.0945988849999999</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>0.96417494999999998</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>0.27197959799999999</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>3.0724990559999998</v>
-      </c>
-      <c r="AV14">
-        <v>2.3404059479999999</v>
       </c>
       <c r="AX14">
         <v>2.3404059479999999</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
+        <v>2.3404059479999999</v>
+      </c>
+      <c r="BA14">
         <v>3.6065126279999999</v>
       </c>
-      <c r="BC14">
+      <c r="BE14">
         <v>14.75273986</v>
       </c>
-      <c r="BD14">
+      <c r="BF14">
         <v>0.10581093699999999</v>
       </c>
-      <c r="BF14">
+      <c r="BH14">
         <v>0.225253958</v>
       </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>8.4158015000000003E-2</v>
       </c>
-      <c r="BL14">
+      <c r="BN14">
         <v>3.0301444E-2</v>
       </c>
-      <c r="BP14">
+      <c r="BR14">
         <v>0.111229473</v>
       </c>
-      <c r="BQ14">
+      <c r="BS14">
         <v>0.51737233100000002</v>
       </c>
-      <c r="BR14">
+      <c r="BT14">
         <v>3761.7168099999999</v>
       </c>
-      <c r="BS14">
+      <c r="BU14">
         <v>3761.7168099999999</v>
       </c>
-      <c r="BT14">
+      <c r="BV14">
         <v>59.231185480000001</v>
       </c>
-      <c r="BU14">
+      <c r="BW14">
         <v>42.861361389999999</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3553,150 +3594,150 @@
       <c r="L15">
         <v>2.870000133</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>294986.7401</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="2"/>
         <v>26956.795229506322</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>106.4666667</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3.95</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>110.41666669999999</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>136.7333333</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.81666666700000001</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>247.96666669999999</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>5.6759546600000002E-2</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>2.2230339849999999E-2</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>1.49628977E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>3.4290581539999997E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>6.0370028959999997</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>9.2586599000000006E-2</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>2.0423830540000001</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>2.5147903999999999E-2</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>8.1971204530000001</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <v>2.1404846100000001</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>26939.467619999999</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>26034.953669999999</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>1153.333333</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>510</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>5.2915026220000003</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>1.168888361</v>
       </c>
-      <c r="AT15">
+      <c r="AV15">
         <v>0.43784565800000003</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>0.89697609499999997</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>6.709942871</v>
       </c>
-      <c r="AW15">
+      <c r="AY15">
         <v>2.4864633519999999</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>7.3607630940000002</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>11.00378723</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
         <v>0.59651767200000005</v>
       </c>
-      <c r="BC15">
+      <c r="BE15">
         <v>147.6010953</v>
       </c>
-      <c r="BD15">
+      <c r="BF15">
         <v>0.34234834800000002</v>
       </c>
-      <c r="BE15">
+      <c r="BG15">
         <v>0.388470392</v>
       </c>
-      <c r="BF15">
+      <c r="BH15">
         <v>4.9557148000000002E-2</v>
       </c>
-      <c r="BG15">
+      <c r="BI15">
         <v>0.71820184499999995</v>
       </c>
-      <c r="BJ15">
+      <c r="BL15">
         <v>0.41912551599999998</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>6.2015540000000001E-2</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>9.9778357999999998E-2</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>1.6461156000000001E-2</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>0.41153527699999998</v>
       </c>
-      <c r="BQ15">
+      <c r="BS15">
         <v>0.37967192900000002</v>
       </c>
-      <c r="BR15">
+      <c r="BT15">
         <v>3588.6822590000002</v>
       </c>
-      <c r="BS15">
+      <c r="BU15">
         <v>4087.9392079999998</v>
       </c>
-      <c r="BT15">
+      <c r="BV15">
         <v>93.852721500000001</v>
       </c>
-      <c r="BU15">
+      <c r="BW15">
         <v>83.735230939999994</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3726,150 +3767,150 @@
       <c r="L16">
         <v>4.6754084669999996</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>232888.84029999998</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="2"/>
         <v>28080.531333333329</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>166.5</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3.766666667</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>170.2666667</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>256.60000000000002</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>19.666666670000001</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>446.53333329999998</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>4.7166145640000004E-2</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>2.4504482350000002E-2</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>1.330648343E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>7.7601181229999998</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>9.6129725999999999E-2</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>3.3425547560000002</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>0.68833333299999999</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>11.88713594</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>1.6701437029999999</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>28207.598379999999</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>27540.923060000001</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <v>1235</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <v>665.55333329999996</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>2.0816659990000002</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>0.67178865700000001</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>2.1444191130000001</v>
       </c>
-      <c r="AT16">
+      <c r="AV16">
         <v>0.75047234600000001</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>0.71532856499999997</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>32.922332849999997</v>
       </c>
-      <c r="AW16">
+      <c r="AY16">
         <v>1.4047538340000001</v>
       </c>
-      <c r="AX16">
+      <c r="AZ16">
         <v>31.731582580000001</v>
       </c>
-      <c r="AY16">
+      <c r="BA16">
         <v>62.276881750000001</v>
       </c>
-      <c r="AZ16">
+      <c r="BB16">
         <v>8.0002083309999996</v>
       </c>
-      <c r="BC16">
+      <c r="BE16">
         <v>1015.488716</v>
       </c>
-      <c r="BD16">
+      <c r="BF16">
         <v>0.42883606299999999</v>
       </c>
-      <c r="BE16">
+      <c r="BG16">
         <v>0.48703883199999998</v>
       </c>
-      <c r="BF16">
+      <c r="BH16">
         <v>0.20050975200000001</v>
       </c>
-      <c r="BJ16">
+      <c r="BL16">
         <v>0.77755899100000003</v>
       </c>
-      <c r="BK16">
+      <c r="BM16">
         <v>4.7494438999999999E-2</v>
       </c>
-      <c r="BL16">
+      <c r="BN16">
         <v>0.404080877</v>
       </c>
-      <c r="BM16">
+      <c r="BO16">
         <v>0.28000729200000002</v>
       </c>
-      <c r="BP16">
+      <c r="BR16">
         <v>1.401819975</v>
       </c>
-      <c r="BQ16">
+      <c r="BS16">
         <v>0.101699416</v>
       </c>
-      <c r="BR16">
+      <c r="BT16">
         <v>992.64098639999997</v>
       </c>
-      <c r="BS16">
+      <c r="BU16">
         <v>668.4282283</v>
       </c>
-      <c r="BT16">
+      <c r="BV16">
         <v>86.746757860000002</v>
       </c>
-      <c r="BU16">
+      <c r="BW16">
         <v>110.67036469999999</v>
       </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3899,147 +3940,147 @@
       <c r="L17">
         <v>5.2218760670000002</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>260345.29389999999</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="2"/>
         <v>29404.110969086094</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>177.59</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4.8566666669999998</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>182.44666670000001</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>306.48333330000003</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>137.35666670000001</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>626.28666670000007</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>4.792724768E-2</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>2.440630714E-2</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>1.375053326E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>3.5871027309999998E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>8.4749179560000005</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>0.112247159</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>4.1794316409999999</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>4.9122820190000001</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>17.678878780000002</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <v>1.622554703</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>29646.15581</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>28857.855530000001</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>733.33333330000005</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>1.7320508080000001</v>
       </c>
-      <c r="AR17">
+      <c r="AT17">
         <v>0.348281495</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>10.440306509999999</v>
       </c>
-      <c r="AT17">
+      <c r="AV17">
         <v>8.9865407999999994E-2</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>1.8305064879999999</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>19.2779667</v>
       </c>
-      <c r="AW17">
+      <c r="AY17">
         <v>2.2501851780000002</v>
       </c>
-      <c r="AX17">
+      <c r="AZ17">
         <v>19.828346710000002</v>
       </c>
-      <c r="AY17">
+      <c r="BA17">
         <v>37.884209550000001</v>
       </c>
-      <c r="AZ17">
+      <c r="BB17">
         <v>20.123949249999999</v>
       </c>
-      <c r="BC17">
+      <c r="BE17">
         <v>741.52028519999999</v>
       </c>
-      <c r="BD17">
+      <c r="BF17">
         <v>0.32390440599999998</v>
       </c>
-      <c r="BE17">
+      <c r="BG17">
         <v>0.44870957700000003</v>
       </c>
-      <c r="BF17">
+      <c r="BH17">
         <v>0.30498844600000002</v>
       </c>
-      <c r="BG17">
+      <c r="BI17">
         <v>0.113142141</v>
       </c>
-      <c r="BJ17">
+      <c r="BL17">
         <v>0.53440854000000004</v>
       </c>
-      <c r="BK17">
+      <c r="BM17">
         <v>3.5300312E-2</v>
       </c>
-      <c r="BL17">
+      <c r="BN17">
         <v>0.90320213199999999</v>
       </c>
-      <c r="BM17">
+      <c r="BO17">
         <v>0.55779815600000004</v>
       </c>
-      <c r="BP17">
+      <c r="BR17">
         <v>1.258361353</v>
       </c>
-      <c r="BQ17">
+      <c r="BS17">
         <v>8.7457088000000002E-2</v>
       </c>
-      <c r="BR17">
+      <c r="BT17">
         <v>3364.5618420000001</v>
       </c>
-      <c r="BS17">
+      <c r="BU17">
         <v>3278.8751830000001</v>
       </c>
-      <c r="BU17">
+      <c r="BW17">
         <v>106.5078506</v>
       </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4069,147 +4110,147 @@
       <c r="L18">
         <v>4.4241513330000002</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>222683.2157</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="2"/>
         <v>25290.981152460987</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>174.93</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>14.956666670000001</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>189.88666670000001</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>315.51666669999997</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>298.65333329999999</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>804.05666670000005</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>3.4432400859999997E-2</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>1.938536008E-2</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>9.3853016700000003E-3</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>3.5966654619999996E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>5.9953915029999996</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>0.29116908899999999</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>2.9563275170000001</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>10.73565777</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>19.978545879999999</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>1.362412132</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <v>25470.01368</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>23475.8786</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <v>733.33333330000005</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>1.1547005379999999</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>0.348281495</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <v>5.7518113089999998</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>0.28243780600000001</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>1.309851638</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>14.148851540000001</v>
       </c>
-      <c r="AW18">
+      <c r="AY18">
         <v>10.21833809</v>
       </c>
-      <c r="AX18">
+      <c r="AZ18">
         <v>18.289954439999999</v>
       </c>
-      <c r="AY18">
+      <c r="BA18">
         <v>12.678459419999999</v>
       </c>
-      <c r="AZ18">
+      <c r="BB18">
         <v>15.767594409999999</v>
       </c>
-      <c r="BC18">
+      <c r="BE18">
         <v>415.57733739999998</v>
       </c>
-      <c r="BD18">
+      <c r="BF18">
         <v>0.40941188499999998</v>
       </c>
-      <c r="BE18">
+      <c r="BG18">
         <v>0.40461825099999998</v>
       </c>
-      <c r="BF18">
+      <c r="BH18">
         <v>0.17834109300000001</v>
       </c>
-      <c r="BG18">
+      <c r="BI18">
         <v>0.17916147299999999</v>
       </c>
-      <c r="BJ18">
+      <c r="BL18">
         <v>0.49556551900000001</v>
       </c>
-      <c r="BK18">
+      <c r="BM18">
         <v>0.21661079899999999</v>
       </c>
-      <c r="BL18">
+      <c r="BN18">
         <v>0.53461416900000003</v>
       </c>
-      <c r="BM18">
+      <c r="BO18">
         <v>0.66098231100000004</v>
       </c>
-      <c r="BP18">
+      <c r="BR18">
         <v>0.43763847</v>
       </c>
-      <c r="BQ18">
+      <c r="BS18">
         <v>0.18807691900000001</v>
       </c>
-      <c r="BR18">
+      <c r="BT18">
         <v>3456.5980880000002</v>
       </c>
-      <c r="BS18">
+      <c r="BU18">
         <v>3152.3957850000002</v>
       </c>
-      <c r="BU18">
+      <c r="BW18">
         <v>106.5078506</v>
       </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4236,158 +4277,162 @@
         <f t="shared" si="3"/>
         <v>1240</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>19.223333329999999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>21.49</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>40.713333329999998</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>219.25</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>387.29</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>108.9866667</v>
       </c>
-      <c r="U19">
+      <c r="V19">
+        <f>U19/K19</f>
+        <v>8.7892473145161285E-2</v>
+      </c>
+      <c r="W19">
         <v>278.30333330000002</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>647.25333330000001</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>2.3521679240000003E-2</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>1.6860892380000003E-2</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>5.2212872099999998E-3</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>4.5911583289999995E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>9.3376227199999991E-3</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>6.0332436560000001E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>0.43640024599999999</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>0.35975561299999997</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>1.14375928</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>17.7300304</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>1.0196174790000001</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>16.71041292</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>19.669945540000001</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <v>733.33333330000005</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>47.663444439999999</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>2.5166114780000002</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>3.4641016150000001</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>0.348281495</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>4.67</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>15.94061898</v>
       </c>
-      <c r="AW19">
+      <c r="AY19">
         <v>10.5</v>
       </c>
-      <c r="AX19">
+      <c r="AZ19">
         <v>25.78087146</v>
       </c>
-      <c r="AY19">
+      <c r="BA19">
         <v>11.883181390000001</v>
       </c>
-      <c r="AZ19">
+      <c r="BB19">
         <v>53.30703518</v>
       </c>
-      <c r="BA19">
+      <c r="BC19">
         <v>11.006317879999999</v>
       </c>
-      <c r="BB19">
+      <c r="BD19">
         <v>42.300721430000003</v>
       </c>
-      <c r="BC19">
+      <c r="BE19">
         <v>750.10421499999995</v>
       </c>
-      <c r="BD19">
+      <c r="BF19">
         <v>0.205624793</v>
       </c>
-      <c r="BE19">
+      <c r="BG19">
         <v>8.6981791000000003E-2</v>
       </c>
-      <c r="BF19">
+      <c r="BH19">
         <v>6.4591645000000003E-2</v>
       </c>
-      <c r="BG19">
+      <c r="BI19">
         <v>0.247615847</v>
       </c>
-      <c r="BH19">
+      <c r="BJ19">
         <v>0.16779386900000001</v>
       </c>
-      <c r="BI19">
+      <c r="BK19">
         <v>0.35224639200000002</v>
       </c>
-      <c r="BJ19">
+      <c r="BL19">
         <v>0.33582984900000001</v>
       </c>
-      <c r="BK19">
+      <c r="BM19">
         <v>0.17449678199999999</v>
       </c>
-      <c r="BL19">
+      <c r="BN19">
         <v>0.14542123200000001</v>
       </c>
-      <c r="BM19">
+      <c r="BO19">
         <v>2.0032270049999998</v>
       </c>
-      <c r="BN19">
+      <c r="BP19">
         <v>0.215670792</v>
       </c>
-      <c r="BO19">
+      <c r="BQ19">
         <v>1.8231119410000001</v>
       </c>
-      <c r="BP19">
+      <c r="BR19">
         <v>2.316815096</v>
       </c>
-      <c r="BU19">
+      <c r="BW19">
         <v>106.5078506</v>
       </c>
-      <c r="BV19">
+      <c r="BX19">
         <v>7.2446063140000003</v>
       </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4400,20 +4445,20 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="U20">
+      <c r="W20">
         <v>308.80134229999999</v>
       </c>
-      <c r="AO20">
+      <c r="AQ20">
         <v>52.886666669999997</v>
       </c>
-      <c r="BB20">
+      <c r="BD20">
         <v>14.451823940000001</v>
       </c>
-      <c r="BV20">
+      <c r="BX20">
         <v>2.4750824900000001</v>
       </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4424,14 +4469,14 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="AM21">
+      <c r="AO21">
         <v>818.88888889999998</v>
       </c>
-      <c r="BT21">
+      <c r="BV21">
         <v>10.18350154</v>
       </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4442,14 +4487,14 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="AM22">
+      <c r="AO22">
         <v>971.66666669999995</v>
       </c>
-      <c r="BT22">
+      <c r="BV22">
         <v>99.068578939999995</v>
       </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -4471,66 +4516,60 @@
       <c r="L23">
         <v>0.35698686699999999</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>27.28805358</v>
       </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N36" si="4">L23*1000000/O23</f>
+      <c r="O23">
+        <f t="shared" ref="O23:O36" si="4">L23*1000000/P23</f>
         <v>38626.581584072701</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9.2420000000000009</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>9.2420000000000009</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>5.6133333329999999</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>14.855333330000001</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>38030.98921</v>
       </c>
-      <c r="AL23">
+      <c r="AN23">
         <v>38030.98921</v>
       </c>
-      <c r="AM23">
+      <c r="AO23">
         <v>451.4</v>
       </c>
-      <c r="AN23">
+      <c r="AP23">
         <v>93.133333320000006</v>
       </c>
-      <c r="AP23">
+      <c r="AR23">
         <v>2.8867513460000001</v>
       </c>
-      <c r="AQ23">
+      <c r="AS23">
         <v>2.8867513460000001</v>
       </c>
-      <c r="AT23">
+      <c r="AV23">
         <v>0.11183031</v>
       </c>
-      <c r="AU23">
+      <c r="AW23">
         <v>0.78156889399999996</v>
-      </c>
-      <c r="AV23">
-        <v>0.97552652399999995</v>
       </c>
       <c r="AX23">
         <v>0.97552652399999995</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
+        <v>0.97552652399999995</v>
+      </c>
+      <c r="BA23">
         <v>1.4355602860000001</v>
       </c>
-      <c r="BC23">
+      <c r="BE23">
         <v>23.4136399</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
-      </c>
-      <c r="BK23">
-        <v>0</v>
       </c>
       <c r="BL23">
         <v>0</v>
@@ -4551,22 +4590,28 @@
         <v>0</v>
       </c>
       <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
         <v>8666.6369159999995</v>
       </c>
-      <c r="BS23">
+      <c r="BU23">
         <v>8666.6369159999995</v>
       </c>
-      <c r="BT23">
+      <c r="BV23">
         <v>160.43590620000001</v>
       </c>
-      <c r="BU23">
+      <c r="BW23">
         <v>15.263500390000001</v>
       </c>
-      <c r="BV23">
+      <c r="BX23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4588,66 +4633,60 @@
       <c r="L24">
         <v>0.95810446699999996</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>18.167231220000001</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="4"/>
         <v>22093.108384158866</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>43.366666670000001</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>43.366666670000001</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>30.266666669999999</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>73.633333329999999</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <v>22159.869739999998</v>
       </c>
-      <c r="AL24">
+      <c r="AN24">
         <v>22159.869739999998</v>
       </c>
-      <c r="AM24">
+      <c r="AO24">
         <v>575.73333330000003</v>
       </c>
-      <c r="AN24">
+      <c r="AP24">
         <v>166.51111109999999</v>
       </c>
-      <c r="AP24">
-        <v>4</v>
-      </c>
-      <c r="AQ24">
-        <v>4</v>
-      </c>
-      <c r="AT24">
+      <c r="AR24">
+        <v>4</v>
+      </c>
+      <c r="AS24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
         <v>4.8540541999999999E-2</v>
       </c>
-      <c r="AU24">
+      <c r="AW24">
         <v>0.84185101200000001</v>
-      </c>
-      <c r="AV24">
-        <v>3.8004385709999999</v>
       </c>
       <c r="AX24">
         <v>3.8004385709999999</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
+        <v>3.8004385709999999</v>
+      </c>
+      <c r="BA24">
         <v>3.302019584</v>
       </c>
-      <c r="BC24">
+      <c r="BE24">
         <v>71.002347380000003</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
-      </c>
-      <c r="BK24">
-        <v>0</v>
       </c>
       <c r="BL24">
         <v>0</v>
@@ -4668,22 +4707,28 @@
         <v>0</v>
       </c>
       <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
         <v>1396.3801390000001</v>
       </c>
-      <c r="BS24">
+      <c r="BU24">
         <v>1396.3801390000001</v>
       </c>
-      <c r="BT24">
+      <c r="BV24">
         <v>176.12905309999999</v>
       </c>
-      <c r="BU24">
+      <c r="BW24">
         <v>21.412187159999998</v>
       </c>
-      <c r="BV24">
+      <c r="BX24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -4705,69 +4750,63 @@
       <c r="L25">
         <v>1.6910712000000001</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>22.867427970000001</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f t="shared" si="4"/>
         <v>23411.230273346162</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>72.233333329999994</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>72.233333329999994</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>76.7</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>148.93333329999999</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>23266.329870000001</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>23266.329870000001</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>814.91666669999995</v>
       </c>
-      <c r="AN25">
+      <c r="AP25">
         <v>320</v>
       </c>
-      <c r="AP25">
+      <c r="AR25">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AQ25">
+      <c r="AS25">
         <v>3.2145502540000002</v>
       </c>
-      <c r="AR25">
+      <c r="AT25">
         <v>1.1547005379999999</v>
       </c>
-      <c r="AT25">
+      <c r="AV25">
         <v>0.40453931700000001</v>
       </c>
-      <c r="AU25">
+      <c r="AW25">
         <v>0.82016217199999997</v>
-      </c>
-      <c r="AV25">
-        <v>14.131642980000001</v>
       </c>
       <c r="AX25">
         <v>14.131642980000001</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
+        <v>14.131642980000001</v>
+      </c>
+      <c r="BA25">
         <v>15.36587127</v>
       </c>
-      <c r="BC25">
+      <c r="BE25">
         <v>294.9751402</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
-      </c>
-      <c r="BK25">
-        <v>0</v>
       </c>
       <c r="BL25">
         <v>0</v>
@@ -4788,22 +4827,28 @@
         <v>0</v>
       </c>
       <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
         <v>1604.8837599999999</v>
       </c>
-      <c r="BS25">
+      <c r="BU25">
         <v>1604.8837599999999</v>
       </c>
-      <c r="BT25">
+      <c r="BV25">
         <v>78.886664479999993</v>
       </c>
-      <c r="BU25">
+      <c r="BW25">
         <v>32.145502540000003</v>
       </c>
-      <c r="BV25">
+      <c r="BX25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -4825,81 +4870,75 @@
       <c r="L26">
         <v>3.3258197329999999</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>26.942610219999999</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="4"/>
         <v>27807.857299331106</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>119.6</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.6666666670000001</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>121.2666667</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>180.96666669999999</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>5.8333333329999997</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>308.06666669999998</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
         <v>28154.005659999999</v>
       </c>
-      <c r="AL26">
+      <c r="AN26">
         <v>27795.177309999999</v>
       </c>
-      <c r="AM26">
+      <c r="AO26">
         <v>1071.0333330000001</v>
       </c>
-      <c r="AN26">
+      <c r="AP26">
         <v>563.03333329999998</v>
       </c>
-      <c r="AP26">
+      <c r="AR26">
         <v>2.6457513110000002</v>
       </c>
-      <c r="AQ26">
+      <c r="AS26">
         <v>2.0816659990000002</v>
       </c>
-      <c r="AR26">
+      <c r="AT26">
         <v>1.6666666670000001</v>
       </c>
-      <c r="AT26">
+      <c r="AV26">
         <v>0.53216453799999996</v>
       </c>
-      <c r="AU26">
+      <c r="AW26">
         <v>0.92946081400000002</v>
       </c>
-      <c r="AV26">
+      <c r="AX26">
         <v>10.3058236</v>
       </c>
-      <c r="AW26">
+      <c r="AY26">
         <v>0.68068592900000002</v>
       </c>
-      <c r="AX26">
+      <c r="AZ26">
         <v>10.950951249999999</v>
       </c>
-      <c r="AY26">
+      <c r="BA26">
         <v>15.02176199</v>
       </c>
-      <c r="AZ26">
+      <c r="BB26">
         <v>2.1962088550000001</v>
       </c>
-      <c r="BC26">
+      <c r="BE26">
         <v>279.501938</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BK26">
-        <v>0</v>
       </c>
       <c r="BL26">
         <v>0</v>
@@ -4920,22 +4959,28 @@
         <v>0</v>
       </c>
       <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
         <v>6771.9136680000001</v>
       </c>
-      <c r="BS26">
+      <c r="BU26">
         <v>6828.8799129999998</v>
       </c>
-      <c r="BT26">
+      <c r="BV26">
         <v>150.4472111</v>
       </c>
-      <c r="BU26">
+      <c r="BW26">
         <v>71.966666669999995</v>
       </c>
-      <c r="BV26">
+      <c r="BX26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -4960,84 +5005,78 @@
       <c r="L27">
         <v>4.2919714000000004</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>23.227933629999999</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" si="4"/>
         <v>27164.949043826888</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>157.99666669999999</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>7.5033333329999996</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>165.5</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>266.09333329999998</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>77.186666669999994</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>508.78</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <v>27123.857769999999</v>
       </c>
-      <c r="AL27">
+      <c r="AN27">
         <v>25951.857830000001</v>
       </c>
-      <c r="AM27">
+      <c r="AO27">
         <v>1001.666667</v>
       </c>
-      <c r="AN27">
+      <c r="AP27">
         <v>780</v>
       </c>
-      <c r="AP27">
+      <c r="AR27">
         <v>0.57735026899999997</v>
       </c>
-      <c r="AQ27">
+      <c r="AS27">
         <v>1.5275252319999999</v>
       </c>
-      <c r="AR27">
+      <c r="AT27">
         <v>0.96225044900000001</v>
       </c>
-      <c r="AS27">
+      <c r="AU27">
         <v>15.02590356</v>
       </c>
-      <c r="AT27">
+      <c r="AV27">
         <v>0.43214999900000001</v>
       </c>
-      <c r="AU27">
+      <c r="AW27">
         <v>0.82932640199999996</v>
       </c>
-      <c r="AV27">
+      <c r="AX27">
         <v>5.5310246190000001</v>
       </c>
-      <c r="AW27">
+      <c r="AY27">
         <v>6.8881516630000004</v>
       </c>
-      <c r="AX27">
+      <c r="AZ27">
         <v>2.156548168</v>
       </c>
-      <c r="AY27">
+      <c r="BA27">
         <v>3.2625807779999998</v>
       </c>
-      <c r="AZ27">
+      <c r="BB27">
         <v>4.9751616390000004</v>
       </c>
-      <c r="BC27">
+      <c r="BE27">
         <v>57.712650259999997</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BK27">
-        <v>0</v>
       </c>
       <c r="BL27">
         <v>0</v>
@@ -5058,22 +5097,28 @@
         <v>0</v>
       </c>
       <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
         <v>1847.757425</v>
       </c>
-      <c r="BS27">
+      <c r="BU27">
         <v>2853.526425</v>
       </c>
-      <c r="BT27">
+      <c r="BV27">
         <v>178.48902860000001</v>
       </c>
-      <c r="BU27">
+      <c r="BW27">
         <v>73.711147960000005</v>
       </c>
-      <c r="BV27">
+      <c r="BX27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -5098,81 +5143,75 @@
       <c r="L28">
         <v>3.6318666670000002</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>27.488044500000001</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f t="shared" si="4"/>
         <v>24385.309188606949</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>148.93666669999999</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.923333333</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>150.86000000000001</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>267.85000000000002</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>277.61333330000002</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>696.32333329999994</v>
       </c>
-      <c r="AK28">
+      <c r="AM28">
         <v>24539.78052</v>
       </c>
-      <c r="AL28">
+      <c r="AN28">
         <v>24206.267650000002</v>
       </c>
-      <c r="AN28">
+      <c r="AP28">
         <v>770</v>
       </c>
-      <c r="AP28">
+      <c r="AR28">
         <v>3.4641016150000001</v>
       </c>
-      <c r="AQ28">
+      <c r="AS28">
         <v>2</v>
       </c>
-      <c r="AR28">
+      <c r="AT28">
         <v>0.96225044900000001</v>
       </c>
-      <c r="AS28">
+      <c r="AU28">
         <v>6.2033443789999998</v>
       </c>
-      <c r="AT28">
+      <c r="AV28">
         <v>0.55717238000000002</v>
       </c>
-      <c r="AU28">
+      <c r="AW28">
         <v>6.3442088959999996</v>
       </c>
-      <c r="AV28">
+      <c r="AX28">
         <v>22.077502880000001</v>
       </c>
-      <c r="AW28">
+      <c r="AY28">
         <v>0.701165696</v>
       </c>
-      <c r="AX28">
+      <c r="AZ28">
         <v>21.81927817</v>
       </c>
-      <c r="AY28">
+      <c r="BA28">
         <v>41.834435579999997</v>
       </c>
-      <c r="AZ28">
+      <c r="BB28">
         <v>46.641728460000003</v>
       </c>
-      <c r="BC28">
+      <c r="BE28">
         <v>1101.3832769999999</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BK28">
-        <v>0</v>
       </c>
       <c r="BL28">
         <v>0</v>
@@ -5193,19 +5232,25 @@
         <v>0</v>
       </c>
       <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
         <v>3776.5368739999999</v>
       </c>
-      <c r="BS28">
+      <c r="BU28">
         <v>3587.4394499999999</v>
       </c>
-      <c r="BU28">
+      <c r="BW28">
         <v>61.734197260000002</v>
       </c>
-      <c r="BV28">
+      <c r="BX28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -5227,74 +5272,68 @@
       <c r="J29">
         <v>33</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>26.616666670000001</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>50.983333330000001</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>77.599999999999994</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>210.6166667</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>463.8833333</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>125.7166667</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>338.16666670000001</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>752.1</v>
       </c>
-      <c r="AO29">
+      <c r="AQ29">
         <v>57.915900379999997</v>
       </c>
-      <c r="AP29">
+      <c r="AR29">
         <v>3.0550504630000002</v>
       </c>
-      <c r="AQ29">
+      <c r="AS29">
         <v>3.0550504630000002</v>
       </c>
-      <c r="AR29">
+      <c r="AT29">
         <v>0.96225044900000001</v>
       </c>
-      <c r="AS29">
+      <c r="AU29">
         <v>10.440306509999999</v>
       </c>
-      <c r="AV29">
+      <c r="AX29">
         <v>29.162287859999999</v>
       </c>
-      <c r="AW29">
+      <c r="AY29">
         <v>9.3655236550000005</v>
       </c>
-      <c r="AX29">
+      <c r="AZ29">
         <v>29.908206230000001</v>
       </c>
-      <c r="AY29">
+      <c r="BA29">
         <v>10.687531679999999</v>
       </c>
-      <c r="AZ29">
+      <c r="BB29">
         <v>48.030272050000001</v>
       </c>
-      <c r="BA29">
+      <c r="BC29">
         <v>9.1081849639999994</v>
       </c>
-      <c r="BB29">
+      <c r="BD29">
         <v>38.941152180000003</v>
       </c>
-      <c r="BC29">
+      <c r="BE29">
         <v>499.62268760000001</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BK29">
-        <v>0</v>
       </c>
       <c r="BL29">
         <v>0</v>
@@ -5311,11 +5350,17 @@
       <c r="BP29">
         <v>0</v>
       </c>
-      <c r="BV29">
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BX29">
         <v>6.6692318110000004</v>
       </c>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -5325,20 +5370,14 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="U30">
+      <c r="W30">
         <v>378.40134230000001</v>
       </c>
-      <c r="AO30">
+      <c r="AQ30">
         <v>64.806666669999998</v>
       </c>
-      <c r="BB30">
+      <c r="BD30">
         <v>10.928363170000001</v>
-      </c>
-      <c r="BJ30">
-        <v>0</v>
-      </c>
-      <c r="BK30">
-        <v>0</v>
       </c>
       <c r="BL30">
         <v>0</v>
@@ -5355,11 +5394,17 @@
       <c r="BP30">
         <v>0</v>
       </c>
-      <c r="BV30">
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BX30">
         <v>1.8716392100000001</v>
       </c>
     </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -5375,20 +5420,14 @@
       <c r="H31">
         <v>25.666666670000001</v>
       </c>
-      <c r="AM31">
+      <c r="AO31">
         <v>220.1333333</v>
       </c>
-      <c r="AP31">
+      <c r="AR31">
         <v>5.0332229570000004</v>
       </c>
-      <c r="AQ31">
+      <c r="AS31">
         <v>5.0332229570000004</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BK31">
-        <v>0</v>
       </c>
       <c r="BL31">
         <v>0</v>
@@ -5405,14 +5444,20 @@
       <c r="BP31">
         <v>0</v>
       </c>
-      <c r="BT31">
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BV31">
         <v>51.326438930000002</v>
       </c>
-      <c r="BV31">
+      <c r="BX31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -5434,66 +5479,60 @@
       <c r="L32">
         <v>0.31231700000000001</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>16.782692310000002</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f t="shared" si="4"/>
         <v>17914.933081819298</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>17.43333333</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>17.43333333</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>10.93333333</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>28.366666670000001</v>
       </c>
-      <c r="AK32">
+      <c r="AM32">
         <v>18761.898669999999</v>
       </c>
-      <c r="AL32">
+      <c r="AN32">
         <v>18761.898669999999</v>
       </c>
-      <c r="AM32">
+      <c r="AO32">
         <v>480.48333330000003</v>
       </c>
-      <c r="AN32">
+      <c r="AP32">
         <v>134.05555559999999</v>
       </c>
-      <c r="AP32">
+      <c r="AR32">
         <v>4.0414518839999998</v>
       </c>
-      <c r="AQ32">
+      <c r="AS32">
         <v>4.0414518839999998</v>
       </c>
-      <c r="AT32">
+      <c r="AV32">
         <v>0.18790468299999999</v>
       </c>
-      <c r="AU32">
+      <c r="AW32">
         <v>1.5436535199999999</v>
-      </c>
-      <c r="AV32">
-        <v>9.6292955780000007</v>
       </c>
       <c r="AX32">
         <v>9.6292955780000007</v>
       </c>
-      <c r="AY32">
+      <c r="AZ32">
+        <v>9.6292955780000007</v>
+      </c>
+      <c r="BA32">
         <v>5.3500778809999998</v>
       </c>
-      <c r="BC32">
+      <c r="BE32">
         <v>149.67409040000001</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
-      </c>
-      <c r="BK32">
-        <v>0</v>
       </c>
       <c r="BL32">
         <v>0</v>
@@ -5514,22 +5553,28 @@
         <v>0</v>
       </c>
       <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
         <v>5433.451892</v>
       </c>
-      <c r="BS32">
+      <c r="BU32">
         <v>5433.451892</v>
       </c>
-      <c r="BT32">
+      <c r="BV32">
         <v>156.61903090000001</v>
       </c>
-      <c r="BU32">
+      <c r="BW32">
         <v>10.65365523</v>
       </c>
-      <c r="BV32">
+      <c r="BX32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -5551,69 +5596,63 @@
       <c r="L33">
         <v>0.89610920000000005</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>21.260191280000001</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f t="shared" si="4"/>
         <v>23205.244710987896</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>38.616666670000001</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>38.616666670000001</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>36.866666670000001</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>75.483333329999994</v>
       </c>
-      <c r="AK33">
+      <c r="AM33">
         <v>22983.122050000002</v>
       </c>
-      <c r="AL33">
+      <c r="AN33">
         <v>22983.122050000002</v>
       </c>
-      <c r="AM33">
+      <c r="AO33">
         <v>802.21666670000002</v>
       </c>
-      <c r="AN33">
+      <c r="AP33">
         <v>271.11111110000002</v>
       </c>
-      <c r="AP33">
+      <c r="AR33">
         <v>7.5718777939999997</v>
       </c>
-      <c r="AQ33">
+      <c r="AS33">
         <v>7.5718777939999997</v>
       </c>
-      <c r="AR33">
+      <c r="AT33">
         <v>0.57735026899999997</v>
       </c>
-      <c r="AT33">
+      <c r="AV33">
         <v>0.38708472599999999</v>
       </c>
-      <c r="AU33">
+      <c r="AW33">
         <v>0.73891036700000001</v>
-      </c>
-      <c r="AV33">
-        <v>15.979074860000001</v>
       </c>
       <c r="AX33">
         <v>15.979074860000001</v>
       </c>
-      <c r="AY33">
+      <c r="AZ33">
+        <v>15.979074860000001</v>
+      </c>
+      <c r="BA33">
         <v>17.53776877</v>
       </c>
-      <c r="BC33">
+      <c r="BE33">
         <v>334.25302290000002</v>
-      </c>
-      <c r="BJ33">
-        <v>0</v>
-      </c>
-      <c r="BK33">
-        <v>0</v>
       </c>
       <c r="BL33">
         <v>0</v>
@@ -5634,22 +5673,28 @@
         <v>0</v>
       </c>
       <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
         <v>1979.579426</v>
       </c>
-      <c r="BS33">
+      <c r="BU33">
         <v>1979.579426</v>
       </c>
-      <c r="BT33">
+      <c r="BV33">
         <v>9.6997852210000008</v>
       </c>
-      <c r="BU33">
+      <c r="BW33">
         <v>23.648662949999999</v>
       </c>
-      <c r="BV33">
+      <c r="BX33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -5671,81 +5716,75 @@
       <c r="L34">
         <v>3.1892269999999998</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>27.96783791</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <f t="shared" si="4"/>
         <v>32992.00344713821</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>96.666666669999998</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.86666666699999995</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>97.533333330000005</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>137</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1.266666667</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>235.8</v>
       </c>
-      <c r="AK34">
+      <c r="AM34">
         <v>33565.220029999997</v>
       </c>
-      <c r="AL34">
+      <c r="AN34">
         <v>33255.746919999998</v>
       </c>
-      <c r="AM34">
+      <c r="AO34">
         <v>1060.45</v>
       </c>
-      <c r="AN34">
+      <c r="AP34">
         <v>406.62777779999999</v>
       </c>
-      <c r="AP34">
+      <c r="AR34">
         <v>1</v>
       </c>
-      <c r="AQ34">
+      <c r="AS34">
         <v>2.6457513110000002</v>
       </c>
-      <c r="AR34">
+      <c r="AT34">
         <v>0.69388866599999999</v>
       </c>
-      <c r="AT34">
+      <c r="AV34">
         <v>0.19582142699999999</v>
       </c>
-      <c r="AU34">
+      <c r="AW34">
         <v>0.200369307</v>
       </c>
-      <c r="AV34">
+      <c r="AX34">
         <v>18.410956880000001</v>
       </c>
-      <c r="AW34">
+      <c r="AY34">
         <v>0.152752523</v>
       </c>
-      <c r="AX34">
+      <c r="AZ34">
         <v>18.456525490000001</v>
       </c>
-      <c r="AY34">
+      <c r="BA34">
         <v>38.206151339999998</v>
       </c>
-      <c r="AZ34">
+      <c r="BB34">
         <v>1.0692676619999999</v>
       </c>
-      <c r="BC34">
+      <c r="BE34">
         <v>576.00260419999995</v>
-      </c>
-      <c r="BJ34">
-        <v>0</v>
-      </c>
-      <c r="BK34">
-        <v>0</v>
       </c>
       <c r="BL34">
         <v>0</v>
@@ -5766,22 +5805,28 @@
         <v>0</v>
       </c>
       <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
         <v>4574.195917</v>
       </c>
-      <c r="BS34">
+      <c r="BU34">
         <v>4470.8173859999997</v>
       </c>
-      <c r="BT34">
+      <c r="BV34">
         <v>103.9539802</v>
       </c>
-      <c r="BU34">
+      <c r="BW34">
         <v>181.9727043</v>
       </c>
-      <c r="BV34">
+      <c r="BX34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -5806,84 +5851,78 @@
       <c r="L35">
         <v>3.7738070669999999</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>25.512012510000002</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <f t="shared" si="4"/>
         <v>27495.194297040794</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>137.25333330000001</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>5.3433333330000004</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>142.59666669999999</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>217.4566667</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>31.143333330000001</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>391.19666669999998</v>
       </c>
-      <c r="AK35">
+      <c r="AM35">
         <v>27930.12355</v>
       </c>
-      <c r="AL35">
+      <c r="AN35">
         <v>26923.295340000001</v>
       </c>
-      <c r="AM35">
+      <c r="AO35">
         <v>1066.666667</v>
       </c>
-      <c r="AN35">
+      <c r="AP35">
         <v>717.77777779999997</v>
       </c>
-      <c r="AP35">
+      <c r="AR35">
         <v>4.1633319990000004</v>
       </c>
-      <c r="AQ35">
+      <c r="AS35">
         <v>2.0816659990000002</v>
       </c>
-      <c r="AR35">
+      <c r="AT35">
         <v>1</v>
       </c>
-      <c r="AS35">
+      <c r="AU35">
         <v>7.6327753310000004</v>
       </c>
-      <c r="AT35">
+      <c r="AV35">
         <v>0.67426402500000004</v>
       </c>
-      <c r="AU35">
+      <c r="AW35">
         <v>0.58622074599999996</v>
       </c>
-      <c r="AV35">
+      <c r="AX35">
         <v>35.01386059</v>
       </c>
-      <c r="AW35">
+      <c r="AY35">
         <v>2.7343067369999998</v>
       </c>
-      <c r="AX35">
+      <c r="AZ35">
         <v>37.17850499</v>
       </c>
-      <c r="AY35">
+      <c r="BA35">
         <v>74.457003920000005</v>
       </c>
-      <c r="AZ35">
+      <c r="BB35">
         <v>18.625585449999999</v>
       </c>
-      <c r="BC35">
+      <c r="BE35">
         <v>1300.3374650000001</v>
-      </c>
-      <c r="BJ35">
-        <v>0</v>
-      </c>
-      <c r="BK35">
-        <v>0</v>
       </c>
       <c r="BL35">
         <v>0</v>
@@ -5904,22 +5943,28 @@
         <v>0</v>
       </c>
       <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
         <v>2670.6630540000001</v>
       </c>
-      <c r="BS35">
+      <c r="BU35">
         <v>2781.7262900000001</v>
       </c>
-      <c r="BT35">
+      <c r="BV35">
         <v>70.769579149999998</v>
       </c>
-      <c r="BU35">
+      <c r="BW35">
         <v>35.013225009999999</v>
       </c>
-      <c r="BV35">
+      <c r="BX35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5944,78 +5989,72 @@
       <c r="L36">
         <v>4.0960799999999997</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>23.352490880000001</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <f t="shared" si="4"/>
         <v>26138.517819676141</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>156.7066667</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>2.4900000000000002</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>158.3666667</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>259.25</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>224.38666670000001</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>642.03333299999997</v>
       </c>
-      <c r="AK36">
+      <c r="AM36">
         <v>26258.566169999998</v>
       </c>
-      <c r="AL36">
+      <c r="AN36">
         <v>25983.80557</v>
       </c>
-      <c r="AN36">
+      <c r="AP36">
         <v>816.66666669999995</v>
       </c>
-      <c r="AP36">
+      <c r="AR36">
         <v>2</v>
       </c>
-      <c r="AQ36">
+      <c r="AS36">
         <v>3.0550504630000002</v>
       </c>
-      <c r="AR36">
+      <c r="AT36">
         <v>1</v>
       </c>
-      <c r="AS36">
+      <c r="AU36">
         <v>1.6442942869999999</v>
       </c>
-      <c r="AT36">
+      <c r="AV36">
         <v>0.37668785599999999</v>
       </c>
-      <c r="AU36">
+      <c r="AW36">
         <v>1.1626535099999999</v>
       </c>
-      <c r="AV36">
+      <c r="AX36">
         <v>19.614087619999999</v>
       </c>
-      <c r="AX36">
+      <c r="AZ36">
         <v>19.486511570000001</v>
       </c>
-      <c r="AY36">
+      <c r="BA36">
         <v>41.505059930000002</v>
       </c>
-      <c r="AZ36">
+      <c r="BB36">
         <v>24.596321540000002</v>
       </c>
-      <c r="BC36">
+      <c r="BE36">
         <v>854.47740950000002</v>
-      </c>
-      <c r="BJ36">
-        <v>0</v>
-      </c>
-      <c r="BK36">
-        <v>0</v>
       </c>
       <c r="BL36">
         <v>0</v>
@@ -6036,19 +6075,25 @@
         <v>0</v>
       </c>
       <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
         <v>2058.0745910000001</v>
       </c>
-      <c r="BS36">
+      <c r="BU36">
         <v>2159.057045</v>
       </c>
-      <c r="BU36">
+      <c r="BW36">
         <v>48.419463489999998</v>
       </c>
-      <c r="BV36">
+      <c r="BX36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -6070,74 +6115,68 @@
       <c r="J37">
         <v>39</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>72.08</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>42.41333333</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>114.4933333</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>225.18333329999999</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>400.81333330000001</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>118.78</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>282.03333329999998</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>740.49</v>
       </c>
-      <c r="AO37">
+      <c r="AQ37">
         <v>48.302260539999999</v>
       </c>
-      <c r="AP37">
+      <c r="AR37">
         <v>1.5275252319999999</v>
       </c>
-      <c r="AQ37">
+      <c r="AS37">
         <v>8.1853527719999999</v>
       </c>
-      <c r="AR37">
+      <c r="AT37">
         <v>1</v>
       </c>
-      <c r="AS37">
+      <c r="AU37">
         <v>5.2068331170000004</v>
       </c>
-      <c r="AV37">
+      <c r="AX37">
         <v>20.726070539999998</v>
       </c>
-      <c r="AW37">
+      <c r="AY37">
         <v>27.701323670000001</v>
       </c>
-      <c r="AX37">
+      <c r="AZ37">
         <v>11.17914725</v>
       </c>
-      <c r="AY37">
+      <c r="BA37">
         <v>51.676525939999998</v>
       </c>
-      <c r="AZ37">
+      <c r="BB37">
         <v>78.323197930000006</v>
       </c>
-      <c r="BA37">
+      <c r="BC37">
         <v>12.03785695</v>
       </c>
-      <c r="BB37">
+      <c r="BD37">
         <v>66.305077729999994</v>
       </c>
-      <c r="BC37">
+      <c r="BE37">
         <v>1386</v>
-      </c>
-      <c r="BJ37">
-        <v>0</v>
-      </c>
-      <c r="BK37">
-        <v>0</v>
       </c>
       <c r="BL37">
         <v>0</v>
@@ -6154,11 +6193,17 @@
       <c r="BP37">
         <v>0</v>
       </c>
-      <c r="BV37">
+      <c r="BQ37">
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
         <v>11.35569722</v>
       </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -6168,20 +6213,14 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="U38">
+      <c r="W38">
         <v>337.5872483</v>
       </c>
-      <c r="AO38">
+      <c r="AQ38">
         <v>57.816666669999996</v>
       </c>
-      <c r="BB38">
+      <c r="BD38">
         <v>44.533261920000001</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
-      </c>
-      <c r="BK38">
-        <v>0</v>
       </c>
       <c r="BL38">
         <v>0</v>
@@ -6198,11 +6237,17 @@
       <c r="BP38">
         <v>0</v>
       </c>
-      <c r="BV38">
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
         <v>7.62696095</v>
       </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -6219,7 +6264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -6236,7 +6281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -6253,7 +6298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -6270,7 +6315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -6287,7 +6332,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -6304,7 +6349,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -6321,7 +6366,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -6338,7 +6383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -6355,7 +6400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -6636,7 +6681,7 @@
       </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -6647,7 +6692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -6658,7 +6703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -6669,7 +6714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -6680,7 +6725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -6691,7 +6736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -6702,7 +6747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6713,7 +6758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -6724,7 +6769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -6735,7 +6780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -6746,7 +6791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -6757,7 +6802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -6768,7 +6813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -6779,7 +6824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -6790,7 +6835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
         <v>126</v>
       </c>
@@ -6806,11 +6851,11 @@
       <c r="F79" s="5">
         <v>167</v>
       </c>
-      <c r="U79" s="5">
+      <c r="W79" s="5">
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
         <v>127</v>
       </c>
@@ -6826,11 +6871,11 @@
       <c r="F80" s="5">
         <v>159</v>
       </c>
-      <c r="U80" s="5">
+      <c r="W80" s="5">
         <v>410</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
         <v>128</v>
       </c>
@@ -6846,11 +6891,11 @@
       <c r="F81" s="5">
         <v>148</v>
       </c>
-      <c r="U81" s="5">
+      <c r="W81" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>129</v>
       </c>
@@ -6866,11 +6911,11 @@
       <c r="F82" s="5">
         <v>139</v>
       </c>
-      <c r="U82" s="5">
+      <c r="W82" s="5">
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>130</v>
       </c>
@@ -6886,11 +6931,11 @@
       <c r="F83" s="5">
         <v>125</v>
       </c>
-      <c r="U83" s="5">
+      <c r="W83" s="5">
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>131</v>
       </c>
@@ -6906,11 +6951,11 @@
       <c r="F84" s="5">
         <v>118</v>
       </c>
-      <c r="U84" s="5">
+      <c r="W84" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
         <v>132</v>
       </c>
@@ -6926,11 +6971,11 @@
       <c r="F85" s="5">
         <v>167</v>
       </c>
-      <c r="U85" s="5">
+      <c r="W85" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>133</v>
       </c>
@@ -6946,11 +6991,11 @@
       <c r="F86" s="5">
         <v>153</v>
       </c>
-      <c r="U86" s="5">
+      <c r="W86" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
         <v>134</v>
       </c>
@@ -6966,11 +7011,11 @@
       <c r="F87" s="5">
         <v>136</v>
       </c>
-      <c r="U87" s="5">
+      <c r="W87" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>135</v>
       </c>
@@ -6986,11 +7031,11 @@
       <c r="F88" s="5">
         <v>131</v>
       </c>
-      <c r="U88" s="5">
+      <c r="W88" s="5">
         <v>420</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>136</v>
       </c>
@@ -7006,11 +7051,11 @@
       <c r="F89" s="5">
         <v>119</v>
       </c>
-      <c r="U89" s="5">
+      <c r="W89" s="5">
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>137</v>
       </c>
@@ -7026,11 +7071,11 @@
       <c r="F90" s="5">
         <v>117</v>
       </c>
-      <c r="U90" s="5">
+      <c r="W90" s="5">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
         <v>138</v>
       </c>
@@ -7046,11 +7091,11 @@
       <c r="F91" s="5">
         <v>160</v>
       </c>
-      <c r="U91" s="5">
+      <c r="W91" s="5">
         <v>470</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
         <v>139</v>
       </c>
@@ -7066,11 +7111,11 @@
       <c r="F92" s="5">
         <v>148</v>
       </c>
-      <c r="U92" s="5">
+      <c r="W92" s="5">
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
         <v>140</v>
       </c>
@@ -7086,11 +7131,11 @@
       <c r="F93" s="5">
         <v>142</v>
       </c>
-      <c r="U93" s="5">
+      <c r="W93" s="5">
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
         <v>141</v>
       </c>
@@ -7106,11 +7151,11 @@
       <c r="F94" s="5">
         <v>132</v>
       </c>
-      <c r="U94" s="5">
+      <c r="W94" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
         <v>142</v>
       </c>
@@ -7126,11 +7171,11 @@
       <c r="F95" s="5">
         <v>122</v>
       </c>
-      <c r="U95" s="5">
+      <c r="W95" s="5">
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
         <v>143</v>
       </c>
@@ -7146,11 +7191,11 @@
       <c r="F96" s="5">
         <v>117</v>
       </c>
-      <c r="U96" s="5">
+      <c r="W96" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
         <v>144</v>
       </c>
@@ -7166,11 +7211,11 @@
       <c r="F97" s="5">
         <v>158</v>
       </c>
-      <c r="U97" s="5">
+      <c r="W97" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
         <v>145</v>
       </c>
@@ -7186,11 +7231,11 @@
       <c r="F98" s="5">
         <v>148</v>
       </c>
-      <c r="U98" s="5">
+      <c r="W98" s="5">
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6" t="s">
         <v>146</v>
       </c>
@@ -7206,11 +7251,11 @@
       <c r="F99" s="5">
         <v>128</v>
       </c>
-      <c r="U99" s="5">
+      <c r="W99" s="5">
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
         <v>147</v>
       </c>
@@ -7226,11 +7271,11 @@
       <c r="F100" s="5">
         <v>126</v>
       </c>
-      <c r="U100" s="5">
+      <c r="W100" s="5">
         <v>430</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>148</v>
       </c>
@@ -7246,11 +7291,11 @@
       <c r="F101" s="5">
         <v>115</v>
       </c>
-      <c r="U101" s="5">
+      <c r="W101" s="5">
         <v>410</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
         <v>149</v>
       </c>
@@ -7266,11 +7311,11 @@
       <c r="F102" s="5">
         <v>113</v>
       </c>
-      <c r="U102" s="5">
+      <c r="W102" s="5">
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
         <v>150</v>
       </c>
@@ -7286,11 +7331,11 @@
       <c r="F103" s="5">
         <v>157</v>
       </c>
-      <c r="U103" s="5">
+      <c r="W103" s="5">
         <v>430</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
         <v>151</v>
       </c>
@@ -7306,11 +7351,11 @@
       <c r="F104" s="5">
         <v>144</v>
       </c>
-      <c r="U104" s="5">
+      <c r="W104" s="5">
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>152</v>
       </c>
@@ -7326,11 +7371,11 @@
       <c r="F105" s="5">
         <v>133</v>
       </c>
-      <c r="U105" s="5">
+      <c r="W105" s="5">
         <v>450</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
         <v>153</v>
       </c>
@@ -7346,11 +7391,11 @@
       <c r="F106" s="5">
         <v>124</v>
       </c>
-      <c r="U106" s="5">
+      <c r="W106" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>154</v>
       </c>
@@ -7366,11 +7411,11 @@
       <c r="F107" s="5">
         <v>112</v>
       </c>
-      <c r="U107" s="5">
+      <c r="W107" s="5">
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
         <v>155</v>
       </c>
@@ -7386,11 +7431,11 @@
       <c r="F108" s="5">
         <v>110</v>
       </c>
-      <c r="U108" s="5">
+      <c r="W108" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
         <v>156</v>
       </c>
@@ -7406,11 +7451,11 @@
       <c r="F109" s="5">
         <v>154</v>
       </c>
-      <c r="U109" s="5">
+      <c r="W109" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
         <v>157</v>
       </c>
@@ -7426,11 +7471,11 @@
       <c r="F110" s="5">
         <v>140</v>
       </c>
-      <c r="U110" s="5">
+      <c r="W110" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
         <v>158</v>
       </c>
@@ -7446,11 +7491,11 @@
       <c r="F111" s="5">
         <v>123</v>
       </c>
-      <c r="U111" s="5">
+      <c r="W111" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
         <v>159</v>
       </c>
@@ -7466,11 +7511,11 @@
       <c r="F112" s="5">
         <v>119</v>
       </c>
-      <c r="U112" s="5">
+      <c r="W112" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>160</v>
       </c>
@@ -7486,11 +7531,11 @@
       <c r="F113" s="5">
         <v>109</v>
       </c>
-      <c r="U113" s="5">
+      <c r="W113" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>161</v>
       </c>
@@ -7506,11 +7551,11 @@
       <c r="F114" s="5">
         <v>103</v>
       </c>
-      <c r="U114" s="5">
+      <c r="W114" s="5">
         <v>390</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8" t="s">
         <v>180</v>
       </c>
@@ -7520,11 +7565,11 @@
       <c r="L115">
         <v>0.36252640515873402</v>
       </c>
-      <c r="V115">
+      <c r="X115">
         <v>32.240616594781997</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8" t="s">
         <v>180</v>
       </c>
@@ -7534,11 +7579,11 @@
       <c r="L116">
         <v>1.65706142168406</v>
       </c>
-      <c r="V116">
+      <c r="X116">
         <v>117.06593564716199</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8" t="s">
         <v>180</v>
       </c>
@@ -7548,11 +7593,11 @@
       <c r="L117">
         <v>2.4005498337359299</v>
       </c>
-      <c r="V117">
+      <c r="X117">
         <v>193.846596590133</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8" t="s">
         <v>180</v>
       </c>
@@ -7562,11 +7607,11 @@
       <c r="L118">
         <v>3.4464468005538702</v>
       </c>
-      <c r="V118">
+      <c r="X118">
         <v>286.477492002936</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8" t="s">
         <v>180</v>
       </c>
@@ -7576,11 +7621,11 @@
       <c r="L119">
         <v>4.6297213434540403</v>
       </c>
-      <c r="V119">
+      <c r="X119">
         <v>392.32872264672301</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8" t="s">
         <v>180</v>
       </c>
@@ -7590,14 +7635,14 @@
       <c r="L120">
         <v>5.1806062321228197</v>
       </c>
-      <c r="S120">
+      <c r="T120">
         <v>3.8834951456309401</v>
       </c>
-      <c r="V120">
+      <c r="X120">
         <v>495.514634533292</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8" t="s">
         <v>180</v>
       </c>
@@ -7607,14 +7652,14 @@
       <c r="L121">
         <v>5.1828298244372704</v>
       </c>
-      <c r="S121">
+      <c r="T121">
         <v>116.504854368932</v>
       </c>
-      <c r="V121">
+      <c r="X121">
         <v>712.49903149754402</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8" t="s">
         <v>180</v>
       </c>
@@ -7624,14 +7669,14 @@
       <c r="L122">
         <v>3.7833008217184299</v>
       </c>
-      <c r="S122">
+      <c r="T122">
         <v>320.388349514563</v>
       </c>
-      <c r="V122">
+      <c r="X122">
         <v>802.619568545991</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8" t="s">
         <v>180</v>
       </c>
@@ -7641,14 +7686,14 @@
       <c r="L123">
         <v>2.2463942429173498</v>
       </c>
-      <c r="S123">
+      <c r="T123">
         <v>526.21359223300897</v>
       </c>
-      <c r="V123">
+      <c r="X123">
         <v>903.33496902636898</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8" t="s">
         <v>180</v>
       </c>
@@ -7658,14 +7703,14 @@
       <c r="L124">
         <v>4.95254651856189E-2</v>
       </c>
-      <c r="S124">
+      <c r="T124">
         <v>580.58252427184402</v>
       </c>
-      <c r="V124">
+      <c r="X124">
         <v>760.84224663053305</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8" t="s">
         <v>180</v>
       </c>
@@ -7681,28 +7726,28 @@
       <c r="F125" s="5">
         <v>115</v>
       </c>
-      <c r="S125">
+      <c r="T125">
         <v>539.80582524271802</v>
       </c>
-      <c r="U125" s="5">
+      <c r="W125" s="5">
         <v>427</v>
       </c>
-      <c r="V125">
+      <c r="X125">
         <v>713.526197530226</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="4">
         <v>36523</v>
       </c>
-      <c r="V126">
+      <c r="X126">
         <v>106.506491733601</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8" t="s">
         <v>177</v>
       </c>
@@ -7712,11 +7757,11 @@
       <c r="L127">
         <v>1.8509991004558299</v>
       </c>
-      <c r="V127">
+      <c r="X127">
         <v>207.106778779281</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8" t="s">
         <v>177</v>
       </c>
@@ -7726,11 +7771,11 @@
       <c r="L128">
         <v>3.7213232395718499</v>
       </c>
-      <c r="V128">
+      <c r="X128">
         <v>249.48623250700001</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8" t="s">
         <v>177</v>
       </c>
@@ -7740,14 +7785,14 @@
       <c r="L129">
         <v>5.5654898472796299</v>
       </c>
-      <c r="S129">
-        <v>3</v>
-      </c>
-      <c r="V129">
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="X129">
         <v>408.30292543084499</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8" t="s">
         <v>177</v>
       </c>
@@ -7757,14 +7802,14 @@
       <c r="L130">
         <v>5.5681177291058104</v>
       </c>
-      <c r="S130">
+      <c r="T130">
         <v>79.611650485436797</v>
       </c>
-      <c r="V130">
+      <c r="X130">
         <v>651.74127517645104</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8" t="s">
         <v>177</v>
       </c>
@@ -7774,25 +7819,25 @@
       <c r="L131">
         <v>5.1029017879703602</v>
       </c>
-      <c r="V131">
+      <c r="X131">
         <v>844.91932835738203</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B132" s="4">
         <v>36593</v>
       </c>
-      <c r="S132">
+      <c r="T132">
         <v>462.135922330097</v>
       </c>
-      <c r="V132">
+      <c r="X132">
         <v>953.55541863287999</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8" t="s">
         <v>177</v>
       </c>
@@ -7802,14 +7847,14 @@
       <c r="L133">
         <v>0.43436865139126002</v>
       </c>
-      <c r="S133">
+      <c r="T133">
         <v>462.135922330097</v>
       </c>
-      <c r="V133">
+      <c r="X133">
         <v>718.564624018122</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8" t="s">
         <v>177</v>
       </c>
@@ -7825,17 +7870,17 @@
       <c r="F134" s="5">
         <v>117</v>
       </c>
-      <c r="S134">
+      <c r="T134">
         <v>526.21359223300897</v>
       </c>
-      <c r="U134" s="5">
+      <c r="W134" s="5">
         <v>410</v>
       </c>
-      <c r="V134">
+      <c r="X134">
         <v>750.51745702616199</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8" t="s">
         <v>181</v>
       </c>
@@ -7845,11 +7890,11 @@
       <c r="L135">
         <v>0.44868050010612398</v>
       </c>
-      <c r="V135">
+      <c r="X135">
         <v>29.973767419208301</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8" t="s">
         <v>181</v>
       </c>
@@ -7859,11 +7904,11 @@
       <c r="L136">
         <v>1.7156834008833699</v>
       </c>
-      <c r="V136">
+      <c r="X136">
         <v>135.94011149769199</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8" t="s">
         <v>181</v>
       </c>
@@ -7873,11 +7918,11 @@
       <c r="L137">
         <v>2.2107359079836999</v>
       </c>
-      <c r="V137">
+      <c r="X137">
         <v>154.47337448392599</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8" t="s">
         <v>181</v>
       </c>
@@ -7887,14 +7932,14 @@
       <c r="L138">
         <v>3.7524535319742398</v>
       </c>
-      <c r="S138">
+      <c r="T138">
         <v>-3.8834951456311702</v>
       </c>
-      <c r="V138">
+      <c r="X138">
         <v>307.99042197190698</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8" t="s">
         <v>181</v>
       </c>
@@ -7904,14 +7949,14 @@
       <c r="L139">
         <v>4.3584835100415402</v>
       </c>
-      <c r="S139">
+      <c r="T139">
         <v>13.5922330097087</v>
       </c>
-      <c r="V139">
+      <c r="X139">
         <v>450.850621870814</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8" t="s">
         <v>181</v>
       </c>
@@ -7921,14 +7966,14 @@
       <c r="L140">
         <v>4.4146797521705201</v>
       </c>
-      <c r="S140">
+      <c r="T140">
         <v>36.893203883494998</v>
       </c>
-      <c r="V140">
+      <c r="X140">
         <v>522.34049225751403</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8" t="s">
         <v>181</v>
       </c>
@@ -7938,14 +7983,14 @@
       <c r="L141">
         <v>3.64782340634128</v>
       </c>
-      <c r="S141">
+      <c r="T141">
         <v>209.70873786407699</v>
       </c>
-      <c r="V141">
+      <c r="X141">
         <v>623.06917505727995</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8" t="s">
         <v>181</v>
       </c>
@@ -7955,14 +8000,14 @@
       <c r="L142">
         <v>3.0998494021568801</v>
       </c>
-      <c r="S142">
+      <c r="T142">
         <v>337.86407766990197</v>
       </c>
-      <c r="V142">
+      <c r="X142">
         <v>686.71362212539202</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8" t="s">
         <v>181</v>
       </c>
@@ -7972,14 +8017,14 @@
       <c r="L143">
         <v>0.38039600157672898</v>
       </c>
-      <c r="S143">
+      <c r="T143">
         <v>502.91262135922301</v>
       </c>
-      <c r="V143">
+      <c r="X143">
         <v>694.87339366949902</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8" t="s">
         <v>181</v>
       </c>
@@ -7995,25 +8040,25 @@
       <c r="F144" s="5">
         <v>102</v>
       </c>
-      <c r="S144">
+      <c r="T144">
         <v>504.85436893203803</v>
       </c>
-      <c r="U144" s="5">
+      <c r="W144" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B145" s="4">
         <v>36530</v>
       </c>
-      <c r="V145">
+      <c r="X145">
         <v>22.0397953047001</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8" t="s">
         <v>178</v>
       </c>
@@ -8023,11 +8068,11 @@
       <c r="L146">
         <v>1.7981584612741099</v>
       </c>
-      <c r="V146">
+      <c r="X146">
         <v>125.371812704538</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8" t="s">
         <v>178</v>
       </c>
@@ -8038,7 +8083,7 @@
         <v>2.5412425838142698</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8" t="s">
         <v>178</v>
       </c>
@@ -8048,11 +8093,11 @@
       <c r="L148">
         <v>4.3573110704575502</v>
       </c>
-      <c r="V148">
+      <c r="X148">
         <v>326.505975198957</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8" t="s">
         <v>178</v>
       </c>
@@ -8062,14 +8107,14 @@
       <c r="L149">
         <v>4.6620240754404199</v>
       </c>
-      <c r="S149">
+      <c r="T149">
         <v>11.650485436893099</v>
       </c>
-      <c r="V149">
+      <c r="X149">
         <v>501.19503979161499</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8" t="s">
         <v>178</v>
       </c>
@@ -8079,14 +8124,14 @@
       <c r="L150">
         <v>6.1475050283507997</v>
       </c>
-      <c r="S150">
+      <c r="T150">
         <v>44.660194174757102</v>
       </c>
-      <c r="V150">
+      <c r="X150">
         <v>556.78154643093001</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8" t="s">
         <v>178</v>
       </c>
@@ -8096,14 +8141,14 @@
       <c r="L151">
         <v>3.9776832189530902</v>
       </c>
-      <c r="S151">
+      <c r="T151">
         <v>170.873786407766</v>
       </c>
-      <c r="V151">
+      <c r="X151">
         <v>612.51858602331004</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8" t="s">
         <v>178</v>
       </c>
@@ -8113,14 +8158,14 @@
       <c r="L152">
         <v>3.45724133051678</v>
       </c>
-      <c r="S152">
+      <c r="T152">
         <v>347.57281553398002</v>
       </c>
-      <c r="V152">
+      <c r="X152">
         <v>760.72270575604</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8" t="s">
         <v>178</v>
       </c>
@@ -8130,14 +8175,14 @@
       <c r="L153">
         <v>2.1673152144250398</v>
       </c>
-      <c r="S153">
+      <c r="T153">
         <v>458.252427184466</v>
       </c>
-      <c r="V153">
+      <c r="X153">
         <v>776.80316709526699</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8" t="s">
         <v>178</v>
       </c>
@@ -8153,17 +8198,17 @@
       <c r="F154" s="5">
         <v>104</v>
       </c>
-      <c r="S154">
+      <c r="T154">
         <v>500.97087378640703</v>
       </c>
-      <c r="U154" s="5">
+      <c r="W154" s="5">
         <v>354</v>
       </c>
-      <c r="V154">
+      <c r="X154">
         <v>676.61905939041503</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8" t="s">
         <v>182</v>
       </c>
@@ -8173,11 +8218,11 @@
       <c r="L155">
         <v>0.59010097130555095</v>
       </c>
-      <c r="V155">
+      <c r="X155">
         <v>30.376664440648</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8" t="s">
         <v>182</v>
       </c>
@@ -8187,11 +8232,11 @@
       <c r="L156">
         <v>0.865826418298143</v>
       </c>
-      <c r="V156">
+      <c r="X156">
         <v>64.831000933451804</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8" t="s">
         <v>182</v>
       </c>
@@ -8201,11 +8246,11 @@
       <c r="L157">
         <v>2.1045694822062</v>
       </c>
-      <c r="V157">
+      <c r="X157">
         <v>149.56777118991101</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8" t="s">
         <v>182</v>
       </c>
@@ -8215,11 +8260,11 @@
       <c r="L158">
         <v>2.71019517076178</v>
       </c>
-      <c r="V158">
+      <c r="X158">
         <v>199.87676959234301</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8" t="s">
         <v>182</v>
       </c>
@@ -8229,14 +8274,14 @@
       <c r="L159">
         <v>4.0585815502481299</v>
       </c>
-      <c r="S159">
+      <c r="T159">
         <v>1.94174757281552</v>
       </c>
-      <c r="V159">
+      <c r="X159">
         <v>297.80731044100901</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8" t="s">
         <v>182</v>
       </c>
@@ -8246,14 +8291,14 @@
       <c r="L160">
         <v>3.5103245434055301</v>
       </c>
-      <c r="S160">
+      <c r="T160">
         <v>34.951456310679497</v>
       </c>
-      <c r="V160">
+      <c r="X160">
         <v>371.98020934411102</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8" t="s">
         <v>182</v>
       </c>
@@ -8263,14 +8308,14 @@
       <c r="L161">
         <v>3.7322794853394501</v>
       </c>
-      <c r="S161">
+      <c r="T161">
         <v>190.29126213592201</v>
       </c>
-      <c r="V161">
+      <c r="X161">
         <v>567.77487944450297</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8" t="s">
         <v>182</v>
       </c>
@@ -8280,14 +8325,14 @@
       <c r="L162">
         <v>2.5796905163787698</v>
       </c>
-      <c r="S162">
+      <c r="T162">
         <v>376.69902912621302</v>
       </c>
-      <c r="V162">
+      <c r="X162">
         <v>681.65305843851502</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8" t="s">
         <v>182</v>
       </c>
@@ -8297,14 +8342,14 @@
       <c r="L163">
         <v>0.24532287571129699</v>
       </c>
-      <c r="S163">
+      <c r="T163">
         <v>386.40776699029101</v>
       </c>
-      <c r="V163">
+      <c r="X163">
         <v>536.52158192423894</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8" t="s">
         <v>182</v>
       </c>
@@ -8320,28 +8365,28 @@
       <c r="F164" s="5">
         <v>89</v>
       </c>
-      <c r="S164">
+      <c r="T164">
         <v>452.42718446601901</v>
       </c>
-      <c r="U164" s="5">
+      <c r="W164" s="5">
         <v>272</v>
       </c>
-      <c r="V164">
+      <c r="X164">
         <v>568.51426189044298</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B165" s="4">
         <v>36558</v>
       </c>
-      <c r="V165">
+      <c r="X165">
         <v>56.9103111383317</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8" t="s">
         <v>179</v>
       </c>
@@ -8351,22 +8396,22 @@
       <c r="L166">
         <v>1.96698976136811</v>
       </c>
-      <c r="V166">
+      <c r="X166">
         <v>125.76585484638601</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B167" s="4">
         <v>36571</v>
       </c>
-      <c r="V167">
+      <c r="X167">
         <v>170.792917572139</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8" t="s">
         <v>179</v>
       </c>
@@ -8376,14 +8421,14 @@
       <c r="L168">
         <v>3.9774810741972302</v>
       </c>
-      <c r="S168">
+      <c r="T168">
         <v>31.067961165048398</v>
       </c>
-      <c r="V168">
+      <c r="X168">
         <v>369.314890586893</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8" t="s">
         <v>179</v>
       </c>
@@ -8393,14 +8438,14 @@
       <c r="L169">
         <v>4.1717421845783704</v>
       </c>
-      <c r="S169">
+      <c r="T169">
         <v>139.80582524271799</v>
       </c>
-      <c r="V169">
+      <c r="X169">
         <v>543.95968078159001</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8" t="s">
         <v>179</v>
       </c>
@@ -8410,14 +8455,14 @@
       <c r="L170">
         <v>3.4043602623838898</v>
       </c>
-      <c r="S170">
+      <c r="T170">
         <v>310.67961165048501</v>
       </c>
-      <c r="V170">
+      <c r="X170">
         <v>668.42386832794</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8" t="s">
         <v>179</v>
       </c>
@@ -8427,14 +8472,14 @@
       <c r="L171">
         <v>1.2348618845955499</v>
       </c>
-      <c r="S171">
+      <c r="T171">
         <v>384.46601941747502</v>
       </c>
-      <c r="V171">
+      <c r="X171">
         <v>570.87408730173297</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8" t="s">
         <v>179</v>
       </c>
@@ -8450,14 +8495,427 @@
       <c r="F172" s="5">
         <v>91</v>
       </c>
-      <c r="S172">
+      <c r="T172">
         <v>438.83495145631002</v>
       </c>
-      <c r="U172" s="5">
+      <c r="W172" s="5">
         <v>264</v>
       </c>
-      <c r="V172">
+      <c r="X172">
         <v>565.84894313322502</v>
+      </c>
+    </row>
+    <row r="173" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B173" s="4">
+        <v>32910</v>
+      </c>
+      <c r="L173">
+        <v>2.3992699392924401</v>
+      </c>
+      <c r="M173">
+        <v>0.75403949730700104</v>
+      </c>
+      <c r="X173">
+        <v>132.81249999999901</v>
+      </c>
+      <c r="AE173">
+        <v>3.9160491133475621</v>
+      </c>
+      <c r="AK173">
+        <v>5.31160232827696</v>
+      </c>
+    </row>
+    <row r="174" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" s="4">
+        <v>32918</v>
+      </c>
+      <c r="L174">
+        <v>4.4933666527109004</v>
+      </c>
+      <c r="M174">
+        <v>0.85816876122082508</v>
+      </c>
+      <c r="X174">
+        <v>253.90624999999901</v>
+      </c>
+      <c r="AE174">
+        <v>6.1736657480250612</v>
+      </c>
+      <c r="AK174">
+        <v>8.2567845083908598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" s="4">
+        <v>32925</v>
+      </c>
+      <c r="L175">
+        <v>6.89652239899518</v>
+      </c>
+      <c r="M175">
+        <v>0.90484739676840209</v>
+      </c>
+      <c r="X175">
+        <v>394.53125</v>
+      </c>
+      <c r="AE175">
+        <v>8.9302120153173785</v>
+      </c>
+      <c r="AK175">
+        <v>12.145403920778101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B176" s="4">
+        <v>32932</v>
+      </c>
+      <c r="L176">
+        <v>7.4025800711743699</v>
+      </c>
+      <c r="M176">
+        <v>0.913824057450628</v>
+      </c>
+      <c r="X176">
+        <v>523.4375</v>
+      </c>
+      <c r="AE176">
+        <v>11.046021146306742</v>
+      </c>
+      <c r="AK176">
+        <v>16.976358161568299</v>
+      </c>
+    </row>
+    <row r="177" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B177" s="4">
+        <v>32939</v>
+      </c>
+      <c r="L177">
+        <v>9.0776768892610402</v>
+      </c>
+      <c r="M177">
+        <v>0.913824057450628</v>
+      </c>
+      <c r="X177">
+        <v>636.71875</v>
+      </c>
+      <c r="AE177">
+        <v>12.257539548342988</v>
+      </c>
+      <c r="AK177">
+        <v>19.419285138335901</v>
+      </c>
+    </row>
+    <row r="178" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" s="4">
+        <v>32946</v>
+      </c>
+      <c r="L178">
+        <v>8.6793227967343505</v>
+      </c>
+      <c r="M178">
+        <v>0.93357271095152594</v>
+      </c>
+      <c r="X178">
+        <v>781.25</v>
+      </c>
+      <c r="AE178">
+        <v>12.504532393962936</v>
+      </c>
+      <c r="AK178">
+        <v>22.3027327017084</v>
+      </c>
+    </row>
+    <row r="179" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179" s="4">
+        <v>32954</v>
+      </c>
+      <c r="L179">
+        <v>7.1780275277370702</v>
+      </c>
+      <c r="M179">
+        <v>0.94075403949730696</v>
+      </c>
+      <c r="X179">
+        <v>968.75</v>
+      </c>
+      <c r="AE179">
+        <v>11.473119542148565</v>
+      </c>
+      <c r="AK179">
+        <v>26.128735574257899</v>
+      </c>
+    </row>
+    <row r="180" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B180" s="4">
+        <v>32962</v>
+      </c>
+      <c r="L180">
+        <v>5.12502616705045</v>
+      </c>
+      <c r="M180">
+        <v>0.95332136445242299</v>
+      </c>
+      <c r="X180">
+        <v>914.06249999999898</v>
+      </c>
+      <c r="AE180">
+        <v>7.6942300660613334</v>
+      </c>
+      <c r="AK180">
+        <v>26.433219523257499</v>
+      </c>
+    </row>
+    <row r="181" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B181" s="4">
+        <v>32972</v>
+      </c>
+      <c r="L181">
+        <v>4.8364559346870397</v>
+      </c>
+      <c r="M181">
+        <v>0.955116696588868</v>
+      </c>
+      <c r="X181">
+        <v>1062.5</v>
+      </c>
+      <c r="AE181">
+        <v>5.2080804155383014</v>
+      </c>
+      <c r="AK181">
+        <v>31.387202035982401</v>
+      </c>
+    </row>
+    <row r="182" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B182" s="4">
+        <v>32981</v>
+      </c>
+      <c r="L182">
+        <v>3.1582975716977102</v>
+      </c>
+      <c r="M182">
+        <v>0.93177737881507994</v>
+      </c>
+      <c r="X182">
+        <v>1031.25</v>
+      </c>
+      <c r="AE182">
+        <v>3.1717735677342116</v>
+      </c>
+      <c r="AK182">
+        <v>32.069149070201</v>
+      </c>
+    </row>
+    <row r="183" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B183" s="4">
+        <v>32993</v>
+      </c>
+      <c r="L183">
+        <v>0.53109953945990995</v>
+      </c>
+      <c r="M183">
+        <v>0.70017953321364401</v>
+      </c>
+      <c r="X183">
+        <v>933.59375</v>
+      </c>
+      <c r="AE183">
+        <v>0.61886837353163826</v>
+      </c>
+      <c r="AK183">
+        <v>31.742176082245599</v>
+      </c>
+    </row>
+    <row r="184" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="4">
+        <v>33000</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L184">
+        <v>0.01</v>
+      </c>
+      <c r="M184">
+        <v>0.69299820466786299</v>
+      </c>
+      <c r="X184">
+        <v>874.99999999999898</v>
+      </c>
+      <c r="AE184">
+        <v>1.9065185251761465</v>
+      </c>
+      <c r="AK184">
+        <v>2.29542533891044</v>
+      </c>
+    </row>
+    <row r="185" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B185" s="4">
+        <v>32911</v>
+      </c>
+      <c r="L185">
+        <v>0.92121101109482895</v>
+      </c>
+      <c r="X185">
+        <v>58.59375</v>
+      </c>
+      <c r="AK185">
+        <v>7.8162639217860104</v>
+      </c>
+    </row>
+    <row r="186" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="4">
+        <v>32924</v>
+      </c>
+      <c r="L186">
+        <v>4.33777737073477</v>
+      </c>
+      <c r="X186">
+        <v>269.53124999999898</v>
+      </c>
+      <c r="AE186">
+        <v>5.7747916874302661</v>
+      </c>
+      <c r="AK186">
+        <v>10.4494658065816</v>
+      </c>
+    </row>
+    <row r="187" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187" s="4">
+        <v>32937</v>
+      </c>
+      <c r="L187">
+        <v>5.1295399832530801</v>
+      </c>
+      <c r="X187">
+        <v>386.71874999999898</v>
+      </c>
+      <c r="AE187">
+        <v>7.0007043699503066</v>
+      </c>
+      <c r="AK187">
+        <v>13.200624905508199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" s="4">
+        <v>32951</v>
+      </c>
+      <c r="L188">
+        <v>6.9137141511408799</v>
+      </c>
+      <c r="X188">
+        <v>613.28125</v>
+      </c>
+      <c r="AE188">
+        <v>8.4693324506065899</v>
+      </c>
+      <c r="AK188">
+        <v>18.150197802751499</v>
+      </c>
+    </row>
+    <row r="189" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" s="4">
+        <v>32966</v>
+      </c>
+      <c r="L189">
+        <v>6.4919667155118201</v>
+      </c>
+      <c r="X189">
+        <v>710.93749999999898</v>
+      </c>
+      <c r="AE189">
+        <v>8.5415677105007823</v>
+      </c>
+      <c r="AK189">
+        <v>21.466228644862099</v>
+      </c>
+    </row>
+    <row r="190" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190" s="4">
+        <v>32978</v>
+      </c>
+      <c r="L190">
+        <v>3.2030039773916599</v>
+      </c>
+      <c r="X190">
+        <v>609.37499999999898</v>
+      </c>
+      <c r="AK190">
+        <v>18.876020511011401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" s="4">
+        <v>32992</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L191">
+        <v>6.2223937617751703</v>
+      </c>
+      <c r="X191">
+        <v>1554.6875</v>
+      </c>
+      <c r="AK191">
+        <v>24.4539636143728</v>
       </c>
     </row>
   </sheetData>
@@ -34613,4 +35071,796 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3608C3-5A57-4B39-8C13-68EEEAB8A9FE}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4">
+        <f>DATE(1990,1,9)+ROUND(B2,0)</f>
+        <v>32910</v>
+      </c>
+      <c r="B2">
+        <v>27.971530249110302</v>
+      </c>
+      <c r="C2">
+        <v>2.3992699392924401</v>
+      </c>
+      <c r="E2">
+        <v>28.412601383587699</v>
+      </c>
+      <c r="F2">
+        <v>132.81249999999901</v>
+      </c>
+      <c r="H2">
+        <v>27.996958347663298</v>
+      </c>
+      <c r="I2">
+        <v>75.403949730700106</v>
+      </c>
+      <c r="J2">
+        <f>I2/100</f>
+        <v>0.75403949730700104</v>
+      </c>
+      <c r="L2">
+        <v>28.3887265030489</v>
+      </c>
+      <c r="M2">
+        <v>5.31160232827696</v>
+      </c>
+      <c r="O2">
+        <v>28.137931034482701</v>
+      </c>
+      <c r="P2">
+        <v>73.726323457989295</v>
+      </c>
+      <c r="Q2">
+        <f>P2/100*M2</f>
+        <v>3.9160491133475621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A20" si="0">DATE(1990,1,9)+ROUND(B3,0)</f>
+        <v>32918</v>
+      </c>
+      <c r="B3">
+        <v>36.085409252669002</v>
+      </c>
+      <c r="C3">
+        <v>4.4933666527109004</v>
+      </c>
+      <c r="E3">
+        <v>36.441734255725102</v>
+      </c>
+      <c r="F3">
+        <v>253.90624999999901</v>
+      </c>
+      <c r="H3">
+        <v>35.822082269754098</v>
+      </c>
+      <c r="I3">
+        <v>85.816876122082505</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="1">I3/100</f>
+        <v>0.85816876122082508</v>
+      </c>
+      <c r="L3">
+        <v>36.160484805724899</v>
+      </c>
+      <c r="M3">
+        <v>8.2567845083908598</v>
+      </c>
+      <c r="O3">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="P3">
+        <v>74.770823215152902</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q13" si="2">P3/100*M3</f>
+        <v>6.1736657480250612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>32925</v>
+      </c>
+      <c r="B4">
+        <v>42.918149466192098</v>
+      </c>
+      <c r="C4">
+        <v>6.89652239899518</v>
+      </c>
+      <c r="E4">
+        <v>43.099057729007598</v>
+      </c>
+      <c r="F4">
+        <v>394.53125</v>
+      </c>
+      <c r="H4">
+        <v>43.002401138410903</v>
+      </c>
+      <c r="I4">
+        <v>90.484739676840206</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.90484739676840209</v>
+      </c>
+      <c r="L4">
+        <v>43.084463034823301</v>
+      </c>
+      <c r="M4">
+        <v>12.145403920778101</v>
+      </c>
+      <c r="O4">
+        <v>43.655172413792997</v>
+      </c>
+      <c r="P4">
+        <v>73.527501214181598</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>8.9302120153173785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>32932</v>
+      </c>
+      <c r="B5">
+        <v>49.964412811387902</v>
+      </c>
+      <c r="C5">
+        <v>7.4025800711743699</v>
+      </c>
+      <c r="E5">
+        <v>50.442062261450303</v>
+      </c>
+      <c r="F5">
+        <v>523.4375</v>
+      </c>
+      <c r="H5">
+        <v>49.963872490400099</v>
+      </c>
+      <c r="I5">
+        <v>91.382405745062798</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.913824057450628</v>
+      </c>
+      <c r="L5">
+        <v>50.2132994002922</v>
+      </c>
+      <c r="M5">
+        <v>16.976358161568299</v>
+      </c>
+      <c r="O5">
+        <v>50.275862068965502</v>
+      </c>
+      <c r="P5">
+        <v>65.067083535696895</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>11.046021146306742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>32939</v>
+      </c>
+      <c r="B6">
+        <v>57.437722419928797</v>
+      </c>
+      <c r="C6">
+        <v>9.0776768892610402</v>
+      </c>
+      <c r="E6">
+        <v>57.325262404580101</v>
+      </c>
+      <c r="F6">
+        <v>636.71875</v>
+      </c>
+      <c r="H6">
+        <v>57.556139625725301</v>
+      </c>
+      <c r="I6">
+        <v>91.382405745062798</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.913824057450628</v>
+      </c>
+      <c r="L6">
+        <v>57.567026155319198</v>
+      </c>
+      <c r="M6">
+        <v>19.419285138335901</v>
+      </c>
+      <c r="O6">
+        <v>57.103448275862</v>
+      </c>
+      <c r="P6">
+        <v>63.120446818844002</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>12.257539548342988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>32946</v>
+      </c>
+      <c r="B7">
+        <v>64.483985765124501</v>
+      </c>
+      <c r="C7">
+        <v>8.6793227967343505</v>
+      </c>
+      <c r="E7">
+        <v>64.441048425572504</v>
+      </c>
+      <c r="F7">
+        <v>781.25</v>
+      </c>
+      <c r="H7">
+        <v>64.308986441929306</v>
+      </c>
+      <c r="I7">
+        <v>93.357271095152598</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.93357271095152594</v>
+      </c>
+      <c r="L7">
+        <v>64.286524215088406</v>
+      </c>
+      <c r="M7">
+        <v>22.3027327017084</v>
+      </c>
+      <c r="O7">
+        <v>64.551724137931004</v>
+      </c>
+      <c r="P7">
+        <v>56.0672656629431</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>12.504532393962936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>32954</v>
+      </c>
+      <c r="B8">
+        <v>71.530249110320199</v>
+      </c>
+      <c r="C8">
+        <v>7.1780275277370702</v>
+      </c>
+      <c r="E8">
+        <v>71.561754532442706</v>
+      </c>
+      <c r="F8">
+        <v>968.75</v>
+      </c>
+      <c r="H8">
+        <v>71.059182855682394</v>
+      </c>
+      <c r="I8">
+        <v>94.075403949730699</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.94075403949730696</v>
+      </c>
+      <c r="L8">
+        <v>71.000352769238503</v>
+      </c>
+      <c r="M8">
+        <v>26.128735574257899</v>
+      </c>
+      <c r="O8">
+        <v>70.965517241379303</v>
+      </c>
+      <c r="P8">
+        <v>43.909968431277299</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>11.473119542148565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>32962</v>
+      </c>
+      <c r="B9">
+        <v>79.857651245551594</v>
+      </c>
+      <c r="C9">
+        <v>5.12502616705045</v>
+      </c>
+      <c r="E9">
+        <v>80.715797948473195</v>
+      </c>
+      <c r="F9">
+        <v>914.06249999999898</v>
+      </c>
+      <c r="H9">
+        <v>80.130374558660606</v>
+      </c>
+      <c r="I9">
+        <v>95.332136445242298</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.95332136445242299</v>
+      </c>
+      <c r="L9">
+        <v>80.261679181575303</v>
+      </c>
+      <c r="M9">
+        <v>26.433219523257499</v>
+      </c>
+      <c r="O9">
+        <v>79.862068965517196</v>
+      </c>
+      <c r="P9">
+        <v>29.108183584264101</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>7.6942300660613334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>32972</v>
+      </c>
+      <c r="B10">
+        <v>89.679715302491104</v>
+      </c>
+      <c r="C10">
+        <v>4.8364559346870397</v>
+      </c>
+      <c r="E10">
+        <v>90.809130486641195</v>
+      </c>
+      <c r="F10">
+        <v>1062.5</v>
+      </c>
+      <c r="H10">
+        <v>90.042879725367797</v>
+      </c>
+      <c r="I10">
+        <v>95.511669658886802</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.955116696588868</v>
+      </c>
+      <c r="L10">
+        <v>89.916091316837097</v>
+      </c>
+      <c r="M10">
+        <v>31.387202035982401</v>
+      </c>
+      <c r="O10">
+        <v>90.2068965517241</v>
+      </c>
+      <c r="P10">
+        <v>16.5930063137445</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>5.2080804155383014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>32981</v>
+      </c>
+      <c r="B11">
+        <v>98.861209964412794</v>
+      </c>
+      <c r="C11">
+        <v>3.1582975716977102</v>
+      </c>
+      <c r="E11">
+        <v>99.736849952290001</v>
+      </c>
+      <c r="F11">
+        <v>1031.25</v>
+      </c>
+      <c r="H11">
+        <v>99.106498849914601</v>
+      </c>
+      <c r="I11">
+        <v>93.177737881507994</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.93177737881507994</v>
+      </c>
+      <c r="L11">
+        <v>98.754094642947095</v>
+      </c>
+      <c r="M11">
+        <v>32.069149070201</v>
+      </c>
+      <c r="O11">
+        <v>98.689655172413694</v>
+      </c>
+      <c r="P11">
+        <v>9.89042010684798</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>3.1717735677342116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>32993</v>
+      </c>
+      <c r="B12">
+        <v>110.818505338078</v>
+      </c>
+      <c r="C12">
+        <v>0.53109953945990995</v>
+      </c>
+      <c r="E12">
+        <v>111.405057251908</v>
+      </c>
+      <c r="F12">
+        <v>933.59375</v>
+      </c>
+      <c r="H12">
+        <v>111.289641659278</v>
+      </c>
+      <c r="I12">
+        <v>70.017953321364402</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.70017953321364401</v>
+      </c>
+      <c r="L12">
+        <v>110.96658771355099</v>
+      </c>
+      <c r="M12">
+        <v>31.742176082245599</v>
+      </c>
+      <c r="O12">
+        <v>111.10344827586199</v>
+      </c>
+      <c r="P12">
+        <v>1.9496721709567699</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0.61886837353163826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="B13">
+        <v>117.65124555160099</v>
+      </c>
+      <c r="C13">
+        <v>-2.1627067196986201E-2</v>
+      </c>
+      <c r="E13">
+        <v>118.49758468511401</v>
+      </c>
+      <c r="F13">
+        <v>874.99999999999898</v>
+      </c>
+      <c r="H13">
+        <v>118.036809041658</v>
+      </c>
+      <c r="I13">
+        <v>69.299820466786301</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.69299820466786299</v>
+      </c>
+      <c r="L13">
+        <v>28.40686892103</v>
+      </c>
+      <c r="M13">
+        <v>2.29542533891044</v>
+      </c>
+      <c r="O13">
+        <v>28.137931034482701</v>
+      </c>
+      <c r="P13">
+        <v>83.057309373482198</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>1.9065185251761465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>32911</v>
+      </c>
+      <c r="B14">
+        <v>28.612099644128101</v>
+      </c>
+      <c r="C14">
+        <v>0.92121101109482895</v>
+      </c>
+      <c r="E14">
+        <v>29.549141221374001</v>
+      </c>
+      <c r="F14">
+        <v>58.59375</v>
+      </c>
+      <c r="L14">
+        <v>36.794713500982702</v>
+      </c>
+      <c r="M14">
+        <v>7.8162639217860104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>32924</v>
+      </c>
+      <c r="B15">
+        <v>42.491103202846901</v>
+      </c>
+      <c r="C15">
+        <v>4.33777737073477</v>
+      </c>
+      <c r="E15">
+        <v>42.626729484732799</v>
+      </c>
+      <c r="F15">
+        <v>269.53124999999898</v>
+      </c>
+      <c r="L15">
+        <v>42.4630852189688</v>
+      </c>
+      <c r="M15">
+        <v>10.4494658065816</v>
+      </c>
+      <c r="O15">
+        <v>42.2068965517241</v>
+      </c>
+      <c r="P15">
+        <v>73.881738708110703</v>
+      </c>
+      <c r="Q15">
+        <f>P15/100*M14</f>
+        <v>5.7747916874302661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>32937</v>
+      </c>
+      <c r="B16">
+        <v>55.302491103202797</v>
+      </c>
+      <c r="C16">
+        <v>5.1295399832530801</v>
+      </c>
+      <c r="E16">
+        <v>55.693583015267102</v>
+      </c>
+      <c r="F16">
+        <v>386.71874999999898</v>
+      </c>
+      <c r="L16">
+        <v>55.499168472509098</v>
+      </c>
+      <c r="M16">
+        <v>13.200624905508199</v>
+      </c>
+      <c r="O16">
+        <v>55.655172413793103</v>
+      </c>
+      <c r="P16">
+        <v>66.995811073336498</v>
+      </c>
+      <c r="Q16">
+        <f>P16/100*M15</f>
+        <v>7.0007043699503066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>32951</v>
+      </c>
+      <c r="B17">
+        <v>69.395017793594306</v>
+      </c>
+      <c r="C17">
+        <v>6.9137141511408799</v>
+      </c>
+      <c r="E17">
+        <v>69.917998568702203</v>
+      </c>
+      <c r="F17">
+        <v>613.28125</v>
+      </c>
+      <c r="L17">
+        <v>69.364133447563304</v>
+      </c>
+      <c r="M17">
+        <v>18.150197802751499</v>
+      </c>
+      <c r="O17">
+        <v>69.517241379310306</v>
+      </c>
+      <c r="P17">
+        <v>64.158572122389501</v>
+      </c>
+      <c r="Q17">
+        <f>P17/100*M16</f>
+        <v>8.4693324506065899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>32966</v>
+      </c>
+      <c r="B18">
+        <v>83.701067615658303</v>
+      </c>
+      <c r="C18">
+        <v>6.4919667155118201</v>
+      </c>
+      <c r="E18">
+        <v>84.127653864503799</v>
+      </c>
+      <c r="F18">
+        <v>710.93749999999898</v>
+      </c>
+      <c r="L18">
+        <v>83.028397923700993</v>
+      </c>
+      <c r="M18">
+        <v>21.466228644862099</v>
+      </c>
+      <c r="O18">
+        <v>83.586206896551701</v>
+      </c>
+      <c r="P18">
+        <v>47.060466245750298</v>
+      </c>
+      <c r="Q18">
+        <f>P18/100*M17</f>
+        <v>8.5415677105007823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>32978</v>
+      </c>
+      <c r="B19">
+        <v>95.658362989323805</v>
+      </c>
+      <c r="C19">
+        <v>3.2030039773916599</v>
+      </c>
+      <c r="E19">
+        <v>96.711444417938907</v>
+      </c>
+      <c r="F19">
+        <v>609.37499999999898</v>
+      </c>
+      <c r="L19">
+        <v>96.307136017739197</v>
+      </c>
+      <c r="M19">
+        <v>18.876020511011401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>32992</v>
+      </c>
+      <c r="B20">
+        <v>110.17793594306001</v>
+      </c>
+      <c r="C20">
+        <v>6.2223937617751703</v>
+      </c>
+      <c r="E20">
+        <v>111.24716722328201</v>
+      </c>
+      <c r="F20">
+        <v>1554.6875</v>
+      </c>
+      <c r="L20">
+        <v>110.16832132238</v>
+      </c>
+      <c r="M20">
+        <v>24.4539636143728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D90227-522F-437F-9D07-02DC62AD15A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A650005-DCEC-4ECC-8A1C-5CDCF5F80CF6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1835,10 +1835,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
   <dimension ref="A1:BZ249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A233" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A236" sqref="A236:E249"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A23" activePane="bottomLeft"/>
+      <selection activeCell="X1" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5222,6 +5222,10 @@
       <c r="L27">
         <v>33.666666669999998</v>
       </c>
+      <c r="M27">
+        <f t="shared" ref="M23:M38" si="5">L27*J27</f>
+        <v>1088.5555555511112</v>
+      </c>
       <c r="N27">
         <v>4.2919714000000004</v>
       </c>
@@ -5362,6 +5366,10 @@
       <c r="L28">
         <v>24.777777780000001</v>
       </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>718.55555562000006</v>
+      </c>
       <c r="N28">
         <v>3.6318666670000002</v>
       </c>
@@ -5496,6 +5504,10 @@
       <c r="L29">
         <v>33</v>
       </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>847.00000011000009</v>
+      </c>
       <c r="R29">
         <v>26.616666670000001</v>
       </c>
@@ -5513,6 +5525,10 @@
       </c>
       <c r="W29">
         <v>125.7166667</v>
+      </c>
+      <c r="X29">
+        <f>W29/M29</f>
+        <v>0.14842581662771329</v>
       </c>
       <c r="Y29">
         <v>338.16666670000001</v>
@@ -6084,6 +6100,10 @@
       <c r="L35">
         <v>21.444444440000002</v>
       </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>671.92592571518526</v>
+      </c>
       <c r="N35">
         <v>3.7738070669999999</v>
       </c>
@@ -6224,6 +6244,10 @@
       <c r="L36">
         <v>28.555555559999998</v>
       </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>951.85185190481479</v>
+      </c>
       <c r="N36">
         <v>4.0960799999999997</v>
       </c>
@@ -6355,6 +6379,10 @@
       <c r="L37">
         <v>39</v>
       </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>1014</v>
+      </c>
       <c r="R37">
         <v>72.08</v>
       </c>
@@ -6372,6 +6400,10 @@
       </c>
       <c r="W37">
         <v>118.78</v>
+      </c>
+      <c r="X37">
+        <f>W37/M37</f>
+        <v>0.11714003944773176</v>
       </c>
       <c r="Y37">
         <v>282.03333329999998</v>
@@ -9382,7 +9414,7 @@
         <v>0.74</v>
       </c>
       <c r="Q193" s="9">
-        <f t="shared" ref="Q193:Q233" si="5">N193*1000000/R193</f>
+        <f t="shared" ref="Q193:Q233" si="6">N193*1000000/R193</f>
         <v>38845.144356955381</v>
       </c>
       <c r="R193">
@@ -9422,7 +9454,7 @@
         <v>1.29</v>
       </c>
       <c r="Q194" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25313.97174254317</v>
       </c>
       <c r="R194">
@@ -9462,7 +9494,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="Q195" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26429.710640236957</v>
       </c>
       <c r="R195">
@@ -9502,7 +9534,7 @@
         <v>3.81</v>
       </c>
       <c r="Q196" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31127.450980392154</v>
       </c>
       <c r="R196">
@@ -9542,7 +9574,7 @@
         <v>5.96</v>
       </c>
       <c r="Q197" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33927.249957306318</v>
       </c>
       <c r="R197">
@@ -9594,7 +9626,7 @@
         <v>5.61</v>
       </c>
       <c r="Q198" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33850.238339467811</v>
       </c>
       <c r="R198">
@@ -9646,7 +9678,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="Q199" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30498.694875669731</v>
       </c>
       <c r="R199">
@@ -9698,7 +9730,7 @@
         <v>1.68</v>
       </c>
       <c r="Q200" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27568.099770265835</v>
       </c>
       <c r="R200">
@@ -9758,6 +9790,10 @@
       </c>
       <c r="W201">
         <v>109.33</v>
+      </c>
+      <c r="X201" t="e">
+        <f>W201/M201</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y201">
         <v>370.94</v>
@@ -9795,7 +9831,7 @@
         <v>0.12</v>
       </c>
       <c r="Q203" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21126.760563380281</v>
       </c>
       <c r="R203">
@@ -9835,7 +9871,7 @@
         <v>0.31</v>
       </c>
       <c r="Q204" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35267.349260523326</v>
       </c>
       <c r="R204">
@@ -9875,7 +9911,7 @@
         <v>0.99</v>
       </c>
       <c r="Q205" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25621.118012422361</v>
       </c>
       <c r="R205">
@@ -9915,7 +9951,7 @@
         <v>1.48</v>
       </c>
       <c r="Q206" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29365.079365079368</v>
       </c>
       <c r="R206">
@@ -9955,7 +9991,7 @@
         <v>3.02</v>
       </c>
       <c r="Q207" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29320.388349514564</v>
       </c>
       <c r="R207">
@@ -10007,7 +10043,7 @@
         <v>6.93</v>
       </c>
       <c r="Q208" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50170.129588069212</v>
       </c>
       <c r="R208">
@@ -10059,7 +10095,7 @@
         <v>4.17</v>
       </c>
       <c r="Q209" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31117.080814864563</v>
       </c>
       <c r="R209">
@@ -10111,7 +10147,7 @@
         <v>4.97</v>
       </c>
       <c r="Q210" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39410.038854967883</v>
       </c>
       <c r="R210">
@@ -10163,7 +10199,7 @@
         <v>1.67</v>
       </c>
       <c r="Q211" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24598.615407276477</v>
       </c>
       <c r="R211">
@@ -10202,6 +10238,10 @@
       </c>
       <c r="W212">
         <v>99.48</v>
+      </c>
+      <c r="X212" t="e">
+        <f>W212/M212</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y212">
         <v>367.65</v>
@@ -10239,7 +10279,7 @@
         <v>0.12</v>
       </c>
       <c r="Q214" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11583.011583011583</v>
       </c>
       <c r="R214">
@@ -10279,7 +10319,7 @@
         <v>0.74</v>
       </c>
       <c r="Q215" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27850.95972901769</v>
       </c>
       <c r="R215">
@@ -10319,7 +10359,7 @@
         <v>1.33</v>
       </c>
       <c r="Q216" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23745.759685770397</v>
       </c>
       <c r="R216">
@@ -10390,7 +10430,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="Q218" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27430.762112499178</v>
       </c>
       <c r="R218">
@@ -10430,7 +10470,7 @@
         <v>7.22</v>
       </c>
       <c r="Q219" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42279.088832933179</v>
       </c>
       <c r="R219">
@@ -10482,7 +10522,7 @@
         <v>6</v>
       </c>
       <c r="Q220" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35194.74425152511</v>
       </c>
       <c r="R220">
@@ -10534,7 +10574,7 @@
         <v>3.25</v>
       </c>
       <c r="Q221" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20429.972340960521</v>
       </c>
       <c r="R221">
@@ -10586,7 +10626,7 @@
         <v>2.1</v>
       </c>
       <c r="Q222" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27678.9244760775</v>
       </c>
       <c r="R222">
@@ -10625,6 +10665,10 @@
       </c>
       <c r="W223">
         <v>138.41</v>
+      </c>
+      <c r="X223" t="e">
+        <f>W223/M223</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y223">
         <v>462.61</v>
@@ -10662,7 +10706,7 @@
         <v>0.12</v>
       </c>
       <c r="Q225" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17216.64275466284</v>
       </c>
       <c r="R225">
@@ -10702,7 +10746,7 @@
         <v>0.42</v>
       </c>
       <c r="Q226" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25862.068965517243</v>
       </c>
       <c r="R226">
@@ -10773,7 +10817,7 @@
         <v>3.06</v>
       </c>
       <c r="Q228" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32387.806943268417</v>
       </c>
       <c r="R228">
@@ -10813,7 +10857,7 @@
         <v>5.91</v>
       </c>
       <c r="Q229" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43475.062527585702</v>
       </c>
       <c r="R229">
@@ -10865,7 +10909,7 @@
         <v>7.32</v>
       </c>
       <c r="Q230" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42620.087336244542</v>
       </c>
       <c r="R230">
@@ -10917,7 +10961,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="Q231" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24619.339529365236</v>
       </c>
       <c r="R231">
@@ -10969,7 +11013,7 @@
         <v>4.49</v>
       </c>
       <c r="Q232" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40035.666518056176</v>
       </c>
       <c r="R232">
@@ -11009,7 +11053,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="Q233" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53491.436100131745</v>
       </c>
       <c r="R233">
@@ -11048,6 +11092,10 @@
       </c>
       <c r="W234">
         <v>108.59</v>
+      </c>
+      <c r="X234" t="e">
+        <f>W234/M234</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y234">
         <v>388.81</v>

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A650005-DCEC-4ECC-8A1C-5CDCF5F80CF6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE056F2-3E15-4868-A50E-07AE8FFBFC1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObservedOLD" sheetId="13" r:id="rId1"/>
     <sheet name="Observed" sheetId="14" r:id="rId2"/>
-    <sheet name="FACTS2015" sheetId="20" r:id="rId3"/>
-    <sheet name="ObservedET" sheetId="15" r:id="rId4"/>
-    <sheet name="ObservedSW" sheetId="16" r:id="rId5"/>
-    <sheet name="ObservedST" sheetId="17" r:id="rId6"/>
-    <sheet name="Griffith" sheetId="18" r:id="rId7"/>
-    <sheet name="GattonDalby" sheetId="19" r:id="rId8"/>
+    <sheet name="GattonDalby" sheetId="19" r:id="rId3"/>
+    <sheet name="FACTS2015" sheetId="20" r:id="rId4"/>
+    <sheet name="ObservedET" sheetId="15" r:id="rId5"/>
+    <sheet name="ObservedSW" sheetId="16" r:id="rId6"/>
+    <sheet name="ObservedST" sheetId="17" r:id="rId7"/>
+    <sheet name="Griffith" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Treatment_Structure">#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="231">
   <si>
     <t>SimulationName</t>
   </si>
@@ -790,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -810,6 +810,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1835,10 +1837,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
   <dimension ref="A1:BZ249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A23" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A177" activePane="bottomLeft"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomLeft" activeCell="AM185" sqref="AM185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5223,7 +5225,7 @@
         <v>33.666666669999998</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M23:M38" si="5">L27*J27</f>
+        <f t="shared" ref="M27:M37" si="5">L27*J27</f>
         <v>1088.5555555511112</v>
       </c>
       <c r="N27">
@@ -8919,296 +8921,322 @@
         <v>565.84894313322502</v>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="8" t="s">
+    <row r="173" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="10">
         <v>32910</v>
       </c>
-      <c r="C173" s="4"/>
-      <c r="N173">
+      <c r="C173" s="10"/>
+      <c r="N173" s="9">
         <v>2.3992699392924401</v>
       </c>
-      <c r="O173">
+      <c r="O173" s="9">
         <v>0.75403949730700104</v>
       </c>
-      <c r="Z173">
+      <c r="Z173" s="9">
         <v>132.81249999999901</v>
       </c>
-      <c r="AG173">
+      <c r="AG173" s="9">
         <v>3.9160491133475621</v>
       </c>
-      <c r="AM173">
+      <c r="AM173" s="9">
         <v>5.31160232827696</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="8" t="s">
+    <row r="174" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="10">
         <v>32918</v>
       </c>
-      <c r="C174" s="4"/>
-      <c r="N174">
+      <c r="C174" s="10"/>
+      <c r="N174" s="9">
         <v>4.4933666527109004</v>
       </c>
-      <c r="O174">
+      <c r="O174" s="9">
         <v>0.85816876122082508</v>
       </c>
-      <c r="Z174">
+      <c r="Z174" s="9">
         <v>253.90624999999901</v>
       </c>
-      <c r="AG174">
+      <c r="AG174" s="9">
         <v>6.1736657480250612</v>
       </c>
-      <c r="AM174">
+      <c r="AM174" s="9">
         <v>8.2567845083908598</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="8" t="s">
+    <row r="175" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="10">
         <v>32925</v>
       </c>
-      <c r="C175" s="4"/>
-      <c r="N175">
+      <c r="C175" s="10"/>
+      <c r="N175" s="9">
         <v>6.89652239899518</v>
       </c>
-      <c r="O175">
+      <c r="O175" s="9">
         <v>0.90484739676840209</v>
       </c>
-      <c r="Z175">
+      <c r="Z175" s="9">
         <v>394.53125</v>
       </c>
-      <c r="AG175">
+      <c r="AG175" s="9">
         <v>8.9302120153173785</v>
       </c>
-      <c r="AM175">
+      <c r="AM175" s="9">
         <v>12.145403920778101</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="8" t="s">
+    <row r="176" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="10">
         <v>32932</v>
       </c>
-      <c r="C176" s="4"/>
-      <c r="N176">
+      <c r="C176" s="10"/>
+      <c r="N176" s="9">
         <v>7.4025800711743699</v>
       </c>
-      <c r="O176">
+      <c r="O176" s="9">
         <v>0.913824057450628</v>
       </c>
-      <c r="Z176">
+      <c r="Z176" s="9">
         <v>523.4375</v>
       </c>
-      <c r="AG176">
+      <c r="AG176" s="9">
         <v>11.046021146306742</v>
       </c>
-      <c r="AM176">
+      <c r="AM176" s="9">
         <v>16.976358161568299</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="8" t="s">
+    <row r="177" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="10">
         <v>32939</v>
       </c>
-      <c r="C177" s="4"/>
-      <c r="N177">
+      <c r="C177" s="10"/>
+      <c r="N177" s="9">
         <v>9.0776768892610402</v>
       </c>
-      <c r="O177">
+      <c r="O177" s="9">
         <v>0.913824057450628</v>
       </c>
-      <c r="Z177">
+      <c r="V177" s="9">
+        <v>2.9723991507431702</v>
+      </c>
+      <c r="Z177" s="9">
         <v>636.71875</v>
       </c>
-      <c r="AG177">
+      <c r="AG177" s="9">
         <v>12.257539548342988</v>
       </c>
-      <c r="AM177">
+      <c r="AM177" s="9">
         <v>19.419285138335901</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="8" t="s">
+    <row r="178" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="10">
         <v>32946</v>
       </c>
-      <c r="C178" s="4"/>
-      <c r="N178">
+      <c r="C178" s="10"/>
+      <c r="N178" s="9">
         <v>8.6793227967343505</v>
       </c>
-      <c r="O178">
+      <c r="O178" s="9">
         <v>0.93357271095152594</v>
       </c>
-      <c r="Z178">
+      <c r="V178" s="9">
+        <v>57.961783439490397</v>
+      </c>
+      <c r="Z178" s="9">
         <v>781.25</v>
       </c>
-      <c r="AG178">
+      <c r="AG178" s="9">
         <v>12.504532393962936</v>
       </c>
-      <c r="AM178">
+      <c r="AM178" s="9">
         <v>22.3027327017084</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="8" t="s">
+    <row r="179" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="10">
         <v>32954</v>
       </c>
-      <c r="C179" s="4"/>
-      <c r="N179">
+      <c r="C179" s="10"/>
+      <c r="N179" s="9">
         <v>7.1780275277370702</v>
       </c>
-      <c r="O179">
+      <c r="O179" s="9">
         <v>0.94075403949730696</v>
       </c>
-      <c r="Z179">
+      <c r="Z179" s="9">
         <v>968.75</v>
       </c>
-      <c r="AG179">
+      <c r="AG179" s="9">
         <v>11.473119542148565</v>
       </c>
-      <c r="AM179">
+      <c r="AM179" s="9">
         <v>26.128735574257899</v>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="8" t="s">
+    <row r="180" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="10">
         <v>32962</v>
       </c>
-      <c r="C180" s="4"/>
-      <c r="N180">
+      <c r="C180" s="10"/>
+      <c r="N180" s="9">
         <v>5.12502616705045</v>
       </c>
-      <c r="O180">
+      <c r="O180" s="9">
         <v>0.95332136445242299</v>
       </c>
-      <c r="Z180">
+      <c r="V180" s="9">
+        <v>307.64331210191</v>
+      </c>
+      <c r="Z180" s="9">
         <v>914.06249999999898</v>
       </c>
-      <c r="AG180">
+      <c r="AG180" s="9">
         <v>7.6942300660613334</v>
       </c>
-      <c r="AM180">
+      <c r="AM180" s="9">
         <v>26.433219523257499</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="8" t="s">
+    <row r="181" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="10">
         <v>32972</v>
       </c>
-      <c r="C181" s="4"/>
-      <c r="N181">
+      <c r="C181" s="10"/>
+      <c r="N181" s="9">
         <v>4.8364559346870397</v>
       </c>
-      <c r="O181">
+      <c r="O181" s="9">
         <v>0.955116696588868</v>
       </c>
-      <c r="Z181">
+      <c r="V181" s="9">
+        <v>471.12526539278099</v>
+      </c>
+      <c r="Z181" s="9">
         <v>1062.5</v>
       </c>
-      <c r="AG181">
+      <c r="AG181" s="9">
         <v>5.2080804155383014</v>
       </c>
-      <c r="AM181">
+      <c r="AM181" s="9">
         <v>31.387202035982401</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="8" t="s">
+    <row r="182" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="10">
         <v>32981</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="N182">
+      <c r="C182" s="10"/>
+      <c r="N182" s="9">
         <v>3.1582975716977102</v>
       </c>
-      <c r="O182">
+      <c r="O182" s="9">
         <v>0.93177737881507994</v>
       </c>
-      <c r="Z182">
+      <c r="V182" s="9">
+        <v>536.51804670912895</v>
+      </c>
+      <c r="Z182" s="9">
         <v>1031.25</v>
       </c>
-      <c r="AG182">
+      <c r="AG182" s="9">
         <v>3.1717735677342116</v>
       </c>
-      <c r="AM182">
+      <c r="AM182" s="9">
         <v>32.069149070201</v>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="8" t="s">
+    <row r="183" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="10">
         <v>32993</v>
       </c>
-      <c r="C183" s="4"/>
-      <c r="N183">
+      <c r="C183" s="10"/>
+      <c r="N183" s="9">
         <v>0.53109953945990995</v>
       </c>
-      <c r="O183">
+      <c r="O183" s="9">
         <v>0.70017953321364401</v>
       </c>
-      <c r="Z183">
+      <c r="V183" s="9">
+        <v>603.39702760084901</v>
+      </c>
+      <c r="Z183" s="9">
         <v>933.59375</v>
       </c>
-      <c r="AG183">
+      <c r="AG183" s="9">
         <v>0.61886837353163826</v>
       </c>
-      <c r="AM183">
+      <c r="AM183" s="9">
         <v>31.742176082245599</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="8" t="s">
+    <row r="184" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="10">
         <v>33000</v>
       </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4" t="s">
+      <c r="C184" s="10"/>
+      <c r="D184" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E184" s="4"/>
-      <c r="N184">
+      <c r="E184" s="10"/>
+      <c r="H184" s="14">
+        <f>B184-DATE(1990,1,9)</f>
+        <v>118</v>
+      </c>
+      <c r="N184" s="9">
         <v>0.01</v>
       </c>
-      <c r="O184">
+      <c r="O184" s="9">
         <v>0.69299820466786299</v>
       </c>
-      <c r="Z184">
+      <c r="Y184" s="9">
+        <v>407</v>
+      </c>
+      <c r="Z184" s="9">
         <v>874.99999999999898</v>
       </c>
-      <c r="AG184">
-        <v>1.9065185251761465</v>
-      </c>
-      <c r="AM184">
-        <v>2.29542533891044</v>
+      <c r="AF184" s="9">
+        <f>AL184/Y184</f>
+        <v>6.6584766584766586E-2</v>
+      </c>
+      <c r="AL184" s="9">
+        <v>27.1</v>
       </c>
     </row>
     <row r="185" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -9225,8 +9253,9 @@
       <c r="Z185">
         <v>58.59375</v>
       </c>
-      <c r="AM185">
-        <v>7.8162639217860104</v>
+      <c r="AG185" s="9"/>
+      <c r="AM185" s="9">
+        <v>2.29542533891044</v>
       </c>
     </row>
     <row r="186" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -9244,7 +9273,7 @@
         <v>269.53124999999898</v>
       </c>
       <c r="AG186">
-        <v>5.7747916874302661</v>
+        <v>7.7202470236119893</v>
       </c>
       <c r="AM186">
         <v>10.4494658065816</v>
@@ -9265,7 +9294,7 @@
         <v>386.71874999999898</v>
       </c>
       <c r="AG187">
-        <v>7.0007043699503066</v>
+        <v>8.843865722194078</v>
       </c>
       <c r="AM187">
         <v>13.200624905508199</v>
@@ -9286,7 +9315,7 @@
         <v>613.28125</v>
       </c>
       <c r="AG188">
-        <v>8.4693324506065899</v>
+        <v>11.644907747634676</v>
       </c>
       <c r="AM188">
         <v>18.150197802751499</v>
@@ -9307,7 +9336,7 @@
         <v>710.93749999999898</v>
       </c>
       <c r="AG189">
-        <v>8.5415677105007823</v>
+        <v>10.102107285650909</v>
       </c>
       <c r="AM189">
         <v>21.466228644862099</v>
@@ -11178,6 +11207,834 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3608C3-5A57-4B39-8C13-68EEEAB8A9FE}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4">
+        <f>DATE(1990,1,9)+ROUND(B2,0)</f>
+        <v>32910</v>
+      </c>
+      <c r="B2">
+        <v>27.971530249110302</v>
+      </c>
+      <c r="C2">
+        <v>2.3992699392924401</v>
+      </c>
+      <c r="E2">
+        <v>28.412601383587699</v>
+      </c>
+      <c r="F2">
+        <v>132.81249999999901</v>
+      </c>
+      <c r="H2">
+        <v>27.996958347663298</v>
+      </c>
+      <c r="I2">
+        <v>75.403949730700106</v>
+      </c>
+      <c r="J2">
+        <f>I2/100</f>
+        <v>0.75403949730700104</v>
+      </c>
+      <c r="L2">
+        <v>28.3887265030489</v>
+      </c>
+      <c r="M2">
+        <v>5.31160232827696</v>
+      </c>
+      <c r="O2">
+        <v>28.137931034482701</v>
+      </c>
+      <c r="P2">
+        <v>73.726323457989295</v>
+      </c>
+      <c r="Q2">
+        <f>P2/100*M2</f>
+        <v>3.9160491133475621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A20" si="0">DATE(1990,1,9)+ROUND(B3,0)</f>
+        <v>32918</v>
+      </c>
+      <c r="B3">
+        <v>36.085409252669002</v>
+      </c>
+      <c r="C3">
+        <v>4.4933666527109004</v>
+      </c>
+      <c r="E3">
+        <v>36.441734255725102</v>
+      </c>
+      <c r="F3">
+        <v>253.90624999999901</v>
+      </c>
+      <c r="H3">
+        <v>35.822082269754098</v>
+      </c>
+      <c r="I3">
+        <v>85.816876122082505</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="1">I3/100</f>
+        <v>0.85816876122082508</v>
+      </c>
+      <c r="L3">
+        <v>36.160484805724899</v>
+      </c>
+      <c r="M3">
+        <v>8.2567845083908598</v>
+      </c>
+      <c r="O3">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="P3">
+        <v>74.770823215152902</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="2">P3/100*M3</f>
+        <v>6.1736657480250612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>32925</v>
+      </c>
+      <c r="B4">
+        <v>42.918149466192098</v>
+      </c>
+      <c r="C4">
+        <v>6.89652239899518</v>
+      </c>
+      <c r="E4">
+        <v>43.099057729007598</v>
+      </c>
+      <c r="F4">
+        <v>394.53125</v>
+      </c>
+      <c r="H4">
+        <v>43.002401138410903</v>
+      </c>
+      <c r="I4">
+        <v>90.484739676840206</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.90484739676840209</v>
+      </c>
+      <c r="L4">
+        <v>43.084463034823301</v>
+      </c>
+      <c r="M4">
+        <v>12.145403920778101</v>
+      </c>
+      <c r="O4">
+        <v>43.655172413792997</v>
+      </c>
+      <c r="P4">
+        <v>73.527501214181598</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>8.9302120153173785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>32932</v>
+      </c>
+      <c r="B5">
+        <v>49.964412811387902</v>
+      </c>
+      <c r="C5">
+        <v>7.4025800711743699</v>
+      </c>
+      <c r="E5">
+        <v>50.442062261450303</v>
+      </c>
+      <c r="F5">
+        <v>523.4375</v>
+      </c>
+      <c r="H5">
+        <v>49.963872490400099</v>
+      </c>
+      <c r="I5">
+        <v>91.382405745062798</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.913824057450628</v>
+      </c>
+      <c r="L5">
+        <v>50.2132994002922</v>
+      </c>
+      <c r="M5">
+        <v>16.976358161568299</v>
+      </c>
+      <c r="O5">
+        <v>50.275862068965502</v>
+      </c>
+      <c r="P5">
+        <v>65.067083535696895</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>11.046021146306742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>32939</v>
+      </c>
+      <c r="B6">
+        <v>57.437722419928797</v>
+      </c>
+      <c r="C6">
+        <v>9.0776768892610402</v>
+      </c>
+      <c r="E6">
+        <v>57.325262404580101</v>
+      </c>
+      <c r="F6">
+        <v>636.71875</v>
+      </c>
+      <c r="H6">
+        <v>57.556139625725301</v>
+      </c>
+      <c r="I6">
+        <v>91.382405745062798</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.913824057450628</v>
+      </c>
+      <c r="L6">
+        <v>57.567026155319198</v>
+      </c>
+      <c r="M6">
+        <v>19.419285138335901</v>
+      </c>
+      <c r="O6">
+        <v>57.103448275862</v>
+      </c>
+      <c r="P6">
+        <v>63.120446818844002</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>12.257539548342988</v>
+      </c>
+      <c r="S6">
+        <v>56.874452863223297</v>
+      </c>
+      <c r="T6">
+        <v>2.9723991507431702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>32946</v>
+      </c>
+      <c r="B7">
+        <v>64.483985765124501</v>
+      </c>
+      <c r="C7">
+        <v>8.6793227967343505</v>
+      </c>
+      <c r="E7">
+        <v>64.441048425572504</v>
+      </c>
+      <c r="F7">
+        <v>781.25</v>
+      </c>
+      <c r="H7">
+        <v>64.308986441929306</v>
+      </c>
+      <c r="I7">
+        <v>93.357271095152598</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.93357271095152594</v>
+      </c>
+      <c r="L7">
+        <v>64.286524215088406</v>
+      </c>
+      <c r="M7">
+        <v>22.3027327017084</v>
+      </c>
+      <c r="O7">
+        <v>64.551724137931004</v>
+      </c>
+      <c r="P7">
+        <v>56.0672656629431</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>12.504532393962936</v>
+      </c>
+      <c r="S7" s="9">
+        <v>64.297602157354007</v>
+      </c>
+      <c r="T7">
+        <v>57.961783439490397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>32954</v>
+      </c>
+      <c r="B8">
+        <v>71.530249110320199</v>
+      </c>
+      <c r="C8">
+        <v>7.1780275277370702</v>
+      </c>
+      <c r="E8">
+        <v>71.561754532442706</v>
+      </c>
+      <c r="F8">
+        <v>968.75</v>
+      </c>
+      <c r="H8">
+        <v>71.059182855682394</v>
+      </c>
+      <c r="I8">
+        <v>94.075403949730699</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.94075403949730696</v>
+      </c>
+      <c r="L8">
+        <v>71.000352769238503</v>
+      </c>
+      <c r="M8">
+        <v>26.128735574257899</v>
+      </c>
+      <c r="O8">
+        <v>70.965517241379303</v>
+      </c>
+      <c r="P8">
+        <v>43.909968431277299</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>11.473119542148565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>32962</v>
+      </c>
+      <c r="B9">
+        <v>79.857651245551594</v>
+      </c>
+      <c r="C9">
+        <v>5.12502616705045</v>
+      </c>
+      <c r="E9">
+        <v>80.715797948473195</v>
+      </c>
+      <c r="F9">
+        <v>914.06249999999898</v>
+      </c>
+      <c r="H9">
+        <v>80.130374558660606</v>
+      </c>
+      <c r="I9">
+        <v>95.332136445242298</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.95332136445242299</v>
+      </c>
+      <c r="L9">
+        <v>80.261679181575303</v>
+      </c>
+      <c r="M9">
+        <v>26.433219523257499</v>
+      </c>
+      <c r="O9">
+        <v>79.862068965517196</v>
+      </c>
+      <c r="P9">
+        <v>29.108183584264101</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>7.6942300660613334</v>
+      </c>
+      <c r="S9" s="9">
+        <v>79.977862971795403</v>
+      </c>
+      <c r="T9">
+        <v>307.64331210191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>32972</v>
+      </c>
+      <c r="B10">
+        <v>89.679715302491104</v>
+      </c>
+      <c r="C10">
+        <v>4.8364559346870397</v>
+      </c>
+      <c r="E10">
+        <v>90.809130486641195</v>
+      </c>
+      <c r="F10">
+        <v>1062.5</v>
+      </c>
+      <c r="H10">
+        <v>90.042879725367797</v>
+      </c>
+      <c r="I10">
+        <v>95.511669658886802</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.955116696588868</v>
+      </c>
+      <c r="L10">
+        <v>89.916091316837097</v>
+      </c>
+      <c r="M10">
+        <v>31.387202035982401</v>
+      </c>
+      <c r="O10">
+        <v>90.2068965517241</v>
+      </c>
+      <c r="P10">
+        <v>16.5930063137445</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>5.2080804155383014</v>
+      </c>
+      <c r="S10" s="9">
+        <v>90.303377909258302</v>
+      </c>
+      <c r="T10">
+        <v>471.12526539278099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>32981</v>
+      </c>
+      <c r="B11">
+        <v>98.861209964412794</v>
+      </c>
+      <c r="C11">
+        <v>3.1582975716977102</v>
+      </c>
+      <c r="E11">
+        <v>99.736849952290001</v>
+      </c>
+      <c r="F11">
+        <v>1031.25</v>
+      </c>
+      <c r="H11">
+        <v>99.106498849914601</v>
+      </c>
+      <c r="I11">
+        <v>93.177737881507994</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.93177737881507994</v>
+      </c>
+      <c r="L11">
+        <v>98.754094642947095</v>
+      </c>
+      <c r="M11">
+        <v>32.069149070201</v>
+      </c>
+      <c r="O11">
+        <v>98.689655172413694</v>
+      </c>
+      <c r="P11">
+        <v>9.89042010684798</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>3.1717735677342116</v>
+      </c>
+      <c r="S11" s="9">
+        <v>99.438323220736294</v>
+      </c>
+      <c r="T11">
+        <v>536.51804670912895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>32993</v>
+      </c>
+      <c r="B12">
+        <v>110.818505338078</v>
+      </c>
+      <c r="C12">
+        <v>0.53109953945990995</v>
+      </c>
+      <c r="E12">
+        <v>111.405057251908</v>
+      </c>
+      <c r="F12">
+        <v>933.59375</v>
+      </c>
+      <c r="H12">
+        <v>111.289641659278</v>
+      </c>
+      <c r="I12">
+        <v>70.017953321364402</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.70017953321364401</v>
+      </c>
+      <c r="L12">
+        <v>110.96658771355099</v>
+      </c>
+      <c r="M12">
+        <v>31.742176082245599</v>
+      </c>
+      <c r="O12">
+        <v>111.10344827586199</v>
+      </c>
+      <c r="P12">
+        <v>1.9496721709567699</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0.61886837353163826</v>
+      </c>
+      <c r="S12" s="9">
+        <v>111.607248870508</v>
+      </c>
+      <c r="T12">
+        <v>603.39702760084901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="B13">
+        <v>117.65124555160099</v>
+      </c>
+      <c r="C13">
+        <v>-2.1627067196986201E-2</v>
+      </c>
+      <c r="E13">
+        <v>118.49758468511401</v>
+      </c>
+      <c r="F13">
+        <v>874.99999999999898</v>
+      </c>
+      <c r="H13">
+        <v>118.036809041658</v>
+      </c>
+      <c r="I13">
+        <v>69.299820466786301</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.69299820466786299</v>
+      </c>
+      <c r="O13">
+        <v>28.137931034482701</v>
+      </c>
+      <c r="P13">
+        <v>83.057309373482198</v>
+      </c>
+      <c r="Q13">
+        <f>P13/100*M14</f>
+        <v>1.9065185251761465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>32911</v>
+      </c>
+      <c r="B14">
+        <v>28.612099644128101</v>
+      </c>
+      <c r="C14">
+        <v>0.92121101109482895</v>
+      </c>
+      <c r="E14">
+        <v>29.549141221374001</v>
+      </c>
+      <c r="F14">
+        <v>58.59375</v>
+      </c>
+      <c r="L14">
+        <v>28.40686892103</v>
+      </c>
+      <c r="M14">
+        <v>2.29542533891044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>32924</v>
+      </c>
+      <c r="B15">
+        <v>42.491103202846901</v>
+      </c>
+      <c r="C15">
+        <v>4.33777737073477</v>
+      </c>
+      <c r="E15">
+        <v>42.626729484732799</v>
+      </c>
+      <c r="F15">
+        <v>269.53124999999898</v>
+      </c>
+      <c r="L15">
+        <v>42.4630852189688</v>
+      </c>
+      <c r="M15">
+        <v>10.4494658065816</v>
+      </c>
+      <c r="O15">
+        <v>42.2068965517241</v>
+      </c>
+      <c r="P15">
+        <v>73.881738708110703</v>
+      </c>
+      <c r="Q15">
+        <f>P15/100*M15</f>
+        <v>7.7202470236119893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>32937</v>
+      </c>
+      <c r="B16">
+        <v>55.302491103202797</v>
+      </c>
+      <c r="C16">
+        <v>5.1295399832530801</v>
+      </c>
+      <c r="E16">
+        <v>55.693583015267102</v>
+      </c>
+      <c r="F16">
+        <v>386.71874999999898</v>
+      </c>
+      <c r="L16">
+        <v>55.499168472509098</v>
+      </c>
+      <c r="M16">
+        <v>13.200624905508199</v>
+      </c>
+      <c r="O16">
+        <v>55.655172413793103</v>
+      </c>
+      <c r="P16">
+        <v>66.995811073336498</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q18" si="3">P16/100*M16</f>
+        <v>8.843865722194078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>32951</v>
+      </c>
+      <c r="B17">
+        <v>69.395017793594306</v>
+      </c>
+      <c r="C17">
+        <v>6.9137141511408799</v>
+      </c>
+      <c r="E17">
+        <v>69.917998568702203</v>
+      </c>
+      <c r="F17">
+        <v>613.28125</v>
+      </c>
+      <c r="L17">
+        <v>69.364133447563304</v>
+      </c>
+      <c r="M17">
+        <v>18.150197802751499</v>
+      </c>
+      <c r="O17">
+        <v>69.517241379310306</v>
+      </c>
+      <c r="P17">
+        <v>64.158572122389501</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>11.644907747634676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>32966</v>
+      </c>
+      <c r="B18">
+        <v>83.701067615658303</v>
+      </c>
+      <c r="C18">
+        <v>6.4919667155118201</v>
+      </c>
+      <c r="E18">
+        <v>84.127653864503799</v>
+      </c>
+      <c r="F18">
+        <v>710.93749999999898</v>
+      </c>
+      <c r="L18">
+        <v>83.028397923700993</v>
+      </c>
+      <c r="M18">
+        <v>21.466228644862099</v>
+      </c>
+      <c r="O18">
+        <v>83.586206896551701</v>
+      </c>
+      <c r="P18">
+        <v>47.060466245750298</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>10.102107285650909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>32978</v>
+      </c>
+      <c r="B19">
+        <v>95.658362989323805</v>
+      </c>
+      <c r="C19">
+        <v>3.2030039773916599</v>
+      </c>
+      <c r="E19">
+        <v>96.711444417938907</v>
+      </c>
+      <c r="F19">
+        <v>609.37499999999898</v>
+      </c>
+      <c r="L19">
+        <v>96.307136017739197</v>
+      </c>
+      <c r="M19">
+        <v>18.876020511011401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>32992</v>
+      </c>
+      <c r="B20">
+        <v>110.17793594306001</v>
+      </c>
+      <c r="C20">
+        <v>6.2223937617751703</v>
+      </c>
+      <c r="E20">
+        <v>111.24716722328201</v>
+      </c>
+      <c r="F20">
+        <v>1554.6875</v>
+      </c>
+      <c r="L20">
+        <v>110.16832132238</v>
+      </c>
+      <c r="M20">
+        <v>24.4539636143728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84411E2-0142-43B5-A6AF-C7133342C570}">
   <dimension ref="A1:AR46"/>
   <sheetViews>
@@ -14288,7 +15145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F4CE64-220D-4D79-A050-46BC80CF91B8}">
   <dimension ref="A1:D118"/>
   <sheetViews>
@@ -16038,7 +16895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFA9B49-2792-48D3-82BC-E629331E59DB}">
   <dimension ref="A1:M576"/>
   <sheetViews>
@@ -25855,7 +26712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B616CC-7426-4B8C-A13F-A149E58B75A0}">
   <dimension ref="A1:I576"/>
   <sheetViews>
@@ -37693,7 +38550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A016538-D7B6-43E7-A599-548E9E77BEF8}">
   <dimension ref="A2:X61"/>
   <sheetViews>
@@ -40436,796 +41293,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3608C3-5A57-4B39-8C13-68EEEAB8A9FE}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4">
-        <f>DATE(1990,1,9)+ROUND(B2,0)</f>
-        <v>32910</v>
-      </c>
-      <c r="B2">
-        <v>27.971530249110302</v>
-      </c>
-      <c r="C2">
-        <v>2.3992699392924401</v>
-      </c>
-      <c r="E2">
-        <v>28.412601383587699</v>
-      </c>
-      <c r="F2">
-        <v>132.81249999999901</v>
-      </c>
-      <c r="H2">
-        <v>27.996958347663298</v>
-      </c>
-      <c r="I2">
-        <v>75.403949730700106</v>
-      </c>
-      <c r="J2">
-        <f>I2/100</f>
-        <v>0.75403949730700104</v>
-      </c>
-      <c r="L2">
-        <v>28.3887265030489</v>
-      </c>
-      <c r="M2">
-        <v>5.31160232827696</v>
-      </c>
-      <c r="O2">
-        <v>28.137931034482701</v>
-      </c>
-      <c r="P2">
-        <v>73.726323457989295</v>
-      </c>
-      <c r="Q2">
-        <f>P2/100*M2</f>
-        <v>3.9160491133475621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4">
-        <f t="shared" ref="A3:A20" si="0">DATE(1990,1,9)+ROUND(B3,0)</f>
-        <v>32918</v>
-      </c>
-      <c r="B3">
-        <v>36.085409252669002</v>
-      </c>
-      <c r="C3">
-        <v>4.4933666527109004</v>
-      </c>
-      <c r="E3">
-        <v>36.441734255725102</v>
-      </c>
-      <c r="F3">
-        <v>253.90624999999901</v>
-      </c>
-      <c r="H3">
-        <v>35.822082269754098</v>
-      </c>
-      <c r="I3">
-        <v>85.816876122082505</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J13" si="1">I3/100</f>
-        <v>0.85816876122082508</v>
-      </c>
-      <c r="L3">
-        <v>36.160484805724899</v>
-      </c>
-      <c r="M3">
-        <v>8.2567845083908598</v>
-      </c>
-      <c r="O3">
-        <v>36.2068965517241</v>
-      </c>
-      <c r="P3">
-        <v>74.770823215152902</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q13" si="2">P3/100*M3</f>
-        <v>6.1736657480250612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4">
-        <f t="shared" si="0"/>
-        <v>32925</v>
-      </c>
-      <c r="B4">
-        <v>42.918149466192098</v>
-      </c>
-      <c r="C4">
-        <v>6.89652239899518</v>
-      </c>
-      <c r="E4">
-        <v>43.099057729007598</v>
-      </c>
-      <c r="F4">
-        <v>394.53125</v>
-      </c>
-      <c r="H4">
-        <v>43.002401138410903</v>
-      </c>
-      <c r="I4">
-        <v>90.484739676840206</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0.90484739676840209</v>
-      </c>
-      <c r="L4">
-        <v>43.084463034823301</v>
-      </c>
-      <c r="M4">
-        <v>12.145403920778101</v>
-      </c>
-      <c r="O4">
-        <v>43.655172413792997</v>
-      </c>
-      <c r="P4">
-        <v>73.527501214181598</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>8.9302120153173785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>32932</v>
-      </c>
-      <c r="B5">
-        <v>49.964412811387902</v>
-      </c>
-      <c r="C5">
-        <v>7.4025800711743699</v>
-      </c>
-      <c r="E5">
-        <v>50.442062261450303</v>
-      </c>
-      <c r="F5">
-        <v>523.4375</v>
-      </c>
-      <c r="H5">
-        <v>49.963872490400099</v>
-      </c>
-      <c r="I5">
-        <v>91.382405745062798</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0.913824057450628</v>
-      </c>
-      <c r="L5">
-        <v>50.2132994002922</v>
-      </c>
-      <c r="M5">
-        <v>16.976358161568299</v>
-      </c>
-      <c r="O5">
-        <v>50.275862068965502</v>
-      </c>
-      <c r="P5">
-        <v>65.067083535696895</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>11.046021146306742</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>32939</v>
-      </c>
-      <c r="B6">
-        <v>57.437722419928797</v>
-      </c>
-      <c r="C6">
-        <v>9.0776768892610402</v>
-      </c>
-      <c r="E6">
-        <v>57.325262404580101</v>
-      </c>
-      <c r="F6">
-        <v>636.71875</v>
-      </c>
-      <c r="H6">
-        <v>57.556139625725301</v>
-      </c>
-      <c r="I6">
-        <v>91.382405745062798</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0.913824057450628</v>
-      </c>
-      <c r="L6">
-        <v>57.567026155319198</v>
-      </c>
-      <c r="M6">
-        <v>19.419285138335901</v>
-      </c>
-      <c r="O6">
-        <v>57.103448275862</v>
-      </c>
-      <c r="P6">
-        <v>63.120446818844002</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>12.257539548342988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>32946</v>
-      </c>
-      <c r="B7">
-        <v>64.483985765124501</v>
-      </c>
-      <c r="C7">
-        <v>8.6793227967343505</v>
-      </c>
-      <c r="E7">
-        <v>64.441048425572504</v>
-      </c>
-      <c r="F7">
-        <v>781.25</v>
-      </c>
-      <c r="H7">
-        <v>64.308986441929306</v>
-      </c>
-      <c r="I7">
-        <v>93.357271095152598</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0.93357271095152594</v>
-      </c>
-      <c r="L7">
-        <v>64.286524215088406</v>
-      </c>
-      <c r="M7">
-        <v>22.3027327017084</v>
-      </c>
-      <c r="O7">
-        <v>64.551724137931004</v>
-      </c>
-      <c r="P7">
-        <v>56.0672656629431</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>12.504532393962936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>32954</v>
-      </c>
-      <c r="B8">
-        <v>71.530249110320199</v>
-      </c>
-      <c r="C8">
-        <v>7.1780275277370702</v>
-      </c>
-      <c r="E8">
-        <v>71.561754532442706</v>
-      </c>
-      <c r="F8">
-        <v>968.75</v>
-      </c>
-      <c r="H8">
-        <v>71.059182855682394</v>
-      </c>
-      <c r="I8">
-        <v>94.075403949730699</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0.94075403949730696</v>
-      </c>
-      <c r="L8">
-        <v>71.000352769238503</v>
-      </c>
-      <c r="M8">
-        <v>26.128735574257899</v>
-      </c>
-      <c r="O8">
-        <v>70.965517241379303</v>
-      </c>
-      <c r="P8">
-        <v>43.909968431277299</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>11.473119542148565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>32962</v>
-      </c>
-      <c r="B9">
-        <v>79.857651245551594</v>
-      </c>
-      <c r="C9">
-        <v>5.12502616705045</v>
-      </c>
-      <c r="E9">
-        <v>80.715797948473195</v>
-      </c>
-      <c r="F9">
-        <v>914.06249999999898</v>
-      </c>
-      <c r="H9">
-        <v>80.130374558660606</v>
-      </c>
-      <c r="I9">
-        <v>95.332136445242298</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.95332136445242299</v>
-      </c>
-      <c r="L9">
-        <v>80.261679181575303</v>
-      </c>
-      <c r="M9">
-        <v>26.433219523257499</v>
-      </c>
-      <c r="O9">
-        <v>79.862068965517196</v>
-      </c>
-      <c r="P9">
-        <v>29.108183584264101</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>7.6942300660613334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>32972</v>
-      </c>
-      <c r="B10">
-        <v>89.679715302491104</v>
-      </c>
-      <c r="C10">
-        <v>4.8364559346870397</v>
-      </c>
-      <c r="E10">
-        <v>90.809130486641195</v>
-      </c>
-      <c r="F10">
-        <v>1062.5</v>
-      </c>
-      <c r="H10">
-        <v>90.042879725367797</v>
-      </c>
-      <c r="I10">
-        <v>95.511669658886802</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0.955116696588868</v>
-      </c>
-      <c r="L10">
-        <v>89.916091316837097</v>
-      </c>
-      <c r="M10">
-        <v>31.387202035982401</v>
-      </c>
-      <c r="O10">
-        <v>90.2068965517241</v>
-      </c>
-      <c r="P10">
-        <v>16.5930063137445</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>5.2080804155383014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>32981</v>
-      </c>
-      <c r="B11">
-        <v>98.861209964412794</v>
-      </c>
-      <c r="C11">
-        <v>3.1582975716977102</v>
-      </c>
-      <c r="E11">
-        <v>99.736849952290001</v>
-      </c>
-      <c r="F11">
-        <v>1031.25</v>
-      </c>
-      <c r="H11">
-        <v>99.106498849914601</v>
-      </c>
-      <c r="I11">
-        <v>93.177737881507994</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0.93177737881507994</v>
-      </c>
-      <c r="L11">
-        <v>98.754094642947095</v>
-      </c>
-      <c r="M11">
-        <v>32.069149070201</v>
-      </c>
-      <c r="O11">
-        <v>98.689655172413694</v>
-      </c>
-      <c r="P11">
-        <v>9.89042010684798</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>3.1717735677342116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>32993</v>
-      </c>
-      <c r="B12">
-        <v>110.818505338078</v>
-      </c>
-      <c r="C12">
-        <v>0.53109953945990995</v>
-      </c>
-      <c r="E12">
-        <v>111.405057251908</v>
-      </c>
-      <c r="F12">
-        <v>933.59375</v>
-      </c>
-      <c r="H12">
-        <v>111.289641659278</v>
-      </c>
-      <c r="I12">
-        <v>70.017953321364402</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0.70017953321364401</v>
-      </c>
-      <c r="L12">
-        <v>110.96658771355099</v>
-      </c>
-      <c r="M12">
-        <v>31.742176082245599</v>
-      </c>
-      <c r="O12">
-        <v>111.10344827586199</v>
-      </c>
-      <c r="P12">
-        <v>1.9496721709567699</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>0.61886837353163826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>33000</v>
-      </c>
-      <c r="B13">
-        <v>117.65124555160099</v>
-      </c>
-      <c r="C13">
-        <v>-2.1627067196986201E-2</v>
-      </c>
-      <c r="E13">
-        <v>118.49758468511401</v>
-      </c>
-      <c r="F13">
-        <v>874.99999999999898</v>
-      </c>
-      <c r="H13">
-        <v>118.036809041658</v>
-      </c>
-      <c r="I13">
-        <v>69.299820466786301</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0.69299820466786299</v>
-      </c>
-      <c r="L13">
-        <v>28.40686892103</v>
-      </c>
-      <c r="M13">
-        <v>2.29542533891044</v>
-      </c>
-      <c r="O13">
-        <v>28.137931034482701</v>
-      </c>
-      <c r="P13">
-        <v>83.057309373482198</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>1.9065185251761465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>32911</v>
-      </c>
-      <c r="B14">
-        <v>28.612099644128101</v>
-      </c>
-      <c r="C14">
-        <v>0.92121101109482895</v>
-      </c>
-      <c r="E14">
-        <v>29.549141221374001</v>
-      </c>
-      <c r="F14">
-        <v>58.59375</v>
-      </c>
-      <c r="L14">
-        <v>36.794713500982702</v>
-      </c>
-      <c r="M14">
-        <v>7.8162639217860104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>32924</v>
-      </c>
-      <c r="B15">
-        <v>42.491103202846901</v>
-      </c>
-      <c r="C15">
-        <v>4.33777737073477</v>
-      </c>
-      <c r="E15">
-        <v>42.626729484732799</v>
-      </c>
-      <c r="F15">
-        <v>269.53124999999898</v>
-      </c>
-      <c r="L15">
-        <v>42.4630852189688</v>
-      </c>
-      <c r="M15">
-        <v>10.4494658065816</v>
-      </c>
-      <c r="O15">
-        <v>42.2068965517241</v>
-      </c>
-      <c r="P15">
-        <v>73.881738708110703</v>
-      </c>
-      <c r="Q15">
-        <f>P15/100*M14</f>
-        <v>5.7747916874302661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>32937</v>
-      </c>
-      <c r="B16">
-        <v>55.302491103202797</v>
-      </c>
-      <c r="C16">
-        <v>5.1295399832530801</v>
-      </c>
-      <c r="E16">
-        <v>55.693583015267102</v>
-      </c>
-      <c r="F16">
-        <v>386.71874999999898</v>
-      </c>
-      <c r="L16">
-        <v>55.499168472509098</v>
-      </c>
-      <c r="M16">
-        <v>13.200624905508199</v>
-      </c>
-      <c r="O16">
-        <v>55.655172413793103</v>
-      </c>
-      <c r="P16">
-        <v>66.995811073336498</v>
-      </c>
-      <c r="Q16">
-        <f>P16/100*M15</f>
-        <v>7.0007043699503066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>32951</v>
-      </c>
-      <c r="B17">
-        <v>69.395017793594306</v>
-      </c>
-      <c r="C17">
-        <v>6.9137141511408799</v>
-      </c>
-      <c r="E17">
-        <v>69.917998568702203</v>
-      </c>
-      <c r="F17">
-        <v>613.28125</v>
-      </c>
-      <c r="L17">
-        <v>69.364133447563304</v>
-      </c>
-      <c r="M17">
-        <v>18.150197802751499</v>
-      </c>
-      <c r="O17">
-        <v>69.517241379310306</v>
-      </c>
-      <c r="P17">
-        <v>64.158572122389501</v>
-      </c>
-      <c r="Q17">
-        <f>P17/100*M16</f>
-        <v>8.4693324506065899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>32966</v>
-      </c>
-      <c r="B18">
-        <v>83.701067615658303</v>
-      </c>
-      <c r="C18">
-        <v>6.4919667155118201</v>
-      </c>
-      <c r="E18">
-        <v>84.127653864503799</v>
-      </c>
-      <c r="F18">
-        <v>710.93749999999898</v>
-      </c>
-      <c r="L18">
-        <v>83.028397923700993</v>
-      </c>
-      <c r="M18">
-        <v>21.466228644862099</v>
-      </c>
-      <c r="O18">
-        <v>83.586206896551701</v>
-      </c>
-      <c r="P18">
-        <v>47.060466245750298</v>
-      </c>
-      <c r="Q18">
-        <f>P18/100*M17</f>
-        <v>8.5415677105007823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>32978</v>
-      </c>
-      <c r="B19">
-        <v>95.658362989323805</v>
-      </c>
-      <c r="C19">
-        <v>3.2030039773916599</v>
-      </c>
-      <c r="E19">
-        <v>96.711444417938907</v>
-      </c>
-      <c r="F19">
-        <v>609.37499999999898</v>
-      </c>
-      <c r="L19">
-        <v>96.307136017739197</v>
-      </c>
-      <c r="M19">
-        <v>18.876020511011401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>32992</v>
-      </c>
-      <c r="B20">
-        <v>110.17793594306001</v>
-      </c>
-      <c r="C20">
-        <v>6.2223937617751703</v>
-      </c>
-      <c r="E20">
-        <v>111.24716722328201</v>
-      </c>
-      <c r="F20">
-        <v>1554.6875</v>
-      </c>
-      <c r="L20">
-        <v>110.16832132238</v>
-      </c>
-      <c r="M20">
-        <v>24.4539636143728</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69957711-C802-45BA-916B-40D008C0A395}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B3ACF-0C6F-4AD6-AA00-7529144A1B16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
@@ -1008,6 +1008,1480 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Observed!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soybean.AboveGround.Wt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Observed!$N$2:$N$234</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="232"/>
+                <c:pt idx="0">
+                  <c:v>0.18906666699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.063767667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6299103330000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5467477330000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4898179999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4933822670000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3484526670000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56501726699999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.333144933</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.870000133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6754084669999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2218760670000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4241513330000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35698686699999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95810446699999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6910712000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3258197329999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2919714000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6318666670000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31231700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89610920000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1892269999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7738070669999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0960799999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.36252640515873402</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.65706142168406</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.4005498337359299</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.4464468005538702</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.6297213434540403</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.1806062321228197</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.1828298244372704</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.7833008217184299</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.2463942429173498</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.95254651856189E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.8509991004558299</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.7213232395718499</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.5654898472796299</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.5681177291058104</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.1029017879703602</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.43436865139126002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.44868050010612398</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.7156834008833699</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.2107359079836999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.7524535319742398</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.3584835100415402</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.4146797521705201</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.64782340634128</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.0998494021568801</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.38039600157672898</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7981584612741099</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.5412425838142698</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.3573110704575502</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.6620240754404199</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.1475050283507997</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.9776832189530902</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.45724133051678</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.1673152144250398</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.59010097130555095</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.865826418298143</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.1045694822062</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.71019517076178</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.0585815502481299</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.5103245434055301</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.7322794853394501</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.5796905163787698</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.24532287571129699</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.96698976136811</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.9774810741972302</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.1717421845783704</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.4043602623838898</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2348618845955499</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.3992699392924401</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.4933666527109004</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.89652239899518</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.4025800711743699</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.0776768892610402</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8.6793227967343505</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.1780275277370702</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.12502616705045</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.8364559346870397</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.1582975716977102</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.53109953945990995</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.92121101109482895</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.33777737073477</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.1295399832530801</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.9137141511408799</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.4919667155118201</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.2030039773916599</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.2223937617751703</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Observed!$Q$2:$Q$234</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="232"/>
+                <c:pt idx="0">
+                  <c:v>25549.549594594591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36597.511475160842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28900.113549450551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24895.281227212148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26139.052973774684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24667.679467369173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20837.10095400504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32534.583506231364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22053.679619520262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26956.795229506322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28080.531333333329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29404.110969086094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25290.981152460987</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38626.581584072701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22093.108384158866</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23411.230273346162</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27807.857299331106</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27164.949043826888</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24385.309188606949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17914.933081819298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23205.244710987896</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32992.00344713821</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27495.194297040794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26138.517819676141</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>34347.929212067291</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>37909.06206031816</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41267.383030936362</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>37324.808003524799</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>40020.288634721081</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>35094.659940056139</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>32069.620549677846</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>31745.807010921511</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>34102.758793628491</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45955.10799080845</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>23992.322456813821</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>38845.144356955381</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>25313.97174254317</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>26429.710640236957</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>31127.450980392154</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>33927.249957306318</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>33850.238339467811</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>30498.694875669731</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>27568.099770265835</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>21126.760563380281</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>35267.349260523326</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>25621.118012422361</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>29365.079365079368</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>29320.388349514564</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>50170.129588069212</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>31117.080814864563</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>39410.038854967883</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>24598.615407276477</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>11583.011583011583</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>27850.95972901769</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>23745.759685770397</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>27430.762112499178</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42279.088832933179</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>35194.74425152511</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>20429.972340960521</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>27678.9244760775</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>25862.068965517243</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>32387.806943268417</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43475.062527585702</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42620.087336244542</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>24619.339529365236</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>40035.666518056176</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>53491.436100131745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-667E-4EAE-9D25-E3F3B757E82C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413476240"/>
+        <c:axId val="413474928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413476240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413474928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413474928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413476240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03DC901-49D1-4580-8B2B-A4A6E82CBC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1331,10 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
   <dimension ref="A1:BZ249"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A166" activePane="bottomLeft"/>
-      <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="Q179" sqref="Q179"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10601,7 +12073,7 @@
       </c>
       <c r="Z224" s="11"/>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -11084,6 +12556,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23343,7 +24816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38AC6CC-44CB-4FCE-B6C5-EB62C8EDED80}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B3ACF-0C6F-4AD6-AA00-7529144A1B16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266756FD-8635-40FE-AD01-4DC3349E0803}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="298">
   <si>
     <t>SimulationName</t>
   </si>
@@ -903,12 +903,39 @@
   <si>
     <t>(day)</t>
   </si>
+  <si>
+    <t>nodes_per_main_stem</t>
+  </si>
+  <si>
+    <t>yieldfrompaper_g_m2</t>
+  </si>
+  <si>
+    <t>grain_size_g</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>tops_g_m2</t>
+  </si>
+  <si>
+    <t>irrigation</t>
+  </si>
+  <si>
+    <t>seeds_m2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +948,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -969,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -991,6 +1026,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,1480 +1045,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Observed!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Soybean.AboveGround.Wt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Observed!$N$2:$N$234</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="232"/>
-                <c:pt idx="0">
-                  <c:v>0.18906666699999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.063767667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6299103330000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5467477330000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4898179999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4933822670000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3484526670000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56501726699999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.333144933</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.870000133</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.6754084669999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.2218760670000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.4241513330000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.35698686699999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.95810446699999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.6910712000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.3258197329999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.2919714000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.6318666670000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31231700000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.89610920000000005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.1892269999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.7738070669999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.0960799999999997</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.36252640515873402</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.65706142168406</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.4005498337359299</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3.4464468005538702</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>4.6297213434540403</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>5.1806062321228197</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5.1828298244372704</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3.7833008217184299</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2.2463942429173498</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>4.95254651856189E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.8509991004558299</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>3.7213232395718499</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5.5654898472796299</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.5681177291058104</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.1029017879703602</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.43436865139126002</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.44868050010612398</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.7156834008833699</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2.2107359079836999</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3.7524535319742398</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>4.3584835100415402</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4.4146797521705201</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.64782340634128</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3.0998494021568801</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.38039600157672898</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1.7981584612741099</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2.5412425838142698</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4.3573110704575502</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4.6620240754404199</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>6.1475050283507997</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3.9776832189530902</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3.45724133051678</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2.1673152144250398</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.59010097130555095</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.865826418298143</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2.1045694822062</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2.71019517076178</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4.0585815502481299</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>3.5103245434055301</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3.7322794853394501</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2.5796905163787698</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.24532287571129699</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1.96698976136811</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>3.9774810741972302</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>4.1717421845783704</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3.4043602623838898</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1.2348618845955499</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2.3992699392924401</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4.4933666527109004</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6.89652239899518</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>7.4025800711743699</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>9.0776768892610402</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>8.6793227967343505</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>7.1780275277370702</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5.12502616705045</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>4.8364559346870397</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3.1582975716977102</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.53109953945990995</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.92121101109482895</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>4.33777737073477</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>5.1295399832530801</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>6.9137141511408799</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>6.4919667155118201</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>3.2030039773916599</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6.2223937617751703</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2.3199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>5.96</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>4.4400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>3.02</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>4.17</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>4.97</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1.67</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>4.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>5.91</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>4.9800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>4.49</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Observed!$Q$2:$Q$234</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="232"/>
-                <c:pt idx="0">
-                  <c:v>25549.549594594591</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36597.511475160842</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28900.113549450551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24895.281227212148</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26139.052973774684</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24667.679467369173</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20837.10095400504</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32534.583506231364</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22053.679619520262</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26956.795229506322</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28080.531333333329</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29404.110969086094</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25290.981152460987</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38626.581584072701</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22093.108384158866</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23411.230273346162</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27807.857299331106</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27164.949043826888</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24385.309188606949</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17914.933081819298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23205.244710987896</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32992.00344713821</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>27495.194297040794</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>26138.517819676141</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>34347.929212067291</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>37909.06206031816</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>41267.383030936362</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>37324.808003524799</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>40020.288634721081</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>35094.659940056139</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>32069.620549677846</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>31745.807010921511</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>34102.758793628491</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>45955.10799080845</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>23992.322456813821</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>38845.144356955381</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>25313.97174254317</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>26429.710640236957</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>31127.450980392154</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>33927.249957306318</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>33850.238339467811</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>30498.694875669731</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>27568.099770265835</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>21126.760563380281</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>35267.349260523326</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>25621.118012422361</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>29365.079365079368</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>29320.388349514564</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>50170.129588069212</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>31117.080814864563</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>39410.038854967883</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>24598.615407276477</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>11583.011583011583</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>27850.95972901769</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>23745.759685770397</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>27430.762112499178</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>42279.088832933179</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>35194.74425152511</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>20429.972340960521</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>27678.9244760775</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>25862.068965517243</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>32387.806943268417</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>43475.062527585702</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>42620.087336244542</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>24619.339529365236</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>40035.666518056176</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>53491.436100131745</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-667E-4EAE-9D25-E3F3B757E82C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="413476240"/>
-        <c:axId val="413474928"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="413476240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="413474928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="413474928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="413476240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03DC901-49D1-4580-8B2B-A4A6E82CBC00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2803,11 +1368,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
-  <dimension ref="A1:BZ249"/>
+  <dimension ref="A1:CH249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2891,7 +1454,7 @@
     <col min="78" max="78" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3126,8 +1689,32 @@
       <c r="BZ1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA1" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="CB1" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="CC1" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="CD1" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="CE1" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3256,7 +1843,7 @@
         <v>10.92576008</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3388,7 +1975,7 @@
         <v>1.922576396</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3520,7 +2107,7 @@
         <v>25.026652460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3698,7 +2285,7 @@
         <v>38.837267330000003</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3873,7 +2460,7 @@
         <v>46.227657309999998</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4045,7 +2632,7 @@
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4217,7 +2804,7 @@
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4401,7 +2988,7 @@
         <v>8.887289634</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -4429,7 +3016,7 @@
         <v>6.2168025010000001</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -4449,7 +3036,7 @@
         <v>42.860670050000003</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4469,7 +3056,7 @@
         <v>104.08329999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4601,7 +3188,7 @@
         <v>4.407066296</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4733,7 +3320,7 @@
         <v>42.861361389999999</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4901,7 +3488,7 @@
         <v>83.735230939999994</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -7949,7 +6536,7 @@
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -7961,7 +6548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -7973,7 +6560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -7985,7 +6572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -7997,7 +6584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -8009,7 +6596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -8021,7 +6608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -8033,7 +6620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -8045,7 +6632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -8057,7 +6644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -8069,7 +6656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -8081,7 +6668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -8093,7 +6680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -8105,7 +6692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -8117,7 +6704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
         <v>126</v>
       </c>
@@ -8134,11 +6721,32 @@
       <c r="H79" s="5">
         <v>167</v>
       </c>
+      <c r="L79" s="15">
+        <v>33.872531713403781</v>
+      </c>
+      <c r="M79" s="16">
+        <v>1253.28367339594</v>
+      </c>
       <c r="Y79" s="5">
         <v>430</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA79" s="17">
+        <v>15.812860173053053</v>
+      </c>
+      <c r="CB79" s="17">
+        <v>432.73623765408399</v>
+      </c>
+      <c r="CC79" s="12">
+        <v>0.133700440528634</v>
+      </c>
+      <c r="CD79" s="17">
+        <v>361.95652173912998</v>
+      </c>
+      <c r="CE79" s="18">
+        <v>183.506849315068</v>
+      </c>
+    </row>
+    <row r="80" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
         <v>127</v>
       </c>
@@ -8155,11 +6763,32 @@
       <c r="H80" s="5">
         <v>159</v>
       </c>
+      <c r="L80" s="15">
+        <v>32.895088762518107</v>
+      </c>
+      <c r="M80" s="15">
+        <v>1217.11828421317</v>
+      </c>
       <c r="Y80" s="5">
         <v>410</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA80" s="17">
+        <v>15.470984997157323</v>
+      </c>
+      <c r="CB80" s="17">
+        <v>421.96922134599106</v>
+      </c>
+      <c r="CC80" s="12">
+        <v>0.13105726872246598</v>
+      </c>
+      <c r="CD80" s="17">
+        <v>353.91304347826002</v>
+      </c>
+      <c r="CE80" s="17">
+        <v>186.79452054794501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
         <v>128</v>
       </c>
@@ -8176,11 +6805,32 @@
       <c r="H81" s="5">
         <v>148</v>
       </c>
+      <c r="L81" s="15">
+        <v>29.622559512983514</v>
+      </c>
+      <c r="M81" s="15">
+        <v>1096.0347019803901</v>
+      </c>
       <c r="Y81" s="5">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA81" s="17">
+        <v>18.820511755028484</v>
+      </c>
+      <c r="CB81" s="17">
+        <v>401.224408544521</v>
+      </c>
+      <c r="CC81" s="12">
+        <v>0.136784140969162</v>
+      </c>
+      <c r="CD81" s="17">
+        <v>362.82608695652101</v>
+      </c>
+      <c r="CE81" s="17">
+        <v>183.01369863013699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>129</v>
       </c>
@@ -8197,11 +6847,32 @@
       <c r="H82" s="5">
         <v>139</v>
       </c>
+      <c r="L82" s="15">
+        <v>31.225290388088375</v>
+      </c>
+      <c r="M82" s="15">
+        <v>1155.3357443592699</v>
+      </c>
       <c r="Y82" s="5">
         <v>410</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA82" s="17">
+        <v>19.402360638645487</v>
+      </c>
+      <c r="CB82" s="17">
+        <v>415.07847791133895</v>
+      </c>
+      <c r="CC82" s="12">
+        <v>0.14559471365638699</v>
+      </c>
+      <c r="CD82" s="17">
+        <v>360.21739130434702</v>
+      </c>
+      <c r="CE82" s="17">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>130</v>
       </c>
@@ -8218,11 +6889,32 @@
       <c r="H83" s="5">
         <v>125</v>
       </c>
+      <c r="L83" s="15">
+        <v>26.09938827956746</v>
+      </c>
+      <c r="M83" s="15">
+        <v>965.67736634399603</v>
+      </c>
       <c r="Y83" s="5">
         <v>320</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA83" s="17">
+        <v>13.38611306813138</v>
+      </c>
+      <c r="CB83" s="17">
+        <v>335.07786540081099</v>
+      </c>
+      <c r="CC83" s="12">
+        <v>0.13590308370043999</v>
+      </c>
+      <c r="CD83" s="17">
+        <v>364.13043478260801</v>
+      </c>
+      <c r="CE83" s="17">
+        <v>176.93150684931501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>131</v>
       </c>
@@ -8239,11 +6931,32 @@
       <c r="H84" s="5">
         <v>118</v>
       </c>
+      <c r="L84" s="15">
+        <v>24.534547502268513</v>
+      </c>
+      <c r="M84" s="15">
+        <v>907.77825758393499</v>
+      </c>
       <c r="Y84" s="5">
         <v>300</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA84" s="17">
+        <v>13.050470975553081</v>
+      </c>
+      <c r="CB84" s="17">
+        <v>309.73922364290598</v>
+      </c>
+      <c r="CC84" s="12">
+        <v>0.13414096916299501</v>
+      </c>
+      <c r="CD84" s="17">
+        <v>371.739130434782</v>
+      </c>
+      <c r="CE84" s="17">
+        <v>172.82191780821901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
         <v>132</v>
       </c>
@@ -8260,11 +6973,32 @@
       <c r="H85" s="5">
         <v>167</v>
       </c>
+      <c r="L85" s="15">
+        <v>29.078266447165138</v>
+      </c>
+      <c r="M85" s="15">
+        <v>1075.8958585451101</v>
+      </c>
       <c r="Y85" s="5">
         <v>440</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA85" s="17">
+        <v>13.872931244924866</v>
+      </c>
+      <c r="CB85" s="17">
+        <v>444.24778761061896</v>
+      </c>
+      <c r="CC85" s="12">
+        <v>0.154330452285105</v>
+      </c>
+      <c r="CD85" s="17">
+        <v>342.69218158043401</v>
+      </c>
+      <c r="CE85" s="17">
+        <v>203.53635492263399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>133</v>
       </c>
@@ -8281,11 +7015,32 @@
       <c r="H86" s="5">
         <v>153</v>
       </c>
+      <c r="L86" s="15">
+        <v>28.497941265185943</v>
+      </c>
+      <c r="M86" s="15">
+        <v>1054.42382681188</v>
+      </c>
       <c r="Y86" s="5">
         <v>440</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA86" s="17">
+        <v>10.13628106563662</v>
+      </c>
+      <c r="CB86" s="17">
+        <v>449.55752212389302</v>
+      </c>
+      <c r="CC86" s="12">
+        <v>0.15084063461993799</v>
+      </c>
+      <c r="CD86" s="17">
+        <v>336.580927812651</v>
+      </c>
+      <c r="CE86" s="17">
+        <v>203.211830754484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
         <v>134</v>
       </c>
@@ -8302,11 +7057,32 @@
       <c r="H87" s="5">
         <v>136</v>
       </c>
+      <c r="L87" s="15">
+        <v>28.690777304129192</v>
+      </c>
+      <c r="M87" s="15">
+        <v>1061.5587602527801</v>
+      </c>
       <c r="Y87" s="5">
         <v>440</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA87" s="17">
+        <v>10.013760872723406</v>
+      </c>
+      <c r="CB87" s="17">
+        <v>452.21238938052994</v>
+      </c>
+      <c r="CC87" s="12">
+        <v>0.147313817191569</v>
+      </c>
+      <c r="CD87" s="17">
+        <v>338.25814887825697</v>
+      </c>
+      <c r="CE87" s="17">
+        <v>200.572915240312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>135</v>
       </c>
@@ -8323,11 +7099,32 @@
       <c r="H88" s="5">
         <v>131</v>
       </c>
+      <c r="L88" s="15">
+        <v>25.665590964098406</v>
+      </c>
+      <c r="M88" s="15">
+        <v>949.62686567164099</v>
+      </c>
       <c r="Y88" s="5">
         <v>420</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA88" s="17">
+        <v>13.559728216562188</v>
+      </c>
+      <c r="CB88" s="17">
+        <v>431.63716814159204</v>
+      </c>
+      <c r="CC88" s="12">
+        <v>0.15647865853658499</v>
+      </c>
+      <c r="CD88" s="17">
+        <v>341.26747599088202</v>
+      </c>
+      <c r="CE88" s="17">
+        <v>200.23634122963099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>136</v>
       </c>
@@ -8344,11 +7141,32 @@
       <c r="H89" s="5">
         <v>119</v>
       </c>
+      <c r="L89" s="15">
+        <v>23.125106752577484</v>
+      </c>
+      <c r="M89" s="15">
+        <v>855.62894984536695</v>
+      </c>
       <c r="Y89" s="5">
         <v>390</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA89" s="17">
+        <v>12.59078331063581</v>
+      </c>
+      <c r="CB89" s="17">
+        <v>380.53097345132699</v>
+      </c>
+      <c r="CC89" s="12">
+        <v>0.15438891191096299</v>
+      </c>
+      <c r="CD89" s="17">
+        <v>350.090031722454</v>
+      </c>
+      <c r="CE89" s="17">
+        <v>196.88812816650599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>137</v>
       </c>
@@ -8365,11 +7183,32 @@
       <c r="H90" s="5">
         <v>117</v>
       </c>
+      <c r="L90" s="15">
+        <v>24.050220046589541</v>
+      </c>
+      <c r="M90" s="15">
+        <v>889.85814172381299</v>
+      </c>
       <c r="Y90" s="5">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA90" s="17">
+        <v>12.738109528522649</v>
+      </c>
+      <c r="CB90" s="17">
+        <v>373.89380530973398</v>
+      </c>
+      <c r="CC90" s="12">
+        <v>0.14269920672507599</v>
+      </c>
+      <c r="CD90" s="17">
+        <v>350.50625560476101</v>
+      </c>
+      <c r="CE90" s="17">
+        <v>195.648911406271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
         <v>138</v>
       </c>
@@ -8386,11 +7225,32 @@
       <c r="H91" s="5">
         <v>160</v>
       </c>
+      <c r="L91" s="15">
+        <v>33.585620598467294</v>
+      </c>
+      <c r="M91" s="16">
+        <v>1242.66796214329</v>
+      </c>
       <c r="Y91" s="5">
         <v>470</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA91" s="17">
+        <v>15.285597988791784</v>
+      </c>
+      <c r="CB91" s="17">
+        <v>466.66166449735795</v>
+      </c>
+      <c r="CC91" s="12">
+        <v>0.15264317180616702</v>
+      </c>
+      <c r="CD91" s="17">
+        <v>359.34782608695599</v>
+      </c>
+      <c r="CE91" s="17">
+        <v>193.04109589040999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
         <v>139</v>
       </c>
@@ -8407,11 +7267,32 @@
       <c r="H92" s="5">
         <v>148</v>
       </c>
+      <c r="L92" s="15">
+        <v>31.173824693742432</v>
+      </c>
+      <c r="M92" s="15">
+        <v>1153.43151366847</v>
+      </c>
       <c r="Y92" s="5">
         <v>460</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA92" s="17">
+        <v>16.196100356419027</v>
+      </c>
+      <c r="CB92" s="17">
+        <v>459.22058035372402</v>
+      </c>
+      <c r="CC92" s="12">
+        <v>0.15748898678414</v>
+      </c>
+      <c r="CD92" s="17">
+        <v>358.91304347826002</v>
+      </c>
+      <c r="CE92" s="17">
+        <v>192.21917808219101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
         <v>140</v>
       </c>
@@ -8428,11 +7309,32 @@
       <c r="H93" s="5">
         <v>142</v>
       </c>
+      <c r="L93" s="15">
+        <v>33.639112501252164</v>
+      </c>
+      <c r="M93" s="15">
+        <v>1244.64716254633</v>
+      </c>
       <c r="Y93" s="5">
         <v>420</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA93" s="17">
+        <v>16.513326521013973</v>
+      </c>
+      <c r="CB93" s="17">
+        <v>413.86295076946607</v>
+      </c>
+      <c r="CC93" s="12">
+        <v>0.14207048458149699</v>
+      </c>
+      <c r="CD93" s="17">
+        <v>368.04347826086899</v>
+      </c>
+      <c r="CE93" s="17">
+        <v>188.60273972602701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
         <v>141</v>
       </c>
@@ -8449,11 +7351,32 @@
       <c r="H94" s="5">
         <v>132</v>
       </c>
+      <c r="L94" s="15">
+        <v>28.64309035365919</v>
+      </c>
+      <c r="M94" s="15">
+        <v>1059.79434308539</v>
+      </c>
       <c r="Y94" s="5">
         <v>440</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA94" s="17">
+        <v>15.381266373648785</v>
+      </c>
+      <c r="CB94" s="17">
+        <v>439.69037592833598</v>
+      </c>
+      <c r="CC94" s="12">
+        <v>0.17158590308370003</v>
+      </c>
+      <c r="CD94" s="17">
+        <v>356.304347826087</v>
+      </c>
+      <c r="CE94" s="17">
+        <v>189.58904109589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
         <v>142</v>
       </c>
@@ -8470,11 +7393,32 @@
       <c r="H95" s="5">
         <v>122</v>
       </c>
+      <c r="L95" s="15">
+        <v>26.242641216191892</v>
+      </c>
+      <c r="M95" s="15">
+        <v>970.97772499910002</v>
+      </c>
       <c r="Y95" s="5">
         <v>350</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA95" s="17">
+        <v>12.067815946493702</v>
+      </c>
+      <c r="CB95" s="17">
+        <v>361.68624148227502</v>
+      </c>
+      <c r="CC95" s="12">
+        <v>0.16321585903083702</v>
+      </c>
+      <c r="CD95" s="17">
+        <v>357.17391304347802</v>
+      </c>
+      <c r="CE95" s="17">
+        <v>182.52054794520501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
         <v>143</v>
       </c>
@@ -8491,11 +7435,32 @@
       <c r="H96" s="5">
         <v>117</v>
       </c>
+      <c r="L96" s="15">
+        <v>23.243650105897732</v>
+      </c>
+      <c r="M96" s="15">
+        <v>860.01505391821604</v>
+      </c>
       <c r="Y96" s="5">
         <v>340</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA96" s="17">
+        <v>11.995663285061568</v>
+      </c>
+      <c r="CB96" s="17">
+        <v>350.31467728351504</v>
+      </c>
+      <c r="CC96" s="12">
+        <v>0.17246696035242198</v>
+      </c>
+      <c r="CD96" s="17">
+        <v>361.739130434782</v>
+      </c>
+      <c r="CE96" s="17">
+        <v>175.780821917808</v>
+      </c>
+    </row>
+    <row r="97" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
         <v>144</v>
       </c>
@@ -8512,11 +7477,32 @@
       <c r="H97" s="5">
         <v>158</v>
       </c>
+      <c r="L97" s="15">
+        <v>21.773891681112325</v>
+      </c>
+      <c r="M97" s="15">
+        <v>805.63399220115605</v>
+      </c>
       <c r="Y97" s="5">
         <v>380</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA97" s="17">
+        <v>10.193766332205945</v>
+      </c>
+      <c r="CB97" s="17">
+        <v>381.19469026548597</v>
+      </c>
+      <c r="CC97" s="12">
+        <v>0.17811760004735899</v>
+      </c>
+      <c r="CD97" s="17">
+        <v>337.48922503189999</v>
+      </c>
+      <c r="CE97" s="17">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
         <v>145</v>
       </c>
@@ -8533,11 +7519,32 @@
       <c r="H98" s="5">
         <v>148</v>
       </c>
+      <c r="L98" s="15">
+        <v>25.30240506743127</v>
+      </c>
+      <c r="M98" s="15">
+        <v>936.18898749495702</v>
+      </c>
       <c r="Y98" s="5">
         <v>410</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA98" s="17">
+        <v>12.824822763647864</v>
+      </c>
+      <c r="CB98" s="17">
+        <v>419.69026548672497</v>
+      </c>
+      <c r="CC98" s="12">
+        <v>0.174627042386928</v>
+      </c>
+      <c r="CD98" s="17">
+        <v>333.97992359747599</v>
+      </c>
+      <c r="CE98" s="17">
+        <v>216.29411764705799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6" t="s">
         <v>146</v>
       </c>
@@ -8554,11 +7561,32 @@
       <c r="H99" s="5">
         <v>128</v>
       </c>
+      <c r="L99" s="15">
+        <v>23.516911425342219</v>
+      </c>
+      <c r="M99" s="15">
+        <v>870.12572273766204</v>
+      </c>
       <c r="Y99" s="5">
         <v>450</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA99" s="17">
+        <v>11.357923869446513</v>
+      </c>
+      <c r="CB99" s="17">
+        <v>445.57522123893801</v>
+      </c>
+      <c r="CC99" s="12">
+        <v>0.184206281079801</v>
+      </c>
+      <c r="CD99" s="17">
+        <v>339.992889113628</v>
+      </c>
+      <c r="CE99" s="17">
+        <v>211.17647058823499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
         <v>147</v>
       </c>
@@ -8575,11 +7603,32 @@
       <c r="H100" s="5">
         <v>126</v>
       </c>
+      <c r="L100" s="15">
+        <v>22.165242087589782</v>
+      </c>
+      <c r="M100" s="15">
+        <v>820.11395724082195</v>
+      </c>
       <c r="Y100" s="5">
         <v>430</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA100" s="17">
+        <v>13.418226021930028</v>
+      </c>
+      <c r="CB100" s="17">
+        <v>436.94690265486702</v>
+      </c>
+      <c r="CC100" s="12">
+        <v>0.19822623135211898</v>
+      </c>
+      <c r="CD100" s="17">
+        <v>342.351175073972</v>
+      </c>
+      <c r="CE100" s="17">
+        <v>207.64705882352899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>148</v>
       </c>
@@ -8596,11 +7645,32 @@
       <c r="H101" s="5">
         <v>115</v>
       </c>
+      <c r="L101" s="15">
+        <v>21.603541823388515</v>
+      </c>
+      <c r="M101" s="15">
+        <v>799.33104746537504</v>
+      </c>
       <c r="Y101" s="5">
         <v>410</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA101" s="17">
+        <v>13.439904330711324</v>
+      </c>
+      <c r="CB101" s="17">
+        <v>406.41592920353895</v>
+      </c>
+      <c r="CC101" s="12">
+        <v>0.18594230996921599</v>
+      </c>
+      <c r="CD101" s="17">
+        <v>349.439622648963</v>
+      </c>
+      <c r="CE101" s="17">
+        <v>195.117647058823</v>
+      </c>
+    </row>
+    <row r="102" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
         <v>149</v>
       </c>
@@ -8617,11 +7687,32 @@
       <c r="H102" s="5">
         <v>113</v>
       </c>
+      <c r="L102" s="15">
+        <v>20.093787817668378</v>
+      </c>
+      <c r="M102" s="15">
+        <v>743.47014925373003</v>
+      </c>
       <c r="Y102" s="5">
         <v>390</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA102" s="17">
+        <v>11.889096360729621</v>
+      </c>
+      <c r="CB102" s="17">
+        <v>393.805309734513</v>
+      </c>
+      <c r="CC102" s="12">
+        <v>0.18638852711342602</v>
+      </c>
+      <c r="CD102" s="17">
+        <v>347.68813232569403</v>
+      </c>
+      <c r="CE102" s="17">
+        <v>195.82352941176401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
         <v>150</v>
       </c>
@@ -8638,11 +7729,32 @@
       <c r="H103" s="5">
         <v>157</v>
       </c>
+      <c r="L103" s="15">
+        <v>43.197142948843243</v>
+      </c>
+      <c r="M103" s="15">
+        <v>1598.2942891072</v>
+      </c>
       <c r="Y103" s="5">
         <v>430</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA103" s="17">
+        <v>12.714734442318459</v>
+      </c>
+      <c r="CB103" s="17">
+        <v>428.74603782252495</v>
+      </c>
+      <c r="CC103" s="12">
+        <v>0.11211453744493299</v>
+      </c>
+      <c r="CD103" s="17">
+        <v>359.34782608695599</v>
+      </c>
+      <c r="CE103" s="18">
+        <v>187.45205479452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
         <v>151</v>
       </c>
@@ -8659,11 +7771,32 @@
       <c r="H104" s="5">
         <v>144</v>
       </c>
+      <c r="L104" s="15">
+        <v>49.82304716462108</v>
+      </c>
+      <c r="M104" s="15">
+        <v>1843.45274509098</v>
+      </c>
       <c r="Y104" s="5">
         <v>410</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA104" s="17">
+        <v>15.734663309616137</v>
+      </c>
+      <c r="CB104" s="17">
+        <v>417.97902151443196</v>
+      </c>
+      <c r="CC104" s="12">
+        <v>9.0969162995594599E-2</v>
+      </c>
+      <c r="CD104" s="17">
+        <v>353.47826086956502</v>
+      </c>
+      <c r="CE104" s="17">
+        <v>188.76712328767101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>152</v>
       </c>
@@ -8680,11 +7813,32 @@
       <c r="H105" s="5">
         <v>133</v>
       </c>
+      <c r="L105" s="15">
+        <v>40.668434817198644</v>
+      </c>
+      <c r="M105" s="15">
+        <v>1504.7320882363499</v>
+      </c>
       <c r="Y105" s="5">
         <v>450</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA105" s="17">
+        <v>12.558151834131973</v>
+      </c>
+      <c r="CB105" s="17">
+        <v>455.10450960875801</v>
+      </c>
+      <c r="CC105" s="12">
+        <v>0.116519823788546</v>
+      </c>
+      <c r="CD105" s="17">
+        <v>355.65217391304299</v>
+      </c>
+      <c r="CE105" s="17">
+        <v>186.95890410958901</v>
+      </c>
+    </row>
+    <row r="106" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
         <v>153</v>
       </c>
@@ -8701,11 +7855,32 @@
       <c r="H106" s="5">
         <v>124</v>
       </c>
+      <c r="L106" s="15">
+        <v>40.406446066059459</v>
+      </c>
+      <c r="M106" s="15">
+        <v>1495.0385044442</v>
+      </c>
       <c r="Y106" s="5">
         <v>440</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA106" s="17">
+        <v>17.622532029548594</v>
+      </c>
+      <c r="CB106" s="17">
+        <v>447.00742669014602</v>
+      </c>
+      <c r="CC106" s="12">
+        <v>0.11343612334801699</v>
+      </c>
+      <c r="CD106" s="17">
+        <v>349.34782608695599</v>
+      </c>
+      <c r="CE106" s="17">
+        <v>190.08219178082101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>154</v>
       </c>
@@ -8722,11 +7897,32 @@
       <c r="H107" s="5">
         <v>112</v>
       </c>
+      <c r="L107" s="15">
+        <v>32.411230187328378</v>
+      </c>
+      <c r="M107" s="15">
+        <v>1199.21551693115</v>
+      </c>
       <c r="Y107" s="5">
         <v>360</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA107" s="17">
+        <v>12.792931305755406</v>
+      </c>
+      <c r="CB107" s="17">
+        <v>370.99885154276001</v>
+      </c>
+      <c r="CC107" s="12">
+        <v>0.11563876651982299</v>
+      </c>
+      <c r="CD107" s="17">
+        <v>351.304347826087</v>
+      </c>
+      <c r="CE107" s="17">
+        <v>183.671232876712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
         <v>155</v>
       </c>
@@ -8743,11 +7939,32 @@
       <c r="H108" s="5">
         <v>110</v>
       </c>
+      <c r="L108" s="15">
+        <v>27.260203094165945</v>
+      </c>
+      <c r="M108" s="15">
+        <v>1008.62751448414</v>
+      </c>
       <c r="Y108" s="5">
         <v>340</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA108" s="17">
+        <v>12.523019909979162</v>
+      </c>
+      <c r="CB108" s="17">
+        <v>344.994104586172</v>
+      </c>
+      <c r="CC108" s="12">
+        <v>0.12224669603524201</v>
+      </c>
+      <c r="CD108" s="17">
+        <v>354.34782608695599</v>
+      </c>
+      <c r="CE108" s="17">
+        <v>181.698630136986</v>
+      </c>
+    </row>
+    <row r="109" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
         <v>156</v>
       </c>
@@ -8764,11 +7981,32 @@
       <c r="H109" s="5">
         <v>154</v>
       </c>
+      <c r="L109" s="15">
+        <v>27.556474384832434</v>
+      </c>
+      <c r="M109" s="15">
+        <v>1019.5895522388</v>
+      </c>
       <c r="Y109" s="5">
         <v>370</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA109" s="17">
+        <v>8.2128434596380533</v>
+      </c>
+      <c r="CB109" s="17">
+        <v>370.57522123893796</v>
+      </c>
+      <c r="CC109" s="12">
+        <v>0.124719541794932</v>
+      </c>
+      <c r="CD109" s="17">
+        <v>332.06883338007998</v>
+      </c>
+      <c r="CE109" s="17">
+        <v>214.70588235294099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
         <v>157</v>
       </c>
@@ -8785,11 +8023,32 @@
       <c r="H110" s="5">
         <v>140</v>
       </c>
+      <c r="L110" s="15">
+        <v>28.497941265185943</v>
+      </c>
+      <c r="M110" s="15">
+        <v>1054.42382681188</v>
+      </c>
       <c r="Y110" s="5">
         <v>380</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA110" s="17">
+        <v>7.8014948542058109</v>
+      </c>
+      <c r="CB110" s="17">
+        <v>393.805309734513</v>
+      </c>
+      <c r="CC110" s="12">
+        <v>0.128510537532559</v>
+      </c>
+      <c r="CD110" s="17">
+        <v>325.958211691087</v>
+      </c>
+      <c r="CE110" s="17">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
         <v>158</v>
       </c>
@@ -8806,11 +8065,32 @@
       <c r="H111" s="5">
         <v>123</v>
       </c>
+      <c r="L111" s="15">
+        <v>31.430003016328108</v>
+      </c>
+      <c r="M111" s="15">
+        <v>1162.91011160414</v>
+      </c>
       <c r="Y111" s="5">
         <v>440</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA111" s="17">
+        <v>10.792022943200324</v>
+      </c>
+      <c r="CB111" s="17">
+        <v>436.94690265486702</v>
+      </c>
+      <c r="CC111" s="12">
+        <v>0.128867215249822</v>
+      </c>
+      <c r="CD111" s="17">
+        <v>330.01994998676503</v>
+      </c>
+      <c r="CE111" s="17">
+        <v>215.058823529411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
         <v>159</v>
       </c>
@@ -8827,11 +8107,32 @@
       <c r="H112" s="5">
         <v>119</v>
       </c>
+      <c r="L112" s="15">
+        <v>30.383146357329458</v>
+      </c>
+      <c r="M112" s="15">
+        <v>1124.1764152211899</v>
+      </c>
       <c r="Y112" s="5">
         <v>400</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA112" s="17">
+        <v>12.498353904538405</v>
+      </c>
+      <c r="CB112" s="17">
+        <v>418.36283185840699</v>
+      </c>
+      <c r="CC112" s="12">
+        <v>0.13366312455600199</v>
+      </c>
+      <c r="CD112" s="17">
+        <v>334.11297618248102</v>
+      </c>
+      <c r="CE112" s="17">
+        <v>212.23529411764699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>160</v>
       </c>
@@ -8848,11 +8149,32 @@
       <c r="H113" s="5">
         <v>109</v>
       </c>
+      <c r="L113" s="15">
+        <v>27.081766114642161</v>
+      </c>
+      <c r="M113" s="15">
+        <v>1002.02534624176</v>
+      </c>
       <c r="Y113" s="5">
         <v>380</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA113" s="17">
+        <v>12.873895552182621</v>
+      </c>
+      <c r="CB113" s="17">
+        <v>383.84955752212301</v>
+      </c>
+      <c r="CC113" s="12">
+        <v>0.14225298958086602</v>
+      </c>
+      <c r="CD113" s="17">
+        <v>337.298653277131</v>
+      </c>
+      <c r="CE113" s="17">
+        <v>205.17647058823499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>161</v>
       </c>
@@ -8869,11 +8191,32 @@
       <c r="H114" s="5">
         <v>103</v>
       </c>
+      <c r="L114" s="15">
+        <v>26.18095606699881</v>
+      </c>
+      <c r="M114" s="15">
+        <v>968.69537447895596</v>
+      </c>
       <c r="Y114" s="5">
         <v>390</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="CA114" s="17">
+        <v>11.18147753528627</v>
+      </c>
+      <c r="CB114" s="17">
+        <v>384.51327433628302</v>
+      </c>
+      <c r="CC114" s="12">
+        <v>0.13833027468624101</v>
+      </c>
+      <c r="CD114" s="17">
+        <v>338.36528623292799</v>
+      </c>
+      <c r="CE114" s="17">
+        <v>204.64705882352899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8" t="s">
         <v>180</v>
       </c>
@@ -8888,7 +8231,7 @@
         <v>32.240616594781997</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8" t="s">
         <v>180</v>
       </c>
@@ -8903,7 +8246,7 @@
         <v>117.06593564716199</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8" t="s">
         <v>180</v>
       </c>
@@ -8918,7 +8261,7 @@
         <v>193.846596590133</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8" t="s">
         <v>180</v>
       </c>
@@ -8933,7 +8276,7 @@
         <v>286.477492002936</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8" t="s">
         <v>180</v>
       </c>
@@ -8948,7 +8291,7 @@
         <v>392.32872264672301</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8" t="s">
         <v>180</v>
       </c>
@@ -8966,7 +8309,7 @@
         <v>495.514634533292</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8" t="s">
         <v>180</v>
       </c>
@@ -8984,7 +8327,7 @@
         <v>712.49903149754402</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8" t="s">
         <v>180</v>
       </c>
@@ -9002,7 +8345,7 @@
         <v>802.619568545991</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8" t="s">
         <v>180</v>
       </c>
@@ -9020,7 +8363,7 @@
         <v>903.33496902636898</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8" t="s">
         <v>180</v>
       </c>
@@ -9038,7 +8381,7 @@
         <v>760.84224663053305</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8" t="s">
         <v>180</v>
       </c>
@@ -9066,7 +8409,7 @@
         <v>713.526197530226</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8" t="s">
         <v>177</v>
       </c>
@@ -9078,7 +8421,7 @@
         <v>106.506491733601</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8" t="s">
         <v>177</v>
       </c>
@@ -9093,7 +8436,7 @@
         <v>207.106778779281</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:83" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8" t="s">
         <v>177</v>
       </c>
@@ -12556,7 +11899,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266756FD-8635-40FE-AD01-4DC3349E0803}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DCB818-5AF9-4829-8389-B61E1D629DA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="309">
   <si>
     <t>SimulationName</t>
   </si>
@@ -927,15 +927,49 @@
   <si>
     <t>seeds_m2</t>
   </si>
+  <si>
+    <t>Murumbidgee2003SowDec09CvDjakal_furrow</t>
+  </si>
+  <si>
+    <t>Katherine1988WaterIrrigated</t>
+  </si>
+  <si>
+    <t>Katherine1988WaterRainfed</t>
+  </si>
+  <si>
+    <t>Katherine1989SowJan10</t>
+  </si>
+  <si>
+    <t>Katherine1989SowFeb07</t>
+  </si>
+  <si>
+    <t>Kununurra1980WaterWet</t>
+  </si>
+  <si>
+    <t>Kununurra1980WaterWetDry</t>
+  </si>
+  <si>
+    <t>Kununurra1980WaterDry</t>
+  </si>
+  <si>
+    <t>Kununurra1979WaterWet</t>
+  </si>
+  <si>
+    <t>Kununurra1979WaterDry</t>
+  </si>
+  <si>
+    <t>Kununurra1979WaterWetDry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +990,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1001,10 +1051,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1030,9 +1081,13 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_obs" xfId="1" xr:uid="{38A366B4-CF13-4E66-BB52-25551BEBB11D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1368,14 +1423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
-  <dimension ref="A1:CH249"/>
+  <dimension ref="A1:CH261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E242" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="43.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.26171875" customWidth="1"/>
     <col min="4" max="4" width="31.9453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.9453125" customWidth="1"/>
@@ -11416,7 +11473,7 @@
       </c>
       <c r="Z224" s="11"/>
     </row>
-    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:39" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -11456,7 +11513,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -11496,7 +11553,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -11527,7 +11584,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -11567,7 +11624,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -11619,7 +11676,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -11671,7 +11728,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -11723,7 +11780,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>228</v>
       </c>
@@ -11763,7 +11820,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>228</v>
       </c>
@@ -11794,7 +11851,7 @@
         <v>751.68999999999994</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>228</v>
       </c>
@@ -11829,7 +11886,7 @@
         <v>709.66000000000008</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>228</v>
       </c>
@@ -11841,61 +11898,589 @@
         <v>365.9</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B236" s="4"/>
-      <c r="C236" s="12"/>
-    </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B237" s="4"/>
-      <c r="C237" s="12"/>
-    </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B238" s="4"/>
-      <c r="C238" s="12"/>
-    </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B239" s="4"/>
-      <c r="C239" s="12"/>
-    </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B240" s="4"/>
-      <c r="C240" s="12"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B241" s="4"/>
-      <c r="C241" s="12"/>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B242" s="4"/>
-      <c r="C242" s="12"/>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B243" s="4"/>
-      <c r="C243" s="12"/>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B244" s="4"/>
-      <c r="C244" s="12"/>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B245" s="4"/>
-      <c r="C245" s="12"/>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B246" s="4"/>
-      <c r="C246" s="12"/>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B247" s="4"/>
-      <c r="C247" s="12"/>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B248" s="4"/>
-      <c r="C248" s="12"/>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B249" s="4"/>
-      <c r="C249" s="12"/>
+    <row r="236" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B236" s="4">
+        <f>DATE(1988,1,5)+C236</f>
+        <v>32169.434782608696</v>
+      </c>
+      <c r="C236" s="15">
+        <v>22.434782608695599</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="17">
+        <v>51.3374903903647</v>
+      </c>
+      <c r="AM236" s="17">
+        <v>1.7214661406969001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B237" s="4">
+        <f t="shared" ref="B237:B249" si="14">DATE(1988,1,5)+C237</f>
+        <v>32179.521739130436</v>
+      </c>
+      <c r="C237" s="15">
+        <v>32.521739130434703</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237" s="17">
+        <v>159.547621081404</v>
+      </c>
+      <c r="AM237" s="17">
+        <v>4.9395792241945902</v>
+      </c>
+    </row>
+    <row r="238" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B238" s="4">
+        <f t="shared" si="14"/>
+        <v>32190.478260869564</v>
+      </c>
+      <c r="C238" s="15">
+        <v>43.478260869565197</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238" s="17">
+        <v>331.39147518578602</v>
+      </c>
+      <c r="AM238" s="17">
+        <v>8.4912393162393105</v>
+      </c>
+    </row>
+    <row r="239" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B239" s="4">
+        <f t="shared" si="14"/>
+        <v>32200.391304347824</v>
+      </c>
+      <c r="C239" s="15">
+        <v>53.391304347826001</v>
+      </c>
+      <c r="Y239" s="17">
+        <v>5.8098573503032096</v>
+      </c>
+      <c r="Z239" s="17">
+        <v>536.26582386606299</v>
+      </c>
+      <c r="AM239" s="17">
+        <v>10.3629684418145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B240" s="4">
+        <f t="shared" si="14"/>
+        <v>32212.391304347828</v>
+      </c>
+      <c r="C240" s="15">
+        <v>65.391304347826093</v>
+      </c>
+      <c r="Y240" s="17">
+        <v>71.542837618518604</v>
+      </c>
+      <c r="Z240" s="17">
+        <v>854.25403604680901</v>
+      </c>
+      <c r="AM240" s="17">
+        <v>17.480785667324099</v>
+      </c>
+    </row>
+    <row r="241" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B241" s="4">
+        <f t="shared" si="14"/>
+        <v>32227.521739130436</v>
+      </c>
+      <c r="C241" s="15">
+        <v>80.521739130434796</v>
+      </c>
+      <c r="Y241" s="17">
+        <v>285.72443837020501</v>
+      </c>
+      <c r="Z241" s="17">
+        <v>863.327581788673</v>
+      </c>
+      <c r="AM241" s="17">
+        <v>21.431229454306301</v>
+      </c>
+    </row>
+    <row r="242" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B242" s="4">
+        <f t="shared" si="14"/>
+        <v>32237.434782608696</v>
+      </c>
+      <c r="C242" s="15">
+        <v>90.434782608695599</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y242" s="17">
+        <v>476.35910139232902</v>
+      </c>
+      <c r="Z242" s="17">
+        <v>1084.7048774237601</v>
+      </c>
+    </row>
+    <row r="243" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B243" s="4">
+        <f t="shared" si="14"/>
+        <v>32169.434782608696</v>
+      </c>
+      <c r="C243" s="15">
+        <v>22.434782608695599</v>
+      </c>
+      <c r="Y243" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="17">
+        <v>37.192107286238901</v>
+      </c>
+      <c r="AM243" s="17">
+        <v>1.5195430637738201</v>
+      </c>
+    </row>
+    <row r="244" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B244" s="4">
+        <f t="shared" si="14"/>
+        <v>32179.521739130436</v>
+      </c>
+      <c r="C244" s="15">
+        <v>32.521739130434703</v>
+      </c>
+      <c r="Y244" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z244" s="17">
+        <v>140.687110275903</v>
+      </c>
+      <c r="AM244" s="17">
+        <v>3.45834976988822</v>
+      </c>
+    </row>
+    <row r="245" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B245" s="4">
+        <f t="shared" si="14"/>
+        <v>32190.652173913044</v>
+      </c>
+      <c r="C245" s="15">
+        <v>43.652173913043399</v>
+      </c>
+      <c r="Y245" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z245" s="17">
+        <v>279.52097035961299</v>
+      </c>
+    </row>
+    <row r="246" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B246" s="4">
+        <f t="shared" si="14"/>
+        <v>32200.391304347824</v>
+      </c>
+      <c r="C246" s="15">
+        <v>53.391304347826001</v>
+      </c>
+      <c r="T246" s="17"/>
+      <c r="U246" s="17"/>
+      <c r="Y246" s="17">
+        <v>3.4604937217049998</v>
+      </c>
+      <c r="Z246" s="17">
+        <v>418.38763133168101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B247" s="4">
+        <f t="shared" si="14"/>
+        <v>32212.391304347828</v>
+      </c>
+      <c r="C247" s="15">
+        <v>65.391304347826093</v>
+      </c>
+      <c r="T247" s="17"/>
+      <c r="U247" s="17"/>
+      <c r="Y247" s="17">
+        <v>26.745024344409298</v>
+      </c>
+      <c r="Z247" s="17">
+        <v>618.49765097804698</v>
+      </c>
+    </row>
+    <row r="248" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B248" s="4">
+        <f t="shared" si="14"/>
+        <v>32227.347826086956</v>
+      </c>
+      <c r="C248" s="15">
+        <v>80.347826086956502</v>
+      </c>
+      <c r="T248" s="17"/>
+      <c r="U248" s="17"/>
+      <c r="Y248" s="17">
+        <v>115.988041342786</v>
+      </c>
+      <c r="Z248" s="17">
+        <v>507.33954044588597</v>
+      </c>
+      <c r="AM248" s="17">
+        <v>8.8398586456278707</v>
+      </c>
+    </row>
+    <row r="249" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B249" s="4">
+        <f t="shared" si="14"/>
+        <v>32231.17391304348</v>
+      </c>
+      <c r="C249" s="15">
+        <v>84.173913043478194</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T249" s="17"/>
+      <c r="U249" s="17"/>
+      <c r="Y249" s="17">
+        <v>111.174510976338</v>
+      </c>
+      <c r="Z249" s="17">
+        <v>438.87998633296297</v>
+      </c>
+    </row>
+    <row r="250" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B250" s="4"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T250" s="17"/>
+      <c r="U250" s="17"/>
+      <c r="Y250" s="19">
+        <v>309.87744905589255</v>
+      </c>
+      <c r="Z250" s="19">
+        <v>556.15939553762939</v>
+      </c>
+    </row>
+    <row r="251" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B251" s="4"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T251" s="17"/>
+      <c r="U251" s="17"/>
+      <c r="Y251" s="19">
+        <v>326.21240395819899</v>
+      </c>
+      <c r="Z251" s="19">
+        <v>655.85501195381346</v>
+      </c>
+    </row>
+    <row r="252" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B252" s="4"/>
+      <c r="C252" s="15">
+        <v>31</v>
+      </c>
+      <c r="G252" s="17">
+        <v>44</v>
+      </c>
+      <c r="H252" s="15">
+        <v>127</v>
+      </c>
+      <c r="T252" s="15">
+        <v>1710.9930320916199</v>
+      </c>
+      <c r="U252" s="15">
+        <v>1531.56588669085</v>
+      </c>
+      <c r="Y252" s="17">
+        <v>368</v>
+      </c>
+      <c r="Z252">
+        <f>6.9*100</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="253" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B253" s="4"/>
+      <c r="C253" s="15">
+        <v>57</v>
+      </c>
+      <c r="G253" s="17">
+        <v>44</v>
+      </c>
+      <c r="H253" s="15">
+        <v>127</v>
+      </c>
+      <c r="T253" s="15">
+        <v>11842.443955304399</v>
+      </c>
+      <c r="U253" s="15">
+        <v>12200.7935283973</v>
+      </c>
+      <c r="Y253" s="17">
+        <v>368</v>
+      </c>
+      <c r="Z253">
+        <f t="shared" ref="Z253:Z255" si="15">6.9*100</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="254" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B254" s="4"/>
+      <c r="C254" s="15">
+        <v>71</v>
+      </c>
+      <c r="G254" s="17">
+        <v>44</v>
+      </c>
+      <c r="H254" s="15">
+        <v>127</v>
+      </c>
+      <c r="T254" s="15">
+        <v>17889.971539529197</v>
+      </c>
+      <c r="U254" s="15">
+        <v>25763.063075693597</v>
+      </c>
+      <c r="Y254" s="17">
+        <v>368</v>
+      </c>
+      <c r="Z254">
+        <f t="shared" si="15"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="255" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B255" s="4"/>
+      <c r="C255" s="15">
+        <v>128</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G255" s="17">
+        <v>44</v>
+      </c>
+      <c r="H255" s="15">
+        <v>127</v>
+      </c>
+      <c r="T255" s="15">
+        <v>13451.484010262498</v>
+      </c>
+      <c r="U255" s="15">
+        <v>12736.803734911</v>
+      </c>
+      <c r="Y255" s="17">
+        <v>368</v>
+      </c>
+      <c r="Z255">
+        <f t="shared" si="15"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="256" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B256" s="4">
+        <f>DATE(1980,4,1)+C256</f>
+        <v>29393</v>
+      </c>
+      <c r="C256" s="15">
+        <v>81</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G256" s="17">
+        <v>25</v>
+      </c>
+      <c r="H256" s="15">
+        <v>81</v>
+      </c>
+      <c r="Y256" s="19">
+        <v>280</v>
+      </c>
+      <c r="Z256" s="20">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B257" s="4">
+        <f t="shared" ref="B257:B259" si="16">DATE(1980,4,1)+C257</f>
+        <v>29393</v>
+      </c>
+      <c r="C257" s="15">
+        <v>81</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G257" s="17"/>
+      <c r="H257" s="15"/>
+      <c r="Y257" s="19">
+        <v>64</v>
+      </c>
+      <c r="Z257" s="19">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B258" s="4">
+        <f t="shared" si="16"/>
+        <v>29393</v>
+      </c>
+      <c r="C258" s="15">
+        <v>81</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G258" s="17"/>
+      <c r="H258" s="15"/>
+      <c r="Y258" s="19">
+        <v>120</v>
+      </c>
+      <c r="Z258" s="20">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B259" s="4">
+        <f>DATE(1979,4,10)+C259</f>
+        <v>29042</v>
+      </c>
+      <c r="C259" s="15">
+        <v>87</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H259" s="15">
+        <v>87</v>
+      </c>
+      <c r="Y259" s="19">
+        <v>111</v>
+      </c>
+      <c r="Z259" s="19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B260" s="4">
+        <f t="shared" ref="B260:B261" si="17">DATE(1979,4,10)+C260</f>
+        <v>29042</v>
+      </c>
+      <c r="C260" s="15">
+        <v>87</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y260" s="19">
+        <v>33</v>
+      </c>
+      <c r="Z260" s="19">
+        <v>61</v>
+      </c>
+      <c r="AA260" s="21"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B261" s="4">
+        <f t="shared" si="17"/>
+        <v>29042</v>
+      </c>
+      <c r="C261" s="15">
+        <v>87</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y261" s="19">
+        <v>77</v>
+      </c>
+      <c r="Z261" s="19">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DCB818-5AF9-4829-8389-B61E1D629DA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352887E9-FBAE-4C56-AE17-C1F94D65FC74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="138" windowWidth="15420" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,9 +928,6 @@
     <t>seeds_m2</t>
   </si>
   <si>
-    <t>Murumbidgee2003SowDec09CvDjakal_furrow</t>
-  </si>
-  <si>
     <t>Katherine1988WaterIrrigated</t>
   </si>
   <si>
@@ -959,6 +956,9 @@
   </si>
   <si>
     <t>Kununurra1979WaterWetDry</t>
+  </si>
+  <si>
+    <t>ColeamballySowDec09</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1084,6 +1084,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,8 +1427,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61A777-7FB3-4D85-8052-DDB9477BDE84}">
   <dimension ref="A1:CH261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E242" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8364" ySplit="576" topLeftCell="AA244" activePane="bottomRight"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+      <selection pane="bottomRight" activeCell="AC252" sqref="AB252:AC262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11900,7 +11906,7 @@
     </row>
     <row r="236" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B236" s="4">
         <f>DATE(1988,1,5)+C236</f>
@@ -11921,7 +11927,7 @@
     </row>
     <row r="237" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B237" s="4">
         <f t="shared" ref="B237:B249" si="14">DATE(1988,1,5)+C237</f>
@@ -11942,7 +11948,7 @@
     </row>
     <row r="238" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B238" s="4">
         <f t="shared" si="14"/>
@@ -11963,7 +11969,7 @@
     </row>
     <row r="239" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B239" s="4">
         <f t="shared" si="14"/>
@@ -11984,7 +11990,7 @@
     </row>
     <row r="240" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B240" s="4">
         <f t="shared" si="14"/>
@@ -12005,7 +12011,7 @@
     </row>
     <row r="241" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B241" s="4">
         <f t="shared" si="14"/>
@@ -12026,7 +12032,7 @@
     </row>
     <row r="242" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B242" s="4">
         <f t="shared" si="14"/>
@@ -12047,7 +12053,7 @@
     </row>
     <row r="243" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B243" s="4">
         <f t="shared" si="14"/>
@@ -12068,7 +12074,7 @@
     </row>
     <row r="244" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B244" s="4">
         <f t="shared" si="14"/>
@@ -12089,7 +12095,7 @@
     </row>
     <row r="245" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B245" s="4">
         <f t="shared" si="14"/>
@@ -12107,7 +12113,7 @@
     </row>
     <row r="246" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B246" s="4">
         <f t="shared" si="14"/>
@@ -12127,7 +12133,7 @@
     </row>
     <row r="247" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B247" s="4">
         <f t="shared" si="14"/>
@@ -12147,7 +12153,7 @@
     </row>
     <row r="248" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B248" s="4">
         <f t="shared" si="14"/>
@@ -12170,7 +12176,7 @@
     </row>
     <row r="249" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B249" s="4">
         <f t="shared" si="14"/>
@@ -12193,7 +12199,7 @@
     </row>
     <row r="250" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="15"/>
@@ -12211,7 +12217,7 @@
     </row>
     <row r="251" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="15"/>
@@ -12227,124 +12233,112 @@
         <v>655.85501195381346</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="15">
+    <row r="252" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B252" s="10">
+        <f>DATE(2003,12,9)+C252</f>
+        <v>37995</v>
+      </c>
+      <c r="C252" s="22">
         <v>31</v>
       </c>
-      <c r="G252" s="17">
+      <c r="G252" s="23"/>
+      <c r="H252" s="22"/>
+      <c r="T252">
+        <v>20.487820204008901</v>
+      </c>
+      <c r="U252">
+        <v>10.4591248978906</v>
+      </c>
+      <c r="Y252" s="23"/>
+      <c r="Z252" s="9">
+        <v>42.530842217707303</v>
+      </c>
+    </row>
+    <row r="253" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B253" s="10">
+        <f t="shared" ref="B253:B255" si="15">DATE(2003,12,9)+C253</f>
+        <v>38021</v>
+      </c>
+      <c r="C253" s="22">
+        <v>57</v>
+      </c>
+      <c r="G253" s="23"/>
+      <c r="H253" s="22"/>
+      <c r="T253">
+        <v>115.0755084515</v>
+      </c>
+      <c r="U253">
+        <v>123.07772867226601</v>
+      </c>
+      <c r="Y253" s="23"/>
+      <c r="Z253" s="9">
+        <v>239.33770395660099</v>
+      </c>
+    </row>
+    <row r="254" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B254" s="10">
+        <f t="shared" si="15"/>
+        <v>38035</v>
+      </c>
+      <c r="C254" s="22">
+        <v>71</v>
+      </c>
+      <c r="G254" s="23"/>
+      <c r="H254" s="22"/>
+      <c r="T254">
+        <v>183.419558888213</v>
+      </c>
+      <c r="U254">
+        <v>259.58988752277799</v>
+      </c>
+      <c r="Y254" s="23"/>
+      <c r="Z254" s="9">
+        <v>441.99777977923401</v>
+      </c>
+    </row>
+    <row r="255" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B255" s="10">
+        <f t="shared" si="15"/>
+        <v>38092</v>
+      </c>
+      <c r="C255" s="22">
+        <v>128</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G255" s="23">
         <v>44</v>
       </c>
-      <c r="H252" s="15">
+      <c r="H255" s="22">
         <v>127</v>
       </c>
-      <c r="T252" s="15">
-        <v>1710.9930320916199</v>
-      </c>
-      <c r="U252" s="15">
-        <v>1531.56588669085</v>
-      </c>
-      <c r="Y252" s="17">
+      <c r="T255" s="22"/>
+      <c r="U255">
+        <v>130.10912594516401</v>
+      </c>
+      <c r="Y255" s="23">
         <v>368</v>
       </c>
-      <c r="Z252">
-        <f>6.9*100</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A253" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B253" s="4"/>
-      <c r="C253" s="15">
-        <v>57</v>
-      </c>
-      <c r="G253" s="17">
-        <v>44</v>
-      </c>
-      <c r="H253" s="15">
-        <v>127</v>
-      </c>
-      <c r="T253" s="15">
-        <v>11842.443955304399</v>
-      </c>
-      <c r="U253" s="15">
-        <v>12200.7935283973</v>
-      </c>
-      <c r="Y253" s="17">
-        <v>368</v>
-      </c>
-      <c r="Z253">
-        <f t="shared" ref="Z253:Z255" si="15">6.9*100</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="15">
-        <v>71</v>
-      </c>
-      <c r="G254" s="17">
-        <v>44</v>
-      </c>
-      <c r="H254" s="15">
-        <v>127</v>
-      </c>
-      <c r="T254" s="15">
-        <v>17889.971539529197</v>
-      </c>
-      <c r="U254" s="15">
-        <v>25763.063075693597</v>
-      </c>
-      <c r="Y254" s="17">
-        <v>368</v>
-      </c>
-      <c r="Z254">
-        <f t="shared" si="15"/>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="15">
-        <v>128</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G255" s="17">
-        <v>44</v>
-      </c>
-      <c r="H255" s="15">
-        <v>127</v>
-      </c>
-      <c r="T255" s="15">
-        <v>13451.484010262498</v>
-      </c>
-      <c r="U255" s="15">
-        <v>12736.803734911</v>
-      </c>
-      <c r="Y255" s="17">
-        <v>368</v>
-      </c>
-      <c r="Z255">
-        <f t="shared" si="15"/>
-        <v>690</v>
+      <c r="Z255" s="9">
+        <v>693.36866137444201</v>
       </c>
     </row>
     <row r="256" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B256" s="4">
         <f>DATE(1980,4,1)+C256</f>
@@ -12371,10 +12365,10 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B257" s="4">
-        <f t="shared" ref="B257:B259" si="16">DATE(1980,4,1)+C257</f>
+        <f t="shared" ref="B257:B258" si="16">DATE(1980,4,1)+C257</f>
         <v>29393</v>
       </c>
       <c r="C257" s="15">
@@ -12394,7 +12388,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B258" s="4">
         <f t="shared" si="16"/>
@@ -12417,7 +12411,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B259" s="4">
         <f>DATE(1979,4,10)+C259</f>
@@ -12441,7 +12435,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B260" s="4">
         <f t="shared" ref="B260:B261" si="17">DATE(1979,4,10)+C260</f>
@@ -12463,7 +12457,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B261" s="4">
         <f t="shared" si="17"/>

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
-    <sheet name="ObservedET" sheetId="15" r:id="rId2"/>
-    <sheet name="ObservedSW" sheetId="16" r:id="rId3"/>
-    <sheet name="FACTS2017N" sheetId="22" r:id="rId4"/>
-    <sheet name="ObservedST" sheetId="17" r:id="rId5"/>
-    <sheet name="ObservedLeafSize" sheetId="21" r:id="rId6"/>
-    <sheet name="FACTS2015" sheetId="20" r:id="rId7"/>
-    <sheet name="GattonDalby" sheetId="19" r:id="rId8"/>
-    <sheet name="Griffith" sheetId="18" r:id="rId9"/>
-    <sheet name="ObservedOLD" sheetId="13" r:id="rId10"/>
-    <sheet name="Temp" sheetId="23" r:id="rId11"/>
+    <sheet name="FixationData" sheetId="24" r:id="rId2"/>
+    <sheet name="ObservedET" sheetId="15" r:id="rId3"/>
+    <sheet name="ObservedSW" sheetId="16" r:id="rId4"/>
+    <sheet name="FACTS2017N" sheetId="22" r:id="rId5"/>
+    <sheet name="ObservedST" sheetId="17" r:id="rId6"/>
+    <sheet name="ObservedLeafSize" sheetId="21" r:id="rId7"/>
+    <sheet name="FACTS2015" sheetId="20" r:id="rId8"/>
+    <sheet name="GattonDalby" sheetId="19" r:id="rId9"/>
+    <sheet name="Griffith" sheetId="18" r:id="rId10"/>
+    <sheet name="ObservedOLD" sheetId="13" r:id="rId11"/>
+    <sheet name="Temp" sheetId="23" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Treatment_Structure">#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="333">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1010,6 +1011,36 @@
   <si>
     <t>Soybean.Shell.HarvestIndex</t>
   </si>
+  <si>
+    <t>ApsimVersion = 7.8</t>
+  </si>
+  <si>
+    <t>Title = Measured</t>
+  </si>
+  <si>
+    <t>CumFix</t>
+  </si>
+  <si>
+    <t>CumFixerror</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Ames_2015_Early</t>
+  </si>
+  <si>
+    <t>Ames_2015_Late</t>
+  </si>
+  <si>
+    <t>Suth_2015_Early</t>
+  </si>
+  <si>
+    <t>Suth_2015_Late</t>
+  </si>
+  <si>
+    <t>Nfixederr</t>
+  </si>
 </sst>
 </file>
 
@@ -1105,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1145,6 +1176,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1641,11 +1673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303702736"/>
-        <c:axId val="303703128"/>
+        <c:axId val="429247168"/>
+        <c:axId val="429247560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303702736"/>
+        <c:axId val="429247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,12 +1734,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303703128"/>
+        <c:crossAx val="429247560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303703128"/>
+        <c:axId val="429247560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303702736"/>
+        <c:crossAx val="429247168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2264,11 +2296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303703912"/>
-        <c:axId val="303704304"/>
+        <c:axId val="429248344"/>
+        <c:axId val="429248736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303703912"/>
+        <c:axId val="429248344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,12 +2357,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303704304"/>
+        <c:crossAx val="429248736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303704304"/>
+        <c:axId val="429248736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303703912"/>
+        <c:crossAx val="429248344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3568,7 +3600,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3636,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3914,14 +3946,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN317"/>
+  <dimension ref="A1:CO348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10716" ySplit="576" topLeftCell="S260" activePane="bottomRight"/>
+      <pane xSplit="10716" ySplit="576" topLeftCell="AP303" activePane="bottomRight"/>
       <selection activeCell="A16" sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
-      <selection pane="bottomRight" activeCell="U262" sqref="U262:U317"/>
+      <selection pane="topRight" activeCell="CP1" sqref="CP1"/>
+      <selection pane="bottomLeft" activeCell="A318" sqref="A318:XFD318"/>
+      <selection pane="bottomRight" activeCell="AR318" sqref="AR318:AR348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4010,7 +4042,7 @@
     <col min="84" max="84" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4287,8 +4319,11 @@
       <c r="CN1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CO1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4417,7 +4452,7 @@
         <v>10.92576008</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4549,7 +4584,7 @@
         <v>1.922576396</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4681,7 +4716,7 @@
         <v>25.026652460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4859,7 +4894,7 @@
         <v>38.837267330000003</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5034,7 +5069,7 @@
         <v>46.227657309999998</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5206,7 +5241,7 @@
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -5378,7 +5413,7 @@
         <v>19.532783550000001</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5570,7 +5605,7 @@
         <v>8.887289634</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -5598,7 +5633,7 @@
         <v>6.2168025010000001</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -5618,7 +5653,7 @@
         <v>42.860670050000003</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5638,7 +5673,7 @@
         <v>104.08329999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5770,7 +5805,7 @@
         <v>4.407066296</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5902,7 +5937,7 @@
         <v>42.861361389999999</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6070,7 +6105,7 @@
         <v>83.735230939999994</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -17570,7 +17605,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="305" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>316</v>
       </c>
@@ -17613,7 +17648,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="306" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>316</v>
       </c>
@@ -17666,7 +17701,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="307" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>316</v>
       </c>
@@ -17719,7 +17754,7 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="308" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>316</v>
       </c>
@@ -17772,7 +17807,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="309" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>316</v>
       </c>
@@ -17825,7 +17860,7 @@
         <v>24.69</v>
       </c>
     </row>
-    <row r="310" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -17914,7 +17949,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="311" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -17957,7 +17992,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="312" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -18000,7 +18035,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="313" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>317</v>
       </c>
@@ -18053,7 +18088,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="314" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>317</v>
       </c>
@@ -18106,7 +18141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -18159,7 +18194,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="316" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -18212,7 +18247,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="317" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -18299,6 +18334,440 @@
       </c>
       <c r="AS317">
         <v>21.83</v>
+      </c>
+    </row>
+    <row r="318" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>225</v>
+      </c>
+      <c r="B318" s="4">
+        <v>42125</v>
+      </c>
+      <c r="AR318" s="12">
+        <v>0</v>
+      </c>
+      <c r="CO318" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>225</v>
+      </c>
+      <c r="B319" s="4">
+        <v>42172</v>
+      </c>
+      <c r="AR319" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="CO319" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>225</v>
+      </c>
+      <c r="B320" s="4">
+        <v>42185</v>
+      </c>
+      <c r="AR320" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="CO320" s="12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>225</v>
+      </c>
+      <c r="B321" s="4">
+        <v>42199</v>
+      </c>
+      <c r="AR321" s="12">
+        <v>6.15</v>
+      </c>
+      <c r="CO321" s="12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="322" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>225</v>
+      </c>
+      <c r="B322" s="4">
+        <v>42207</v>
+      </c>
+      <c r="AR322" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="CO322" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>225</v>
+      </c>
+      <c r="B323" s="4">
+        <v>42227</v>
+      </c>
+      <c r="AR323" s="12">
+        <v>10.49</v>
+      </c>
+      <c r="CO323" s="12">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="324" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>225</v>
+      </c>
+      <c r="B324" s="4">
+        <v>42243</v>
+      </c>
+      <c r="AR324" s="12">
+        <v>14.02</v>
+      </c>
+      <c r="CO324" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>226</v>
+      </c>
+      <c r="B325" s="4">
+        <v>42149</v>
+      </c>
+      <c r="AR325" s="12">
+        <v>0</v>
+      </c>
+      <c r="CO325" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>226</v>
+      </c>
+      <c r="B326" s="4">
+        <v>42185</v>
+      </c>
+      <c r="AR326" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="CO326" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>226</v>
+      </c>
+      <c r="B327" s="4">
+        <v>42199</v>
+      </c>
+      <c r="AR327" s="12">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="CO327" s="12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>226</v>
+      </c>
+      <c r="B328" s="4">
+        <v>42207</v>
+      </c>
+      <c r="AR328" s="12">
+        <v>3.51</v>
+      </c>
+      <c r="CO328" s="12">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="329" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>226</v>
+      </c>
+      <c r="B329" s="4">
+        <v>42212</v>
+      </c>
+      <c r="AR329" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="CO329" s="12">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="330" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>226</v>
+      </c>
+      <c r="B330" s="4">
+        <v>42222</v>
+      </c>
+      <c r="AR330" s="12">
+        <v>5.62</v>
+      </c>
+      <c r="CO330" s="12">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="331" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>226</v>
+      </c>
+      <c r="B331" s="4">
+        <v>42237</v>
+      </c>
+      <c r="AR331" s="12">
+        <v>7.42</v>
+      </c>
+      <c r="CO331" s="12">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>226</v>
+      </c>
+      <c r="B332" s="4">
+        <v>42252</v>
+      </c>
+      <c r="AR332" s="12">
+        <v>11.85</v>
+      </c>
+      <c r="CO332" s="12">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="333" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>227</v>
+      </c>
+      <c r="B333" s="4">
+        <v>42124</v>
+      </c>
+      <c r="AR333" s="12">
+        <v>0</v>
+      </c>
+      <c r="CO333" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>227</v>
+      </c>
+      <c r="B334" s="4">
+        <v>42173</v>
+      </c>
+      <c r="AR334" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="CO334" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>227</v>
+      </c>
+      <c r="B335" s="4">
+        <v>42184</v>
+      </c>
+      <c r="AR335" s="12">
+        <v>2.08</v>
+      </c>
+      <c r="CO335" s="12">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="336" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>227</v>
+      </c>
+      <c r="B336" s="4">
+        <v>42193</v>
+      </c>
+      <c r="AR336" s="12">
+        <v>3.82</v>
+      </c>
+      <c r="CO336" s="12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="337" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>227</v>
+      </c>
+      <c r="B337" s="4">
+        <v>42198</v>
+      </c>
+      <c r="AR337" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="CO337" s="12">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="338" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>227</v>
+      </c>
+      <c r="B338" s="4">
+        <v>42206</v>
+      </c>
+      <c r="AR338" s="12">
+        <v>5.51</v>
+      </c>
+      <c r="CO338" s="12">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>227</v>
+      </c>
+      <c r="B339" s="4">
+        <v>42229</v>
+      </c>
+      <c r="AR339" s="12">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="CO339" s="12">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>227</v>
+      </c>
+      <c r="B340" s="4">
+        <v>42243</v>
+      </c>
+      <c r="AR340" s="12">
+        <v>11.96</v>
+      </c>
+      <c r="CO340" s="12">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>228</v>
+      </c>
+      <c r="B341" s="4">
+        <v>42149</v>
+      </c>
+      <c r="AR341" s="12">
+        <v>0</v>
+      </c>
+      <c r="CO341" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>228</v>
+      </c>
+      <c r="B342" s="4">
+        <v>42184</v>
+      </c>
+      <c r="AR342" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="CO342" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>228</v>
+      </c>
+      <c r="B343" s="4">
+        <v>42198</v>
+      </c>
+      <c r="AR343" s="12">
+        <v>2.31</v>
+      </c>
+      <c r="CO343" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>228</v>
+      </c>
+      <c r="B344" s="4">
+        <v>42206</v>
+      </c>
+      <c r="AR344" s="12">
+        <v>3.22</v>
+      </c>
+      <c r="CO344" s="12">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="345" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>228</v>
+      </c>
+      <c r="B345" s="4">
+        <v>42215</v>
+      </c>
+      <c r="AR345" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="CO345" s="12">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="346" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>228</v>
+      </c>
+      <c r="B346" s="4">
+        <v>42221</v>
+      </c>
+      <c r="AR346" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="CO346" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>228</v>
+      </c>
+      <c r="B347" s="4">
+        <v>42236</v>
+      </c>
+      <c r="AR347" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="CO347" s="12">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="348" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>228</v>
+      </c>
+      <c r="B348" s="4">
+        <v>42251</v>
+      </c>
+      <c r="AR348" s="12">
+        <v>6.26</v>
+      </c>
+      <c r="CO348" s="12">
+        <v>3.88</v>
       </c>
     </row>
   </sheetData>
@@ -18307,6 +18776,2751 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X61"/>
+  <sheetViews>
+    <sheetView topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" t="s">
+        <v>183</v>
+      </c>
+      <c r="X2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>B3*160/206</f>
+        <v>29.761733153810404</v>
+      </c>
+      <c r="B3">
+        <v>38.318231435530897</v>
+      </c>
+      <c r="C3">
+        <v>0.36252640515873402</v>
+      </c>
+      <c r="E3">
+        <v>29.906248962318799</v>
+      </c>
+      <c r="F3">
+        <v>32.240616594781997</v>
+      </c>
+      <c r="H3">
+        <v>71.086341065737798</v>
+      </c>
+      <c r="I3">
+        <v>3.8834951456309401</v>
+      </c>
+      <c r="M3" s="4">
+        <f>DATE(1999,11,15)+A3</f>
+        <v>36508.761733153813</v>
+      </c>
+      <c r="N3">
+        <v>0.36252640515873402</v>
+      </c>
+      <c r="T3" s="4">
+        <f>DATE(1999,11,15)+E3</f>
+        <v>36508.906248962317</v>
+      </c>
+      <c r="U3" s="4">
+        <f>DATE(YEAR(T3),MONTH(T3),DAY(T3))</f>
+        <v>36508</v>
+      </c>
+      <c r="V3">
+        <f>F3</f>
+        <v>32.240616594781997</v>
+      </c>
+      <c r="W3">
+        <v>0.36252640515873402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A49" si="0">B4*160/206</f>
+        <v>43.886627408061585</v>
+      </c>
+      <c r="B4">
+        <v>56.504032787879297</v>
+      </c>
+      <c r="C4">
+        <v>1.65706142168406</v>
+      </c>
+      <c r="E4">
+        <v>43.743105184900898</v>
+      </c>
+      <c r="F4">
+        <v>117.06593564716199</v>
+      </c>
+      <c r="H4">
+        <v>84.323031695447</v>
+      </c>
+      <c r="I4">
+        <v>116.504854368932</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M12" si="1">DATE(1999,11,15)+A4</f>
+        <v>36522.886627408065</v>
+      </c>
+      <c r="N4">
+        <v>1.65706142168406</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T31" si="2">DATE(1999,11,15)+E4</f>
+        <v>36522.743105184898</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" ref="U4:U31" si="3">DATE(YEAR(T4),MONTH(T4),DAY(T4))</f>
+        <v>36522</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V31" si="4">F4</f>
+        <v>117.06593564716199</v>
+      </c>
+      <c r="W4">
+        <v>1.65706142168406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>50.954707112365043</v>
+      </c>
+      <c r="B5">
+        <v>65.604185407169993</v>
+      </c>
+      <c r="C5">
+        <v>2.4005498337359299</v>
+      </c>
+      <c r="E5">
+        <v>51.045613698498698</v>
+      </c>
+      <c r="F5">
+        <v>193.846596590133</v>
+      </c>
+      <c r="H5">
+        <v>99.306801057338305</v>
+      </c>
+      <c r="I5">
+        <v>320.388349514563</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>36529.954707112367</v>
+      </c>
+      <c r="N5">
+        <v>2.4005498337359299</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>36530.045613698501</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="3"/>
+        <v>36530</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>193.846596590133</v>
+      </c>
+      <c r="W5">
+        <v>2.4005498337359299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>58.040489202084579</v>
+      </c>
+      <c r="B6">
+        <v>74.727129847683898</v>
+      </c>
+      <c r="C6">
+        <v>3.4464468005538702</v>
+      </c>
+      <c r="E6">
+        <v>57.848928375092697</v>
+      </c>
+      <c r="F6">
+        <v>286.477492002936</v>
+      </c>
+      <c r="H6">
+        <v>114.291360952592</v>
+      </c>
+      <c r="I6">
+        <v>526.21359223300897</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>36537.040489202082</v>
+      </c>
+      <c r="N6">
+        <v>3.4464468005538702</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>36536.84892837509</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="3"/>
+        <v>36536</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>286.477492002936</v>
+      </c>
+      <c r="W6">
+        <v>3.4464468005538702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>64.666009270986478</v>
+      </c>
+      <c r="B7">
+        <v>83.257486936395097</v>
+      </c>
+      <c r="C7">
+        <v>4.6297213434540403</v>
+      </c>
+      <c r="E7">
+        <v>64.906267409984594</v>
+      </c>
+      <c r="F7">
+        <v>392.32872264672301</v>
+      </c>
+      <c r="H7">
+        <v>127.748610390572</v>
+      </c>
+      <c r="I7">
+        <v>580.58252427184402</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>36543.666009270986</v>
+      </c>
+      <c r="N7">
+        <v>4.6297213434540403</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="2"/>
+        <v>36543.906267409984</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="3"/>
+        <v>36543</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>392.32872264672301</v>
+      </c>
+      <c r="W7">
+        <v>4.6297213434540403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>70.786206701648155</v>
+      </c>
+      <c r="B8">
+        <v>91.137241128371997</v>
+      </c>
+      <c r="C8">
+        <v>5.1806062321228197</v>
+      </c>
+      <c r="E8">
+        <v>70.706766972774901</v>
+      </c>
+      <c r="F8">
+        <v>495.514634533292</v>
+      </c>
+      <c r="H8">
+        <v>142.38849773956801</v>
+      </c>
+      <c r="I8">
+        <v>539.80582524271802</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>36549.786206701647</v>
+      </c>
+      <c r="N8">
+        <v>5.1806062321228197</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" ref="P8:P13" si="5">DATE(1999,11,15)+H3</f>
+        <v>36550.08634106574</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q13" si="6">I3</f>
+        <v>3.8834951456309401</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="2"/>
+        <v>36549.706766972777</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="3"/>
+        <v>36549</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>495.514634533292</v>
+      </c>
+      <c r="W8">
+        <v>5.1806062321228197</v>
+      </c>
+      <c r="X8">
+        <v>3.8834951456309401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>83.664692091831455</v>
+      </c>
+      <c r="B9">
+        <v>107.718291068233</v>
+      </c>
+      <c r="C9">
+        <v>5.1828298244372704</v>
+      </c>
+      <c r="E9">
+        <v>84.571294694082297</v>
+      </c>
+      <c r="F9">
+        <v>712.49903149754402</v>
+      </c>
+      <c r="H9">
+        <v>70.839694656488504</v>
+      </c>
+      <c r="I9">
+        <v>-1.9417475728156399</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
+        <v>36562.664692091828</v>
+      </c>
+      <c r="N9">
+        <v>5.1828298244372704</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="5"/>
+        <v>36563.32303169545</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>116.504854368932</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="2"/>
+        <v>36563.571294694084</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="3"/>
+        <v>36563</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>712.49903149754402</v>
+      </c>
+      <c r="W9">
+        <v>5.1828298244372704</v>
+      </c>
+      <c r="X9">
+        <v>116.504854368932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>98.334337024567773</v>
+      </c>
+      <c r="B10">
+        <v>126.605458919131</v>
+      </c>
+      <c r="C10">
+        <v>3.7833008217184299</v>
+      </c>
+      <c r="E10">
+        <v>98.911772193464301</v>
+      </c>
+      <c r="F10">
+        <v>802.619568545991</v>
+      </c>
+      <c r="H10">
+        <v>86.017935225672502</v>
+      </c>
+      <c r="I10">
+        <v>79.611650485436797</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>36577.334337024571</v>
+      </c>
+      <c r="N10">
+        <v>3.7833008217184299</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="5"/>
+        <v>36578.306801057341</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>320.388349514563</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>36577.911772193467</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="3"/>
+        <v>36577</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>802.619568545991</v>
+      </c>
+      <c r="W10">
+        <v>3.7833008217184299</v>
+      </c>
+      <c r="X10">
+        <v>320.388349514563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>113.46424397812194</v>
+      </c>
+      <c r="B11">
+        <v>146.085214121832</v>
+      </c>
+      <c r="C11">
+        <v>2.2463942429173498</v>
+      </c>
+      <c r="E11">
+        <v>114.510749454871</v>
+      </c>
+      <c r="F11">
+        <v>903.33496902636898</v>
+      </c>
+      <c r="H11">
+        <v>114.020998542454</v>
+      </c>
+      <c r="I11">
+        <v>462.135922330097</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>36592.464243978124</v>
+      </c>
+      <c r="N11">
+        <v>2.2463942429173498</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="5"/>
+        <v>36593.291360952593</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>526.21359223300897</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="2"/>
+        <v>36593.510749454872</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="3"/>
+        <v>36593</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>903.33496902636898</v>
+      </c>
+      <c r="W11">
+        <v>2.2463942429173498</v>
+      </c>
+      <c r="X11">
+        <v>526.21359223300897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>127.61891042602717</v>
+      </c>
+      <c r="B12">
+        <v>164.30934717350999</v>
+      </c>
+      <c r="C12">
+        <v>4.95254651856189E-2</v>
+      </c>
+      <c r="E12">
+        <v>128.04875349122</v>
+      </c>
+      <c r="F12">
+        <v>760.84224663053305</v>
+      </c>
+      <c r="H12">
+        <v>127.700387855431</v>
+      </c>
+      <c r="I12">
+        <v>462.135922330097</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>36606.618910426027</v>
+      </c>
+      <c r="N12">
+        <v>4.95254651856189E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="5"/>
+        <v>36606.748610390569</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>580.58252427184402</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="2"/>
+        <v>36607.048753491217</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="3"/>
+        <v>36607</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
+        <v>760.84224663053305</v>
+      </c>
+      <c r="W12">
+        <v>4.95254651856189E-2</v>
+      </c>
+      <c r="X12">
+        <v>580.58252427184402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>52.561600915813827</v>
+      </c>
+      <c r="B13">
+        <v>67.673061179110306</v>
+      </c>
+      <c r="C13">
+        <v>1.8509991004558299</v>
+      </c>
+      <c r="E13">
+        <v>142.86296704877901</v>
+      </c>
+      <c r="F13">
+        <v>713.526197530226</v>
+      </c>
+      <c r="H13">
+        <v>142.38296400602701</v>
+      </c>
+      <c r="I13">
+        <v>526.21359223300897</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="5"/>
+        <v>36621.388497739565</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>539.80582524271802</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>36621.862967048779</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="3"/>
+        <v>36621</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
+        <v>713.526197530226</v>
+      </c>
+      <c r="X13">
+        <v>539.80582524271802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>57.822427999914012</v>
+      </c>
+      <c r="B14">
+        <v>74.446376049889295</v>
+      </c>
+      <c r="C14">
+        <v>3.7213232395718499</v>
+      </c>
+      <c r="E14">
+        <v>44.494663090279097</v>
+      </c>
+      <c r="F14">
+        <v>106.506491733601</v>
+      </c>
+      <c r="H14">
+        <v>79.144247634575905</v>
+      </c>
+      <c r="I14">
+        <v>-3.8834951456311702</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="2"/>
+        <v>36523.494663090278</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="3"/>
+        <v>36523</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>106.506491733601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>70.808737010359451</v>
+      </c>
+      <c r="B15">
+        <v>91.1662489008378</v>
+      </c>
+      <c r="C15">
+        <v>5.5654898472796299</v>
+      </c>
+      <c r="E15">
+        <v>53.560952932625398</v>
+      </c>
+      <c r="F15">
+        <v>207.106778779281</v>
+      </c>
+      <c r="H15">
+        <v>86.235331900491602</v>
+      </c>
+      <c r="I15">
+        <v>13.5922330097087</v>
+      </c>
+      <c r="M15" s="4">
+        <f>DATE(1999,11,15)+A13</f>
+        <v>36531.561600915811</v>
+      </c>
+      <c r="N15">
+        <v>1.8509991004558299</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="2"/>
+        <v>36532.560952932625</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="3"/>
+        <v>36532</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>207.106778779281</v>
+      </c>
+      <c r="W15">
+        <v>1.8509991004558299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>86.028765198758066</v>
+      </c>
+      <c r="B16">
+        <v>110.762035193401</v>
+      </c>
+      <c r="C16">
+        <v>5.5681177291058104</v>
+      </c>
+      <c r="E16">
+        <v>58.594951980725803</v>
+      </c>
+      <c r="F16">
+        <v>249.48623250700001</v>
+      </c>
+      <c r="H16">
+        <v>92.840238148175501</v>
+      </c>
+      <c r="I16">
+        <v>36.893203883494998</v>
+      </c>
+      <c r="M16" s="4">
+        <f>DATE(1999,11,15)+A14</f>
+        <v>36536.822427999912</v>
+      </c>
+      <c r="N16">
+        <v>3.7213232395718499</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="2"/>
+        <v>36537.594951980725</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="3"/>
+        <v>36537</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>249.48623250700001</v>
+      </c>
+      <c r="W16">
+        <v>3.7213232395718499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>98.411583797292423</v>
+      </c>
+      <c r="B17">
+        <v>126.70491413901399</v>
+      </c>
+      <c r="C17">
+        <v>5.1029017879703602</v>
+      </c>
+      <c r="E17">
+        <v>71.442275408892499</v>
+      </c>
+      <c r="F17">
+        <v>408.30292543084499</v>
+      </c>
+      <c r="H17">
+        <v>110.25410706786199</v>
+      </c>
+      <c r="I17">
+        <v>209.70873786407699</v>
+      </c>
+      <c r="M17" s="4">
+        <f>DATE(1999,11,15)+A15</f>
+        <v>36549.80873701036</v>
+      </c>
+      <c r="N17">
+        <v>5.5654898472796299</v>
+      </c>
+      <c r="P17" s="4">
+        <f>DATE(1999,11,15)+H9</f>
+        <v>36549.83969465649</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>36550.442275408896</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="3"/>
+        <v>36550</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>408.30292543084499</v>
+      </c>
+      <c r="W17">
+        <v>5.5654898472796299</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>127.40728645491728</v>
+      </c>
+      <c r="B18">
+        <v>164.03688131070601</v>
+      </c>
+      <c r="C18">
+        <v>0.43436865139126002</v>
+      </c>
+      <c r="E18">
+        <v>86.568623472072005</v>
+      </c>
+      <c r="F18">
+        <v>651.74127517645104</v>
+      </c>
+      <c r="H18">
+        <v>121.05437387287201</v>
+      </c>
+      <c r="I18">
+        <v>337.86407766990197</v>
+      </c>
+      <c r="M18" s="4">
+        <f>DATE(1999,11,15)+A16</f>
+        <v>36565.02876519876</v>
+      </c>
+      <c r="N18">
+        <v>5.5681177291058104</v>
+      </c>
+      <c r="P18" s="4">
+        <f>DATE(1999,11,15)+H10</f>
+        <v>36565.017935225675</v>
+      </c>
+      <c r="Q18">
+        <f>I10</f>
+        <v>79.611650485436797</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="2"/>
+        <v>36565.568623472071</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="3"/>
+        <v>36565</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>651.74127517645104</v>
+      </c>
+      <c r="W18">
+        <v>5.5681177291058104</v>
+      </c>
+      <c r="X18">
+        <v>79.611650485436797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>51.074600540864779</v>
+      </c>
+      <c r="B19">
+        <v>65.758548196363407</v>
+      </c>
+      <c r="C19">
+        <v>0.44868050010612398</v>
+      </c>
+      <c r="E19">
+        <v>99.423141489907195</v>
+      </c>
+      <c r="F19">
+        <v>844.91932835738203</v>
+      </c>
+      <c r="H19">
+        <v>134.06813409422099</v>
+      </c>
+      <c r="I19">
+        <v>502.91262135922301</v>
+      </c>
+      <c r="M19" s="4">
+        <f>DATE(1999,11,15)+A17</f>
+        <v>36577.411583797293</v>
+      </c>
+      <c r="N19">
+        <v>5.1029017879703602</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="2"/>
+        <v>36578.423141489904</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="3"/>
+        <v>36578</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>844.91932835738203</v>
+      </c>
+      <c r="W19">
+        <v>5.1029017879703602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>64.963731207529321</v>
+      </c>
+      <c r="B20">
+        <v>83.640803929694002</v>
+      </c>
+      <c r="C20">
+        <v>1.7156834008833699</v>
+      </c>
+      <c r="E20">
+        <v>114.521264624387</v>
+      </c>
+      <c r="F20">
+        <v>953.55541863287999</v>
+      </c>
+      <c r="H20">
+        <v>147.74831394056099</v>
+      </c>
+      <c r="I20">
+        <v>504.85436893203803</v>
+      </c>
+      <c r="P20" s="4">
+        <f>DATE(1999,11,15)+H11</f>
+        <v>36593.020998542452</v>
+      </c>
+      <c r="Q20">
+        <f>I11</f>
+        <v>462.135922330097</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="2"/>
+        <v>36593.521264624389</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="3"/>
+        <v>36593</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>953.55541863287999</v>
+      </c>
+      <c r="X20">
+        <v>462.135922330097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>66.163470146408699</v>
+      </c>
+      <c r="B21">
+        <v>85.185467813501205</v>
+      </c>
+      <c r="C21">
+        <v>2.2107359079836999</v>
+      </c>
+      <c r="E21">
+        <v>128.79367023690401</v>
+      </c>
+      <c r="F21">
+        <v>718.564624018122</v>
+      </c>
+      <c r="H21">
+        <v>92.585686405296499</v>
+      </c>
+      <c r="I21">
+        <v>11.650485436893099</v>
+      </c>
+      <c r="M21" s="4">
+        <f>DATE(1999,11,15)+A18</f>
+        <v>36606.407286454916</v>
+      </c>
+      <c r="N21">
+        <v>0.43436865139126002</v>
+      </c>
+      <c r="P21" s="4">
+        <f>DATE(1999,11,15)+H12</f>
+        <v>36606.700387855431</v>
+      </c>
+      <c r="Q21">
+        <f>I12</f>
+        <v>462.135922330097</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="2"/>
+        <v>36607.793670236904</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="3"/>
+        <v>36607</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>718.564624018122</v>
+      </c>
+      <c r="W21">
+        <v>0.43436865139126002</v>
+      </c>
+      <c r="X21">
+        <v>462.135922330097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>78.897922491616313</v>
+      </c>
+      <c r="B22">
+        <v>101.581075207956</v>
+      </c>
+      <c r="C22">
+        <v>3.7524535319742398</v>
+      </c>
+      <c r="E22">
+        <v>142.116943443146</v>
+      </c>
+      <c r="F22">
+        <v>750.51745702616199</v>
+      </c>
+      <c r="H22">
+        <v>97.728896464833596</v>
+      </c>
+      <c r="I22">
+        <v>44.660194174757102</v>
+      </c>
+      <c r="P22" s="4">
+        <f>DATE(1999,11,15)+H13</f>
+        <v>36621.382964006028</v>
+      </c>
+      <c r="Q22">
+        <f>I13</f>
+        <v>526.21359223300897</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="2"/>
+        <v>36621.116943443143</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="3"/>
+        <v>36621</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>750.51745702616199</v>
+      </c>
+      <c r="X22">
+        <v>526.21359223300897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>85.957955657094359</v>
+      </c>
+      <c r="B23">
+        <v>110.670867908509</v>
+      </c>
+      <c r="C23">
+        <v>4.3584835100415402</v>
+      </c>
+      <c r="E23">
+        <v>51.262558248504803</v>
+      </c>
+      <c r="F23">
+        <v>29.973767419208301</v>
+      </c>
+      <c r="H23">
+        <v>109.261197163961</v>
+      </c>
+      <c r="I23">
+        <v>170.873786407766</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" ref="M23:M31" si="7">DATE(1999,11,15)+A19</f>
+        <v>36530.074600540866</v>
+      </c>
+      <c r="N23">
+        <v>0.44868050010612398</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="2"/>
+        <v>36530.262558248505</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="3"/>
+        <v>36530</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>29.973767419208301</v>
+      </c>
+      <c r="W23">
+        <v>0.44868050010612398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>92.985802667269894</v>
+      </c>
+      <c r="B24">
+        <v>119.71922093411</v>
+      </c>
+      <c r="C24">
+        <v>4.4146797521705201</v>
+      </c>
+      <c r="E24">
+        <v>64.852584702457506</v>
+      </c>
+      <c r="F24">
+        <v>135.94011149769199</v>
+      </c>
+      <c r="H24">
+        <v>120.569776921366</v>
+      </c>
+      <c r="I24">
+        <v>347.57281553398002</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="7"/>
+        <v>36543.963731207528</v>
+      </c>
+      <c r="N24">
+        <v>1.7156834008833699</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="2"/>
+        <v>36543.852584702458</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="3"/>
+        <v>36543</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>135.94011149769199</v>
+      </c>
+      <c r="W24">
+        <v>1.7156834008833699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>109.79985019699728</v>
+      </c>
+      <c r="B25">
+        <v>141.367307128634</v>
+      </c>
+      <c r="C25">
+        <v>3.64782340634128</v>
+      </c>
+      <c r="E25">
+        <v>66.615259171256994</v>
+      </c>
+      <c r="F25">
+        <v>154.47337448392599</v>
+      </c>
+      <c r="H25">
+        <v>133.56140220855201</v>
+      </c>
+      <c r="I25">
+        <v>458.252427184466</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="7"/>
+        <v>36545.163470146406</v>
+      </c>
+      <c r="N25">
+        <v>2.2107359079836999</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="2"/>
+        <v>36545.61525917126</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="3"/>
+        <v>36545</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>154.47337448392599</v>
+      </c>
+      <c r="W25">
+        <v>2.2107359079836999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>120.53876091348583</v>
+      </c>
+      <c r="B26">
+        <v>155.193654676113</v>
+      </c>
+      <c r="C26">
+        <v>3.0998494021568801</v>
+      </c>
+      <c r="E26">
+        <v>78.707704114198407</v>
+      </c>
+      <c r="F26">
+        <v>307.99042197190698</v>
+      </c>
+      <c r="H26">
+        <v>148.23528249215599</v>
+      </c>
+      <c r="I26">
+        <v>500.97087378640703</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="7"/>
+        <v>36557.897922491618</v>
+      </c>
+      <c r="N26">
+        <v>3.7524535319742398</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26:P31" si="8">DATE(1999,11,15)+H14</f>
+        <v>36558.144247634576</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q32" si="9">I14</f>
+        <v>-3.8834951456311702</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="2"/>
+        <v>36557.707704114197</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="3"/>
+        <v>36557</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>307.99042197190698</v>
+      </c>
+      <c r="W26">
+        <v>3.7524535319742398</v>
+      </c>
+      <c r="X26">
+        <v>-3.8834951456311702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>133.25792483492503</v>
+      </c>
+      <c r="B27">
+        <v>171.56957822496599</v>
+      </c>
+      <c r="C27">
+        <v>0.38039600157672898</v>
+      </c>
+      <c r="E27">
+        <v>86.024048377158806</v>
+      </c>
+      <c r="F27">
+        <v>450.850621870814</v>
+      </c>
+      <c r="H27">
+        <v>100.88707724993201</v>
+      </c>
+      <c r="I27">
+        <v>1.94174757281552</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="7"/>
+        <v>36564.957955657097</v>
+      </c>
+      <c r="N27">
+        <v>4.3584835100415402</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="8"/>
+        <v>36565.235331900491</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>13.5922330097087</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="2"/>
+        <v>36565.024048377156</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="3"/>
+        <v>36565</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>450.850621870814</v>
+      </c>
+      <c r="W27">
+        <v>4.3584835100415402</v>
+      </c>
+      <c r="X27">
+        <v>13.5922330097087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>64.968559130824616</v>
+      </c>
+      <c r="B28">
+        <v>83.647019880936696</v>
+      </c>
+      <c r="C28">
+        <v>1.7981584612741099</v>
+      </c>
+      <c r="E28">
+        <v>93.074192822382201</v>
+      </c>
+      <c r="F28">
+        <v>522.34049225751403</v>
+      </c>
+      <c r="H28">
+        <v>109.93868425603399</v>
+      </c>
+      <c r="I28">
+        <v>34.951456310679497</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="7"/>
+        <v>36571.985802667266</v>
+      </c>
+      <c r="N28">
+        <v>4.4146797521705201</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="8"/>
+        <v>36571.840238148172</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>36.893203883494998</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="2"/>
+        <v>36572.07419282238</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="3"/>
+        <v>36572</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>522.34049225751403</v>
+      </c>
+      <c r="W28">
+        <v>4.4146797521705201</v>
+      </c>
+      <c r="X28">
+        <v>36.893203883494998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>69.695096036912787</v>
+      </c>
+      <c r="B29">
+        <v>89.732436147525206</v>
+      </c>
+      <c r="C29">
+        <v>2.5412425838142698</v>
+      </c>
+      <c r="E29">
+        <v>109.42694170906501</v>
+      </c>
+      <c r="F29">
+        <v>623.06917505727995</v>
+      </c>
+      <c r="H29">
+        <v>120.994293337286</v>
+      </c>
+      <c r="I29">
+        <v>190.29126213592201</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="7"/>
+        <v>36588.799850197</v>
+      </c>
+      <c r="N29">
+        <v>3.64782340634128</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="8"/>
+        <v>36589.254107067864</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>209.70873786407699</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="2"/>
+        <v>36588.426941709062</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="3"/>
+        <v>36588</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>623.06917505727995</v>
+      </c>
+      <c r="W29">
+        <v>3.64782340634128</v>
+      </c>
+      <c r="X29">
+        <v>209.70873786407699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>79.167481542269513</v>
+      </c>
+      <c r="B30">
+        <v>101.92813248567199</v>
+      </c>
+      <c r="C30">
+        <v>4.3573110704575502</v>
+      </c>
+      <c r="E30">
+        <v>121.249312824448</v>
+      </c>
+      <c r="F30">
+        <v>686.71362212539202</v>
+      </c>
+      <c r="H30">
+        <v>133.77247461646701</v>
+      </c>
+      <c r="I30">
+        <v>376.69902912621302</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="7"/>
+        <v>36599.538760913485</v>
+      </c>
+      <c r="N30">
+        <v>3.0998494021568801</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="8"/>
+        <v>36600.054373872874</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>337.86407766990197</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="2"/>
+        <v>36600.249312824446</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="3"/>
+        <v>36600</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="4"/>
+        <v>686.71362212539202</v>
+      </c>
+      <c r="W30">
+        <v>3.0998494021568801</v>
+      </c>
+      <c r="X30">
+        <v>337.86407766990197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>92.531977877513</v>
+      </c>
+      <c r="B31">
+        <v>119.134921517298</v>
+      </c>
+      <c r="C31">
+        <v>4.6620240754404199</v>
+      </c>
+      <c r="E31">
+        <v>134.316347952493</v>
+      </c>
+      <c r="F31">
+        <v>694.87339366949902</v>
+      </c>
+      <c r="H31">
+        <v>147.70009140542001</v>
+      </c>
+      <c r="I31">
+        <v>386.40776699029101</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="7"/>
+        <v>36612.257924834928</v>
+      </c>
+      <c r="N31">
+        <v>0.38039600157672898</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="8"/>
+        <v>36613.068134094217</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>502.91262135922301</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="2"/>
+        <v>36613.316347952496</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="3"/>
+        <v>36613</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="4"/>
+        <v>694.87339366949902</v>
+      </c>
+      <c r="W31">
+        <v>0.38039600157672898</v>
+      </c>
+      <c r="X31">
+        <v>502.91262135922301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>98.004428932723101</v>
+      </c>
+      <c r="B32">
+        <v>126.180702250881</v>
+      </c>
+      <c r="C32">
+        <v>6.1475050283507997</v>
+      </c>
+      <c r="E32">
+        <v>51.009640750155803</v>
+      </c>
+      <c r="F32">
+        <v>22.0397953047001</v>
+      </c>
+      <c r="H32">
+        <v>163.11628251686</v>
+      </c>
+      <c r="I32">
+        <v>452.42718446601901</v>
+      </c>
+      <c r="P32" s="4">
+        <f>DATE(1999,11,15)+H20</f>
+        <v>36626.748313940559</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>504.85436893203803</v>
+      </c>
+      <c r="T32" s="4">
+        <f>P32</f>
+        <v>36626.748313940559</v>
+      </c>
+      <c r="X32">
+        <v>504.85436893203803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>109.58500761035728</v>
+      </c>
+      <c r="B33">
+        <v>141.09069729833499</v>
+      </c>
+      <c r="C33">
+        <v>3.9776832189530902</v>
+      </c>
+      <c r="E33">
+        <v>65.101628190984997</v>
+      </c>
+      <c r="F33">
+        <v>125.371812704538</v>
+      </c>
+      <c r="H33">
+        <v>108.715729143506</v>
+      </c>
+      <c r="I33">
+        <v>31.067961165048398</v>
+      </c>
+      <c r="T33" s="4">
+        <f>DATE(1999,11,15)+L20</f>
+        <v>36479</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" ref="U33:U61" si="10">DATE(YEAR(T33),MONTH(T33),DAY(T33))</f>
+        <v>36479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>120.55968191443185</v>
+      </c>
+      <c r="B34">
+        <v>155.22059046483099</v>
+      </c>
+      <c r="C34">
+        <v>3.45724133051678</v>
+      </c>
+      <c r="E34">
+        <v>79.465349749296195</v>
+      </c>
+      <c r="F34">
+        <v>326.505975198957</v>
+      </c>
+      <c r="H34">
+        <v>119.996640233207</v>
+      </c>
+      <c r="I34">
+        <v>139.80582524271799</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:M41" si="11">DATE(1999,11,15)+A28</f>
+        <v>36543.968559130823</v>
+      </c>
+      <c r="N34">
+        <v>1.7981584612741099</v>
+      </c>
+      <c r="T34" s="4">
+        <f>DATE(1999,11,15)+E32</f>
+        <v>36530.009640750155</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="10"/>
+        <v>36530</v>
+      </c>
+      <c r="V34">
+        <f>F32</f>
+        <v>22.0397953047001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>133.12837555983535</v>
+      </c>
+      <c r="B35">
+        <v>171.40278353328799</v>
+      </c>
+      <c r="C35">
+        <v>2.1673152144250398</v>
+      </c>
+      <c r="E35">
+        <v>93.069765382586098</v>
+      </c>
+      <c r="F35">
+        <v>501.19503979161499</v>
+      </c>
+      <c r="H35">
+        <v>132.76849724548501</v>
+      </c>
+      <c r="I35">
+        <v>310.67961165048501</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="11"/>
+        <v>36548.695096036914</v>
+      </c>
+      <c r="N35">
+        <v>2.5412425838142698</v>
+      </c>
+      <c r="T35" s="4">
+        <f>DATE(1999,11,15)+E33</f>
+        <v>36544.101628190983</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="10"/>
+        <v>36544</v>
+      </c>
+      <c r="V35">
+        <f>F33</f>
+        <v>125.371812704538</v>
+      </c>
+      <c r="W35">
+        <v>1.7981584612741099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>74.02976650219999</v>
+      </c>
+      <c r="B36">
+        <v>95.313324371582496</v>
+      </c>
+      <c r="C36">
+        <v>0.59010097130555095</v>
+      </c>
+      <c r="E36">
+        <v>97.604017163708207</v>
+      </c>
+      <c r="F36">
+        <v>556.78154643093001</v>
+      </c>
+      <c r="H36">
+        <v>146.96647644457599</v>
+      </c>
+      <c r="I36">
+        <v>384.46601941747502</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="11"/>
+        <v>36558.167481542267</v>
+      </c>
+      <c r="N36">
+        <v>4.3573110704575502</v>
+      </c>
+      <c r="T36" s="4">
+        <f>DATE(1999,11,15)+H29</f>
+        <v>36599.994293337288</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="10"/>
+        <v>36599</v>
+      </c>
+      <c r="W36">
+        <v>2.5412425838142698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>78.728945176281172</v>
+      </c>
+      <c r="B37">
+        <v>101.363516914462</v>
+      </c>
+      <c r="C37">
+        <v>0.865826418298143</v>
+      </c>
+      <c r="E37">
+        <v>110.681014031294</v>
+      </c>
+      <c r="F37">
+        <v>612.51858602331004</v>
+      </c>
+      <c r="H37">
+        <v>146.96647644457599</v>
+      </c>
+      <c r="I37">
+        <v>384.46601941747502</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="11"/>
+        <v>36571.531977877516</v>
+      </c>
+      <c r="N37">
+        <v>4.6620240754404199</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" ref="P37:P42" si="12">DATE(1999,11,15)+H21</f>
+        <v>36571.585686405298</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37:Q42" si="13">I21</f>
+        <v>11.650485436893099</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" ref="T37:T61" si="14">DATE(1999,11,15)+E34</f>
+        <v>36558.465349749298</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="10"/>
+        <v>36558</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ref="V37:V61" si="15">F34</f>
+        <v>326.505975198957</v>
+      </c>
+      <c r="W37">
+        <v>4.3573110704575502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>88.167535218571658</v>
+      </c>
+      <c r="B38">
+        <v>113.515701593911</v>
+      </c>
+      <c r="C38">
+        <v>2.1045694822062</v>
+      </c>
+      <c r="E38">
+        <v>121.264808863734</v>
+      </c>
+      <c r="F38">
+        <v>760.72270575604</v>
+      </c>
+      <c r="H38">
+        <v>161.40082511919701</v>
+      </c>
+      <c r="I38">
+        <v>438.83495145631002</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="11"/>
+        <v>36577.00442893272</v>
+      </c>
+      <c r="N38">
+        <v>6.1475050283507997</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="12"/>
+        <v>36576.728896464832</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="13"/>
+        <v>44.660194174757102</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="14"/>
+        <v>36572.069765382585</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="10"/>
+        <v>36572</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="15"/>
+        <v>501.19503979161499</v>
+      </c>
+      <c r="W38">
+        <v>4.6620240754404199</v>
+      </c>
+      <c r="X38">
+        <v>11.650485436893099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>92.886025585834574</v>
+      </c>
+      <c r="B39">
+        <v>119.59075794176201</v>
+      </c>
+      <c r="C39">
+        <v>2.71019517076178</v>
+      </c>
+      <c r="E39">
+        <v>133.830989864852</v>
+      </c>
+      <c r="F39">
+        <v>776.80316709526699</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="11"/>
+        <v>36588.58500761036</v>
+      </c>
+      <c r="N39">
+        <v>3.9776832189530902</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="12"/>
+        <v>36588.261197163964</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="13"/>
+        <v>170.873786407766</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="14"/>
+        <v>36576.604017163707</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="10"/>
+        <v>36576</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="15"/>
+        <v>556.78154643093001</v>
+      </c>
+      <c r="W39">
+        <v>6.1475050283507997</v>
+      </c>
+      <c r="X39">
+        <v>44.660194174757102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>100.45781862061281</v>
+      </c>
+      <c r="B40">
+        <v>129.33944147403901</v>
+      </c>
+      <c r="C40">
+        <v>4.0585815502481299</v>
+      </c>
+      <c r="E40">
+        <v>148.38287761449499</v>
+      </c>
+      <c r="F40">
+        <v>676.61905939041503</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="11"/>
+        <v>36599.559681914434</v>
+      </c>
+      <c r="N40">
+        <v>3.45724133051678</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="12"/>
+        <v>36599.569776921366</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="13"/>
+        <v>347.57281553398002</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="14"/>
+        <v>36589.681014031295</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="10"/>
+        <v>36589</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="15"/>
+        <v>612.51858602331004</v>
+      </c>
+      <c r="W40">
+        <v>3.9776832189530902</v>
+      </c>
+      <c r="X40">
+        <v>170.873786407766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>109.55764937835031</v>
+      </c>
+      <c r="B41">
+        <v>141.05547357462601</v>
+      </c>
+      <c r="C41">
+        <v>3.5103245434055301</v>
+      </c>
+      <c r="E41">
+        <v>74.126964215217797</v>
+      </c>
+      <c r="F41">
+        <v>30.376664440648</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="11"/>
+        <v>36612.128375559834</v>
+      </c>
+      <c r="N41">
+        <v>2.1673152144250398</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="12"/>
+        <v>36612.56140220855</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="13"/>
+        <v>458.252427184466</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="14"/>
+        <v>36600.264808863736</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="10"/>
+        <v>36600</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="15"/>
+        <v>760.72270575604</v>
+      </c>
+      <c r="W41">
+        <v>3.45724133051678</v>
+      </c>
+      <c r="X41">
+        <v>347.57281553398002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>121.27823783154797</v>
+      </c>
+      <c r="B42">
+        <v>156.14573120811801</v>
+      </c>
+      <c r="C42">
+        <v>3.7322794853394501</v>
+      </c>
+      <c r="E42">
+        <v>79.410560181820102</v>
+      </c>
+      <c r="F42">
+        <v>64.831000933451804</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="12"/>
+        <v>36627.235282492155</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="13"/>
+        <v>500.97087378640703</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="14"/>
+        <v>36612.830989864851</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="10"/>
+        <v>36612</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="15"/>
+        <v>776.80316709526699</v>
+      </c>
+      <c r="W42">
+        <v>2.1673152144250398</v>
+      </c>
+      <c r="X42">
+        <v>458.252427184466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>133.15251517631145</v>
+      </c>
+      <c r="B43">
+        <v>171.43386328950101</v>
+      </c>
+      <c r="C43">
+        <v>2.5796905163787698</v>
+      </c>
+      <c r="E43">
+        <v>88.222272235893996</v>
+      </c>
+      <c r="F43">
+        <v>149.56777118991101</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" ref="M43:M51" si="16">DATE(1999,11,15)+A36</f>
+        <v>36553.029766502201</v>
+      </c>
+      <c r="N43">
+        <v>0.59010097130555095</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" si="14"/>
+        <v>36627.382877614495</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="10"/>
+        <v>36627</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="15"/>
+        <v>676.61905939041503</v>
+      </c>
+      <c r="X43">
+        <v>500.97087378640703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>147.06498080556972</v>
+      </c>
+      <c r="B44">
+        <v>189.34616278717101</v>
+      </c>
+      <c r="C44">
+        <v>0.24532287571129699</v>
+      </c>
+      <c r="E44">
+        <v>93.257931573917901</v>
+      </c>
+      <c r="F44">
+        <v>199.87676959234301</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="16"/>
+        <v>36557.728945176284</v>
+      </c>
+      <c r="N44">
+        <v>0.865826418298143</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="14"/>
+        <v>36553.126964215218</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="10"/>
+        <v>36553</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="15"/>
+        <v>30.376664440648</v>
+      </c>
+      <c r="W44">
+        <v>0.59010097130555095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>87.457025840281176</v>
+      </c>
+      <c r="B45">
+        <v>112.60092076936201</v>
+      </c>
+      <c r="C45">
+        <v>1.96698976136811</v>
+      </c>
+      <c r="E45">
+        <v>100.81612473573701</v>
+      </c>
+      <c r="F45">
+        <v>297.80731044100901</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="16"/>
+        <v>36567.16753521857</v>
+      </c>
+      <c r="N45">
+        <v>2.1045694822062</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="14"/>
+        <v>36558.410560181823</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="10"/>
+        <v>36558</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="15"/>
+        <v>64.831000933451804</v>
+      </c>
+      <c r="W45">
+        <v>0.865826418298143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>108.41423621124972</v>
+      </c>
+      <c r="B46">
+        <v>139.58332912198401</v>
+      </c>
+      <c r="C46">
+        <v>3.9774810741972302</v>
+      </c>
+      <c r="E46">
+        <v>110.12813748676299</v>
+      </c>
+      <c r="F46">
+        <v>371.98020934411102</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="16"/>
+        <v>36571.886025585838</v>
+      </c>
+      <c r="N46">
+        <v>2.71019517076178</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="14"/>
+        <v>36567.222272235893</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="10"/>
+        <v>36567</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="15"/>
+        <v>149.56777118991101</v>
+      </c>
+      <c r="W46">
+        <v>2.1045694822062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>118.96244395757358</v>
+      </c>
+      <c r="B47">
+        <v>153.164146595376</v>
+      </c>
+      <c r="C47">
+        <v>4.1717421845783704</v>
+      </c>
+      <c r="E47">
+        <v>121.475665684021</v>
+      </c>
+      <c r="F47">
+        <v>567.77487944450297</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="16"/>
+        <v>36579.457818620613</v>
+      </c>
+      <c r="N47">
+        <v>4.0585815502481299</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" ref="P47:P52" si="17">DATE(1999,11,15)+H27</f>
+        <v>36579.887077249929</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q47:Q52" si="18">I27</f>
+        <v>1.94174757281552</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="14"/>
+        <v>36572.25793157392</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="10"/>
+        <v>36572</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="15"/>
+        <v>199.87676959234301</v>
+      </c>
+      <c r="W47">
+        <v>2.71019517076178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>132.73248584962175</v>
+      </c>
+      <c r="B48">
+        <v>170.89307553138801</v>
+      </c>
+      <c r="C48">
+        <v>3.4043602623838898</v>
+      </c>
+      <c r="E48">
+        <v>134.06232359419499</v>
+      </c>
+      <c r="F48">
+        <v>681.65305843851502</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="16"/>
+        <v>36588.557649378352</v>
+      </c>
+      <c r="N48">
+        <v>3.5103245434055301</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="17"/>
+        <v>36588.938684256034</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="18"/>
+        <v>34.951456310679497</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="14"/>
+        <v>36579.816124735735</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="10"/>
+        <v>36579</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="15"/>
+        <v>297.80731044100901</v>
+      </c>
+      <c r="W48">
+        <v>4.0585815502481299</v>
+      </c>
+      <c r="X48">
+        <v>1.94174757281552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>146.18629876582756</v>
+      </c>
+      <c r="B49">
+        <v>188.214859661003</v>
+      </c>
+      <c r="C49">
+        <v>1.2348618845955499</v>
+      </c>
+      <c r="E49">
+        <v>147.851031408995</v>
+      </c>
+      <c r="F49">
+        <v>536.52158192423894</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="16"/>
+        <v>36600.278237831546</v>
+      </c>
+      <c r="N49">
+        <v>3.7322794853394501</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="17"/>
+        <v>36599.994293337288</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="18"/>
+        <v>190.29126213592201</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" si="14"/>
+        <v>36589.128137486761</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="10"/>
+        <v>36589</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="15"/>
+        <v>371.98020934411102</v>
+      </c>
+      <c r="W49">
+        <v>3.5103245434055301</v>
+      </c>
+      <c r="X49">
+        <v>34.951456310679497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>163.43561949106501</v>
+      </c>
+      <c r="F50">
+        <v>568.51426189044298</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="16"/>
+        <v>36612.152515176313</v>
+      </c>
+      <c r="N50">
+        <v>2.5796905163787698</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="17"/>
+        <v>36612.772474616468</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="18"/>
+        <v>376.69902912621302</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="14"/>
+        <v>36600.475665684018</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="10"/>
+        <v>36600</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="15"/>
+        <v>567.77487944450297</v>
+      </c>
+      <c r="W50">
+        <v>3.7322794853394501</v>
+      </c>
+      <c r="X50">
+        <v>190.29126213592201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>79.911414308747496</v>
+      </c>
+      <c r="F51">
+        <v>56.9103111383317</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="16"/>
+        <v>36626.064980805568</v>
+      </c>
+      <c r="N51">
+        <v>0.24532287571129699</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="17"/>
+        <v>36626.700091405422</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="18"/>
+        <v>386.40776699029101</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="14"/>
+        <v>36613.062323594197</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="10"/>
+        <v>36613</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="15"/>
+        <v>681.65305843851502</v>
+      </c>
+      <c r="W51">
+        <v>2.5796905163787698</v>
+      </c>
+      <c r="X51">
+        <v>376.69902912621302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>87.463519740847104</v>
+      </c>
+      <c r="F52">
+        <v>125.76585484638601</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="17"/>
+        <v>36642.116282516858</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="18"/>
+        <v>452.42718446601901</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="14"/>
+        <v>36626.851031408994</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="10"/>
+        <v>36626</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="15"/>
+        <v>536.52158192423894</v>
+      </c>
+      <c r="W52">
+        <v>0.24532287571129699</v>
+      </c>
+      <c r="X52">
+        <v>386.40776699029101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>92.749329427347504</v>
+      </c>
+      <c r="F53">
+        <v>170.792917572139</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="14"/>
+        <v>36642.435619491065</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="10"/>
+        <v>36642</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="15"/>
+        <v>568.51426189044298</v>
+      </c>
+      <c r="X53">
+        <v>452.42718446601901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>108.871298014662</v>
+      </c>
+      <c r="F54">
+        <v>369.314890586893</v>
+      </c>
+      <c r="M54" s="4">
+        <f>DATE(1999,11,15)+A45</f>
+        <v>36566.457025840282</v>
+      </c>
+      <c r="N54">
+        <v>1.96698976136811</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="14"/>
+        <v>36558.91141430875</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="10"/>
+        <v>36558</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="15"/>
+        <v>56.9103111383317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>119.96314156369699</v>
+      </c>
+      <c r="F55">
+        <v>543.95968078159001</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="14"/>
+        <v>36566.46351974085</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="10"/>
+        <v>36566</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="15"/>
+        <v>125.76585484638601</v>
+      </c>
+      <c r="W55">
+        <v>1.96698976136811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>133.30578481904601</v>
+      </c>
+      <c r="F56">
+        <v>668.42386832794</v>
+      </c>
+      <c r="M56" s="4">
+        <f>DATE(1999,11,15)+A46</f>
+        <v>36587.414236211247</v>
+      </c>
+      <c r="N56">
+        <v>3.9774810741972302</v>
+      </c>
+      <c r="P56" s="4">
+        <f>DATE(1999,11,15)+H33</f>
+        <v>36587.715729143507</v>
+      </c>
+      <c r="Q56">
+        <f>I33</f>
+        <v>31.067961165048398</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="14"/>
+        <v>36571.749329427344</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="10"/>
+        <v>36571</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="15"/>
+        <v>170.792917572139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>147.35571158181301</v>
+      </c>
+      <c r="F57">
+        <v>570.87408730173297</v>
+      </c>
+      <c r="M57" s="4">
+        <f>DATE(1999,11,15)+A47</f>
+        <v>36597.962443957571</v>
+      </c>
+      <c r="N57">
+        <v>4.1717421845783704</v>
+      </c>
+      <c r="P57" s="4">
+        <f>DATE(1999,11,15)+H34</f>
+        <v>36598.996640233207</v>
+      </c>
+      <c r="Q57">
+        <f>I34</f>
+        <v>139.80582524271799</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="14"/>
+        <v>36587.871298014659</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="10"/>
+        <v>36587</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="15"/>
+        <v>369.314890586893</v>
+      </c>
+      <c r="W57">
+        <v>3.9774810741972302</v>
+      </c>
+      <c r="X57">
+        <v>31.067961165048398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>162.17878001896401</v>
+      </c>
+      <c r="F58">
+        <v>565.84894313322502</v>
+      </c>
+      <c r="M58" s="4">
+        <f>DATE(1999,11,15)+A48</f>
+        <v>36611.732485849621</v>
+      </c>
+      <c r="N58">
+        <v>3.4043602623838898</v>
+      </c>
+      <c r="P58" s="4">
+        <f>DATE(1999,11,15)+H35</f>
+        <v>36611.768497245488</v>
+      </c>
+      <c r="Q58">
+        <f>I35</f>
+        <v>310.67961165048501</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="14"/>
+        <v>36598.963141563698</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="10"/>
+        <v>36598</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="15"/>
+        <v>543.95968078159001</v>
+      </c>
+      <c r="W58">
+        <v>4.1717421845783704</v>
+      </c>
+      <c r="X58">
+        <v>139.80582524271799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M59" s="4">
+        <f>DATE(1999,11,15)+A49</f>
+        <v>36625.186298765824</v>
+      </c>
+      <c r="N59">
+        <v>1.2348618845955499</v>
+      </c>
+      <c r="P59" s="4">
+        <f>DATE(1999,11,15)+H36</f>
+        <v>36625.966476444577</v>
+      </c>
+      <c r="Q59">
+        <f>I36</f>
+        <v>384.46601941747502</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="14"/>
+        <v>36612.305784819044</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="10"/>
+        <v>36612</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="15"/>
+        <v>668.42386832794</v>
+      </c>
+      <c r="W59">
+        <v>3.4043602623838898</v>
+      </c>
+      <c r="X59">
+        <v>310.67961165048501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P60" s="4">
+        <f>DATE(1999,11,15)+H38</f>
+        <v>36640.400825119199</v>
+      </c>
+      <c r="Q60">
+        <f>I38</f>
+        <v>438.83495145631002</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" si="14"/>
+        <v>36626.355711581811</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="10"/>
+        <v>36626</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="15"/>
+        <v>570.87408730173297</v>
+      </c>
+      <c r="W60">
+        <v>1.2348618845955499</v>
+      </c>
+      <c r="X60">
+        <v>384.46601941747502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T61" s="4">
+        <f t="shared" si="14"/>
+        <v>36641.178780018963</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="10"/>
+        <v>36641</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="15"/>
+        <v>565.84894313322502</v>
+      </c>
+      <c r="X61">
+        <v>438.83495145631002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L148"/>
   <sheetViews>
@@ -18991,7 +22205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI261"/>
   <sheetViews>
@@ -32577,6 +35791,637 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>42125</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>42172</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="31">
+        <f>G5+A6-A5</f>
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>42185</v>
+      </c>
+      <c r="B7">
+        <v>2.39</v>
+      </c>
+      <c r="C7">
+        <v>0.16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>42199</v>
+      </c>
+      <c r="B8">
+        <v>6.15</v>
+      </c>
+      <c r="C8">
+        <v>0.76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>42207</v>
+      </c>
+      <c r="B9">
+        <v>7.9</v>
+      </c>
+      <c r="C9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>42227</v>
+      </c>
+      <c r="B10">
+        <v>10.49</v>
+      </c>
+      <c r="C10">
+        <v>1.99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>42243</v>
+      </c>
+      <c r="B11">
+        <v>14.02</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>42149</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>42185</v>
+      </c>
+      <c r="B13">
+        <v>0.69</v>
+      </c>
+      <c r="C13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>42199</v>
+      </c>
+      <c r="B14">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>42207</v>
+      </c>
+      <c r="B15">
+        <v>3.51</v>
+      </c>
+      <c r="C15">
+        <v>0.45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>42212</v>
+      </c>
+      <c r="B16">
+        <v>4.2</v>
+      </c>
+      <c r="C16">
+        <v>0.66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>42222</v>
+      </c>
+      <c r="B17">
+        <v>5.62</v>
+      </c>
+      <c r="C17">
+        <v>0.91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>42237</v>
+      </c>
+      <c r="B18">
+        <v>7.42</v>
+      </c>
+      <c r="C18">
+        <v>2.11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>42252</v>
+      </c>
+      <c r="B19">
+        <v>11.85</v>
+      </c>
+      <c r="C19">
+        <v>5.64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>42124</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>42173</v>
+      </c>
+      <c r="B21">
+        <v>0.84</v>
+      </c>
+      <c r="C21">
+        <v>0.4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>42184</v>
+      </c>
+      <c r="B22">
+        <v>2.08</v>
+      </c>
+      <c r="C22">
+        <v>0.82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>42193</v>
+      </c>
+      <c r="B23">
+        <v>3.82</v>
+      </c>
+      <c r="C23">
+        <v>1.22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>42198</v>
+      </c>
+      <c r="B24">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C24">
+        <v>1.46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>42206</v>
+      </c>
+      <c r="B25">
+        <v>5.51</v>
+      </c>
+      <c r="C25">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>42229</v>
+      </c>
+      <c r="B26">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C26">
+        <v>3.7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>42243</v>
+      </c>
+      <c r="B27">
+        <v>11.96</v>
+      </c>
+      <c r="C27">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>42149</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>42184</v>
+      </c>
+      <c r="B29">
+        <v>0.81</v>
+      </c>
+      <c r="C29">
+        <v>0.13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>42198</v>
+      </c>
+      <c r="B30">
+        <v>2.31</v>
+      </c>
+      <c r="C30">
+        <v>0.4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>42206</v>
+      </c>
+      <c r="B31">
+        <v>3.22</v>
+      </c>
+      <c r="C31">
+        <v>0.79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>42215</v>
+      </c>
+      <c r="B32">
+        <v>3.91</v>
+      </c>
+      <c r="C32">
+        <v>1.39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>42221</v>
+      </c>
+      <c r="B33">
+        <v>4.2</v>
+      </c>
+      <c r="C33">
+        <v>1.7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>42236</v>
+      </c>
+      <c r="B34">
+        <v>4.96</v>
+      </c>
+      <c r="C34">
+        <v>2.42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>42251</v>
+      </c>
+      <c r="B35">
+        <v>6.26</v>
+      </c>
+      <c r="C35">
+        <v>3.88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34325,7 +38170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M576"/>
   <sheetViews>
@@ -44142,7 +47987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF15"/>
   <sheetViews>
@@ -45628,7 +49473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I576"/>
   <sheetViews>
@@ -57466,7 +61311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
@@ -58045,7 +61890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR46"/>
   <sheetViews>
@@ -61156,7 +65001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS20"/>
   <sheetViews>
@@ -62615,2749 +66460,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X61"/>
-  <sheetViews>
-    <sheetView topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" t="s">
-        <v>186</v>
-      </c>
-      <c r="U2" t="s">
-        <v>189</v>
-      </c>
-      <c r="V2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W2" t="s">
-        <v>183</v>
-      </c>
-      <c r="X2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>B3*160/206</f>
-        <v>29.761733153810404</v>
-      </c>
-      <c r="B3">
-        <v>38.318231435530897</v>
-      </c>
-      <c r="C3">
-        <v>0.36252640515873402</v>
-      </c>
-      <c r="E3">
-        <v>29.906248962318799</v>
-      </c>
-      <c r="F3">
-        <v>32.240616594781997</v>
-      </c>
-      <c r="H3">
-        <v>71.086341065737798</v>
-      </c>
-      <c r="I3">
-        <v>3.8834951456309401</v>
-      </c>
-      <c r="M3" s="4">
-        <f>DATE(1999,11,15)+A3</f>
-        <v>36508.761733153813</v>
-      </c>
-      <c r="N3">
-        <v>0.36252640515873402</v>
-      </c>
-      <c r="T3" s="4">
-        <f>DATE(1999,11,15)+E3</f>
-        <v>36508.906248962317</v>
-      </c>
-      <c r="U3" s="4">
-        <f>DATE(YEAR(T3),MONTH(T3),DAY(T3))</f>
-        <v>36508</v>
-      </c>
-      <c r="V3">
-        <f>F3</f>
-        <v>32.240616594781997</v>
-      </c>
-      <c r="W3">
-        <v>0.36252640515873402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A49" si="0">B4*160/206</f>
-        <v>43.886627408061585</v>
-      </c>
-      <c r="B4">
-        <v>56.504032787879297</v>
-      </c>
-      <c r="C4">
-        <v>1.65706142168406</v>
-      </c>
-      <c r="E4">
-        <v>43.743105184900898</v>
-      </c>
-      <c r="F4">
-        <v>117.06593564716199</v>
-      </c>
-      <c r="H4">
-        <v>84.323031695447</v>
-      </c>
-      <c r="I4">
-        <v>116.504854368932</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M12" si="1">DATE(1999,11,15)+A4</f>
-        <v>36522.886627408065</v>
-      </c>
-      <c r="N4">
-        <v>1.65706142168406</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" ref="T4:T31" si="2">DATE(1999,11,15)+E4</f>
-        <v>36522.743105184898</v>
-      </c>
-      <c r="U4" s="4">
-        <f t="shared" ref="U4:U31" si="3">DATE(YEAR(T4),MONTH(T4),DAY(T4))</f>
-        <v>36522</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V31" si="4">F4</f>
-        <v>117.06593564716199</v>
-      </c>
-      <c r="W4">
-        <v>1.65706142168406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>50.954707112365043</v>
-      </c>
-      <c r="B5">
-        <v>65.604185407169993</v>
-      </c>
-      <c r="C5">
-        <v>2.4005498337359299</v>
-      </c>
-      <c r="E5">
-        <v>51.045613698498698</v>
-      </c>
-      <c r="F5">
-        <v>193.846596590133</v>
-      </c>
-      <c r="H5">
-        <v>99.306801057338305</v>
-      </c>
-      <c r="I5">
-        <v>320.388349514563</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="1"/>
-        <v>36529.954707112367</v>
-      </c>
-      <c r="N5">
-        <v>2.4005498337359299</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="2"/>
-        <v>36530.045613698501</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="3"/>
-        <v>36530</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
-        <v>193.846596590133</v>
-      </c>
-      <c r="W5">
-        <v>2.4005498337359299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>58.040489202084579</v>
-      </c>
-      <c r="B6">
-        <v>74.727129847683898</v>
-      </c>
-      <c r="C6">
-        <v>3.4464468005538702</v>
-      </c>
-      <c r="E6">
-        <v>57.848928375092697</v>
-      </c>
-      <c r="F6">
-        <v>286.477492002936</v>
-      </c>
-      <c r="H6">
-        <v>114.291360952592</v>
-      </c>
-      <c r="I6">
-        <v>526.21359223300897</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="1"/>
-        <v>36537.040489202082</v>
-      </c>
-      <c r="N6">
-        <v>3.4464468005538702</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="2"/>
-        <v>36536.84892837509</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="3"/>
-        <v>36536</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
-        <v>286.477492002936</v>
-      </c>
-      <c r="W6">
-        <v>3.4464468005538702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>64.666009270986478</v>
-      </c>
-      <c r="B7">
-        <v>83.257486936395097</v>
-      </c>
-      <c r="C7">
-        <v>4.6297213434540403</v>
-      </c>
-      <c r="E7">
-        <v>64.906267409984594</v>
-      </c>
-      <c r="F7">
-        <v>392.32872264672301</v>
-      </c>
-      <c r="H7">
-        <v>127.748610390572</v>
-      </c>
-      <c r="I7">
-        <v>580.58252427184402</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="1"/>
-        <v>36543.666009270986</v>
-      </c>
-      <c r="N7">
-        <v>4.6297213434540403</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="2"/>
-        <v>36543.906267409984</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="3"/>
-        <v>36543</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="4"/>
-        <v>392.32872264672301</v>
-      </c>
-      <c r="W7">
-        <v>4.6297213434540403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>70.786206701648155</v>
-      </c>
-      <c r="B8">
-        <v>91.137241128371997</v>
-      </c>
-      <c r="C8">
-        <v>5.1806062321228197</v>
-      </c>
-      <c r="E8">
-        <v>70.706766972774901</v>
-      </c>
-      <c r="F8">
-        <v>495.514634533292</v>
-      </c>
-      <c r="H8">
-        <v>142.38849773956801</v>
-      </c>
-      <c r="I8">
-        <v>539.80582524271802</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="1"/>
-        <v>36549.786206701647</v>
-      </c>
-      <c r="N8">
-        <v>5.1806062321228197</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" ref="P8:P13" si="5">DATE(1999,11,15)+H3</f>
-        <v>36550.08634106574</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ref="Q8:Q13" si="6">I3</f>
-        <v>3.8834951456309401</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="2"/>
-        <v>36549.706766972777</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="3"/>
-        <v>36549</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>495.514634533292</v>
-      </c>
-      <c r="W8">
-        <v>5.1806062321228197</v>
-      </c>
-      <c r="X8">
-        <v>3.8834951456309401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>83.664692091831455</v>
-      </c>
-      <c r="B9">
-        <v>107.718291068233</v>
-      </c>
-      <c r="C9">
-        <v>5.1828298244372704</v>
-      </c>
-      <c r="E9">
-        <v>84.571294694082297</v>
-      </c>
-      <c r="F9">
-        <v>712.49903149754402</v>
-      </c>
-      <c r="H9">
-        <v>70.839694656488504</v>
-      </c>
-      <c r="I9">
-        <v>-1.9417475728156399</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="1"/>
-        <v>36562.664692091828</v>
-      </c>
-      <c r="N9">
-        <v>5.1828298244372704</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="5"/>
-        <v>36563.32303169545</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>116.504854368932</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="2"/>
-        <v>36563.571294694084</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="3"/>
-        <v>36563</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="4"/>
-        <v>712.49903149754402</v>
-      </c>
-      <c r="W9">
-        <v>5.1828298244372704</v>
-      </c>
-      <c r="X9">
-        <v>116.504854368932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>98.334337024567773</v>
-      </c>
-      <c r="B10">
-        <v>126.605458919131</v>
-      </c>
-      <c r="C10">
-        <v>3.7833008217184299</v>
-      </c>
-      <c r="E10">
-        <v>98.911772193464301</v>
-      </c>
-      <c r="F10">
-        <v>802.619568545991</v>
-      </c>
-      <c r="H10">
-        <v>86.017935225672502</v>
-      </c>
-      <c r="I10">
-        <v>79.611650485436797</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="1"/>
-        <v>36577.334337024571</v>
-      </c>
-      <c r="N10">
-        <v>3.7833008217184299</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="5"/>
-        <v>36578.306801057341</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="6"/>
-        <v>320.388349514563</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="2"/>
-        <v>36577.911772193467</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="3"/>
-        <v>36577</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="4"/>
-        <v>802.619568545991</v>
-      </c>
-      <c r="W10">
-        <v>3.7833008217184299</v>
-      </c>
-      <c r="X10">
-        <v>320.388349514563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>113.46424397812194</v>
-      </c>
-      <c r="B11">
-        <v>146.085214121832</v>
-      </c>
-      <c r="C11">
-        <v>2.2463942429173498</v>
-      </c>
-      <c r="E11">
-        <v>114.510749454871</v>
-      </c>
-      <c r="F11">
-        <v>903.33496902636898</v>
-      </c>
-      <c r="H11">
-        <v>114.020998542454</v>
-      </c>
-      <c r="I11">
-        <v>462.135922330097</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="1"/>
-        <v>36592.464243978124</v>
-      </c>
-      <c r="N11">
-        <v>2.2463942429173498</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="5"/>
-        <v>36593.291360952593</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="6"/>
-        <v>526.21359223300897</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="2"/>
-        <v>36593.510749454872</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="3"/>
-        <v>36593</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
-        <v>903.33496902636898</v>
-      </c>
-      <c r="W11">
-        <v>2.2463942429173498</v>
-      </c>
-      <c r="X11">
-        <v>526.21359223300897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>127.61891042602717</v>
-      </c>
-      <c r="B12">
-        <v>164.30934717350999</v>
-      </c>
-      <c r="C12">
-        <v>4.95254651856189E-2</v>
-      </c>
-      <c r="E12">
-        <v>128.04875349122</v>
-      </c>
-      <c r="F12">
-        <v>760.84224663053305</v>
-      </c>
-      <c r="H12">
-        <v>127.700387855431</v>
-      </c>
-      <c r="I12">
-        <v>462.135922330097</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="1"/>
-        <v>36606.618910426027</v>
-      </c>
-      <c r="N12">
-        <v>4.95254651856189E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="5"/>
-        <v>36606.748610390569</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>580.58252427184402</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="2"/>
-        <v>36607.048753491217</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="3"/>
-        <v>36607</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
-        <v>760.84224663053305</v>
-      </c>
-      <c r="W12">
-        <v>4.95254651856189E-2</v>
-      </c>
-      <c r="X12">
-        <v>580.58252427184402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>52.561600915813827</v>
-      </c>
-      <c r="B13">
-        <v>67.673061179110306</v>
-      </c>
-      <c r="C13">
-        <v>1.8509991004558299</v>
-      </c>
-      <c r="E13">
-        <v>142.86296704877901</v>
-      </c>
-      <c r="F13">
-        <v>713.526197530226</v>
-      </c>
-      <c r="H13">
-        <v>142.38296400602701</v>
-      </c>
-      <c r="I13">
-        <v>526.21359223300897</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="5"/>
-        <v>36621.388497739565</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>539.80582524271802</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="2"/>
-        <v>36621.862967048779</v>
-      </c>
-      <c r="U13" s="4">
-        <f t="shared" si="3"/>
-        <v>36621</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="4"/>
-        <v>713.526197530226</v>
-      </c>
-      <c r="X13">
-        <v>539.80582524271802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>57.822427999914012</v>
-      </c>
-      <c r="B14">
-        <v>74.446376049889295</v>
-      </c>
-      <c r="C14">
-        <v>3.7213232395718499</v>
-      </c>
-      <c r="E14">
-        <v>44.494663090279097</v>
-      </c>
-      <c r="F14">
-        <v>106.506491733601</v>
-      </c>
-      <c r="H14">
-        <v>79.144247634575905</v>
-      </c>
-      <c r="I14">
-        <v>-3.8834951456311702</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="2"/>
-        <v>36523.494663090278</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="3"/>
-        <v>36523</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="4"/>
-        <v>106.506491733601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>70.808737010359451</v>
-      </c>
-      <c r="B15">
-        <v>91.1662489008378</v>
-      </c>
-      <c r="C15">
-        <v>5.5654898472796299</v>
-      </c>
-      <c r="E15">
-        <v>53.560952932625398</v>
-      </c>
-      <c r="F15">
-        <v>207.106778779281</v>
-      </c>
-      <c r="H15">
-        <v>86.235331900491602</v>
-      </c>
-      <c r="I15">
-        <v>13.5922330097087</v>
-      </c>
-      <c r="M15" s="4">
-        <f>DATE(1999,11,15)+A13</f>
-        <v>36531.561600915811</v>
-      </c>
-      <c r="N15">
-        <v>1.8509991004558299</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="2"/>
-        <v>36532.560952932625</v>
-      </c>
-      <c r="U15" s="4">
-        <f t="shared" si="3"/>
-        <v>36532</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="4"/>
-        <v>207.106778779281</v>
-      </c>
-      <c r="W15">
-        <v>1.8509991004558299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>86.028765198758066</v>
-      </c>
-      <c r="B16">
-        <v>110.762035193401</v>
-      </c>
-      <c r="C16">
-        <v>5.5681177291058104</v>
-      </c>
-      <c r="E16">
-        <v>58.594951980725803</v>
-      </c>
-      <c r="F16">
-        <v>249.48623250700001</v>
-      </c>
-      <c r="H16">
-        <v>92.840238148175501</v>
-      </c>
-      <c r="I16">
-        <v>36.893203883494998</v>
-      </c>
-      <c r="M16" s="4">
-        <f>DATE(1999,11,15)+A14</f>
-        <v>36536.822427999912</v>
-      </c>
-      <c r="N16">
-        <v>3.7213232395718499</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="2"/>
-        <v>36537.594951980725</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="3"/>
-        <v>36537</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="4"/>
-        <v>249.48623250700001</v>
-      </c>
-      <c r="W16">
-        <v>3.7213232395718499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>98.411583797292423</v>
-      </c>
-      <c r="B17">
-        <v>126.70491413901399</v>
-      </c>
-      <c r="C17">
-        <v>5.1029017879703602</v>
-      </c>
-      <c r="E17">
-        <v>71.442275408892499</v>
-      </c>
-      <c r="F17">
-        <v>408.30292543084499</v>
-      </c>
-      <c r="H17">
-        <v>110.25410706786199</v>
-      </c>
-      <c r="I17">
-        <v>209.70873786407699</v>
-      </c>
-      <c r="M17" s="4">
-        <f>DATE(1999,11,15)+A15</f>
-        <v>36549.80873701036</v>
-      </c>
-      <c r="N17">
-        <v>5.5654898472796299</v>
-      </c>
-      <c r="P17" s="4">
-        <f>DATE(1999,11,15)+H9</f>
-        <v>36549.83969465649</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="2"/>
-        <v>36550.442275408896</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="3"/>
-        <v>36550</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="4"/>
-        <v>408.30292543084499</v>
-      </c>
-      <c r="W17">
-        <v>5.5654898472796299</v>
-      </c>
-      <c r="X17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>127.40728645491728</v>
-      </c>
-      <c r="B18">
-        <v>164.03688131070601</v>
-      </c>
-      <c r="C18">
-        <v>0.43436865139126002</v>
-      </c>
-      <c r="E18">
-        <v>86.568623472072005</v>
-      </c>
-      <c r="F18">
-        <v>651.74127517645104</v>
-      </c>
-      <c r="H18">
-        <v>121.05437387287201</v>
-      </c>
-      <c r="I18">
-        <v>337.86407766990197</v>
-      </c>
-      <c r="M18" s="4">
-        <f>DATE(1999,11,15)+A16</f>
-        <v>36565.02876519876</v>
-      </c>
-      <c r="N18">
-        <v>5.5681177291058104</v>
-      </c>
-      <c r="P18" s="4">
-        <f>DATE(1999,11,15)+H10</f>
-        <v>36565.017935225675</v>
-      </c>
-      <c r="Q18">
-        <f>I10</f>
-        <v>79.611650485436797</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="2"/>
-        <v>36565.568623472071</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="3"/>
-        <v>36565</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="4"/>
-        <v>651.74127517645104</v>
-      </c>
-      <c r="W18">
-        <v>5.5681177291058104</v>
-      </c>
-      <c r="X18">
-        <v>79.611650485436797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>51.074600540864779</v>
-      </c>
-      <c r="B19">
-        <v>65.758548196363407</v>
-      </c>
-      <c r="C19">
-        <v>0.44868050010612398</v>
-      </c>
-      <c r="E19">
-        <v>99.423141489907195</v>
-      </c>
-      <c r="F19">
-        <v>844.91932835738203</v>
-      </c>
-      <c r="H19">
-        <v>134.06813409422099</v>
-      </c>
-      <c r="I19">
-        <v>502.91262135922301</v>
-      </c>
-      <c r="M19" s="4">
-        <f>DATE(1999,11,15)+A17</f>
-        <v>36577.411583797293</v>
-      </c>
-      <c r="N19">
-        <v>5.1029017879703602</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="2"/>
-        <v>36578.423141489904</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" si="3"/>
-        <v>36578</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="4"/>
-        <v>844.91932835738203</v>
-      </c>
-      <c r="W19">
-        <v>5.1029017879703602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>64.963731207529321</v>
-      </c>
-      <c r="B20">
-        <v>83.640803929694002</v>
-      </c>
-      <c r="C20">
-        <v>1.7156834008833699</v>
-      </c>
-      <c r="E20">
-        <v>114.521264624387</v>
-      </c>
-      <c r="F20">
-        <v>953.55541863287999</v>
-      </c>
-      <c r="H20">
-        <v>147.74831394056099</v>
-      </c>
-      <c r="I20">
-        <v>504.85436893203803</v>
-      </c>
-      <c r="P20" s="4">
-        <f>DATE(1999,11,15)+H11</f>
-        <v>36593.020998542452</v>
-      </c>
-      <c r="Q20">
-        <f>I11</f>
-        <v>462.135922330097</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="2"/>
-        <v>36593.521264624389</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" si="3"/>
-        <v>36593</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="4"/>
-        <v>953.55541863287999</v>
-      </c>
-      <c r="X20">
-        <v>462.135922330097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>66.163470146408699</v>
-      </c>
-      <c r="B21">
-        <v>85.185467813501205</v>
-      </c>
-      <c r="C21">
-        <v>2.2107359079836999</v>
-      </c>
-      <c r="E21">
-        <v>128.79367023690401</v>
-      </c>
-      <c r="F21">
-        <v>718.564624018122</v>
-      </c>
-      <c r="H21">
-        <v>92.585686405296499</v>
-      </c>
-      <c r="I21">
-        <v>11.650485436893099</v>
-      </c>
-      <c r="M21" s="4">
-        <f>DATE(1999,11,15)+A18</f>
-        <v>36606.407286454916</v>
-      </c>
-      <c r="N21">
-        <v>0.43436865139126002</v>
-      </c>
-      <c r="P21" s="4">
-        <f>DATE(1999,11,15)+H12</f>
-        <v>36606.700387855431</v>
-      </c>
-      <c r="Q21">
-        <f>I12</f>
-        <v>462.135922330097</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="2"/>
-        <v>36607.793670236904</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" si="3"/>
-        <v>36607</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="4"/>
-        <v>718.564624018122</v>
-      </c>
-      <c r="W21">
-        <v>0.43436865139126002</v>
-      </c>
-      <c r="X21">
-        <v>462.135922330097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>78.897922491616313</v>
-      </c>
-      <c r="B22">
-        <v>101.581075207956</v>
-      </c>
-      <c r="C22">
-        <v>3.7524535319742398</v>
-      </c>
-      <c r="E22">
-        <v>142.116943443146</v>
-      </c>
-      <c r="F22">
-        <v>750.51745702616199</v>
-      </c>
-      <c r="H22">
-        <v>97.728896464833596</v>
-      </c>
-      <c r="I22">
-        <v>44.660194174757102</v>
-      </c>
-      <c r="P22" s="4">
-        <f>DATE(1999,11,15)+H13</f>
-        <v>36621.382964006028</v>
-      </c>
-      <c r="Q22">
-        <f>I13</f>
-        <v>526.21359223300897</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="2"/>
-        <v>36621.116943443143</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" si="3"/>
-        <v>36621</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
-        <v>750.51745702616199</v>
-      </c>
-      <c r="X22">
-        <v>526.21359223300897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>85.957955657094359</v>
-      </c>
-      <c r="B23">
-        <v>110.670867908509</v>
-      </c>
-      <c r="C23">
-        <v>4.3584835100415402</v>
-      </c>
-      <c r="E23">
-        <v>51.262558248504803</v>
-      </c>
-      <c r="F23">
-        <v>29.973767419208301</v>
-      </c>
-      <c r="H23">
-        <v>109.261197163961</v>
-      </c>
-      <c r="I23">
-        <v>170.873786407766</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" ref="M23:M31" si="7">DATE(1999,11,15)+A19</f>
-        <v>36530.074600540866</v>
-      </c>
-      <c r="N23">
-        <v>0.44868050010612398</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="2"/>
-        <v>36530.262558248505</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="3"/>
-        <v>36530</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="4"/>
-        <v>29.973767419208301</v>
-      </c>
-      <c r="W23">
-        <v>0.44868050010612398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>92.985802667269894</v>
-      </c>
-      <c r="B24">
-        <v>119.71922093411</v>
-      </c>
-      <c r="C24">
-        <v>4.4146797521705201</v>
-      </c>
-      <c r="E24">
-        <v>64.852584702457506</v>
-      </c>
-      <c r="F24">
-        <v>135.94011149769199</v>
-      </c>
-      <c r="H24">
-        <v>120.569776921366</v>
-      </c>
-      <c r="I24">
-        <v>347.57281553398002</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="7"/>
-        <v>36543.963731207528</v>
-      </c>
-      <c r="N24">
-        <v>1.7156834008833699</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="2"/>
-        <v>36543.852584702458</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" si="3"/>
-        <v>36543</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="4"/>
-        <v>135.94011149769199</v>
-      </c>
-      <c r="W24">
-        <v>1.7156834008833699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>109.79985019699728</v>
-      </c>
-      <c r="B25">
-        <v>141.367307128634</v>
-      </c>
-      <c r="C25">
-        <v>3.64782340634128</v>
-      </c>
-      <c r="E25">
-        <v>66.615259171256994</v>
-      </c>
-      <c r="F25">
-        <v>154.47337448392599</v>
-      </c>
-      <c r="H25">
-        <v>133.56140220855201</v>
-      </c>
-      <c r="I25">
-        <v>458.252427184466</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="7"/>
-        <v>36545.163470146406</v>
-      </c>
-      <c r="N25">
-        <v>2.2107359079836999</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="2"/>
-        <v>36545.61525917126</v>
-      </c>
-      <c r="U25" s="4">
-        <f t="shared" si="3"/>
-        <v>36545</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="4"/>
-        <v>154.47337448392599</v>
-      </c>
-      <c r="W25">
-        <v>2.2107359079836999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>120.53876091348583</v>
-      </c>
-      <c r="B26">
-        <v>155.193654676113</v>
-      </c>
-      <c r="C26">
-        <v>3.0998494021568801</v>
-      </c>
-      <c r="E26">
-        <v>78.707704114198407</v>
-      </c>
-      <c r="F26">
-        <v>307.99042197190698</v>
-      </c>
-      <c r="H26">
-        <v>148.23528249215599</v>
-      </c>
-      <c r="I26">
-        <v>500.97087378640703</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="7"/>
-        <v>36557.897922491618</v>
-      </c>
-      <c r="N26">
-        <v>3.7524535319742398</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" ref="P26:P31" si="8">DATE(1999,11,15)+H14</f>
-        <v>36558.144247634576</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ref="Q26:Q32" si="9">I14</f>
-        <v>-3.8834951456311702</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="2"/>
-        <v>36557.707704114197</v>
-      </c>
-      <c r="U26" s="4">
-        <f t="shared" si="3"/>
-        <v>36557</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
-        <v>307.99042197190698</v>
-      </c>
-      <c r="W26">
-        <v>3.7524535319742398</v>
-      </c>
-      <c r="X26">
-        <v>-3.8834951456311702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>133.25792483492503</v>
-      </c>
-      <c r="B27">
-        <v>171.56957822496599</v>
-      </c>
-      <c r="C27">
-        <v>0.38039600157672898</v>
-      </c>
-      <c r="E27">
-        <v>86.024048377158806</v>
-      </c>
-      <c r="F27">
-        <v>450.850621870814</v>
-      </c>
-      <c r="H27">
-        <v>100.88707724993201</v>
-      </c>
-      <c r="I27">
-        <v>1.94174757281552</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" si="7"/>
-        <v>36564.957955657097</v>
-      </c>
-      <c r="N27">
-        <v>4.3584835100415402</v>
-      </c>
-      <c r="P27" s="4">
-        <f t="shared" si="8"/>
-        <v>36565.235331900491</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="9"/>
-        <v>13.5922330097087</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="2"/>
-        <v>36565.024048377156</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="3"/>
-        <v>36565</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="4"/>
-        <v>450.850621870814</v>
-      </c>
-      <c r="W27">
-        <v>4.3584835100415402</v>
-      </c>
-      <c r="X27">
-        <v>13.5922330097087</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>64.968559130824616</v>
-      </c>
-      <c r="B28">
-        <v>83.647019880936696</v>
-      </c>
-      <c r="C28">
-        <v>1.7981584612741099</v>
-      </c>
-      <c r="E28">
-        <v>93.074192822382201</v>
-      </c>
-      <c r="F28">
-        <v>522.34049225751403</v>
-      </c>
-      <c r="H28">
-        <v>109.93868425603399</v>
-      </c>
-      <c r="I28">
-        <v>34.951456310679497</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="7"/>
-        <v>36571.985802667266</v>
-      </c>
-      <c r="N28">
-        <v>4.4146797521705201</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="8"/>
-        <v>36571.840238148172</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="9"/>
-        <v>36.893203883494998</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="2"/>
-        <v>36572.07419282238</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="3"/>
-        <v>36572</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="4"/>
-        <v>522.34049225751403</v>
-      </c>
-      <c r="W28">
-        <v>4.4146797521705201</v>
-      </c>
-      <c r="X28">
-        <v>36.893203883494998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>69.695096036912787</v>
-      </c>
-      <c r="B29">
-        <v>89.732436147525206</v>
-      </c>
-      <c r="C29">
-        <v>2.5412425838142698</v>
-      </c>
-      <c r="E29">
-        <v>109.42694170906501</v>
-      </c>
-      <c r="F29">
-        <v>623.06917505727995</v>
-      </c>
-      <c r="H29">
-        <v>120.994293337286</v>
-      </c>
-      <c r="I29">
-        <v>190.29126213592201</v>
-      </c>
-      <c r="M29" s="4">
-        <f t="shared" si="7"/>
-        <v>36588.799850197</v>
-      </c>
-      <c r="N29">
-        <v>3.64782340634128</v>
-      </c>
-      <c r="P29" s="4">
-        <f t="shared" si="8"/>
-        <v>36589.254107067864</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="9"/>
-        <v>209.70873786407699</v>
-      </c>
-      <c r="T29" s="4">
-        <f t="shared" si="2"/>
-        <v>36588.426941709062</v>
-      </c>
-      <c r="U29" s="4">
-        <f t="shared" si="3"/>
-        <v>36588</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="4"/>
-        <v>623.06917505727995</v>
-      </c>
-      <c r="W29">
-        <v>3.64782340634128</v>
-      </c>
-      <c r="X29">
-        <v>209.70873786407699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>79.167481542269513</v>
-      </c>
-      <c r="B30">
-        <v>101.92813248567199</v>
-      </c>
-      <c r="C30">
-        <v>4.3573110704575502</v>
-      </c>
-      <c r="E30">
-        <v>121.249312824448</v>
-      </c>
-      <c r="F30">
-        <v>686.71362212539202</v>
-      </c>
-      <c r="H30">
-        <v>133.77247461646701</v>
-      </c>
-      <c r="I30">
-        <v>376.69902912621302</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="7"/>
-        <v>36599.538760913485</v>
-      </c>
-      <c r="N30">
-        <v>3.0998494021568801</v>
-      </c>
-      <c r="P30" s="4">
-        <f t="shared" si="8"/>
-        <v>36600.054373872874</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="9"/>
-        <v>337.86407766990197</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="2"/>
-        <v>36600.249312824446</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" si="3"/>
-        <v>36600</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="4"/>
-        <v>686.71362212539202</v>
-      </c>
-      <c r="W30">
-        <v>3.0998494021568801</v>
-      </c>
-      <c r="X30">
-        <v>337.86407766990197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>92.531977877513</v>
-      </c>
-      <c r="B31">
-        <v>119.134921517298</v>
-      </c>
-      <c r="C31">
-        <v>4.6620240754404199</v>
-      </c>
-      <c r="E31">
-        <v>134.316347952493</v>
-      </c>
-      <c r="F31">
-        <v>694.87339366949902</v>
-      </c>
-      <c r="H31">
-        <v>147.70009140542001</v>
-      </c>
-      <c r="I31">
-        <v>386.40776699029101</v>
-      </c>
-      <c r="M31" s="4">
-        <f t="shared" si="7"/>
-        <v>36612.257924834928</v>
-      </c>
-      <c r="N31">
-        <v>0.38039600157672898</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" si="8"/>
-        <v>36613.068134094217</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="9"/>
-        <v>502.91262135922301</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="2"/>
-        <v>36613.316347952496</v>
-      </c>
-      <c r="U31" s="4">
-        <f t="shared" si="3"/>
-        <v>36613</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="4"/>
-        <v>694.87339366949902</v>
-      </c>
-      <c r="W31">
-        <v>0.38039600157672898</v>
-      </c>
-      <c r="X31">
-        <v>502.91262135922301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>98.004428932723101</v>
-      </c>
-      <c r="B32">
-        <v>126.180702250881</v>
-      </c>
-      <c r="C32">
-        <v>6.1475050283507997</v>
-      </c>
-      <c r="E32">
-        <v>51.009640750155803</v>
-      </c>
-      <c r="F32">
-        <v>22.0397953047001</v>
-      </c>
-      <c r="H32">
-        <v>163.11628251686</v>
-      </c>
-      <c r="I32">
-        <v>452.42718446601901</v>
-      </c>
-      <c r="P32" s="4">
-        <f>DATE(1999,11,15)+H20</f>
-        <v>36626.748313940559</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="9"/>
-        <v>504.85436893203803</v>
-      </c>
-      <c r="T32" s="4">
-        <f>P32</f>
-        <v>36626.748313940559</v>
-      </c>
-      <c r="X32">
-        <v>504.85436893203803</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>109.58500761035728</v>
-      </c>
-      <c r="B33">
-        <v>141.09069729833499</v>
-      </c>
-      <c r="C33">
-        <v>3.9776832189530902</v>
-      </c>
-      <c r="E33">
-        <v>65.101628190984997</v>
-      </c>
-      <c r="F33">
-        <v>125.371812704538</v>
-      </c>
-      <c r="H33">
-        <v>108.715729143506</v>
-      </c>
-      <c r="I33">
-        <v>31.067961165048398</v>
-      </c>
-      <c r="T33" s="4">
-        <f>DATE(1999,11,15)+L20</f>
-        <v>36479</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" ref="U33:U61" si="10">DATE(YEAR(T33),MONTH(T33),DAY(T33))</f>
-        <v>36479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>120.55968191443185</v>
-      </c>
-      <c r="B34">
-        <v>155.22059046483099</v>
-      </c>
-      <c r="C34">
-        <v>3.45724133051678</v>
-      </c>
-      <c r="E34">
-        <v>79.465349749296195</v>
-      </c>
-      <c r="F34">
-        <v>326.505975198957</v>
-      </c>
-      <c r="H34">
-        <v>119.996640233207</v>
-      </c>
-      <c r="I34">
-        <v>139.80582524271799</v>
-      </c>
-      <c r="M34" s="4">
-        <f t="shared" ref="M34:M41" si="11">DATE(1999,11,15)+A28</f>
-        <v>36543.968559130823</v>
-      </c>
-      <c r="N34">
-        <v>1.7981584612741099</v>
-      </c>
-      <c r="T34" s="4">
-        <f>DATE(1999,11,15)+E32</f>
-        <v>36530.009640750155</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" si="10"/>
-        <v>36530</v>
-      </c>
-      <c r="V34">
-        <f>F32</f>
-        <v>22.0397953047001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>133.12837555983535</v>
-      </c>
-      <c r="B35">
-        <v>171.40278353328799</v>
-      </c>
-      <c r="C35">
-        <v>2.1673152144250398</v>
-      </c>
-      <c r="E35">
-        <v>93.069765382586098</v>
-      </c>
-      <c r="F35">
-        <v>501.19503979161499</v>
-      </c>
-      <c r="H35">
-        <v>132.76849724548501</v>
-      </c>
-      <c r="I35">
-        <v>310.67961165048501</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" si="11"/>
-        <v>36548.695096036914</v>
-      </c>
-      <c r="N35">
-        <v>2.5412425838142698</v>
-      </c>
-      <c r="T35" s="4">
-        <f>DATE(1999,11,15)+E33</f>
-        <v>36544.101628190983</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="10"/>
-        <v>36544</v>
-      </c>
-      <c r="V35">
-        <f>F33</f>
-        <v>125.371812704538</v>
-      </c>
-      <c r="W35">
-        <v>1.7981584612741099</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>74.02976650219999</v>
-      </c>
-      <c r="B36">
-        <v>95.313324371582496</v>
-      </c>
-      <c r="C36">
-        <v>0.59010097130555095</v>
-      </c>
-      <c r="E36">
-        <v>97.604017163708207</v>
-      </c>
-      <c r="F36">
-        <v>556.78154643093001</v>
-      </c>
-      <c r="H36">
-        <v>146.96647644457599</v>
-      </c>
-      <c r="I36">
-        <v>384.46601941747502</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" si="11"/>
-        <v>36558.167481542267</v>
-      </c>
-      <c r="N36">
-        <v>4.3573110704575502</v>
-      </c>
-      <c r="T36" s="4">
-        <f>DATE(1999,11,15)+H29</f>
-        <v>36599.994293337288</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="10"/>
-        <v>36599</v>
-      </c>
-      <c r="W36">
-        <v>2.5412425838142698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>78.728945176281172</v>
-      </c>
-      <c r="B37">
-        <v>101.363516914462</v>
-      </c>
-      <c r="C37">
-        <v>0.865826418298143</v>
-      </c>
-      <c r="E37">
-        <v>110.681014031294</v>
-      </c>
-      <c r="F37">
-        <v>612.51858602331004</v>
-      </c>
-      <c r="H37">
-        <v>146.96647644457599</v>
-      </c>
-      <c r="I37">
-        <v>384.46601941747502</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" si="11"/>
-        <v>36571.531977877516</v>
-      </c>
-      <c r="N37">
-        <v>4.6620240754404199</v>
-      </c>
-      <c r="P37" s="4">
-        <f t="shared" ref="P37:P42" si="12">DATE(1999,11,15)+H21</f>
-        <v>36571.585686405298</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" ref="Q37:Q42" si="13">I21</f>
-        <v>11.650485436893099</v>
-      </c>
-      <c r="T37" s="4">
-        <f t="shared" ref="T37:T61" si="14">DATE(1999,11,15)+E34</f>
-        <v>36558.465349749298</v>
-      </c>
-      <c r="U37" s="4">
-        <f t="shared" si="10"/>
-        <v>36558</v>
-      </c>
-      <c r="V37">
-        <f t="shared" ref="V37:V61" si="15">F34</f>
-        <v>326.505975198957</v>
-      </c>
-      <c r="W37">
-        <v>4.3573110704575502</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>88.167535218571658</v>
-      </c>
-      <c r="B38">
-        <v>113.515701593911</v>
-      </c>
-      <c r="C38">
-        <v>2.1045694822062</v>
-      </c>
-      <c r="E38">
-        <v>121.264808863734</v>
-      </c>
-      <c r="F38">
-        <v>760.72270575604</v>
-      </c>
-      <c r="H38">
-        <v>161.40082511919701</v>
-      </c>
-      <c r="I38">
-        <v>438.83495145631002</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="11"/>
-        <v>36577.00442893272</v>
-      </c>
-      <c r="N38">
-        <v>6.1475050283507997</v>
-      </c>
-      <c r="P38" s="4">
-        <f t="shared" si="12"/>
-        <v>36576.728896464832</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="13"/>
-        <v>44.660194174757102</v>
-      </c>
-      <c r="T38" s="4">
-        <f t="shared" si="14"/>
-        <v>36572.069765382585</v>
-      </c>
-      <c r="U38" s="4">
-        <f t="shared" si="10"/>
-        <v>36572</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="15"/>
-        <v>501.19503979161499</v>
-      </c>
-      <c r="W38">
-        <v>4.6620240754404199</v>
-      </c>
-      <c r="X38">
-        <v>11.650485436893099</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>92.886025585834574</v>
-      </c>
-      <c r="B39">
-        <v>119.59075794176201</v>
-      </c>
-      <c r="C39">
-        <v>2.71019517076178</v>
-      </c>
-      <c r="E39">
-        <v>133.830989864852</v>
-      </c>
-      <c r="F39">
-        <v>776.80316709526699</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" si="11"/>
-        <v>36588.58500761036</v>
-      </c>
-      <c r="N39">
-        <v>3.9776832189530902</v>
-      </c>
-      <c r="P39" s="4">
-        <f t="shared" si="12"/>
-        <v>36588.261197163964</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="13"/>
-        <v>170.873786407766</v>
-      </c>
-      <c r="T39" s="4">
-        <f t="shared" si="14"/>
-        <v>36576.604017163707</v>
-      </c>
-      <c r="U39" s="4">
-        <f t="shared" si="10"/>
-        <v>36576</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="15"/>
-        <v>556.78154643093001</v>
-      </c>
-      <c r="W39">
-        <v>6.1475050283507997</v>
-      </c>
-      <c r="X39">
-        <v>44.660194174757102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>100.45781862061281</v>
-      </c>
-      <c r="B40">
-        <v>129.33944147403901</v>
-      </c>
-      <c r="C40">
-        <v>4.0585815502481299</v>
-      </c>
-      <c r="E40">
-        <v>148.38287761449499</v>
-      </c>
-      <c r="F40">
-        <v>676.61905939041503</v>
-      </c>
-      <c r="M40" s="4">
-        <f t="shared" si="11"/>
-        <v>36599.559681914434</v>
-      </c>
-      <c r="N40">
-        <v>3.45724133051678</v>
-      </c>
-      <c r="P40" s="4">
-        <f t="shared" si="12"/>
-        <v>36599.569776921366</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="13"/>
-        <v>347.57281553398002</v>
-      </c>
-      <c r="T40" s="4">
-        <f t="shared" si="14"/>
-        <v>36589.681014031295</v>
-      </c>
-      <c r="U40" s="4">
-        <f t="shared" si="10"/>
-        <v>36589</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="15"/>
-        <v>612.51858602331004</v>
-      </c>
-      <c r="W40">
-        <v>3.9776832189530902</v>
-      </c>
-      <c r="X40">
-        <v>170.873786407766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>109.55764937835031</v>
-      </c>
-      <c r="B41">
-        <v>141.05547357462601</v>
-      </c>
-      <c r="C41">
-        <v>3.5103245434055301</v>
-      </c>
-      <c r="E41">
-        <v>74.126964215217797</v>
-      </c>
-      <c r="F41">
-        <v>30.376664440648</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="11"/>
-        <v>36612.128375559834</v>
-      </c>
-      <c r="N41">
-        <v>2.1673152144250398</v>
-      </c>
-      <c r="P41" s="4">
-        <f t="shared" si="12"/>
-        <v>36612.56140220855</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="13"/>
-        <v>458.252427184466</v>
-      </c>
-      <c r="T41" s="4">
-        <f t="shared" si="14"/>
-        <v>36600.264808863736</v>
-      </c>
-      <c r="U41" s="4">
-        <f t="shared" si="10"/>
-        <v>36600</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="15"/>
-        <v>760.72270575604</v>
-      </c>
-      <c r="W41">
-        <v>3.45724133051678</v>
-      </c>
-      <c r="X41">
-        <v>347.57281553398002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>121.27823783154797</v>
-      </c>
-      <c r="B42">
-        <v>156.14573120811801</v>
-      </c>
-      <c r="C42">
-        <v>3.7322794853394501</v>
-      </c>
-      <c r="E42">
-        <v>79.410560181820102</v>
-      </c>
-      <c r="F42">
-        <v>64.831000933451804</v>
-      </c>
-      <c r="P42" s="4">
-        <f t="shared" si="12"/>
-        <v>36627.235282492155</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="13"/>
-        <v>500.97087378640703</v>
-      </c>
-      <c r="T42" s="4">
-        <f t="shared" si="14"/>
-        <v>36612.830989864851</v>
-      </c>
-      <c r="U42" s="4">
-        <f t="shared" si="10"/>
-        <v>36612</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="15"/>
-        <v>776.80316709526699</v>
-      </c>
-      <c r="W42">
-        <v>2.1673152144250398</v>
-      </c>
-      <c r="X42">
-        <v>458.252427184466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>133.15251517631145</v>
-      </c>
-      <c r="B43">
-        <v>171.43386328950101</v>
-      </c>
-      <c r="C43">
-        <v>2.5796905163787698</v>
-      </c>
-      <c r="E43">
-        <v>88.222272235893996</v>
-      </c>
-      <c r="F43">
-        <v>149.56777118991101</v>
-      </c>
-      <c r="M43" s="4">
-        <f t="shared" ref="M43:M51" si="16">DATE(1999,11,15)+A36</f>
-        <v>36553.029766502201</v>
-      </c>
-      <c r="N43">
-        <v>0.59010097130555095</v>
-      </c>
-      <c r="T43" s="4">
-        <f t="shared" si="14"/>
-        <v>36627.382877614495</v>
-      </c>
-      <c r="U43" s="4">
-        <f t="shared" si="10"/>
-        <v>36627</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="15"/>
-        <v>676.61905939041503</v>
-      </c>
-      <c r="X43">
-        <v>500.97087378640703</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>147.06498080556972</v>
-      </c>
-      <c r="B44">
-        <v>189.34616278717101</v>
-      </c>
-      <c r="C44">
-        <v>0.24532287571129699</v>
-      </c>
-      <c r="E44">
-        <v>93.257931573917901</v>
-      </c>
-      <c r="F44">
-        <v>199.87676959234301</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" si="16"/>
-        <v>36557.728945176284</v>
-      </c>
-      <c r="N44">
-        <v>0.865826418298143</v>
-      </c>
-      <c r="T44" s="4">
-        <f t="shared" si="14"/>
-        <v>36553.126964215218</v>
-      </c>
-      <c r="U44" s="4">
-        <f t="shared" si="10"/>
-        <v>36553</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="15"/>
-        <v>30.376664440648</v>
-      </c>
-      <c r="W44">
-        <v>0.59010097130555095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>87.457025840281176</v>
-      </c>
-      <c r="B45">
-        <v>112.60092076936201</v>
-      </c>
-      <c r="C45">
-        <v>1.96698976136811</v>
-      </c>
-      <c r="E45">
-        <v>100.81612473573701</v>
-      </c>
-      <c r="F45">
-        <v>297.80731044100901</v>
-      </c>
-      <c r="M45" s="4">
-        <f t="shared" si="16"/>
-        <v>36567.16753521857</v>
-      </c>
-      <c r="N45">
-        <v>2.1045694822062</v>
-      </c>
-      <c r="T45" s="4">
-        <f t="shared" si="14"/>
-        <v>36558.410560181823</v>
-      </c>
-      <c r="U45" s="4">
-        <f t="shared" si="10"/>
-        <v>36558</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="15"/>
-        <v>64.831000933451804</v>
-      </c>
-      <c r="W45">
-        <v>0.865826418298143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>108.41423621124972</v>
-      </c>
-      <c r="B46">
-        <v>139.58332912198401</v>
-      </c>
-      <c r="C46">
-        <v>3.9774810741972302</v>
-      </c>
-      <c r="E46">
-        <v>110.12813748676299</v>
-      </c>
-      <c r="F46">
-        <v>371.98020934411102</v>
-      </c>
-      <c r="M46" s="4">
-        <f t="shared" si="16"/>
-        <v>36571.886025585838</v>
-      </c>
-      <c r="N46">
-        <v>2.71019517076178</v>
-      </c>
-      <c r="T46" s="4">
-        <f t="shared" si="14"/>
-        <v>36567.222272235893</v>
-      </c>
-      <c r="U46" s="4">
-        <f t="shared" si="10"/>
-        <v>36567</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="15"/>
-        <v>149.56777118991101</v>
-      </c>
-      <c r="W46">
-        <v>2.1045694822062</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>118.96244395757358</v>
-      </c>
-      <c r="B47">
-        <v>153.164146595376</v>
-      </c>
-      <c r="C47">
-        <v>4.1717421845783704</v>
-      </c>
-      <c r="E47">
-        <v>121.475665684021</v>
-      </c>
-      <c r="F47">
-        <v>567.77487944450297</v>
-      </c>
-      <c r="M47" s="4">
-        <f t="shared" si="16"/>
-        <v>36579.457818620613</v>
-      </c>
-      <c r="N47">
-        <v>4.0585815502481299</v>
-      </c>
-      <c r="P47" s="4">
-        <f t="shared" ref="P47:P52" si="17">DATE(1999,11,15)+H27</f>
-        <v>36579.887077249929</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" ref="Q47:Q52" si="18">I27</f>
-        <v>1.94174757281552</v>
-      </c>
-      <c r="T47" s="4">
-        <f t="shared" si="14"/>
-        <v>36572.25793157392</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="10"/>
-        <v>36572</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="15"/>
-        <v>199.87676959234301</v>
-      </c>
-      <c r="W47">
-        <v>2.71019517076178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>132.73248584962175</v>
-      </c>
-      <c r="B48">
-        <v>170.89307553138801</v>
-      </c>
-      <c r="C48">
-        <v>3.4043602623838898</v>
-      </c>
-      <c r="E48">
-        <v>134.06232359419499</v>
-      </c>
-      <c r="F48">
-        <v>681.65305843851502</v>
-      </c>
-      <c r="M48" s="4">
-        <f t="shared" si="16"/>
-        <v>36588.557649378352</v>
-      </c>
-      <c r="N48">
-        <v>3.5103245434055301</v>
-      </c>
-      <c r="P48" s="4">
-        <f t="shared" si="17"/>
-        <v>36588.938684256034</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="18"/>
-        <v>34.951456310679497</v>
-      </c>
-      <c r="T48" s="4">
-        <f t="shared" si="14"/>
-        <v>36579.816124735735</v>
-      </c>
-      <c r="U48" s="4">
-        <f t="shared" si="10"/>
-        <v>36579</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="15"/>
-        <v>297.80731044100901</v>
-      </c>
-      <c r="W48">
-        <v>4.0585815502481299</v>
-      </c>
-      <c r="X48">
-        <v>1.94174757281552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>146.18629876582756</v>
-      </c>
-      <c r="B49">
-        <v>188.214859661003</v>
-      </c>
-      <c r="C49">
-        <v>1.2348618845955499</v>
-      </c>
-      <c r="E49">
-        <v>147.851031408995</v>
-      </c>
-      <c r="F49">
-        <v>536.52158192423894</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" si="16"/>
-        <v>36600.278237831546</v>
-      </c>
-      <c r="N49">
-        <v>3.7322794853394501</v>
-      </c>
-      <c r="P49" s="4">
-        <f t="shared" si="17"/>
-        <v>36599.994293337288</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="18"/>
-        <v>190.29126213592201</v>
-      </c>
-      <c r="T49" s="4">
-        <f t="shared" si="14"/>
-        <v>36589.128137486761</v>
-      </c>
-      <c r="U49" s="4">
-        <f t="shared" si="10"/>
-        <v>36589</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="15"/>
-        <v>371.98020934411102</v>
-      </c>
-      <c r="W49">
-        <v>3.5103245434055301</v>
-      </c>
-      <c r="X49">
-        <v>34.951456310679497</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E50">
-        <v>163.43561949106501</v>
-      </c>
-      <c r="F50">
-        <v>568.51426189044298</v>
-      </c>
-      <c r="M50" s="4">
-        <f t="shared" si="16"/>
-        <v>36612.152515176313</v>
-      </c>
-      <c r="N50">
-        <v>2.5796905163787698</v>
-      </c>
-      <c r="P50" s="4">
-        <f t="shared" si="17"/>
-        <v>36612.772474616468</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="18"/>
-        <v>376.69902912621302</v>
-      </c>
-      <c r="T50" s="4">
-        <f t="shared" si="14"/>
-        <v>36600.475665684018</v>
-      </c>
-      <c r="U50" s="4">
-        <f t="shared" si="10"/>
-        <v>36600</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="15"/>
-        <v>567.77487944450297</v>
-      </c>
-      <c r="W50">
-        <v>3.7322794853394501</v>
-      </c>
-      <c r="X50">
-        <v>190.29126213592201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E51">
-        <v>79.911414308747496</v>
-      </c>
-      <c r="F51">
-        <v>56.9103111383317</v>
-      </c>
-      <c r="M51" s="4">
-        <f t="shared" si="16"/>
-        <v>36626.064980805568</v>
-      </c>
-      <c r="N51">
-        <v>0.24532287571129699</v>
-      </c>
-      <c r="P51" s="4">
-        <f t="shared" si="17"/>
-        <v>36626.700091405422</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="18"/>
-        <v>386.40776699029101</v>
-      </c>
-      <c r="T51" s="4">
-        <f t="shared" si="14"/>
-        <v>36613.062323594197</v>
-      </c>
-      <c r="U51" s="4">
-        <f t="shared" si="10"/>
-        <v>36613</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="15"/>
-        <v>681.65305843851502</v>
-      </c>
-      <c r="W51">
-        <v>2.5796905163787698</v>
-      </c>
-      <c r="X51">
-        <v>376.69902912621302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E52">
-        <v>87.463519740847104</v>
-      </c>
-      <c r="F52">
-        <v>125.76585484638601</v>
-      </c>
-      <c r="P52" s="4">
-        <f t="shared" si="17"/>
-        <v>36642.116282516858</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="18"/>
-        <v>452.42718446601901</v>
-      </c>
-      <c r="T52" s="4">
-        <f t="shared" si="14"/>
-        <v>36626.851031408994</v>
-      </c>
-      <c r="U52" s="4">
-        <f t="shared" si="10"/>
-        <v>36626</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="15"/>
-        <v>536.52158192423894</v>
-      </c>
-      <c r="W52">
-        <v>0.24532287571129699</v>
-      </c>
-      <c r="X52">
-        <v>386.40776699029101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E53">
-        <v>92.749329427347504</v>
-      </c>
-      <c r="F53">
-        <v>170.792917572139</v>
-      </c>
-      <c r="T53" s="4">
-        <f t="shared" si="14"/>
-        <v>36642.435619491065</v>
-      </c>
-      <c r="U53" s="4">
-        <f t="shared" si="10"/>
-        <v>36642</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="15"/>
-        <v>568.51426189044298</v>
-      </c>
-      <c r="X53">
-        <v>452.42718446601901</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E54">
-        <v>108.871298014662</v>
-      </c>
-      <c r="F54">
-        <v>369.314890586893</v>
-      </c>
-      <c r="M54" s="4">
-        <f>DATE(1999,11,15)+A45</f>
-        <v>36566.457025840282</v>
-      </c>
-      <c r="N54">
-        <v>1.96698976136811</v>
-      </c>
-      <c r="T54" s="4">
-        <f t="shared" si="14"/>
-        <v>36558.91141430875</v>
-      </c>
-      <c r="U54" s="4">
-        <f t="shared" si="10"/>
-        <v>36558</v>
-      </c>
-      <c r="V54">
-        <f t="shared" si="15"/>
-        <v>56.9103111383317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E55">
-        <v>119.96314156369699</v>
-      </c>
-      <c r="F55">
-        <v>543.95968078159001</v>
-      </c>
-      <c r="T55" s="4">
-        <f t="shared" si="14"/>
-        <v>36566.46351974085</v>
-      </c>
-      <c r="U55" s="4">
-        <f t="shared" si="10"/>
-        <v>36566</v>
-      </c>
-      <c r="V55">
-        <f t="shared" si="15"/>
-        <v>125.76585484638601</v>
-      </c>
-      <c r="W55">
-        <v>1.96698976136811</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E56">
-        <v>133.30578481904601</v>
-      </c>
-      <c r="F56">
-        <v>668.42386832794</v>
-      </c>
-      <c r="M56" s="4">
-        <f>DATE(1999,11,15)+A46</f>
-        <v>36587.414236211247</v>
-      </c>
-      <c r="N56">
-        <v>3.9774810741972302</v>
-      </c>
-      <c r="P56" s="4">
-        <f>DATE(1999,11,15)+H33</f>
-        <v>36587.715729143507</v>
-      </c>
-      <c r="Q56">
-        <f>I33</f>
-        <v>31.067961165048398</v>
-      </c>
-      <c r="T56" s="4">
-        <f t="shared" si="14"/>
-        <v>36571.749329427344</v>
-      </c>
-      <c r="U56" s="4">
-        <f t="shared" si="10"/>
-        <v>36571</v>
-      </c>
-      <c r="V56">
-        <f t="shared" si="15"/>
-        <v>170.792917572139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E57">
-        <v>147.35571158181301</v>
-      </c>
-      <c r="F57">
-        <v>570.87408730173297</v>
-      </c>
-      <c r="M57" s="4">
-        <f>DATE(1999,11,15)+A47</f>
-        <v>36597.962443957571</v>
-      </c>
-      <c r="N57">
-        <v>4.1717421845783704</v>
-      </c>
-      <c r="P57" s="4">
-        <f>DATE(1999,11,15)+H34</f>
-        <v>36598.996640233207</v>
-      </c>
-      <c r="Q57">
-        <f>I34</f>
-        <v>139.80582524271799</v>
-      </c>
-      <c r="T57" s="4">
-        <f t="shared" si="14"/>
-        <v>36587.871298014659</v>
-      </c>
-      <c r="U57" s="4">
-        <f t="shared" si="10"/>
-        <v>36587</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="15"/>
-        <v>369.314890586893</v>
-      </c>
-      <c r="W57">
-        <v>3.9774810741972302</v>
-      </c>
-      <c r="X57">
-        <v>31.067961165048398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E58">
-        <v>162.17878001896401</v>
-      </c>
-      <c r="F58">
-        <v>565.84894313322502</v>
-      </c>
-      <c r="M58" s="4">
-        <f>DATE(1999,11,15)+A48</f>
-        <v>36611.732485849621</v>
-      </c>
-      <c r="N58">
-        <v>3.4043602623838898</v>
-      </c>
-      <c r="P58" s="4">
-        <f>DATE(1999,11,15)+H35</f>
-        <v>36611.768497245488</v>
-      </c>
-      <c r="Q58">
-        <f>I35</f>
-        <v>310.67961165048501</v>
-      </c>
-      <c r="T58" s="4">
-        <f t="shared" si="14"/>
-        <v>36598.963141563698</v>
-      </c>
-      <c r="U58" s="4">
-        <f t="shared" si="10"/>
-        <v>36598</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="15"/>
-        <v>543.95968078159001</v>
-      </c>
-      <c r="W58">
-        <v>4.1717421845783704</v>
-      </c>
-      <c r="X58">
-        <v>139.80582524271799</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M59" s="4">
-        <f>DATE(1999,11,15)+A49</f>
-        <v>36625.186298765824</v>
-      </c>
-      <c r="N59">
-        <v>1.2348618845955499</v>
-      </c>
-      <c r="P59" s="4">
-        <f>DATE(1999,11,15)+H36</f>
-        <v>36625.966476444577</v>
-      </c>
-      <c r="Q59">
-        <f>I36</f>
-        <v>384.46601941747502</v>
-      </c>
-      <c r="T59" s="4">
-        <f t="shared" si="14"/>
-        <v>36612.305784819044</v>
-      </c>
-      <c r="U59" s="4">
-        <f t="shared" si="10"/>
-        <v>36612</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="15"/>
-        <v>668.42386832794</v>
-      </c>
-      <c r="W59">
-        <v>3.4043602623838898</v>
-      </c>
-      <c r="X59">
-        <v>310.67961165048501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="P60" s="4">
-        <f>DATE(1999,11,15)+H38</f>
-        <v>36640.400825119199</v>
-      </c>
-      <c r="Q60">
-        <f>I38</f>
-        <v>438.83495145631002</v>
-      </c>
-      <c r="T60" s="4">
-        <f t="shared" si="14"/>
-        <v>36626.355711581811</v>
-      </c>
-      <c r="U60" s="4">
-        <f t="shared" si="10"/>
-        <v>36626</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="15"/>
-        <v>570.87408730173297</v>
-      </c>
-      <c r="W60">
-        <v>1.2348618845955499</v>
-      </c>
-      <c r="X60">
-        <v>384.46601941747502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T61" s="4">
-        <f t="shared" si="14"/>
-        <v>36641.178780018963</v>
-      </c>
-      <c r="U61" s="4">
-        <f t="shared" si="10"/>
-        <v>36641</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="15"/>
-        <v>565.84894313322502</v>
-      </c>
-      <c r="X61">
-        <v>438.83495145631002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05040F49-9781-4392-9EF3-B66AF4C7571D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10536" tabRatio="1000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
@@ -28,7 +29,7 @@
   <definedNames>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1045,7 +1046,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1180,7 +1181,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_obs" xfId="1"/>
+    <cellStyle name="Normal_obs" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1196,7 +1197,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1546,7 +1547,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-61C3-45C4-AC13-2BFFBD0F635C}"/>
             </c:ext>
@@ -1659,7 +1660,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-61C3-45C4-AC13-2BFFBD0F635C}"/>
             </c:ext>
@@ -1846,7 +1847,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2172,7 +2173,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1306-47EF-8F4A-B0EE79C3BE5E}"/>
             </c:ext>
@@ -2282,7 +2283,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1306-47EF-8F4A-B0EE79C3BE5E}"/>
             </c:ext>
@@ -3600,7 +3601,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,7 +3637,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,6 +3736,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3770,6 +3788,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3945,15 +3980,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10716" ySplit="576" topLeftCell="AP303" activePane="bottomRight"/>
+      <pane xSplit="10716" ySplit="576" topLeftCell="AI194" activePane="bottomRight"/>
       <selection activeCell="A16" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="CP1" sqref="CP1"/>
       <selection pane="bottomLeft" activeCell="A318" sqref="A318:XFD318"/>
-      <selection pane="bottomRight" activeCell="AR318" sqref="AR318:AR348"/>
+      <selection pane="bottomRight" activeCell="AK214" sqref="AK214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12812,8 +12847,12 @@
         <v>0.47</v>
       </c>
       <c r="AN192"/>
-    </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ192" s="9">
+        <f>SUM(AJ192:AN192)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>225</v>
       </c>
@@ -12853,8 +12892,12 @@
       <c r="AM193">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ193" s="9">
+        <f t="shared" ref="AQ193:AQ210" si="14">SUM(AJ193:AN193)</f>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>225</v>
       </c>
@@ -12894,8 +12937,12 @@
       <c r="AM194">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ194" s="9">
+        <f t="shared" si="14"/>
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>225</v>
       </c>
@@ -12935,8 +12982,12 @@
       <c r="AM195">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ195" s="9">
+        <f t="shared" si="14"/>
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -12976,8 +13027,12 @@
       <c r="AM196">
         <v>2.69</v>
       </c>
-    </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ196" s="9">
+        <f t="shared" si="14"/>
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>225</v>
       </c>
@@ -13029,8 +13084,12 @@
       <c r="AN197">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ197" s="9">
+        <f t="shared" si="14"/>
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>225</v>
       </c>
@@ -13082,8 +13141,12 @@
       <c r="AN198">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ198" s="9">
+        <f t="shared" si="14"/>
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -13135,8 +13198,12 @@
       <c r="AN199">
         <v>19.87</v>
       </c>
-    </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ199" s="9">
+        <f t="shared" si="14"/>
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>225</v>
       </c>
@@ -13188,8 +13255,12 @@
       <c r="AN200">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ200" s="9">
+        <f t="shared" si="14"/>
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>225</v>
       </c>
@@ -13231,8 +13302,9 @@
         <f>Z201/AA201</f>
         <v>0.55059870595796667</v>
       </c>
-    </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ201" s="9"/>
+    </row>
+    <row r="202" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -13246,8 +13318,9 @@
       </c>
       <c r="AA202" s="11"/>
       <c r="AB202" s="11"/>
-    </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ202" s="9"/>
+    </row>
+    <row r="203" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -13287,8 +13360,12 @@
       <c r="AM203">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ203" s="9">
+        <f t="shared" si="14"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -13328,8 +13405,12 @@
       <c r="AM204">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ204" s="9">
+        <f t="shared" si="14"/>
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -13369,8 +13450,12 @@
       <c r="AM205">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ205" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -13410,8 +13495,12 @@
       <c r="AM206">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ206" s="9">
+        <f t="shared" si="14"/>
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>226</v>
       </c>
@@ -13463,8 +13552,12 @@
       <c r="AN207">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ207" s="9">
+        <f t="shared" si="14"/>
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -13516,8 +13609,12 @@
       <c r="AN208">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ208" s="9">
+        <f t="shared" si="14"/>
+        <v>12.930000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>226</v>
       </c>
@@ -13569,8 +13666,12 @@
       <c r="AN209">
         <v>7.34</v>
       </c>
-    </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ209" s="9">
+        <f t="shared" si="14"/>
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -13622,8 +13723,12 @@
       <c r="AN210">
         <v>16.170000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ210" s="9">
+        <f t="shared" si="14"/>
+        <v>22.150000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -13655,7 +13760,7 @@
       </c>
       <c r="AB211" s="11"/>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -13698,7 +13803,7 @@
         <v>0.56851041457267004</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -13713,7 +13818,7 @@
       <c r="AA213" s="11"/>
       <c r="AB213" s="11"/>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>227</v>
       </c>
@@ -13753,8 +13858,12 @@
       <c r="AM214">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ214" s="9">
+        <f>SUM(AJ214:AN214)</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -13794,8 +13903,12 @@
       <c r="AM215">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ215" s="9">
+        <f t="shared" ref="AQ215:AQ232" si="15">SUM(AJ215:AN215)</f>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>227</v>
       </c>
@@ -13835,8 +13948,12 @@
       <c r="AM216">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ216" s="9">
+        <f t="shared" si="15"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>227</v>
       </c>
@@ -13867,8 +13984,12 @@
       <c r="AM217">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ217" s="9">
+        <f t="shared" si="15"/>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="218" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>227</v>
       </c>
@@ -13908,8 +14029,12 @@
       <c r="AM218">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ218" s="9">
+        <f t="shared" si="15"/>
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>227</v>
       </c>
@@ -13961,8 +14086,12 @@
       <c r="AN219">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ219" s="9">
+        <f t="shared" si="15"/>
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -14014,8 +14143,12 @@
       <c r="AN220">
         <v>8.07</v>
       </c>
-    </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ220" s="9">
+        <f t="shared" si="15"/>
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -14067,8 +14200,12 @@
       <c r="AN221">
         <v>13.73</v>
       </c>
-    </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ221" s="9">
+        <f t="shared" si="15"/>
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -14099,8 +14236,9 @@
         <v>859.78300000000002</v>
       </c>
       <c r="AB222" s="11"/>
-    </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ222" s="9"/>
+    </row>
+    <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>227</v>
       </c>
@@ -14142,8 +14280,9 @@
         <f>Z223/AA223</f>
         <v>0.58168937754546468</v>
       </c>
-    </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ223" s="9"/>
+    </row>
+    <row r="224" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -14157,6 +14296,7 @@
       </c>
       <c r="AA224" s="11"/>
       <c r="AB224" s="11"/>
+      <c r="AQ224" s="9"/>
     </row>
     <row r="225" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
@@ -14198,6 +14338,10 @@
       <c r="AM225">
         <v>0.12</v>
       </c>
+      <c r="AQ225" s="9">
+        <f t="shared" si="15"/>
+        <v>0.49</v>
+      </c>
     </row>
     <row r="226" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
@@ -14238,6 +14382,10 @@
       </c>
       <c r="AM226">
         <v>0.26</v>
+      </c>
+      <c r="AQ226" s="9">
+        <f t="shared" si="15"/>
+        <v>1.05</v>
       </c>
     </row>
     <row r="227" spans="1:45" x14ac:dyDescent="0.3">
@@ -14271,6 +14419,10 @@
       <c r="AM227">
         <v>1.1100000000000001</v>
       </c>
+      <c r="AQ227" s="9">
+        <f t="shared" si="15"/>
+        <v>3.6399999999999997</v>
+      </c>
     </row>
     <row r="228" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
@@ -14312,6 +14464,10 @@
       <c r="AM228">
         <v>2.25</v>
       </c>
+      <c r="AQ228" s="9">
+        <f t="shared" si="15"/>
+        <v>6.65</v>
+      </c>
     </row>
     <row r="229" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
@@ -14365,6 +14521,10 @@
       <c r="AN229">
         <v>0.06</v>
       </c>
+      <c r="AQ229" s="9">
+        <f t="shared" si="15"/>
+        <v>11.93</v>
+      </c>
     </row>
     <row r="230" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
@@ -14418,6 +14578,10 @@
       <c r="AN230">
         <v>2.27</v>
       </c>
+      <c r="AQ230" s="9">
+        <f t="shared" si="15"/>
+        <v>16.53</v>
+      </c>
     </row>
     <row r="231" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
@@ -14471,6 +14635,10 @@
       <c r="AN231">
         <v>7.03</v>
       </c>
+      <c r="AQ231" s="9">
+        <f t="shared" si="15"/>
+        <v>20.440000000000001</v>
+      </c>
     </row>
     <row r="232" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
@@ -14512,6 +14680,10 @@
       <c r="AN232">
         <v>15.98</v>
       </c>
+      <c r="AQ232" s="9">
+        <f t="shared" si="15"/>
+        <v>19.940000000000001</v>
+      </c>
     </row>
     <row r="233" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
@@ -14629,7 +14801,7 @@
         <v>298</v>
       </c>
       <c r="B237" s="4">
-        <f t="shared" ref="B237:B249" si="14">DATE(1988,1,5)+C237</f>
+        <f t="shared" ref="B237:B249" si="16">DATE(1988,1,5)+C237</f>
         <v>32179.521739130436</v>
       </c>
       <c r="C237" s="15">
@@ -14653,7 +14825,7 @@
         <v>298</v>
       </c>
       <c r="B238" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32190.478260869564</v>
       </c>
       <c r="C238" s="15">
@@ -14677,7 +14849,7 @@
         <v>298</v>
       </c>
       <c r="B239" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32200.391304347824</v>
       </c>
       <c r="C239" s="15">
@@ -14701,7 +14873,7 @@
         <v>298</v>
       </c>
       <c r="B240" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32212.391304347828</v>
       </c>
       <c r="C240" s="15">
@@ -14725,7 +14897,7 @@
         <v>298</v>
       </c>
       <c r="B241" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32227.521739130436</v>
       </c>
       <c r="C241" s="15">
@@ -14749,7 +14921,7 @@
         <v>298</v>
       </c>
       <c r="B242" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32237.434782608696</v>
       </c>
       <c r="C242" s="15">
@@ -14774,7 +14946,7 @@
         <v>299</v>
       </c>
       <c r="B243" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32169.434782608696</v>
       </c>
       <c r="C243" s="15">
@@ -14798,7 +14970,7 @@
         <v>299</v>
       </c>
       <c r="B244" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32179.521739130436</v>
       </c>
       <c r="C244" s="15">
@@ -14822,7 +14994,7 @@
         <v>299</v>
       </c>
       <c r="B245" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32190.652173913044</v>
       </c>
       <c r="C245" s="15">
@@ -14841,7 +15013,7 @@
         <v>299</v>
       </c>
       <c r="B246" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32200.391304347824</v>
       </c>
       <c r="C246" s="15">
@@ -14862,7 +15034,7 @@
         <v>299</v>
       </c>
       <c r="B247" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32212.391304347828</v>
       </c>
       <c r="C247" s="15">
@@ -14883,7 +15055,7 @@
         <v>299</v>
       </c>
       <c r="B248" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32227.347826086956</v>
       </c>
       <c r="C248" s="15">
@@ -14909,7 +15081,7 @@
         <v>299</v>
       </c>
       <c r="B249" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32231.17391304348</v>
       </c>
       <c r="C249" s="15">
@@ -14998,7 +15170,7 @@
         <v>308</v>
       </c>
       <c r="B253" s="10">
-        <f t="shared" ref="B253:B255" si="15">DATE(2003,12,9)+C253</f>
+        <f t="shared" ref="B253:B255" si="17">DATE(2003,12,9)+C253</f>
         <v>38021</v>
       </c>
       <c r="C253" s="22">
@@ -15022,7 +15194,7 @@
         <v>308</v>
       </c>
       <c r="B254" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38035</v>
       </c>
       <c r="C254" s="22">
@@ -15046,7 +15218,7 @@
         <v>308</v>
       </c>
       <c r="B255" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38092</v>
       </c>
       <c r="C255" s="22">
@@ -15072,7 +15244,7 @@
         <v>693.36866137444201</v>
       </c>
       <c r="AB255">
-        <f t="shared" ref="AB255:AB261" si="16">Z255/AA255</f>
+        <f t="shared" ref="AB255:AB261" si="18">Z255/AA255</f>
         <v>0.53074218738199908</v>
       </c>
     </row>
@@ -15103,7 +15275,7 @@
         <v>554</v>
       </c>
       <c r="AB256">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.50541516245487361</v>
       </c>
     </row>
@@ -15112,7 +15284,7 @@
         <v>304</v>
       </c>
       <c r="B257" s="4">
-        <f t="shared" ref="B257:B258" si="17">DATE(1980,4,1)+C257</f>
+        <f t="shared" ref="B257:B258" si="19">DATE(1980,4,1)+C257</f>
         <v>29393</v>
       </c>
       <c r="C257" s="15">
@@ -15130,7 +15302,7 @@
         <v>163</v>
       </c>
       <c r="AB257">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.39263803680981596</v>
       </c>
     </row>
@@ -15139,7 +15311,7 @@
         <v>303</v>
       </c>
       <c r="B258" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>29393</v>
       </c>
       <c r="C258" s="15">
@@ -15157,7 +15329,7 @@
         <v>329</v>
       </c>
       <c r="AB258">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.36474164133738601</v>
       </c>
     </row>
@@ -15185,7 +15357,7 @@
         <v>190</v>
       </c>
       <c r="AB259">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.58421052631578951</v>
       </c>
     </row>
@@ -15194,7 +15366,7 @@
         <v>306</v>
       </c>
       <c r="B260" s="4">
-        <f t="shared" ref="B260:B261" si="18">DATE(1979,4,10)+C260</f>
+        <f t="shared" ref="B260:B261" si="20">DATE(1979,4,10)+C260</f>
         <v>29042</v>
       </c>
       <c r="C260" s="15">
@@ -15210,7 +15382,7 @@
         <v>61</v>
       </c>
       <c r="AB260">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.54098360655737709</v>
       </c>
       <c r="AC260" s="21"/>
@@ -15220,7 +15392,7 @@
         <v>307</v>
       </c>
       <c r="B261" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29042</v>
       </c>
       <c r="C261" s="15">
@@ -15236,7 +15408,7 @@
         <v>136</v>
       </c>
       <c r="AB261">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56617647058823528</v>
       </c>
     </row>
@@ -15303,11 +15475,11 @@
         <v>223.9</v>
       </c>
       <c r="AE263">
-        <f t="shared" ref="AE263:AE317" si="19">AL263/T263</f>
+        <f t="shared" ref="AE263:AE317" si="21">AL263/T263</f>
         <v>5.918367346938775E-2</v>
       </c>
       <c r="AF263">
-        <f t="shared" ref="AF263:AF317" si="20">AM263/U263</f>
+        <f t="shared" ref="AF263:AF317" si="22">AM263/U263</f>
         <v>1.84E-2</v>
       </c>
       <c r="AL263">
@@ -15349,15 +15521,15 @@
         <v>458.3</v>
       </c>
       <c r="AE264">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6804733727810648E-2</v>
       </c>
       <c r="AF264">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.453287197231834E-2</v>
       </c>
       <c r="AG264">
-        <f t="shared" ref="AG264:AG317" si="21">AN264/V264</f>
+        <f t="shared" ref="AG264:AG317" si="23">AN264/V264</f>
         <v>0.04</v>
       </c>
       <c r="AL264">
@@ -15402,15 +15574,15 @@
         <v>785.8</v>
       </c>
       <c r="AE265">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0256410256410257E-2</v>
       </c>
       <c r="AF265">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7371937639198219E-2</v>
       </c>
       <c r="AG265">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.4951456310679613E-2</v>
       </c>
       <c r="AL265">
@@ -15455,15 +15627,15 @@
         <v>1008.2</v>
       </c>
       <c r="AE266">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3218884120171672E-2</v>
       </c>
       <c r="AF266">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.0206185567010312E-2</v>
       </c>
       <c r="AG266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.03448275862069E-2</v>
       </c>
       <c r="AL266">
@@ -15508,15 +15680,15 @@
         <v>1129</v>
       </c>
       <c r="AE267">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.6116504854368932E-2</v>
       </c>
       <c r="AF267">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5638766519823787E-2</v>
       </c>
       <c r="AG267">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.6055437100213224E-2</v>
       </c>
       <c r="AL267">
@@ -15583,23 +15755,23 @@
         <v>1144.7</v>
       </c>
       <c r="AE268">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.043478260869565E-2</v>
       </c>
       <c r="AF268">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1282051282051283E-2</v>
       </c>
       <c r="AG268">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9170437405731522E-2</v>
       </c>
       <c r="AH268">
-        <f t="shared" ref="AH268:AH317" si="22">AO268/W268</f>
+        <f t="shared" ref="AH268:AH317" si="24">AO268/W268</f>
         <v>2.1702127659574466E-2</v>
       </c>
       <c r="AI268">
-        <f t="shared" ref="AI268:AI317" si="23">AP268/Z268</f>
+        <f t="shared" ref="AI268:AI317" si="25">AP268/Z268</f>
         <v>6.4252336448598124E-2</v>
       </c>
       <c r="AL268">
@@ -15647,11 +15819,11 @@
         <v>127</v>
       </c>
       <c r="AE269">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0294117647058817E-2</v>
       </c>
       <c r="AF269">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3728813559322031E-2</v>
       </c>
       <c r="AL269">
@@ -15690,11 +15862,11 @@
         <v>302</v>
       </c>
       <c r="AE270">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0156250000000001E-2</v>
       </c>
       <c r="AF270">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9540229885057471E-2</v>
       </c>
       <c r="AL270">
@@ -15736,15 +15908,15 @@
         <v>574</v>
       </c>
       <c r="AE271">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9905660377358484E-2</v>
       </c>
       <c r="AF271">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8232044198895028E-2</v>
       </c>
       <c r="AG271">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="AL271">
@@ -15789,15 +15961,15 @@
         <v>962.7</v>
       </c>
       <c r="AE272">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7039711191335746E-2</v>
       </c>
       <c r="AF272">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7624521072796932E-2</v>
       </c>
       <c r="AG272">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.414634146341463E-2</v>
       </c>
       <c r="AL272">
@@ -15842,15 +16014,15 @@
         <v>1286.5999999999999</v>
       </c>
       <c r="AE273">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3608247422680409E-2</v>
       </c>
       <c r="AF273">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7152658662092625E-2</v>
       </c>
       <c r="AG273">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.8571428571428574E-2</v>
       </c>
       <c r="AL273">
@@ -15895,15 +16067,15 @@
         <v>1480.5</v>
       </c>
       <c r="AE274">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.4583333333333329E-2</v>
       </c>
       <c r="AF274">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3027522935779816E-2</v>
       </c>
       <c r="AG274">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.793103448275862E-2</v>
       </c>
       <c r="AL274">
@@ -15970,23 +16142,23 @@
         <v>1512.8</v>
       </c>
       <c r="AE275">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.1318681318681318E-2</v>
       </c>
       <c r="AF275">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1259541984732824E-2</v>
       </c>
       <c r="AG275">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5105328376703842E-2</v>
       </c>
       <c r="AH275">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8361581920903956E-2</v>
       </c>
       <c r="AI275">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.4238410596026488E-2</v>
       </c>
       <c r="AL275">
@@ -16034,11 +16206,11 @@
         <v>136.69999999999999</v>
       </c>
       <c r="AE276">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6944444444444436E-2</v>
       </c>
       <c r="AF276">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.4615384615384615E-2</v>
       </c>
       <c r="AL276">
@@ -16077,11 +16249,11 @@
         <v>275</v>
       </c>
       <c r="AE277">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9504132231404959E-2</v>
       </c>
       <c r="AF277">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8181818181818181E-2</v>
       </c>
       <c r="AL277">
@@ -16123,15 +16295,15 @@
         <v>524</v>
       </c>
       <c r="AE278">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7671957671957673E-2</v>
       </c>
       <c r="AF278">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5820895522388058E-2</v>
       </c>
       <c r="AG278">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.04</v>
       </c>
       <c r="AL278">
@@ -16176,15 +16348,15 @@
         <v>848.9</v>
       </c>
       <c r="AE279">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.903614457831325E-2</v>
       </c>
       <c r="AF279">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9008264462809916E-2</v>
       </c>
       <c r="AG279">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.5897435897435902E-2</v>
       </c>
       <c r="AL279">
@@ -16229,15 +16401,15 @@
         <v>1065.5</v>
       </c>
       <c r="AE280">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0446428571428573E-2</v>
       </c>
       <c r="AF280">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.0743639921722113E-2</v>
       </c>
       <c r="AG280">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.9607250755287012E-2</v>
       </c>
       <c r="AL280">
@@ -16282,15 +16454,15 @@
         <v>1167.5</v>
       </c>
       <c r="AE281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.4973544973544971E-2</v>
       </c>
       <c r="AF281">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7672413793103445E-2</v>
       </c>
       <c r="AG281">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.2023346303501949E-2</v>
       </c>
       <c r="AL281">
@@ -16357,23 +16529,23 @@
         <v>1165.9000000000001</v>
       </c>
       <c r="AE282">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.6760563380281689E-2</v>
       </c>
       <c r="AF282">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0126582278481013E-2</v>
       </c>
       <c r="AG282">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.7285714285714285E-2</v>
       </c>
       <c r="AH282">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.0542635658914728E-2</v>
       </c>
       <c r="AI282">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.2669683257918551E-2</v>
       </c>
       <c r="AL282">
@@ -16421,11 +16593,11 @@
         <v>124.9</v>
       </c>
       <c r="AE283">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="AF283">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.2033898305084745E-2</v>
       </c>
       <c r="AL283">
@@ -16464,11 +16636,11 @@
         <v>329.1</v>
       </c>
       <c r="AE284">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9574468085106386E-2</v>
       </c>
       <c r="AF284">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8085106382978722E-2</v>
       </c>
       <c r="AL284">
@@ -16510,15 +16682,15 @@
         <v>647.6</v>
       </c>
       <c r="AE285">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.8050847457627112E-2</v>
       </c>
       <c r="AF285">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7233009708737864E-2</v>
       </c>
       <c r="AG285">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="AL285">
@@ -16563,15 +16735,15 @@
         <v>1071.5</v>
       </c>
       <c r="AE286">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0130718954248361E-2</v>
       </c>
       <c r="AF286">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7109634551495018E-2</v>
       </c>
       <c r="AG286">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.4969325153374232E-2</v>
       </c>
       <c r="AL286">
@@ -16616,15 +16788,15 @@
         <v>1362.6</v>
       </c>
       <c r="AE287">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.2758620689655172E-2</v>
       </c>
       <c r="AF287">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.6693944353518821E-2</v>
       </c>
       <c r="AG287">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.7922077922077924E-2</v>
       </c>
       <c r="AL287">
@@ -16669,15 +16841,15 @@
         <v>1487.7</v>
       </c>
       <c r="AE288">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.1393442622950818E-2</v>
       </c>
       <c r="AF288">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3114754098360656E-2</v>
       </c>
       <c r="AG288">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.7697841726618705E-2</v>
       </c>
       <c r="AL288">
@@ -16744,23 +16916,23 @@
         <v>1497</v>
       </c>
       <c r="AE289">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.7567567567567567E-2</v>
       </c>
       <c r="AF289">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1068702290076336E-2</v>
       </c>
       <c r="AG289">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.4359949302915085E-2</v>
       </c>
       <c r="AH289">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.6374269005847951E-2</v>
       </c>
       <c r="AI289">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.4349775784753357E-2</v>
       </c>
       <c r="AL289">
@@ -16808,11 +16980,11 @@
         <v>147.19999999999999</v>
       </c>
       <c r="AE290">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AF290">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.6865671641791045E-2</v>
       </c>
       <c r="AL290">
@@ -16851,11 +17023,11 @@
         <v>285.8</v>
       </c>
       <c r="AE291">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="AF291">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.0496894409937887E-2</v>
       </c>
       <c r="AL291">
@@ -16897,15 +17069,15 @@
         <v>519.4</v>
       </c>
       <c r="AE292">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.5675675675675683E-2</v>
       </c>
       <c r="AF292">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4925373134328358E-2</v>
       </c>
       <c r="AG292">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.8095238095238099E-2</v>
       </c>
       <c r="AL292">
@@ -16950,15 +17122,15 @@
         <v>843.8</v>
       </c>
       <c r="AE293">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7851239669421489E-2</v>
       </c>
       <c r="AF293">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4784394250513347E-2</v>
       </c>
       <c r="AG293">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.3913043478260872E-2</v>
       </c>
       <c r="AL293">
@@ -17003,15 +17175,15 @@
         <v>1065</v>
       </c>
       <c r="AE294">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.1739130434782607E-2</v>
       </c>
       <c r="AF294">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.1305182341650672E-2</v>
       </c>
       <c r="AG294">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.8662420382165606E-2</v>
       </c>
       <c r="AL294">
@@ -17056,15 +17228,15 @@
         <v>1186.5</v>
       </c>
       <c r="AE295">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.228855721393035E-2</v>
       </c>
       <c r="AF295">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5789473684210527E-2</v>
       </c>
       <c r="AG295">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.2973523421588597E-2</v>
       </c>
       <c r="AL295">
@@ -17131,23 +17303,23 @@
         <v>1208.5</v>
       </c>
       <c r="AE296">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.9914529914529916E-2</v>
       </c>
       <c r="AF296">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0730593607305937E-2</v>
       </c>
       <c r="AG296">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.8929663608562692E-2</v>
       </c>
       <c r="AH296">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.1333333333333333E-2</v>
       </c>
       <c r="AI296">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.3403263403263396E-2</v>
       </c>
       <c r="AL296">
@@ -17195,11 +17367,11 @@
         <v>142.30000000000001</v>
       </c>
       <c r="AE297">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.133333333333333E-2</v>
       </c>
       <c r="AF297">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.5373134328358207E-2</v>
       </c>
       <c r="AL297">
@@ -17238,11 +17410,11 @@
         <v>335.8</v>
       </c>
       <c r="AE298">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="AF298">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9387755102040816E-2</v>
       </c>
       <c r="AL298">
@@ -17284,15 +17456,15 @@
         <v>628.6</v>
       </c>
       <c r="AE299">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7268722466960353E-2</v>
       </c>
       <c r="AF299">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AG299">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="AL299">
@@ -17337,15 +17509,15 @@
         <v>1024.7</v>
       </c>
       <c r="AE300">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7192982456140351E-2</v>
       </c>
       <c r="AF300">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7730496453900711E-2</v>
       </c>
       <c r="AG300">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.4090909090909088E-2</v>
       </c>
       <c r="AL300">
@@ -17390,15 +17562,15 @@
         <v>1333.8</v>
       </c>
       <c r="AE301">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.4063604240282691E-2</v>
       </c>
       <c r="AF301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7214397496087636E-2</v>
       </c>
       <c r="AG301">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.8883495145631068E-2</v>
       </c>
       <c r="AL301">
@@ -17443,15 +17615,15 @@
         <v>1499.8</v>
       </c>
       <c r="AE302">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.2975206611570248E-2</v>
       </c>
       <c r="AF302">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.348122866894198E-2</v>
       </c>
       <c r="AG302">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.8690476190476192E-2</v>
       </c>
       <c r="AL302">
@@ -17518,23 +17690,23 @@
         <v>1502.9</v>
       </c>
       <c r="AE303">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.8313253012048192E-2</v>
       </c>
       <c r="AF303">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1517367458866544E-2</v>
       </c>
       <c r="AG303">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5569620253164557E-2</v>
       </c>
       <c r="AH303">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.9705882352941177E-2</v>
       </c>
       <c r="AI303">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="AL303">
@@ -17582,11 +17754,11 @@
         <v>104</v>
       </c>
       <c r="AE304">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="AF304">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="AL304">
@@ -17625,11 +17797,11 @@
         <v>221.2</v>
       </c>
       <c r="AE305">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0204081632653061E-2</v>
       </c>
       <c r="AF305">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.935483870967742E-2</v>
       </c>
       <c r="AL305">
@@ -17671,15 +17843,15 @@
         <v>447.7</v>
       </c>
       <c r="AE306">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.4819277108433734E-2</v>
       </c>
       <c r="AF306">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.5602836879432626E-2</v>
       </c>
       <c r="AG306">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="AL306">
@@ -17724,15 +17896,15 @@
         <v>784.6</v>
       </c>
       <c r="AE307">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6502242152466367E-2</v>
       </c>
       <c r="AF307">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.6008771929824563E-2</v>
       </c>
       <c r="AG307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.5849056603773584E-2</v>
       </c>
       <c r="AL307">
@@ -17777,15 +17949,15 @@
         <v>979</v>
       </c>
       <c r="AE308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0970873786407765E-2</v>
       </c>
       <c r="AF308">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7073170731707318E-2</v>
       </c>
       <c r="AG308">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.8260869565217391E-2</v>
       </c>
       <c r="AL308">
@@ -17830,15 +18002,15 @@
         <v>1072.5999999999999</v>
       </c>
       <c r="AE309">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.2245989304812839E-2</v>
       </c>
       <c r="AF309">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4939759036144579E-2</v>
       </c>
       <c r="AG309">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5647558386411886E-2</v>
       </c>
       <c r="AL309">
@@ -17905,23 +18077,23 @@
         <v>1078.0999999999999</v>
       </c>
       <c r="AE310">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="AF310">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.7826086956521747E-3</v>
       </c>
       <c r="AG310">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9047619047619048E-2</v>
       </c>
       <c r="AH310">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.4774774774774775E-2</v>
       </c>
       <c r="AI310">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.2254901960784308E-2</v>
       </c>
       <c r="AL310">
@@ -17969,11 +18141,11 @@
         <v>148.5</v>
       </c>
       <c r="AE311">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.2025316455696207E-2</v>
       </c>
       <c r="AF311">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.4285714285714285E-2</v>
       </c>
       <c r="AL311">
@@ -18012,11 +18184,11 @@
         <v>338</v>
       </c>
       <c r="AE312">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9574468085106386E-2</v>
       </c>
       <c r="AF312">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.979695431472081E-2</v>
       </c>
       <c r="AL312">
@@ -18058,15 +18230,15 @@
         <v>630.1</v>
       </c>
       <c r="AE313">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9909909909909916E-2</v>
       </c>
       <c r="AF313">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7662337662337661E-2</v>
       </c>
       <c r="AG313">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.4782608695652174E-2</v>
       </c>
       <c r="AL313">
@@ -18111,15 +18283,15 @@
         <v>945.5</v>
       </c>
       <c r="AE314">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9003831417624525E-2</v>
       </c>
       <c r="AF314">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7391304347826087E-2</v>
       </c>
       <c r="AG314">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.5195530726256981E-2</v>
       </c>
       <c r="AL314">
@@ -18164,15 +18336,15 @@
         <v>1196.5999999999999</v>
       </c>
       <c r="AE315">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3600000000000002E-2</v>
       </c>
       <c r="AF315">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.645101663585952E-2</v>
       </c>
       <c r="AG315">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.8817733990147781E-2</v>
       </c>
       <c r="AL315">
@@ -18217,15 +18389,15 @@
         <v>1342.6</v>
       </c>
       <c r="AE316">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3203883495145631E-2</v>
       </c>
       <c r="AF316">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1350293542074364E-2</v>
       </c>
       <c r="AG316">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.7220447284345051E-2</v>
       </c>
       <c r="AL316">
@@ -18292,23 +18464,23 @@
         <v>1349.9</v>
       </c>
       <c r="AE317">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.1360946745562127E-2</v>
       </c>
       <c r="AF317">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0660980810234541E-2</v>
       </c>
       <c r="AG317">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.396067415730337E-2</v>
       </c>
       <c r="AH317">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.6842105263157894E-2</v>
       </c>
       <c r="AI317">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.323185011709602E-2</v>
       </c>
       <c r="AL317">
@@ -18776,7 +18948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:X61"/>
   <sheetViews>
     <sheetView topLeftCell="K6" workbookViewId="0">
@@ -21521,7 +21693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22206,7 +22378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:CI261"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -35781,7 +35953,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CH261">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CH261">
     <sortCondition ref="A2:A261"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35790,7 +35962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36421,7 +36593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38171,7 +38343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47988,7 +48160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -49474,7 +49646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -61312,7 +61484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -61891,7 +62063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR46"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -65002,7 +65174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">

--- a/Prototypes/Soybean/Observed.xlsx
+++ b/Prototypes/Soybean/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C196BE9-D6A8-4878-BB20-0E77E0317A4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174D756-072A-4FA7-BF66-432F53BE0196}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="434">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1044,6 +1044,306 @@
   </si>
   <si>
     <t>Soybean.Grain.FWt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvFiskebyV</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvF148_7</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvDjakal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvBowyer</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvBunya</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvCowrie</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvSoya791</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvManark</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvWarrigal</t>
+  </si>
+  <si>
+    <t>Leeton2006SowNov27CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec04CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec11CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec18CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowDec24CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan02CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan09CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan16CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan22CvLeichhardt</t>
+  </si>
+  <si>
+    <t>Leeton2006SowJan29CvLeichhardt</t>
   </si>
 </sst>
 </file>
@@ -3984,14 +4284,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CP348"/>
+  <dimension ref="A1:CP448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10716" ySplit="576" topLeftCell="Z73" activePane="bottomRight"/>
+      <pane xSplit="10716" ySplit="576" topLeftCell="A331" activePane="bottomRight"/>
       <selection activeCell="A16" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
-      <selection pane="bottomRight" activeCell="Z79" sqref="Z79:Z114"/>
+      <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
+      <selection pane="bottomRight" activeCell="H349" sqref="H349:H411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19125,6 +19425,1280 @@
       </c>
       <c r="CP348" s="12">
         <v>3.88</v>
+      </c>
+    </row>
+    <row r="349" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A349" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G349">
+        <v>34</v>
+      </c>
+      <c r="H349">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="350" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>335</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G350">
+        <v>28</v>
+      </c>
+      <c r="H350">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="351" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>336</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G351">
+        <v>30</v>
+      </c>
+      <c r="H351">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="352" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>337</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G352">
+        <v>30</v>
+      </c>
+      <c r="H352">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>338</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G353">
+        <v>28</v>
+      </c>
+      <c r="H353">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>339</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G354">
+        <v>30</v>
+      </c>
+      <c r="H354">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>340</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G355">
+        <v>28</v>
+      </c>
+      <c r="H355">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>341</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G356">
+        <v>27</v>
+      </c>
+      <c r="H356">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>342</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G357">
+        <v>28</v>
+      </c>
+      <c r="H357">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>343</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G358">
+        <v>25</v>
+      </c>
+      <c r="H358">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>344</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G359">
+        <v>36</v>
+      </c>
+      <c r="H359">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>345</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G360">
+        <v>36</v>
+      </c>
+      <c r="H360">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>346</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G361">
+        <v>34</v>
+      </c>
+      <c r="H361">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>347</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G362">
+        <v>35</v>
+      </c>
+      <c r="H362">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>348</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G363">
+        <v>31</v>
+      </c>
+      <c r="H363">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>349</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G364">
+        <v>33</v>
+      </c>
+      <c r="H364">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>350</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G365">
+        <v>30</v>
+      </c>
+      <c r="H365">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>351</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G366">
+        <v>30</v>
+      </c>
+      <c r="H366">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>352</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G367">
+        <v>30</v>
+      </c>
+      <c r="H367">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>353</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G368">
+        <v>27</v>
+      </c>
+      <c r="H368">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>354</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G369">
+        <v>43</v>
+      </c>
+      <c r="H369">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>355</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G370">
+        <v>42</v>
+      </c>
+      <c r="H370">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>356</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G371">
+        <v>39</v>
+      </c>
+      <c r="H371">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>357</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G372">
+        <v>39</v>
+      </c>
+      <c r="H372">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>358</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G373">
+        <v>37</v>
+      </c>
+      <c r="H373">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>359</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G374">
+        <v>37</v>
+      </c>
+      <c r="H374">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>360</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G375">
+        <v>36</v>
+      </c>
+      <c r="H375">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>361</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G376">
+        <v>35</v>
+      </c>
+      <c r="H376">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>362</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G377">
+        <v>33</v>
+      </c>
+      <c r="H377">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>363</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G378">
+        <v>33</v>
+      </c>
+      <c r="H378">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>364</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G379">
+        <v>48</v>
+      </c>
+      <c r="H379">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>365</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G380">
+        <v>45</v>
+      </c>
+      <c r="H380">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>366</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G381">
+        <v>46</v>
+      </c>
+      <c r="H381">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>367</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G382">
+        <v>41</v>
+      </c>
+      <c r="H382">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>368</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G383">
+        <v>43</v>
+      </c>
+      <c r="H383">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>369</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G384">
+        <v>40</v>
+      </c>
+      <c r="H384">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>370</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G385">
+        <v>36</v>
+      </c>
+      <c r="H385">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>371</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G386">
+        <v>38</v>
+      </c>
+      <c r="H386">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>372</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G387">
+        <v>34</v>
+      </c>
+      <c r="H387">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>373</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G388">
+        <v>32</v>
+      </c>
+      <c r="H388">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>374</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G389">
+        <v>56</v>
+      </c>
+      <c r="H389">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>375</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G390">
+        <v>56</v>
+      </c>
+      <c r="H390">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>376</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G391">
+        <v>53</v>
+      </c>
+      <c r="H391">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>377</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G392">
+        <v>53</v>
+      </c>
+      <c r="H392">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>378</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G393">
+        <v>51</v>
+      </c>
+      <c r="H393">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>379</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G394">
+        <v>49</v>
+      </c>
+      <c r="H394">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>380</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G395">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>381</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G396">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>382</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G397">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>383</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G398">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>384</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G399">
+        <v>62</v>
+      </c>
+      <c r="H399">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>385</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G400">
+        <v>60</v>
+      </c>
+      <c r="H400">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>386</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G401">
+        <v>59</v>
+      </c>
+      <c r="H401">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>387</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G402">
+        <v>55</v>
+      </c>
+      <c r="H402">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>388</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G403">
+        <v>55</v>
+      </c>
+      <c r="H403">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>389</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G404">
+        <v>50</v>
+      </c>
+      <c r="H404">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>390</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G405">
+        <v>46</v>
+      </c>
+      <c r="H405">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>391</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G406">
+        <v>45</v>
+      </c>
+      <c r="H406">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>392</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G407">
+        <v>42</v>
+      </c>
+      <c r="H407">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>393</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G408">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>394</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G409">
+        <v>74</v>
+      </c>
+      <c r="H409">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>395</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G410">
+        <v>73</v>
+      </c>
+      <c r="H410">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>396</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G411">
+        <v>70</v>
+      </c>
+      <c r="H411">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>397</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G412">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>398</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G413">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>399</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G414">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>400</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G415">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>401</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G416">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>402</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G417">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>403</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G418">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>404</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G419">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>405</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G420">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>406</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G421">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>407</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G422">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>408</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G423">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>409</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G424">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>410</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G425">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>411</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G426">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>412</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G427">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>413</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G428">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>414</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G429">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>415</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G430">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>416</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G431">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>417</v>
+      </c>
+      <c r="D432" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G432">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>418</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G433">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>419</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G434">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>420</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G435">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>421</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G436">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>422</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G437">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>423</v>
+      </c>
+      <c r="D438" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G438">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>424</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G439">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>425</v>
+      </c>
+      <c r="D440" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G440">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>426</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G441">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>427</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G442">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>428</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G443">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>429</v>
+      </c>
+      <c r="D444" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G444">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>430</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G445">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>431</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G446">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>432</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G447">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>433</v>
+      </c>
+      <c r="D448" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G448">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
